--- a/testcase_account_ver5.xlsx
+++ b/testcase_account_ver5.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7C31F-C8E2-41F6-9B7C-7887F96E5AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB947D1-C794-4D95-B792-D3B062EEE8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
     <sheet name="結合テスト" sheetId="168" r:id="rId2"/>
+    <sheet name="総合テスト" sheetId="169" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="800">
   <si>
     <t>作成者</t>
   </si>
@@ -13307,6 +13308,466 @@
     </rPh>
     <rPh sb="162" eb="164">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクされた「アカウント一覧」の文字を押す。</t>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント検索
+（管理者権限でログイン状態）</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別の欄があり、「選択なし」「男」「女」がラジオボタンで選択できるようになる。初期値は「選択なし」。</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限の欄があり、「選択なし」「一般」「管理者」がプルダウンで選択できるようになる。初期値は「選択なし」。</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）の欄があり、初期値が空欄のテキストボックスが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）の欄があり、初期値が空欄のテキストボックスが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）の欄があり、初期値が空欄のテキストボックスが表示される。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）の欄があり、初期値が空欄のテキストボックスが表示される。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄があり、初期値が空欄のテキストボックスが表示される。</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索実行画面</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサクジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）のテキストボックスに文字を入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）のテキストボックスに文字を入力する。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）のテキストボックスに文字を入力する。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）のテキストボックスに文字を入力する。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスのテキストボックスに文字を入力する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別の「選択なし」「男」「女」のラジオボタンのうちいずれかを選択する。</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限の「選択なし」「一般」「管理者」のプルダウンのうちいずれかを選択する。</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索実行結果</t>
+    <rPh sb="0" eb="6">
+      <t>ケンサクジッコウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別のラジオボタンで選択された内容について
+「男」か「女」が選択されているかつ一致するアカウントデータがあるかどうかを判断。
+ある場合はそのアカウントデータを見出しの下に表示させる。
+「選択なし」の場合は検索の対象外とする。</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限のプルダウンで選択された内容について
+「一般」か「管理者」が選択されているかつ、一致するアカウントデータがあるかどうかを判断。
+ある場合はそのアカウントデータを見出しの下に表示させる。
+「選択なし」の場合は検索の対象外とする。</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）のテキストボックスに入力された文字について
+入力されているかつ、その文字を含むアカウントデータがあるかどうかを判断。ある場合はそのアカウントデータを見出しの下に表示させる。
+入力されていない場合は検索の対象外とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）テキストボックスに入力された文字について
+入力されているかつ、その文字を含むアカウントデータがあるかどうかを判断。ある場合はそのアカウントデータを見出しの下に表示させる。
+入力されていない場合は検索の対象外とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）テキストボックスに入力された文字について
+入力されているかつ、その文字を含むアカウントデータがあるかどうかを判断。ある場合はそのアカウントデータを見出しの下に表示させる。
+入力されていない場合は検索の対象外とする。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）のテキストボックスに入力された文字について
+入力されているかつ、その文字を含むアカウントデータがあるかどうかを判断。ある場合はそのアカウントデータを見出しの下に表示させる。
+入力されていない場合は検索の対象外とする。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスのテキストボックスに入力された文字について
+入力されているかつ、その文字を含むアカウントデータがあるかどうかを判断。ある場合はそのアカウントデータを見出しの下に表示させる。
+入力されていない場合は検索の対象外とする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総合テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -13381,7 +13842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -13664,13 +14125,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13978,9 +14448,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13993,7 +14460,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14026,23 +14508,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14056,6 +14523,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14065,7 +14541,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14420,8 +14912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView showGridLines="0" topLeftCell="A237" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:L260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -14441,12 +14933,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -14469,10 +14961,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -14786,7 +15278,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="110" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -14816,7 +15308,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="108"/>
+      <c r="G13" s="111"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -14844,7 +15336,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="108"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -14872,7 +15364,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="108"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -14900,7 +15392,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="108"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -14928,7 +15420,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="108"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -14956,7 +15448,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="108"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -14984,7 +15476,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="108"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -15012,7 +15504,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="108"/>
+      <c r="G20" s="111"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -15040,7 +15532,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="108"/>
+      <c r="G21" s="111"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -15068,7 +15560,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="108"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -15096,7 +15588,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="104"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -15554,7 +16046,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="105" t="s">
+      <c r="G38" s="104" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -15584,7 +16076,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="106"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -15612,7 +16104,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="106"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -15640,7 +16132,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="106"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -15668,7 +16160,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -15820,7 +16312,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="105" t="s">
+      <c r="G47" s="104" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -15850,7 +16342,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="107"/>
+      <c r="G48" s="106"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -16131,7 +16623,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="103" t="s">
+      <c r="F57" s="110" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -16163,7 +16655,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="108"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -16190,10 +16682,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="113" t="s">
+      <c r="E59" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="108"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -16218,8 +16710,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="114"/>
-      <c r="F60" s="108"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="111"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -16244,8 +16736,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="114"/>
-      <c r="F61" s="108"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -16270,8 +16762,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="108"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="111"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -16296,8 +16788,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="114"/>
-      <c r="F63" s="108"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -16322,8 +16814,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="108"/>
+      <c r="E64" s="118"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -16348,8 +16840,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="108"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -16374,8 +16866,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="108"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="111"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -16400,8 +16892,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="114"/>
-      <c r="F67" s="108"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="111"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -16426,8 +16918,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="114"/>
-      <c r="F68" s="108"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="111"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -16452,8 +16944,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="114"/>
-      <c r="F69" s="108"/>
+      <c r="E69" s="118"/>
+      <c r="F69" s="111"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -16478,8 +16970,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="114"/>
-      <c r="F70" s="108"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -16504,8 +16996,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="115"/>
-      <c r="F71" s="104"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="112"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -16566,10 +17058,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="116" t="s">
+      <c r="E73" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="105" t="s">
+      <c r="F73" s="104" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -16596,8 +17088,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="117"/>
-      <c r="F74" s="106"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="105"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -16622,8 +17114,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="117"/>
-      <c r="F75" s="106"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -16648,8 +17140,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="117"/>
-      <c r="F76" s="106"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -16674,8 +17166,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="117"/>
-      <c r="F77" s="106"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="105"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -16700,8 +17192,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="117"/>
-      <c r="F78" s="106"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="105"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -16726,8 +17218,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="117"/>
-      <c r="F79" s="106"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="105"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -16752,8 +17244,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="117"/>
-      <c r="F80" s="106"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="105"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -16778,8 +17270,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="117"/>
-      <c r="F81" s="106"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="105"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -16804,8 +17296,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="117"/>
-      <c r="F82" s="106"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="105"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -16830,8 +17322,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="117"/>
-      <c r="F83" s="106"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="105"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -16856,8 +17348,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="107"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="106"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -16950,10 +17442,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="116" t="s">
+      <c r="E87" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="105" t="s">
+      <c r="F87" s="104" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -16980,8 +17472,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="117"/>
-      <c r="F88" s="106"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="105"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -17006,8 +17498,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="117"/>
-      <c r="F89" s="106"/>
+      <c r="E89" s="121"/>
+      <c r="F89" s="105"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -17032,8 +17524,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="118"/>
-      <c r="F90" s="107"/>
+      <c r="E90" s="122"/>
+      <c r="F90" s="106"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -17062,10 +17554,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="116" t="s">
+      <c r="E91" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="103" t="s">
+      <c r="F91" s="110" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -17094,8 +17586,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="117"/>
-      <c r="F92" s="108"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="111"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -17120,8 +17612,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="118"/>
-      <c r="F93" s="108"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="111"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -17153,7 +17645,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="108"/>
+      <c r="F94" s="111"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -17181,7 +17673,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="104"/>
+      <c r="F95" s="112"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -17276,10 +17768,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="116" t="s">
+      <c r="E98" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="105" t="s">
+      <c r="F98" s="104" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -17306,8 +17798,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="117"/>
-      <c r="F99" s="106"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="105"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -17332,8 +17824,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="117"/>
-      <c r="F100" s="106"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="105"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -17358,8 +17850,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="117"/>
-      <c r="F101" s="106"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="105"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -17384,8 +17876,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="117"/>
-      <c r="F102" s="106"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="105"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -17410,8 +17902,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="117"/>
-      <c r="F103" s="106"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="105"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -17436,8 +17928,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="117"/>
-      <c r="F104" s="106"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="105"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -17462,8 +17954,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="117"/>
-      <c r="F105" s="106"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="105"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -17488,8 +17980,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="117"/>
-      <c r="F106" s="106"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="105"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -17514,8 +18006,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="117"/>
-      <c r="F107" s="106"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="105"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -17540,8 +18032,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="117"/>
-      <c r="F108" s="106"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="105"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -17566,8 +18058,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="118"/>
-      <c r="F109" s="107"/>
+      <c r="E109" s="122"/>
+      <c r="F109" s="106"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -17664,7 +18156,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="G112" s="110" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -17694,7 +18186,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="108"/>
+      <c r="G113" s="111"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -17722,7 +18214,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="108"/>
+      <c r="G114" s="111"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -17750,7 +18242,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="108"/>
+      <c r="G115" s="111"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -17778,7 +18270,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="108"/>
+      <c r="G116" s="111"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -17806,7 +18298,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="108"/>
+      <c r="G117" s="111"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -17836,7 +18328,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="108"/>
+      <c r="G118" s="111"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -17864,7 +18356,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="108"/>
+      <c r="G119" s="111"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -17892,7 +18384,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="108"/>
+      <c r="G120" s="111"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -17920,7 +18412,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="108"/>
+      <c r="G121" s="111"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -17948,7 +18440,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="108"/>
+      <c r="G122" s="111"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -17976,7 +18468,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="104"/>
+      <c r="G123" s="112"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -18309,7 +18801,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="105" t="s">
+      <c r="F134" s="104" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -18339,7 +18831,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="106"/>
+      <c r="F135" s="105"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -18367,7 +18859,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="106"/>
+      <c r="F136" s="105"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -18395,7 +18887,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="106"/>
+      <c r="F137" s="105"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -18423,7 +18915,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="106"/>
+      <c r="F138" s="105"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -18451,7 +18943,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="106"/>
+      <c r="F139" s="105"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -18479,7 +18971,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="106"/>
+      <c r="F140" s="105"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -18509,7 +19001,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="106"/>
+      <c r="F141" s="105"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -18537,7 +19029,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="106"/>
+      <c r="F142" s="105"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -18565,7 +19057,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="106"/>
+      <c r="F143" s="105"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -18593,7 +19085,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="106"/>
+      <c r="F144" s="105"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -18621,7 +19113,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="106"/>
+      <c r="F145" s="105"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -18649,7 +19141,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="106"/>
+      <c r="F146" s="105"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -18677,7 +19169,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="106"/>
+      <c r="F147" s="105"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -18705,7 +19197,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="107"/>
+      <c r="F148" s="106"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -18737,7 +19229,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="105" t="s">
+      <c r="F149" s="104" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -18767,7 +19259,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="106"/>
+      <c r="F150" s="105"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -18795,7 +19287,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="107"/>
+      <c r="F151" s="106"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -18824,13 +19316,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="119" t="s">
+      <c r="E152" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="105" t="s">
+      <c r="F152" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="103" t="s">
+      <c r="G152" s="110" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -18854,9 +19346,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="120"/>
-      <c r="F153" s="106"/>
-      <c r="G153" s="108"/>
+      <c r="E153" s="108"/>
+      <c r="F153" s="105"/>
+      <c r="G153" s="111"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -18878,9 +19370,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="120"/>
-      <c r="F154" s="106"/>
-      <c r="G154" s="108"/>
+      <c r="E154" s="108"/>
+      <c r="F154" s="105"/>
+      <c r="G154" s="111"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -18902,9 +19394,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="120"/>
-      <c r="F155" s="106"/>
-      <c r="G155" s="108"/>
+      <c r="E155" s="108"/>
+      <c r="F155" s="105"/>
+      <c r="G155" s="111"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -18926,9 +19418,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="120"/>
-      <c r="F156" s="106"/>
-      <c r="G156" s="108"/>
+      <c r="E156" s="108"/>
+      <c r="F156" s="105"/>
+      <c r="G156" s="111"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -18950,9 +19442,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="120"/>
-      <c r="F157" s="106"/>
-      <c r="G157" s="108"/>
+      <c r="E157" s="108"/>
+      <c r="F157" s="105"/>
+      <c r="G157" s="111"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -18976,9 +19468,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="120"/>
-      <c r="F158" s="106"/>
-      <c r="G158" s="108"/>
+      <c r="E158" s="108"/>
+      <c r="F158" s="105"/>
+      <c r="G158" s="111"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -19000,9 +19492,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="120"/>
-      <c r="F159" s="106"/>
-      <c r="G159" s="108"/>
+      <c r="E159" s="108"/>
+      <c r="F159" s="105"/>
+      <c r="G159" s="111"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -19024,9 +19516,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="120"/>
-      <c r="F160" s="106"/>
-      <c r="G160" s="108"/>
+      <c r="E160" s="108"/>
+      <c r="F160" s="105"/>
+      <c r="G160" s="111"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -19048,9 +19540,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="120"/>
-      <c r="F161" s="106"/>
-      <c r="G161" s="108"/>
+      <c r="E161" s="108"/>
+      <c r="F161" s="105"/>
+      <c r="G161" s="111"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -19072,9 +19564,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="120"/>
-      <c r="F162" s="106"/>
-      <c r="G162" s="108"/>
+      <c r="E162" s="108"/>
+      <c r="F162" s="105"/>
+      <c r="G162" s="111"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -19096,9 +19588,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="120"/>
-      <c r="F163" s="106"/>
-      <c r="G163" s="104"/>
+      <c r="E163" s="108"/>
+      <c r="F163" s="105"/>
+      <c r="G163" s="112"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -19120,8 +19612,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="120"/>
-      <c r="F164" s="106"/>
+      <c r="E164" s="108"/>
+      <c r="F164" s="105"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -19146,8 +19638,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="121"/>
-      <c r="F165" s="107"/>
+      <c r="E165" s="109"/>
+      <c r="F165" s="106"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -19248,7 +19740,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="103" t="s">
+      <c r="G168" s="110" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="68">
@@ -19278,7 +19770,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="104"/>
+      <c r="G169" s="112"/>
       <c r="H169" s="68">
         <v>44480</v>
       </c>
@@ -19408,7 +19900,7 @@
       <c r="F173" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="G173" s="105" t="s">
+      <c r="G173" s="104" t="s">
         <v>599</v>
       </c>
       <c r="H173" s="68">
@@ -19438,7 +19930,7 @@
       <c r="F174" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G174" s="106"/>
+      <c r="G174" s="105"/>
       <c r="H174" s="68">
         <v>44480</v>
       </c>
@@ -19466,7 +19958,7 @@
       <c r="F175" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="106"/>
+      <c r="G175" s="105"/>
       <c r="H175" s="68">
         <v>44480</v>
       </c>
@@ -19494,7 +19986,7 @@
       <c r="F176" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="106"/>
+      <c r="G176" s="105"/>
       <c r="H176" s="68">
         <v>44480</v>
       </c>
@@ -19522,7 +20014,7 @@
       <c r="F177" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G177" s="106"/>
+      <c r="G177" s="105"/>
       <c r="H177" s="68">
         <v>44480</v>
       </c>
@@ -19550,7 +20042,7 @@
       <c r="F178" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G178" s="106"/>
+      <c r="G178" s="105"/>
       <c r="H178" s="68">
         <v>44480</v>
       </c>
@@ -19578,7 +20070,7 @@
       <c r="F179" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G179" s="106"/>
+      <c r="G179" s="105"/>
       <c r="H179" s="68">
         <v>44480</v>
       </c>
@@ -19606,7 +20098,7 @@
       <c r="F180" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="106"/>
+      <c r="G180" s="105"/>
       <c r="H180" s="68">
         <v>44480</v>
       </c>
@@ -19634,7 +20126,7 @@
       <c r="F181" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="106"/>
+      <c r="G181" s="105"/>
       <c r="H181" s="68">
         <v>44480</v>
       </c>
@@ -19662,7 +20154,7 @@
       <c r="F182" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="106"/>
+      <c r="G182" s="105"/>
       <c r="H182" s="68">
         <v>44480</v>
       </c>
@@ -19690,7 +20182,7 @@
       <c r="F183" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G183" s="107"/>
+      <c r="G183" s="106"/>
       <c r="H183" s="68">
         <v>44480</v>
       </c>
@@ -19750,7 +20242,7 @@
       <c r="F185" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="G185" s="103" t="s">
+      <c r="G185" s="110" t="s">
         <v>601</v>
       </c>
       <c r="H185" s="68">
@@ -19780,7 +20272,7 @@
       <c r="F186" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="108"/>
+      <c r="G186" s="111"/>
       <c r="H186" s="68">
         <v>44480</v>
       </c>
@@ -19808,7 +20300,7 @@
       <c r="F187" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="G187" s="108"/>
+      <c r="G187" s="111"/>
       <c r="H187" s="68">
         <v>44480</v>
       </c>
@@ -19836,7 +20328,7 @@
       <c r="F188" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="G188" s="108"/>
+      <c r="G188" s="111"/>
       <c r="H188" s="68">
         <v>44480</v>
       </c>
@@ -19864,7 +20356,7 @@
       <c r="F189" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="108"/>
+      <c r="G189" s="111"/>
       <c r="H189" s="68">
         <v>44480</v>
       </c>
@@ -19892,7 +20384,7 @@
       <c r="F190" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G190" s="108"/>
+      <c r="G190" s="111"/>
       <c r="H190" s="68">
         <v>44480</v>
       </c>
@@ -19920,7 +20412,7 @@
       <c r="F191" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="G191" s="108"/>
+      <c r="G191" s="111"/>
       <c r="H191" s="68">
         <v>44480</v>
       </c>
@@ -19948,7 +20440,7 @@
       <c r="F192" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="G192" s="108"/>
+      <c r="G192" s="111"/>
       <c r="H192" s="68">
         <v>44480</v>
       </c>
@@ -19976,7 +20468,7 @@
       <c r="F193" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G193" s="108"/>
+      <c r="G193" s="111"/>
       <c r="H193" s="68">
         <v>44480</v>
       </c>
@@ -20004,7 +20496,7 @@
       <c r="F194" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G194" s="104"/>
+      <c r="G194" s="112"/>
       <c r="H194" s="68">
         <v>44480</v>
       </c>
@@ -20432,7 +20924,7 @@
       <c r="F208" s="99" t="s">
         <v>593</v>
       </c>
-      <c r="G208" s="103" t="s">
+      <c r="G208" s="110" t="s">
         <v>604</v>
       </c>
       <c r="H208" s="68">
@@ -20462,7 +20954,7 @@
       <c r="F209" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="G209" s="104"/>
+      <c r="G209" s="112"/>
       <c r="H209" s="68">
         <v>44480</v>
       </c>
@@ -20522,7 +21014,7 @@
       <c r="F211" s="99" t="s">
         <v>596</v>
       </c>
-      <c r="G211" s="103" t="s">
+      <c r="G211" s="110" t="s">
         <v>607</v>
       </c>
       <c r="H211" s="68">
@@ -20552,7 +21044,7 @@
       <c r="F212" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="G212" s="104"/>
+      <c r="G212" s="112"/>
       <c r="H212" s="68">
         <v>44480</v>
       </c>
@@ -20608,19 +21100,25 @@
       <c r="D214" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="119" t="s">
+      <c r="E214" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="105" t="s">
+      <c r="F214" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="G214" s="103" t="s">
+      <c r="G214" s="110" t="s">
         <v>757</v>
       </c>
-      <c r="H214" s="68"/>
-      <c r="I214" s="12"/>
+      <c r="H214" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I214" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J214" s="30"/>
-      <c r="K214" s="39"/>
+      <c r="K214" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L214" s="11"/>
     </row>
     <row r="215" spans="1:12" ht="15">
@@ -20632,13 +21130,19 @@
       <c r="D215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E215" s="120"/>
-      <c r="F215" s="106"/>
-      <c r="G215" s="108"/>
-      <c r="H215" s="68"/>
-      <c r="I215" s="12"/>
+      <c r="E215" s="108"/>
+      <c r="F215" s="105"/>
+      <c r="G215" s="111"/>
+      <c r="H215" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I215" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J215" s="30"/>
-      <c r="K215" s="39"/>
+      <c r="K215" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L215" s="11"/>
     </row>
     <row r="216" spans="1:12" ht="15">
@@ -20650,13 +21154,19 @@
       <c r="D216" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="120"/>
-      <c r="F216" s="106"/>
-      <c r="G216" s="108"/>
-      <c r="H216" s="68"/>
-      <c r="I216" s="12"/>
+      <c r="E216" s="108"/>
+      <c r="F216" s="105"/>
+      <c r="G216" s="111"/>
+      <c r="H216" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I216" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J216" s="30"/>
-      <c r="K216" s="39"/>
+      <c r="K216" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L216" s="11"/>
     </row>
     <row r="217" spans="1:12" ht="15">
@@ -20668,13 +21178,19 @@
       <c r="D217" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E217" s="120"/>
-      <c r="F217" s="106"/>
-      <c r="G217" s="108"/>
-      <c r="H217" s="68"/>
-      <c r="I217" s="12"/>
+      <c r="E217" s="108"/>
+      <c r="F217" s="105"/>
+      <c r="G217" s="111"/>
+      <c r="H217" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I217" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J217" s="30"/>
-      <c r="K217" s="39"/>
+      <c r="K217" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L217" s="11"/>
     </row>
     <row r="218" spans="1:12" ht="15">
@@ -20686,13 +21202,19 @@
       <c r="D218" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E218" s="120"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="104"/>
-      <c r="H218" s="68"/>
-      <c r="I218" s="12"/>
+      <c r="E218" s="108"/>
+      <c r="F218" s="105"/>
+      <c r="G218" s="112"/>
+      <c r="H218" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I218" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J218" s="30"/>
-      <c r="K218" s="39"/>
+      <c r="K218" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L218" s="11"/>
     </row>
     <row r="219" spans="1:12" ht="30">
@@ -20704,15 +21226,21 @@
       <c r="D219" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="120"/>
-      <c r="F219" s="106"/>
+      <c r="E219" s="108"/>
+      <c r="F219" s="105"/>
       <c r="G219" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="H219" s="68"/>
-      <c r="I219" s="12"/>
+      <c r="H219" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I219" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J219" s="30"/>
-      <c r="K219" s="39"/>
+      <c r="K219" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L219" s="11"/>
     </row>
     <row r="220" spans="1:12" ht="30">
@@ -20724,15 +21252,21 @@
       <c r="D220" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="120"/>
-      <c r="F220" s="106"/>
+      <c r="E220" s="108"/>
+      <c r="F220" s="105"/>
       <c r="G220" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="H220" s="68"/>
-      <c r="I220" s="12"/>
+      <c r="H220" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I220" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J220" s="30"/>
-      <c r="K220" s="39"/>
+      <c r="K220" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L220" s="11"/>
     </row>
     <row r="221" spans="1:12" ht="15">
@@ -20744,15 +21278,21 @@
       <c r="D221" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="121"/>
-      <c r="F221" s="106"/>
+      <c r="E221" s="109"/>
+      <c r="F221" s="105"/>
       <c r="G221" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="H221" s="68"/>
-      <c r="I221" s="12"/>
+      <c r="H221" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I221" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J221" s="30"/>
-      <c r="K221" s="39"/>
+      <c r="K221" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L221" s="11"/>
     </row>
     <row r="222" spans="1:12" ht="45">
@@ -20767,14 +21307,20 @@
       <c r="E222" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="F222" s="107"/>
+      <c r="F222" s="106"/>
       <c r="G222" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="H222" s="68"/>
-      <c r="I222" s="12"/>
+      <c r="H222" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I222" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J222" s="30"/>
-      <c r="K222" s="39"/>
+      <c r="K222" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L222" s="11"/>
     </row>
     <row r="223" spans="1:12" ht="11.25" customHeight="1">
@@ -20788,19 +21334,25 @@
       <c r="D223" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="119" t="s">
+      <c r="E223" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F223" s="105" t="s">
+      <c r="F223" s="104" t="s">
         <v>762</v>
       </c>
-      <c r="G223" s="103" t="s">
+      <c r="G223" s="110" t="s">
         <v>766</v>
       </c>
-      <c r="H223" s="68"/>
-      <c r="I223" s="12"/>
+      <c r="H223" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I223" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J223" s="30"/>
-      <c r="K223" s="39"/>
+      <c r="K223" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L223" s="11"/>
     </row>
     <row r="224" spans="1:12" ht="11.25" customHeight="1">
@@ -20812,13 +21364,19 @@
       <c r="D224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E224" s="120"/>
-      <c r="F224" s="106"/>
-      <c r="G224" s="108"/>
-      <c r="H224" s="68"/>
-      <c r="I224" s="12"/>
+      <c r="E224" s="108"/>
+      <c r="F224" s="105"/>
+      <c r="G224" s="111"/>
+      <c r="H224" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J224" s="30"/>
-      <c r="K224" s="39"/>
+      <c r="K224" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L224" s="11"/>
     </row>
     <row r="225" spans="1:12" ht="11.25" customHeight="1">
@@ -20830,13 +21388,19 @@
       <c r="D225" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="120"/>
-      <c r="F225" s="106"/>
-      <c r="G225" s="108"/>
-      <c r="H225" s="68"/>
-      <c r="I225" s="12"/>
+      <c r="E225" s="108"/>
+      <c r="F225" s="105"/>
+      <c r="G225" s="111"/>
+      <c r="H225" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I225" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J225" s="30"/>
-      <c r="K225" s="39"/>
+      <c r="K225" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L225" s="11"/>
     </row>
     <row r="226" spans="1:12" ht="11.25" customHeight="1">
@@ -20848,13 +21412,19 @@
       <c r="D226" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="120"/>
-      <c r="F226" s="106"/>
-      <c r="G226" s="108"/>
-      <c r="H226" s="68"/>
-      <c r="I226" s="12"/>
+      <c r="E226" s="108"/>
+      <c r="F226" s="105"/>
+      <c r="G226" s="111"/>
+      <c r="H226" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I226" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J226" s="30"/>
-      <c r="K226" s="39"/>
+      <c r="K226" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L226" s="11"/>
     </row>
     <row r="227" spans="1:12" ht="11.25" customHeight="1">
@@ -20866,13 +21436,19 @@
       <c r="D227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="120"/>
-      <c r="F227" s="107"/>
-      <c r="G227" s="104"/>
-      <c r="H227" s="68"/>
-      <c r="I227" s="12"/>
+      <c r="E227" s="108"/>
+      <c r="F227" s="106"/>
+      <c r="G227" s="112"/>
+      <c r="H227" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I227" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J227" s="30"/>
-      <c r="K227" s="39"/>
+      <c r="K227" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L227" s="11"/>
     </row>
     <row r="228" spans="1:12" ht="30">
@@ -20884,17 +21460,23 @@
       <c r="D228" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="120"/>
+      <c r="E228" s="108"/>
       <c r="F228" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="G228" s="103" t="s">
+      <c r="G228" s="110" t="s">
         <v>767</v>
       </c>
-      <c r="H228" s="68"/>
-      <c r="I228" s="12"/>
+      <c r="H228" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I228" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J228" s="30"/>
-      <c r="K228" s="39"/>
+      <c r="K228" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L228" s="11"/>
     </row>
     <row r="229" spans="1:12" ht="30">
@@ -20906,15 +21488,21 @@
       <c r="D229" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="120"/>
+      <c r="E229" s="108"/>
       <c r="F229" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="G229" s="104"/>
-      <c r="H229" s="68"/>
-      <c r="I229" s="12"/>
+      <c r="G229" s="112"/>
+      <c r="H229" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I229" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J229" s="30"/>
-      <c r="K229" s="39"/>
+      <c r="K229" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L229" s="11"/>
     </row>
     <row r="230" spans="1:12" ht="15">
@@ -20928,19 +21516,25 @@
       <c r="D230" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="119" t="s">
+      <c r="E230" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="F230" s="105" t="s">
+      <c r="F230" s="104" t="s">
         <v>765</v>
       </c>
-      <c r="G230" s="103" t="s">
+      <c r="G230" s="110" t="s">
         <v>770</v>
       </c>
-      <c r="H230" s="68"/>
-      <c r="I230" s="12"/>
+      <c r="H230" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I230" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J230" s="30"/>
-      <c r="K230" s="39"/>
+      <c r="K230" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L230" s="11"/>
     </row>
     <row r="231" spans="1:12" ht="15">
@@ -20952,13 +21546,19 @@
       <c r="D231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E231" s="120"/>
-      <c r="F231" s="106"/>
-      <c r="G231" s="108"/>
-      <c r="H231" s="68"/>
-      <c r="I231" s="12"/>
+      <c r="E231" s="108"/>
+      <c r="F231" s="105"/>
+      <c r="G231" s="111"/>
+      <c r="H231" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I231" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J231" s="30"/>
-      <c r="K231" s="39"/>
+      <c r="K231" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L231" s="11"/>
     </row>
     <row r="232" spans="1:12" ht="15">
@@ -20970,13 +21570,19 @@
       <c r="D232" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="120"/>
-      <c r="F232" s="106"/>
-      <c r="G232" s="108"/>
-      <c r="H232" s="68"/>
-      <c r="I232" s="12"/>
+      <c r="E232" s="108"/>
+      <c r="F232" s="105"/>
+      <c r="G232" s="111"/>
+      <c r="H232" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I232" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J232" s="30"/>
-      <c r="K232" s="39"/>
+      <c r="K232" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L232" s="11"/>
     </row>
     <row r="233" spans="1:12" ht="15">
@@ -20988,13 +21594,19 @@
       <c r="D233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="120"/>
-      <c r="F233" s="106"/>
-      <c r="G233" s="108"/>
-      <c r="H233" s="68"/>
-      <c r="I233" s="12"/>
+      <c r="E233" s="108"/>
+      <c r="F233" s="105"/>
+      <c r="G233" s="111"/>
+      <c r="H233" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I233" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J233" s="30"/>
-      <c r="K233" s="39"/>
+      <c r="K233" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L233" s="11"/>
     </row>
     <row r="234" spans="1:12" ht="15">
@@ -21006,13 +21618,19 @@
       <c r="D234" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="120"/>
-      <c r="F234" s="106"/>
-      <c r="G234" s="104"/>
-      <c r="H234" s="68"/>
-      <c r="I234" s="12"/>
+      <c r="E234" s="108"/>
+      <c r="F234" s="105"/>
+      <c r="G234" s="112"/>
+      <c r="H234" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I234" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J234" s="30"/>
-      <c r="K234" s="39"/>
+      <c r="K234" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L234" s="11"/>
     </row>
     <row r="235" spans="1:12" ht="90">
@@ -21024,15 +21642,21 @@
       <c r="D235" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="120"/>
-      <c r="F235" s="106"/>
+      <c r="E235" s="108"/>
+      <c r="F235" s="105"/>
       <c r="G235" s="102" t="s">
         <v>771</v>
       </c>
-      <c r="H235" s="68"/>
-      <c r="I235" s="12"/>
+      <c r="H235" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I235" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J235" s="30"/>
-      <c r="K235" s="39"/>
+      <c r="K235" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L235" s="11"/>
     </row>
     <row r="236" spans="1:12" ht="90">
@@ -21044,15 +21668,21 @@
       <c r="D236" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E236" s="120"/>
-      <c r="F236" s="106"/>
+      <c r="E236" s="108"/>
+      <c r="F236" s="105"/>
       <c r="G236" s="102" t="s">
         <v>772</v>
       </c>
-      <c r="H236" s="68"/>
-      <c r="I236" s="12"/>
+      <c r="H236" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J236" s="30"/>
-      <c r="K236" s="39"/>
+      <c r="K236" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L236" s="11"/>
     </row>
     <row r="237" spans="1:12" ht="120">
@@ -21064,15 +21694,21 @@
       <c r="D237" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="E237" s="121"/>
-      <c r="F237" s="107"/>
+      <c r="E237" s="109"/>
+      <c r="F237" s="106"/>
       <c r="G237" s="31" t="s">
         <v>773</v>
       </c>
-      <c r="H237" s="68"/>
-      <c r="I237" s="12"/>
+      <c r="H237" s="68">
+        <v>44504</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J237" s="30"/>
-      <c r="K237" s="39"/>
+      <c r="K237" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L237" s="11"/>
     </row>
     <row r="238" spans="1:12" ht="11.25" customHeight="1">
@@ -21399,25 +22035,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F230:F237"/>
-    <mergeCell ref="E230:E237"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="E214:E221"/>
-    <mergeCell ref="F214:F222"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="G223:G227"/>
-    <mergeCell ref="G228:G229"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="E152:E165"/>
-    <mergeCell ref="F152:F165"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="G152:G163"/>
-    <mergeCell ref="G112:G123"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="F149:F151"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="G173:G183"/>
     <mergeCell ref="G185:G194"/>
@@ -21434,6 +22051,25 @@
     <mergeCell ref="F87:F90"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="F230:F237"/>
+    <mergeCell ref="E230:E237"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="E214:E221"/>
+    <mergeCell ref="F214:F222"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="G223:G227"/>
+    <mergeCell ref="G228:G229"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -21444,10 +22080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A284" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J247" sqref="J247"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -21467,11 +22103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="127"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -21494,9 +22130,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -21512,7 +22148,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="85">
-        <v>44375</v>
+        <v>44504</v>
       </c>
       <c r="K2" s="21"/>
     </row>
@@ -21664,13 +22300,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="110" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="110" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -21690,11 +22326,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="111"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -21712,11 +22348,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -21734,11 +22370,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="108"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -21756,11 +22392,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -21778,11 +22414,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="108"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="108"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -21800,11 +22436,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -21822,11 +22458,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="108"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -21844,11 +22480,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="108"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -21866,11 +22502,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="108"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -21888,11 +22524,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="108"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -21910,11 +22546,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="104"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="104"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -21935,13 +22571,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="129" t="s">
+      <c r="E20" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="110" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -21964,9 +22600,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -21987,9 +22623,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="108"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -22010,9 +22646,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="108"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -22033,9 +22669,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="104"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -22056,8 +22692,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="130"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="132"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -22081,9 +22717,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="103" t="s">
+      <c r="D26" s="111"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="110" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -22106,9 +22742,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="108"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -22129,9 +22765,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="108"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -22152,9 +22788,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="108"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -22175,9 +22811,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="108"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -22198,9 +22834,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="104"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -22223,7 +22859,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="110" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -22252,7 +22888,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="108"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -22279,7 +22915,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="108"/>
+      <c r="D34" s="111"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -22306,7 +22942,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="108"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -22333,7 +22969,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="108"/>
+      <c r="D36" s="111"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -22360,7 +22996,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="108"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -22387,7 +23023,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="108"/>
+      <c r="D38" s="111"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -22414,7 +23050,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="108"/>
+      <c r="D39" s="111"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -22441,7 +23077,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="108"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -22468,7 +23104,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="104"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -22497,13 +23133,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="105" t="s">
+      <c r="E42" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="105" t="s">
+      <c r="F42" s="104" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -22526,9 +23162,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -22549,9 +23185,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="120"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -22572,9 +23208,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -22595,9 +23231,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -22618,9 +23254,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -22641,9 +23277,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="120"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -22664,9 +23300,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -22687,9 +23323,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -22710,9 +23346,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="120"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="106"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -22733,9 +23369,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="120"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="106"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -22756,9 +23392,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="121"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -22781,13 +23417,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="103" t="s">
+      <c r="D54" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="122" t="s">
+      <c r="F54" s="128" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -22810,9 +23446,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="124"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="129"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -22833,9 +23469,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="120"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="124"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -22856,9 +23492,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="124"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="129"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -22879,9 +23515,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="120"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="124"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="129"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -22902,9 +23538,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="120"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="123"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="130"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -22925,8 +23561,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="120"/>
-      <c r="E60" s="106"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -22950,8 +23586,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="120"/>
-      <c r="E61" s="106"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -22975,8 +23611,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="120"/>
-      <c r="E62" s="106"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="105"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -23000,9 +23636,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="120"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="122" t="s">
+      <c r="D63" s="108"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="128" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -23025,9 +23661,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="120"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="123"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="130"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -23048,8 +23684,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="121"/>
-      <c r="E65" s="107"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="106"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -23075,13 +23711,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="103" t="s">
+      <c r="D66" s="110" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="103" t="s">
+      <c r="E66" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="105" t="s">
+      <c r="F66" s="104" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -23104,9 +23740,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="106"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="105"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -23127,9 +23763,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="120"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="106"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="111"/>
+      <c r="F68" s="105"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -23150,9 +23786,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="120"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="106"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="105"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -23173,9 +23809,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="120"/>
-      <c r="E70" s="108"/>
-      <c r="F70" s="106"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="105"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -23196,9 +23832,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="120"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="106"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="105"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -23219,9 +23855,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="120"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="106"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="105"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -23242,9 +23878,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="120"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="106"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="105"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -23265,9 +23901,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="120"/>
-      <c r="E74" s="108"/>
-      <c r="F74" s="106"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="105"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -23288,9 +23924,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="120"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="106"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -23311,9 +23947,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="120"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="106"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="105"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -23334,9 +23970,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="121"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="107"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="106"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -23392,10 +24028,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="103" t="s">
+      <c r="D79" s="110" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="103" t="s">
+      <c r="E79" s="110" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -23421,8 +24057,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -23446,8 +24082,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -23471,8 +24107,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -23496,8 +24132,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -23521,8 +24157,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="111"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -23546,8 +24182,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -23571,8 +24207,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -23596,8 +24232,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -23621,8 +24257,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -23646,8 +24282,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="111"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -23671,8 +24307,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -23696,8 +24332,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -23721,8 +24357,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="108"/>
-      <c r="E92" s="108"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="111"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -23746,8 +24382,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="108"/>
-      <c r="E93" s="108"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="111"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -23773,8 +24409,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="104"/>
-      <c r="E94" s="104"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -23893,10 +24529,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="105" t="s">
+      <c r="D98" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="105" t="s">
+      <c r="E98" s="104" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -23922,8 +24558,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="125"/>
-      <c r="E99" s="106"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="105"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -23947,8 +24583,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="125"/>
-      <c r="E100" s="106"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="105"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -23972,8 +24608,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="125"/>
-      <c r="E101" s="106"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="105"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -23997,8 +24633,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="125"/>
-      <c r="E102" s="106"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="105"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -24022,8 +24658,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="125"/>
-      <c r="E103" s="106"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="105"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -24047,8 +24683,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="125"/>
-      <c r="E104" s="106"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="105"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -24072,8 +24708,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="125"/>
-      <c r="E105" s="106"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="105"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -24097,8 +24733,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="125"/>
-      <c r="E106" s="106"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="105"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -24122,8 +24758,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="125"/>
-      <c r="E107" s="106"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="105"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -24147,8 +24783,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="126"/>
-      <c r="E108" s="107"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="106"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -24325,10 +24961,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="105" t="s">
+      <c r="D114" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="105" t="s">
+      <c r="E114" s="104" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -24354,8 +24990,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="106"/>
-      <c r="E115" s="106"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -24379,8 +25015,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="106"/>
-      <c r="E116" s="106"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="105"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -24404,8 +25040,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="106"/>
-      <c r="E117" s="106"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -24429,8 +25065,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="106"/>
-      <c r="E118" s="106"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -24454,8 +25090,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="106"/>
-      <c r="E119" s="106"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -24479,8 +25115,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="106"/>
-      <c r="E120" s="106"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -24504,8 +25140,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="106"/>
-      <c r="E121" s="106"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -24529,8 +25165,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="106"/>
-      <c r="E122" s="106"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -24554,8 +25190,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="106"/>
-      <c r="E123" s="106"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="105"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -24579,8 +25215,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="106"/>
-      <c r="E124" s="106"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="105"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -24604,8 +25240,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="107"/>
-      <c r="E125" s="107"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -24759,13 +25395,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="105" t="s">
+      <c r="D130" s="104" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="103" t="s">
+      <c r="E130" s="110" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="105" t="s">
+      <c r="F130" s="104" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -24788,9 +25424,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="106"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="106"/>
+      <c r="D131" s="105"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="105"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -24811,9 +25447,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="106"/>
-      <c r="E132" s="108"/>
-      <c r="F132" s="106"/>
+      <c r="D132" s="105"/>
+      <c r="E132" s="111"/>
+      <c r="F132" s="105"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -24834,9 +25470,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="106"/>
-      <c r="E133" s="108"/>
-      <c r="F133" s="106"/>
+      <c r="D133" s="105"/>
+      <c r="E133" s="111"/>
+      <c r="F133" s="105"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -24857,9 +25493,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="106"/>
-      <c r="E134" s="108"/>
-      <c r="F134" s="106"/>
+      <c r="D134" s="105"/>
+      <c r="E134" s="111"/>
+      <c r="F134" s="105"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -24880,9 +25516,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="106"/>
-      <c r="E135" s="108"/>
-      <c r="F135" s="106"/>
+      <c r="D135" s="105"/>
+      <c r="E135" s="111"/>
+      <c r="F135" s="105"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -24903,9 +25539,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="106"/>
-      <c r="E136" s="108"/>
-      <c r="F136" s="106"/>
+      <c r="D136" s="105"/>
+      <c r="E136" s="111"/>
+      <c r="F136" s="105"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -24926,9 +25562,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="106"/>
-      <c r="E137" s="108"/>
-      <c r="F137" s="106"/>
+      <c r="D137" s="105"/>
+      <c r="E137" s="111"/>
+      <c r="F137" s="105"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -24949,9 +25585,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="106"/>
-      <c r="E138" s="108"/>
-      <c r="F138" s="106"/>
+      <c r="D138" s="105"/>
+      <c r="E138" s="111"/>
+      <c r="F138" s="105"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -24972,9 +25608,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="106"/>
-      <c r="E139" s="108"/>
-      <c r="F139" s="106"/>
+      <c r="D139" s="105"/>
+      <c r="E139" s="111"/>
+      <c r="F139" s="105"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -24995,9 +25631,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="106"/>
-      <c r="E140" s="108"/>
-      <c r="F140" s="106"/>
+      <c r="D140" s="105"/>
+      <c r="E140" s="111"/>
+      <c r="F140" s="105"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -25018,9 +25654,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="107"/>
-      <c r="E141" s="104"/>
-      <c r="F141" s="107"/>
+      <c r="D141" s="106"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="106"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -25105,10 +25741,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="105" t="s">
+      <c r="D144" s="104" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="105" t="s">
+      <c r="E144" s="104" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -25134,8 +25770,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="107"/>
-      <c r="E145" s="107"/>
+      <c r="D145" s="106"/>
+      <c r="E145" s="106"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -25488,10 +26124,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="105" t="s">
+      <c r="D157" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="105" t="s">
+      <c r="E157" s="104" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -25517,8 +26153,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="106"/>
-      <c r="E158" s="106"/>
+      <c r="D158" s="105"/>
+      <c r="E158" s="105"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -25542,8 +26178,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="106"/>
-      <c r="E159" s="106"/>
+      <c r="D159" s="105"/>
+      <c r="E159" s="105"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -25567,8 +26203,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="106"/>
-      <c r="E160" s="106"/>
+      <c r="D160" s="105"/>
+      <c r="E160" s="105"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -25592,8 +26228,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="106"/>
-      <c r="E161" s="106"/>
+      <c r="D161" s="105"/>
+      <c r="E161" s="105"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -25617,8 +26253,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="106"/>
-      <c r="E162" s="106"/>
+      <c r="D162" s="105"/>
+      <c r="E162" s="105"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -25642,8 +26278,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="106"/>
-      <c r="E163" s="106"/>
+      <c r="D163" s="105"/>
+      <c r="E163" s="105"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -25667,8 +26303,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="106"/>
-      <c r="E164" s="106"/>
+      <c r="D164" s="105"/>
+      <c r="E164" s="105"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -25692,8 +26328,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="106"/>
-      <c r="E165" s="106"/>
+      <c r="D165" s="105"/>
+      <c r="E165" s="105"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -25717,8 +26353,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="106"/>
-      <c r="E166" s="106"/>
+      <c r="D166" s="105"/>
+      <c r="E166" s="105"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -25742,8 +26378,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="106"/>
-      <c r="E167" s="106"/>
+      <c r="D167" s="105"/>
+      <c r="E167" s="105"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -25767,8 +26403,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="107"/>
-      <c r="E168" s="107"/>
+      <c r="D168" s="106"/>
+      <c r="E168" s="106"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -25827,13 +26463,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="105" t="s">
+      <c r="D170" s="104" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="105" t="s">
+      <c r="F170" s="104" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -25856,11 +26492,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="106"/>
+      <c r="D171" s="105"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="106"/>
+      <c r="F171" s="105"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -25881,11 +26517,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="106"/>
+      <c r="D172" s="105"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="106"/>
+      <c r="F172" s="105"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -25906,11 +26542,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="106"/>
+      <c r="D173" s="105"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="106"/>
+      <c r="F173" s="105"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -25931,11 +26567,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="106"/>
+      <c r="D174" s="105"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="106"/>
+      <c r="F174" s="105"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -25956,11 +26592,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="106"/>
+      <c r="D175" s="105"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="106"/>
+      <c r="F175" s="105"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -25983,11 +26619,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="106"/>
+      <c r="D176" s="105"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="106"/>
+      <c r="F176" s="105"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -26008,11 +26644,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="106"/>
+      <c r="D177" s="105"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="106"/>
+      <c r="F177" s="105"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -26033,11 +26669,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="106"/>
+      <c r="D178" s="105"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="106"/>
+      <c r="F178" s="105"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -26058,11 +26694,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="106"/>
+      <c r="D179" s="105"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="106"/>
+      <c r="F179" s="105"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -26083,11 +26719,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="106"/>
+      <c r="D180" s="105"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="106"/>
+      <c r="F180" s="105"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -26108,11 +26744,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="107"/>
+      <c r="D181" s="106"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="107"/>
+      <c r="F181" s="106"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -26135,7 +26771,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="105" t="s">
+      <c r="D182" s="104" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -26164,7 +26800,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="106"/>
+      <c r="D183" s="105"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -26191,7 +26827,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="106"/>
+      <c r="D184" s="105"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -26218,7 +26854,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="106"/>
+      <c r="D185" s="105"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -26245,7 +26881,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="106"/>
+      <c r="D186" s="105"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -26272,7 +26908,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="106"/>
+      <c r="D187" s="105"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -26301,7 +26937,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="106"/>
+      <c r="D188" s="105"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -26328,7 +26964,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="106"/>
+      <c r="D189" s="105"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -26355,7 +26991,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="106"/>
+      <c r="D190" s="105"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -26382,7 +27018,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="107"/>
+      <c r="D191" s="106"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -26411,10 +27047,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="105" t="s">
+      <c r="D192" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="105" t="s">
+      <c r="E192" s="104" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -26440,8 +27076,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="106"/>
-      <c r="E193" s="106"/>
+      <c r="D193" s="105"/>
+      <c r="E193" s="105"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -26465,8 +27101,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="106"/>
-      <c r="E194" s="106"/>
+      <c r="D194" s="105"/>
+      <c r="E194" s="105"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -26490,8 +27126,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="106"/>
-      <c r="E195" s="106"/>
+      <c r="D195" s="105"/>
+      <c r="E195" s="105"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -26515,8 +27151,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="106"/>
-      <c r="E196" s="106"/>
+      <c r="D196" s="105"/>
+      <c r="E196" s="105"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -26540,8 +27176,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="106"/>
-      <c r="E197" s="106"/>
+      <c r="D197" s="105"/>
+      <c r="E197" s="105"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -26567,8 +27203,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="106"/>
-      <c r="E198" s="106"/>
+      <c r="D198" s="105"/>
+      <c r="E198" s="105"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -26592,8 +27228,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="106"/>
-      <c r="E199" s="106"/>
+      <c r="D199" s="105"/>
+      <c r="E199" s="105"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -26617,8 +27253,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="106"/>
-      <c r="E200" s="106"/>
+      <c r="D200" s="105"/>
+      <c r="E200" s="105"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -26642,8 +27278,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="106"/>
-      <c r="E201" s="106"/>
+      <c r="D201" s="105"/>
+      <c r="E201" s="105"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -26667,8 +27303,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="106"/>
-      <c r="E202" s="106"/>
+      <c r="D202" s="105"/>
+      <c r="E202" s="105"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -26692,8 +27328,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="107"/>
-      <c r="E203" s="107"/>
+      <c r="D203" s="106"/>
+      <c r="E203" s="106"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -26752,13 +27388,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="105" t="s">
+      <c r="D205" s="104" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="105" t="s">
+      <c r="E205" s="104" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="122" t="s">
+      <c r="F205" s="128" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -26781,9 +27417,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="106"/>
-      <c r="E206" s="106"/>
-      <c r="F206" s="124"/>
+      <c r="D206" s="105"/>
+      <c r="E206" s="105"/>
+      <c r="F206" s="129"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -26804,9 +27440,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="106"/>
-      <c r="E207" s="106"/>
-      <c r="F207" s="124"/>
+      <c r="D207" s="105"/>
+      <c r="E207" s="105"/>
+      <c r="F207" s="129"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -26827,9 +27463,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="106"/>
-      <c r="E208" s="106"/>
-      <c r="F208" s="124"/>
+      <c r="D208" s="105"/>
+      <c r="E208" s="105"/>
+      <c r="F208" s="129"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -26850,9 +27486,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="106"/>
-      <c r="E209" s="106"/>
-      <c r="F209" s="124"/>
+      <c r="D209" s="105"/>
+      <c r="E209" s="105"/>
+      <c r="F209" s="129"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -26873,9 +27509,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="106"/>
-      <c r="E210" s="106"/>
-      <c r="F210" s="123"/>
+      <c r="D210" s="105"/>
+      <c r="E210" s="105"/>
+      <c r="F210" s="130"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -26896,8 +27532,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="106"/>
-      <c r="E211" s="106"/>
+      <c r="D211" s="105"/>
+      <c r="E211" s="105"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -26921,8 +27557,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="106"/>
-      <c r="E212" s="106"/>
+      <c r="D212" s="105"/>
+      <c r="E212" s="105"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -26946,8 +27582,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="106"/>
-      <c r="E213" s="106"/>
+      <c r="D213" s="105"/>
+      <c r="E213" s="105"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -26971,9 +27607,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="106"/>
-      <c r="E214" s="106"/>
-      <c r="F214" s="122" t="s">
+      <c r="D214" s="105"/>
+      <c r="E214" s="105"/>
+      <c r="F214" s="128" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -26996,9 +27632,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="106"/>
-      <c r="E215" s="106"/>
-      <c r="F215" s="123"/>
+      <c r="D215" s="105"/>
+      <c r="E215" s="105"/>
+      <c r="F215" s="130"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -27019,8 +27655,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="107"/>
-      <c r="E216" s="107"/>
+      <c r="D216" s="106"/>
+      <c r="E216" s="106"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -27106,10 +27742,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="105" t="s">
+      <c r="D219" s="104" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="105" t="s">
+      <c r="E219" s="104" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -27135,8 +27771,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="106"/>
-      <c r="E220" s="106"/>
+      <c r="D220" s="105"/>
+      <c r="E220" s="105"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -27160,8 +27796,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="106"/>
-      <c r="E221" s="106"/>
+      <c r="D221" s="105"/>
+      <c r="E221" s="105"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -27185,8 +27821,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="106"/>
-      <c r="E222" s="106"/>
+      <c r="D222" s="105"/>
+      <c r="E222" s="105"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -27210,8 +27846,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="106"/>
-      <c r="E223" s="106"/>
+      <c r="D223" s="105"/>
+      <c r="E223" s="105"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -27235,8 +27871,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="106"/>
-      <c r="E224" s="106"/>
+      <c r="D224" s="105"/>
+      <c r="E224" s="105"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -27262,8 +27898,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="106"/>
-      <c r="E225" s="106"/>
+      <c r="D225" s="105"/>
+      <c r="E225" s="105"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -27287,8 +27923,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="106"/>
-      <c r="E226" s="106"/>
+      <c r="D226" s="105"/>
+      <c r="E226" s="105"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -27312,8 +27948,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="106"/>
-      <c r="E227" s="106"/>
+      <c r="D227" s="105"/>
+      <c r="E227" s="105"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -27337,8 +27973,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="106"/>
-      <c r="E228" s="106"/>
+      <c r="D228" s="105"/>
+      <c r="E228" s="105"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -27362,8 +27998,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="106"/>
-      <c r="E229" s="106"/>
+      <c r="D229" s="105"/>
+      <c r="E229" s="105"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -27387,8 +28023,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="106"/>
-      <c r="E230" s="106"/>
+      <c r="D230" s="105"/>
+      <c r="E230" s="105"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -27412,8 +28048,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="106"/>
-      <c r="E231" s="106"/>
+      <c r="D231" s="105"/>
+      <c r="E231" s="105"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -27437,8 +28073,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="107"/>
-      <c r="E232" s="107"/>
+      <c r="D232" s="106"/>
+      <c r="E232" s="106"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -27828,7 +28464,7 @@
       <c r="E245" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F245" s="122" t="s">
+      <c r="F245" s="128" t="s">
         <v>625</v>
       </c>
       <c r="G245" s="93">
@@ -27857,7 +28493,7 @@
       <c r="E246" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="F246" s="123"/>
+      <c r="F246" s="130"/>
       <c r="G246" s="93">
         <v>44481</v>
       </c>
@@ -28213,10 +28849,10 @@
       <c r="D259" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E259" s="105" t="s">
+      <c r="E259" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F259" s="105" t="s">
+      <c r="F259" s="104" t="s">
         <v>691</v>
       </c>
       <c r="G259" s="93">
@@ -28240,8 +28876,8 @@
       <c r="D260" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E260" s="106"/>
-      <c r="F260" s="106"/>
+      <c r="E260" s="105"/>
+      <c r="F260" s="105"/>
       <c r="G260" s="93">
         <v>44481</v>
       </c>
@@ -28263,8 +28899,8 @@
       <c r="D261" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="106"/>
-      <c r="F261" s="106"/>
+      <c r="E261" s="105"/>
+      <c r="F261" s="105"/>
       <c r="G261" s="93">
         <v>44481</v>
       </c>
@@ -28286,8 +28922,8 @@
       <c r="D262" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="106"/>
-      <c r="F262" s="106"/>
+      <c r="E262" s="105"/>
+      <c r="F262" s="105"/>
       <c r="G262" s="93">
         <v>44481</v>
       </c>
@@ -28309,8 +28945,8 @@
       <c r="D263" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E263" s="106"/>
-      <c r="F263" s="106"/>
+      <c r="E263" s="105"/>
+      <c r="F263" s="105"/>
       <c r="G263" s="93">
         <v>44481</v>
       </c>
@@ -28332,8 +28968,8 @@
       <c r="D264" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E264" s="106"/>
-      <c r="F264" s="106"/>
+      <c r="E264" s="105"/>
+      <c r="F264" s="105"/>
       <c r="G264" s="93">
         <v>44481</v>
       </c>
@@ -28355,8 +28991,8 @@
       <c r="D265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E265" s="106"/>
-      <c r="F265" s="106"/>
+      <c r="E265" s="105"/>
+      <c r="F265" s="105"/>
       <c r="G265" s="93">
         <v>44481</v>
       </c>
@@ -28378,8 +29014,8 @@
       <c r="D266" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E266" s="106"/>
-      <c r="F266" s="106"/>
+      <c r="E266" s="105"/>
+      <c r="F266" s="105"/>
       <c r="G266" s="93">
         <v>44481</v>
       </c>
@@ -28401,8 +29037,8 @@
       <c r="D267" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E267" s="106"/>
-      <c r="F267" s="106"/>
+      <c r="E267" s="105"/>
+      <c r="F267" s="105"/>
       <c r="G267" s="93">
         <v>44481</v>
       </c>
@@ -28424,8 +29060,8 @@
       <c r="D268" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E268" s="106"/>
-      <c r="F268" s="106"/>
+      <c r="E268" s="105"/>
+      <c r="F268" s="105"/>
       <c r="G268" s="93">
         <v>44481</v>
       </c>
@@ -28447,8 +29083,8 @@
       <c r="D269" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E269" s="107"/>
-      <c r="F269" s="107"/>
+      <c r="E269" s="106"/>
+      <c r="F269" s="106"/>
       <c r="G269" s="93">
         <v>44481</v>
       </c>
@@ -28477,7 +29113,7 @@
       <c r="E270" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="F270" s="105" t="s">
+      <c r="F270" s="104" t="s">
         <v>693</v>
       </c>
       <c r="G270" s="93">
@@ -28504,7 +29140,7 @@
       <c r="E271" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="F271" s="106"/>
+      <c r="F271" s="105"/>
       <c r="G271" s="93">
         <v>44481</v>
       </c>
@@ -28529,7 +29165,7 @@
       <c r="E272" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="F272" s="106"/>
+      <c r="F272" s="105"/>
       <c r="G272" s="93">
         <v>44481</v>
       </c>
@@ -28554,7 +29190,7 @@
       <c r="E273" s="99" t="s">
         <v>670</v>
       </c>
-      <c r="F273" s="106"/>
+      <c r="F273" s="105"/>
       <c r="G273" s="93">
         <v>44481</v>
       </c>
@@ -28579,7 +29215,7 @@
       <c r="E274" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="F274" s="106"/>
+      <c r="F274" s="105"/>
       <c r="G274" s="93">
         <v>44481</v>
       </c>
@@ -28604,7 +29240,7 @@
       <c r="E275" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="106"/>
+      <c r="F275" s="105"/>
       <c r="G275" s="93">
         <v>44481</v>
       </c>
@@ -28629,7 +29265,7 @@
       <c r="E276" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="F276" s="106"/>
+      <c r="F276" s="105"/>
       <c r="G276" s="93">
         <v>44481</v>
       </c>
@@ -28654,7 +29290,7 @@
       <c r="E277" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F277" s="106"/>
+      <c r="F277" s="105"/>
       <c r="G277" s="93">
         <v>44481</v>
       </c>
@@ -28679,7 +29315,7 @@
       <c r="E278" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="F278" s="106"/>
+      <c r="F278" s="105"/>
       <c r="G278" s="93">
         <v>44481</v>
       </c>
@@ -28704,7 +29340,7 @@
       <c r="E279" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="F279" s="106"/>
+      <c r="F279" s="105"/>
       <c r="G279" s="93">
         <v>44481</v>
       </c>
@@ -28729,7 +29365,7 @@
       <c r="E280" s="99" t="s">
         <v>677</v>
       </c>
-      <c r="F280" s="107"/>
+      <c r="F280" s="106"/>
       <c r="G280" s="93">
         <v>44481</v>
       </c>
@@ -28751,10 +29387,10 @@
       <c r="D281" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E281" s="105" t="s">
+      <c r="E281" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F281" s="105" t="s">
+      <c r="F281" s="104" t="s">
         <v>535</v>
       </c>
       <c r="G281" s="93">
@@ -28778,8 +29414,8 @@
       <c r="D282" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E282" s="106"/>
-      <c r="F282" s="106"/>
+      <c r="E282" s="105"/>
+      <c r="F282" s="105"/>
       <c r="G282" s="93">
         <v>44481</v>
       </c>
@@ -28801,8 +29437,8 @@
       <c r="D283" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E283" s="106"/>
-      <c r="F283" s="106"/>
+      <c r="E283" s="105"/>
+      <c r="F283" s="105"/>
       <c r="G283" s="93">
         <v>44481</v>
       </c>
@@ -28824,8 +29460,8 @@
       <c r="D284" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E284" s="106"/>
-      <c r="F284" s="106"/>
+      <c r="E284" s="105"/>
+      <c r="F284" s="105"/>
       <c r="G284" s="93">
         <v>44481</v>
       </c>
@@ -28847,8 +29483,8 @@
       <c r="D285" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="106"/>
-      <c r="F285" s="106"/>
+      <c r="E285" s="105"/>
+      <c r="F285" s="105"/>
       <c r="G285" s="93">
         <v>44481</v>
       </c>
@@ -28870,8 +29506,8 @@
       <c r="D286" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E286" s="106"/>
-      <c r="F286" s="106"/>
+      <c r="E286" s="105"/>
+      <c r="F286" s="105"/>
       <c r="G286" s="93">
         <v>44481</v>
       </c>
@@ -28893,8 +29529,8 @@
       <c r="D287" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E287" s="106"/>
-      <c r="F287" s="106"/>
+      <c r="E287" s="105"/>
+      <c r="F287" s="105"/>
       <c r="G287" s="93">
         <v>44481</v>
       </c>
@@ -28916,8 +29552,8 @@
       <c r="D288" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="106"/>
-      <c r="F288" s="106"/>
+      <c r="E288" s="105"/>
+      <c r="F288" s="105"/>
       <c r="G288" s="93">
         <v>44481</v>
       </c>
@@ -28939,8 +29575,8 @@
       <c r="D289" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E289" s="106"/>
-      <c r="F289" s="106"/>
+      <c r="E289" s="105"/>
+      <c r="F289" s="105"/>
       <c r="G289" s="93">
         <v>44481</v>
       </c>
@@ -28962,8 +29598,8 @@
       <c r="D290" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="106"/>
-      <c r="F290" s="106"/>
+      <c r="E290" s="105"/>
+      <c r="F290" s="105"/>
       <c r="G290" s="93">
         <v>44481</v>
       </c>
@@ -28985,8 +29621,8 @@
       <c r="D291" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E291" s="107"/>
-      <c r="F291" s="107"/>
+      <c r="E291" s="106"/>
+      <c r="F291" s="106"/>
       <c r="G291" s="93">
         <v>44481</v>
       </c>
@@ -29309,10 +29945,10 @@
       <c r="D303" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E303" s="105" t="s">
+      <c r="E303" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F303" s="105" t="s">
+      <c r="F303" s="104" t="s">
         <v>691</v>
       </c>
       <c r="G303" s="93">
@@ -29336,8 +29972,8 @@
       <c r="D304" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E304" s="106"/>
-      <c r="F304" s="106"/>
+      <c r="E304" s="105"/>
+      <c r="F304" s="105"/>
       <c r="G304" s="93">
         <v>44481</v>
       </c>
@@ -29359,8 +29995,8 @@
       <c r="D305" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E305" s="106"/>
-      <c r="F305" s="106"/>
+      <c r="E305" s="105"/>
+      <c r="F305" s="105"/>
       <c r="G305" s="93">
         <v>44481</v>
       </c>
@@ -29382,8 +30018,8 @@
       <c r="D306" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E306" s="106"/>
-      <c r="F306" s="106"/>
+      <c r="E306" s="105"/>
+      <c r="F306" s="105"/>
       <c r="G306" s="93">
         <v>44481</v>
       </c>
@@ -29405,8 +30041,8 @@
       <c r="D307" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E307" s="106"/>
-      <c r="F307" s="106"/>
+      <c r="E307" s="105"/>
+      <c r="F307" s="105"/>
       <c r="G307" s="93">
         <v>44481</v>
       </c>
@@ -29428,8 +30064,8 @@
       <c r="D308" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E308" s="106"/>
-      <c r="F308" s="106"/>
+      <c r="E308" s="105"/>
+      <c r="F308" s="105"/>
       <c r="G308" s="93">
         <v>44481</v>
       </c>
@@ -29451,8 +30087,8 @@
       <c r="D309" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E309" s="106"/>
-      <c r="F309" s="106"/>
+      <c r="E309" s="105"/>
+      <c r="F309" s="105"/>
       <c r="G309" s="93">
         <v>44481</v>
       </c>
@@ -29474,8 +30110,8 @@
       <c r="D310" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E310" s="106"/>
-      <c r="F310" s="106"/>
+      <c r="E310" s="105"/>
+      <c r="F310" s="105"/>
       <c r="G310" s="93">
         <v>44481</v>
       </c>
@@ -29497,8 +30133,8 @@
       <c r="D311" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E311" s="106"/>
-      <c r="F311" s="106"/>
+      <c r="E311" s="105"/>
+      <c r="F311" s="105"/>
       <c r="G311" s="93">
         <v>44481</v>
       </c>
@@ -29520,8 +30156,8 @@
       <c r="D312" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E312" s="106"/>
-      <c r="F312" s="106"/>
+      <c r="E312" s="105"/>
+      <c r="F312" s="105"/>
       <c r="G312" s="93">
         <v>44481</v>
       </c>
@@ -29543,8 +30179,8 @@
       <c r="D313" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E313" s="107"/>
-      <c r="F313" s="107"/>
+      <c r="E313" s="106"/>
+      <c r="F313" s="106"/>
       <c r="G313" s="93">
         <v>44481</v>
       </c>
@@ -29573,7 +30209,7 @@
       <c r="E314" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="F314" s="105" t="s">
+      <c r="F314" s="104" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="93">
@@ -29600,7 +30236,7 @@
       <c r="E315" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F315" s="106"/>
+      <c r="F315" s="105"/>
       <c r="G315" s="93">
         <v>44481</v>
       </c>
@@ -29625,7 +30261,7 @@
       <c r="E316" s="99" t="s">
         <v>696</v>
       </c>
-      <c r="F316" s="106"/>
+      <c r="F316" s="105"/>
       <c r="G316" s="93">
         <v>44481</v>
       </c>
@@ -29650,7 +30286,7 @@
       <c r="E317" s="99" t="s">
         <v>697</v>
       </c>
-      <c r="F317" s="106"/>
+      <c r="F317" s="105"/>
       <c r="G317" s="93">
         <v>44481</v>
       </c>
@@ -29675,7 +30311,7 @@
       <c r="E318" s="99" t="s">
         <v>698</v>
       </c>
-      <c r="F318" s="106"/>
+      <c r="F318" s="105"/>
       <c r="G318" s="93">
         <v>44481</v>
       </c>
@@ -29700,7 +30336,7 @@
       <c r="E319" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F319" s="106"/>
+      <c r="F319" s="105"/>
       <c r="G319" s="93">
         <v>44481</v>
       </c>
@@ -29725,7 +30361,7 @@
       <c r="E320" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F320" s="106"/>
+      <c r="F320" s="105"/>
       <c r="G320" s="93">
         <v>44481</v>
       </c>
@@ -29750,7 +30386,7 @@
       <c r="E321" s="99" t="s">
         <v>701</v>
       </c>
-      <c r="F321" s="106"/>
+      <c r="F321" s="105"/>
       <c r="G321" s="93">
         <v>44481</v>
       </c>
@@ -29775,7 +30411,7 @@
       <c r="E322" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F322" s="106"/>
+      <c r="F322" s="105"/>
       <c r="G322" s="93">
         <v>44481</v>
       </c>
@@ -29800,7 +30436,7 @@
       <c r="E323" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F323" s="106"/>
+      <c r="F323" s="105"/>
       <c r="G323" s="93">
         <v>44481</v>
       </c>
@@ -29825,7 +30461,7 @@
       <c r="E324" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="F324" s="107"/>
+      <c r="F324" s="106"/>
       <c r="G324" s="93">
         <v>44481</v>
       </c>
@@ -29847,10 +30483,10 @@
       <c r="D325" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="105" t="s">
+      <c r="E325" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F325" s="105" t="s">
+      <c r="F325" s="104" t="s">
         <v>535</v>
       </c>
       <c r="G325" s="93">
@@ -29874,8 +30510,8 @@
       <c r="D326" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E326" s="106"/>
-      <c r="F326" s="106"/>
+      <c r="E326" s="105"/>
+      <c r="F326" s="105"/>
       <c r="G326" s="93">
         <v>44481</v>
       </c>
@@ -29897,8 +30533,8 @@
       <c r="D327" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E327" s="106"/>
-      <c r="F327" s="106"/>
+      <c r="E327" s="105"/>
+      <c r="F327" s="105"/>
       <c r="G327" s="93">
         <v>44481</v>
       </c>
@@ -29920,8 +30556,8 @@
       <c r="D328" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E328" s="106"/>
-      <c r="F328" s="106"/>
+      <c r="E328" s="105"/>
+      <c r="F328" s="105"/>
       <c r="G328" s="93">
         <v>44481</v>
       </c>
@@ -29943,8 +30579,8 @@
       <c r="D329" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E329" s="106"/>
-      <c r="F329" s="106"/>
+      <c r="E329" s="105"/>
+      <c r="F329" s="105"/>
       <c r="G329" s="93">
         <v>44481</v>
       </c>
@@ -29966,8 +30602,8 @@
       <c r="D330" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="106"/>
-      <c r="F330" s="106"/>
+      <c r="E330" s="105"/>
+      <c r="F330" s="105"/>
       <c r="G330" s="93">
         <v>44481</v>
       </c>
@@ -29989,8 +30625,8 @@
       <c r="D331" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E331" s="106"/>
-      <c r="F331" s="106"/>
+      <c r="E331" s="105"/>
+      <c r="F331" s="105"/>
       <c r="G331" s="93">
         <v>44481</v>
       </c>
@@ -30012,8 +30648,8 @@
       <c r="D332" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E332" s="106"/>
-      <c r="F332" s="106"/>
+      <c r="E332" s="105"/>
+      <c r="F332" s="105"/>
       <c r="G332" s="93">
         <v>44481</v>
       </c>
@@ -30035,8 +30671,8 @@
       <c r="D333" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E333" s="106"/>
-      <c r="F333" s="106"/>
+      <c r="E333" s="105"/>
+      <c r="F333" s="105"/>
       <c r="G333" s="93">
         <v>44481</v>
       </c>
@@ -30058,8 +30694,8 @@
       <c r="D334" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E334" s="106"/>
-      <c r="F334" s="106"/>
+      <c r="E334" s="105"/>
+      <c r="F334" s="105"/>
       <c r="G334" s="93">
         <v>44481</v>
       </c>
@@ -30081,8 +30717,8 @@
       <c r="D335" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E335" s="107"/>
-      <c r="F335" s="107"/>
+      <c r="E335" s="106"/>
+      <c r="F335" s="106"/>
       <c r="G335" s="93">
         <v>44481</v>
       </c>
@@ -30138,7 +30774,7 @@
       <c r="E337" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F337" s="105" t="s">
+      <c r="F337" s="104" t="s">
         <v>680</v>
       </c>
       <c r="G337" s="93">
@@ -30165,7 +30801,7 @@
       <c r="E338" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F338" s="107"/>
+      <c r="F338" s="106"/>
       <c r="G338" s="93">
         <v>44483</v>
       </c>
@@ -30325,7 +30961,7 @@
       <c r="E344" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F344" s="105" t="s">
+      <c r="F344" s="104" t="s">
         <v>684</v>
       </c>
       <c r="G344" s="93">
@@ -30352,7 +30988,7 @@
       <c r="E345" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F345" s="107"/>
+      <c r="F345" s="106"/>
       <c r="G345" s="93">
         <v>44483</v>
       </c>
@@ -30732,7 +31368,7 @@
       <c r="E359" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F359" s="105" t="s">
+      <c r="F359" s="104" t="s">
         <v>718</v>
       </c>
       <c r="G359" s="93">
@@ -30759,7 +31395,7 @@
       <c r="E360" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F360" s="107"/>
+      <c r="F360" s="106"/>
       <c r="G360" s="93">
         <v>44483</v>
       </c>
@@ -30919,7 +31555,7 @@
       <c r="E366" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F366" s="105" t="s">
+      <c r="F366" s="104" t="s">
         <v>611</v>
       </c>
       <c r="G366" s="93">
@@ -30946,7 +31582,7 @@
       <c r="E367" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F367" s="107"/>
+      <c r="F367" s="106"/>
       <c r="G367" s="93">
         <v>44483</v>
       </c>
@@ -31512,10 +32148,10 @@
       <c r="D388" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E388" s="105" t="s">
+      <c r="E388" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F388" s="105" t="s">
+      <c r="F388" s="104" t="s">
         <v>691</v>
       </c>
       <c r="G388" s="93">
@@ -31539,8 +32175,8 @@
       <c r="D389" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E389" s="106"/>
-      <c r="F389" s="106"/>
+      <c r="E389" s="105"/>
+      <c r="F389" s="105"/>
       <c r="G389" s="93">
         <v>44483</v>
       </c>
@@ -31562,8 +32198,8 @@
       <c r="D390" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E390" s="106"/>
-      <c r="F390" s="106"/>
+      <c r="E390" s="105"/>
+      <c r="F390" s="105"/>
       <c r="G390" s="93">
         <v>44483</v>
       </c>
@@ -31585,8 +32221,8 @@
       <c r="D391" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E391" s="106"/>
-      <c r="F391" s="106"/>
+      <c r="E391" s="105"/>
+      <c r="F391" s="105"/>
       <c r="G391" s="93">
         <v>44483</v>
       </c>
@@ -31608,8 +32244,8 @@
       <c r="D392" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E392" s="106"/>
-      <c r="F392" s="106"/>
+      <c r="E392" s="105"/>
+      <c r="F392" s="105"/>
       <c r="G392" s="93">
         <v>44483</v>
       </c>
@@ -31631,8 +32267,8 @@
       <c r="D393" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E393" s="106"/>
-      <c r="F393" s="106"/>
+      <c r="E393" s="105"/>
+      <c r="F393" s="105"/>
       <c r="G393" s="93">
         <v>44483</v>
       </c>
@@ -31654,8 +32290,8 @@
       <c r="D394" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E394" s="106"/>
-      <c r="F394" s="106"/>
+      <c r="E394" s="105"/>
+      <c r="F394" s="105"/>
       <c r="G394" s="93">
         <v>44483</v>
       </c>
@@ -31677,8 +32313,8 @@
       <c r="D395" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E395" s="107"/>
-      <c r="F395" s="107"/>
+      <c r="E395" s="106"/>
+      <c r="F395" s="106"/>
       <c r="G395" s="93">
         <v>44483</v>
       </c>
@@ -31727,10 +32363,10 @@
       <c r="D397" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="E397" s="132" t="s">
+      <c r="E397" s="123" t="s">
         <v>747</v>
       </c>
-      <c r="F397" s="105" t="s">
+      <c r="F397" s="104" t="s">
         <v>748</v>
       </c>
       <c r="G397" s="93">
@@ -31754,8 +32390,8 @@
       <c r="D398" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E398" s="125"/>
-      <c r="F398" s="106"/>
+      <c r="E398" s="124"/>
+      <c r="F398" s="105"/>
       <c r="G398" s="93">
         <v>44483</v>
       </c>
@@ -31777,8 +32413,8 @@
       <c r="D399" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E399" s="125"/>
-      <c r="F399" s="106"/>
+      <c r="E399" s="124"/>
+      <c r="F399" s="105"/>
       <c r="G399" s="93">
         <v>44483</v>
       </c>
@@ -31800,8 +32436,8 @@
       <c r="D400" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E400" s="125"/>
-      <c r="F400" s="106"/>
+      <c r="E400" s="124"/>
+      <c r="F400" s="105"/>
       <c r="G400" s="93">
         <v>44483</v>
       </c>
@@ -31823,8 +32459,8 @@
       <c r="D401" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E401" s="125"/>
-      <c r="F401" s="106"/>
+      <c r="E401" s="124"/>
+      <c r="F401" s="105"/>
       <c r="G401" s="93">
         <v>44483</v>
       </c>
@@ -31846,8 +32482,8 @@
       <c r="D402" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E402" s="126"/>
-      <c r="F402" s="107"/>
+      <c r="E402" s="125"/>
+      <c r="F402" s="106"/>
       <c r="G402" s="93">
         <v>44483</v>
       </c>
@@ -31930,7 +32566,7 @@
       <c r="E405" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F405" s="105" t="s">
+      <c r="F405" s="104" t="s">
         <v>742</v>
       </c>
       <c r="G405" s="93">
@@ -31957,7 +32593,7 @@
       <c r="E406" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F406" s="107"/>
+      <c r="F406" s="106"/>
       <c r="G406" s="93">
         <v>44483</v>
       </c>
@@ -32009,7 +32645,7 @@
       <c r="E408" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F408" s="105" t="s">
+      <c r="F408" s="104" t="s">
         <v>744</v>
       </c>
       <c r="G408" s="93">
@@ -32036,7 +32672,7 @@
       <c r="E409" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F409" s="107"/>
+      <c r="F409" s="106"/>
       <c r="G409" s="93">
         <v>44483</v>
       </c>
@@ -32085,10 +32721,10 @@
       <c r="D411" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E411" s="105" t="s">
+      <c r="E411" s="104" t="s">
         <v>628</v>
       </c>
-      <c r="F411" s="105" t="s">
+      <c r="F411" s="104" t="s">
         <v>535</v>
       </c>
       <c r="G411" s="93">
@@ -32112,8 +32748,8 @@
       <c r="D412" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E412" s="106"/>
-      <c r="F412" s="106"/>
+      <c r="E412" s="105"/>
+      <c r="F412" s="105"/>
       <c r="G412" s="93">
         <v>44483</v>
       </c>
@@ -32135,8 +32771,8 @@
       <c r="D413" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E413" s="106"/>
-      <c r="F413" s="106"/>
+      <c r="E413" s="105"/>
+      <c r="F413" s="105"/>
       <c r="G413" s="93">
         <v>44483</v>
       </c>
@@ -32158,8 +32794,8 @@
       <c r="D414" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E414" s="106"/>
-      <c r="F414" s="106"/>
+      <c r="E414" s="105"/>
+      <c r="F414" s="105"/>
       <c r="G414" s="93">
         <v>44483</v>
       </c>
@@ -32181,8 +32817,8 @@
       <c r="D415" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E415" s="106"/>
-      <c r="F415" s="106"/>
+      <c r="E415" s="105"/>
+      <c r="F415" s="105"/>
       <c r="G415" s="93">
         <v>44483</v>
       </c>
@@ -32204,8 +32840,8 @@
       <c r="D416" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E416" s="106"/>
-      <c r="F416" s="106"/>
+      <c r="E416" s="105"/>
+      <c r="F416" s="105"/>
       <c r="G416" s="93">
         <v>44483</v>
       </c>
@@ -32227,8 +32863,8 @@
       <c r="D417" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E417" s="106"/>
-      <c r="F417" s="106"/>
+      <c r="E417" s="105"/>
+      <c r="F417" s="105"/>
       <c r="G417" s="93">
         <v>44483</v>
       </c>
@@ -32250,8 +32886,8 @@
       <c r="D418" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E418" s="107"/>
-      <c r="F418" s="107"/>
+      <c r="E418" s="106"/>
+      <c r="F418" s="106"/>
       <c r="G418" s="93">
         <v>44483</v>
       </c>
@@ -32300,10 +32936,10 @@
       <c r="D420" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E420" s="132" t="s">
+      <c r="E420" s="123" t="s">
         <v>747</v>
       </c>
-      <c r="F420" s="105" t="s">
+      <c r="F420" s="104" t="s">
         <v>611</v>
       </c>
       <c r="G420" s="93">
@@ -32327,8 +32963,8 @@
       <c r="D421" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E421" s="125"/>
-      <c r="F421" s="106"/>
+      <c r="E421" s="124"/>
+      <c r="F421" s="105"/>
       <c r="G421" s="93">
         <v>44483</v>
       </c>
@@ -32350,8 +32986,8 @@
       <c r="D422" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E422" s="125"/>
-      <c r="F422" s="106"/>
+      <c r="E422" s="124"/>
+      <c r="F422" s="105"/>
       <c r="G422" s="93">
         <v>44483</v>
       </c>
@@ -32373,8 +33009,8 @@
       <c r="D423" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E423" s="125"/>
-      <c r="F423" s="106"/>
+      <c r="E423" s="124"/>
+      <c r="F423" s="105"/>
       <c r="G423" s="93">
         <v>44483</v>
       </c>
@@ -32396,8 +33032,8 @@
       <c r="D424" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E424" s="125"/>
-      <c r="F424" s="106"/>
+      <c r="E424" s="124"/>
+      <c r="F424" s="105"/>
       <c r="G424" s="93">
         <v>44483</v>
       </c>
@@ -32419,8 +33055,8 @@
       <c r="D425" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E425" s="126"/>
-      <c r="F425" s="107"/>
+      <c r="E425" s="125"/>
+      <c r="F425" s="106"/>
       <c r="G425" s="93">
         <v>44483</v>
       </c>
@@ -32433,303 +33069,565 @@
       </c>
       <c r="K425" s="17"/>
     </row>
-    <row r="426" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A426" s="17"/>
-      <c r="B426" s="72"/>
-      <c r="C426" s="37"/>
-      <c r="D426" s="73"/>
-      <c r="E426" s="37"/>
-      <c r="F426" s="37"/>
-      <c r="G426" s="73"/>
-      <c r="H426" s="17"/>
+    <row r="426" spans="1:11" ht="45">
+      <c r="A426" s="12">
+        <v>422</v>
+      </c>
+      <c r="B426" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C426" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D426" s="72" t="s">
+        <v>657</v>
+      </c>
+      <c r="E426" s="37" t="s">
+        <v>774</v>
+      </c>
+      <c r="F426" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="G426" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H426" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I426" s="32"/>
-      <c r="J426" s="17"/>
+      <c r="J426" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K426" s="17"/>
     </row>
-    <row r="427" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A427" s="17"/>
+    <row r="427" spans="1:11" ht="45" customHeight="1">
+      <c r="A427" s="12">
+        <v>423</v>
+      </c>
       <c r="B427" s="72"/>
-      <c r="C427" s="37"/>
-      <c r="D427" s="73"/>
-      <c r="E427" s="37"/>
-      <c r="F427" s="37"/>
-      <c r="G427" s="73"/>
-      <c r="H427" s="17"/>
+      <c r="C427" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D427" s="104" t="s">
+        <v>657</v>
+      </c>
+      <c r="E427" s="104" t="s">
+        <v>774</v>
+      </c>
+      <c r="F427" s="91" t="s">
+        <v>778</v>
+      </c>
+      <c r="G427" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H427" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I427" s="32"/>
-      <c r="J427" s="17"/>
+      <c r="J427" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K427" s="17"/>
     </row>
-    <row r="428" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A428" s="17"/>
+    <row r="428" spans="1:11" ht="30">
+      <c r="A428" s="12">
+        <v>424</v>
+      </c>
       <c r="B428" s="72"/>
-      <c r="C428" s="37"/>
-      <c r="D428" s="73"/>
-      <c r="E428" s="37"/>
-      <c r="F428" s="37"/>
-      <c r="G428" s="73"/>
-      <c r="H428" s="17"/>
+      <c r="C428" s="105"/>
+      <c r="D428" s="105"/>
+      <c r="E428" s="105"/>
+      <c r="F428" s="91" t="s">
+        <v>779</v>
+      </c>
+      <c r="G428" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H428" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I428" s="32"/>
-      <c r="J428" s="17"/>
+      <c r="J428" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K428" s="17"/>
     </row>
-    <row r="429" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A429" s="17"/>
+    <row r="429" spans="1:11" ht="30">
+      <c r="A429" s="12">
+        <v>425</v>
+      </c>
       <c r="B429" s="72"/>
-      <c r="C429" s="37"/>
-      <c r="D429" s="73"/>
-      <c r="E429" s="37"/>
-      <c r="F429" s="37"/>
-      <c r="G429" s="73"/>
-      <c r="H429" s="17"/>
+      <c r="C429" s="105"/>
+      <c r="D429" s="105"/>
+      <c r="E429" s="105"/>
+      <c r="F429" s="91" t="s">
+        <v>780</v>
+      </c>
+      <c r="G429" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H429" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I429" s="32"/>
-      <c r="J429" s="17"/>
+      <c r="J429" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K429" s="17"/>
     </row>
-    <row r="430" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A430" s="17"/>
+    <row r="430" spans="1:11" ht="30">
+      <c r="A430" s="12">
+        <v>426</v>
+      </c>
       <c r="B430" s="72"/>
-      <c r="C430" s="37"/>
-      <c r="D430" s="73"/>
-      <c r="E430" s="37"/>
-      <c r="F430" s="37"/>
-      <c r="G430" s="73"/>
-      <c r="H430" s="17"/>
+      <c r="C430" s="105"/>
+      <c r="D430" s="105"/>
+      <c r="E430" s="105"/>
+      <c r="F430" s="91" t="s">
+        <v>781</v>
+      </c>
+      <c r="G430" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H430" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I430" s="32"/>
-      <c r="J430" s="17"/>
+      <c r="J430" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K430" s="17"/>
     </row>
-    <row r="431" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A431" s="17"/>
+    <row r="431" spans="1:11" ht="30">
+      <c r="A431" s="12">
+        <v>427</v>
+      </c>
       <c r="B431" s="72"/>
-      <c r="C431" s="37"/>
-      <c r="D431" s="73"/>
-      <c r="E431" s="37"/>
-      <c r="F431" s="37"/>
-      <c r="G431" s="73"/>
-      <c r="H431" s="17"/>
+      <c r="C431" s="105"/>
+      <c r="D431" s="105"/>
+      <c r="E431" s="105"/>
+      <c r="F431" s="91" t="s">
+        <v>782</v>
+      </c>
+      <c r="G431" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H431" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I431" s="32"/>
-      <c r="J431" s="17"/>
+      <c r="J431" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K431" s="17"/>
     </row>
-    <row r="432" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A432" s="17"/>
+    <row r="432" spans="1:11" ht="30">
+      <c r="A432" s="12">
+        <v>428</v>
+      </c>
       <c r="B432" s="72"/>
-      <c r="C432" s="37"/>
-      <c r="D432" s="73"/>
-      <c r="E432" s="37"/>
-      <c r="F432" s="37"/>
-      <c r="G432" s="73"/>
-      <c r="H432" s="17"/>
+      <c r="C432" s="105"/>
+      <c r="D432" s="105"/>
+      <c r="E432" s="105"/>
+      <c r="F432" s="31" t="s">
+        <v>776</v>
+      </c>
+      <c r="G432" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H432" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I432" s="32"/>
-      <c r="J432" s="17"/>
+      <c r="J432" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K432" s="17"/>
     </row>
-    <row r="433" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A433" s="17"/>
+    <row r="433" spans="1:11" ht="45">
+      <c r="A433" s="12">
+        <v>429</v>
+      </c>
       <c r="B433" s="72"/>
-      <c r="C433" s="37"/>
-      <c r="D433" s="73"/>
-      <c r="E433" s="37"/>
-      <c r="F433" s="37"/>
-      <c r="G433" s="73"/>
-      <c r="H433" s="17"/>
+      <c r="C433" s="105"/>
+      <c r="D433" s="105"/>
+      <c r="E433" s="105"/>
+      <c r="F433" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="G433" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H433" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I433" s="32"/>
-      <c r="J433" s="17"/>
+      <c r="J433" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K433" s="17"/>
     </row>
-    <row r="434" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A434" s="17"/>
+    <row r="434" spans="1:11" ht="15">
+      <c r="A434" s="12">
+        <v>430</v>
+      </c>
       <c r="B434" s="72"/>
-      <c r="C434" s="37"/>
-      <c r="D434" s="73"/>
-      <c r="E434" s="37"/>
-      <c r="F434" s="37"/>
-      <c r="G434" s="73"/>
-      <c r="H434" s="17"/>
+      <c r="C434" s="106"/>
+      <c r="D434" s="106"/>
+      <c r="E434" s="106"/>
+      <c r="F434" s="31" t="s">
+        <v>760</v>
+      </c>
+      <c r="G434" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H434" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I434" s="32"/>
-      <c r="J434" s="17"/>
+      <c r="J434" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K434" s="17"/>
     </row>
-    <row r="435" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A435" s="17"/>
-      <c r="B435" s="72"/>
-      <c r="C435" s="37"/>
-      <c r="D435" s="73"/>
-      <c r="E435" s="37"/>
-      <c r="F435" s="37"/>
-      <c r="G435" s="73"/>
-      <c r="H435" s="17"/>
+    <row r="435" spans="1:11" ht="30">
+      <c r="A435" s="12">
+        <v>431</v>
+      </c>
+      <c r="B435" s="72" t="s">
+        <v>783</v>
+      </c>
+      <c r="C435" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D435" s="123" t="s">
+        <v>552</v>
+      </c>
+      <c r="E435" s="91" t="s">
+        <v>784</v>
+      </c>
+      <c r="F435" s="110" t="s">
+        <v>766</v>
+      </c>
+      <c r="G435" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H435" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I435" s="32"/>
-      <c r="J435" s="17"/>
+      <c r="J435" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K435" s="17"/>
     </row>
-    <row r="436" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A436" s="17"/>
+    <row r="436" spans="1:11" ht="30">
+      <c r="A436" s="12">
+        <v>432</v>
+      </c>
       <c r="B436" s="72"/>
-      <c r="C436" s="37"/>
-      <c r="D436" s="73"/>
-      <c r="E436" s="37"/>
-      <c r="F436" s="37"/>
-      <c r="G436" s="73"/>
-      <c r="H436" s="17"/>
+      <c r="C436" s="105"/>
+      <c r="D436" s="124"/>
+      <c r="E436" s="91" t="s">
+        <v>785</v>
+      </c>
+      <c r="F436" s="111"/>
+      <c r="G436" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H436" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I436" s="32"/>
-      <c r="J436" s="17"/>
+      <c r="J436" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K436" s="17"/>
     </row>
-    <row r="437" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A437" s="17"/>
+    <row r="437" spans="1:11" ht="30">
+      <c r="A437" s="12">
+        <v>433</v>
+      </c>
       <c r="B437" s="72"/>
-      <c r="C437" s="37"/>
-      <c r="D437" s="73"/>
-      <c r="E437" s="37"/>
-      <c r="F437" s="37"/>
-      <c r="G437" s="73"/>
-      <c r="H437" s="17"/>
+      <c r="C437" s="105"/>
+      <c r="D437" s="124"/>
+      <c r="E437" s="91" t="s">
+        <v>786</v>
+      </c>
+      <c r="F437" s="111"/>
+      <c r="G437" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H437" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I437" s="32"/>
-      <c r="J437" s="17"/>
+      <c r="J437" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K437" s="17"/>
     </row>
-    <row r="438" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A438" s="17"/>
+    <row r="438" spans="1:11" ht="30">
+      <c r="A438" s="12">
+        <v>434</v>
+      </c>
       <c r="B438" s="72"/>
-      <c r="C438" s="37"/>
-      <c r="D438" s="73"/>
-      <c r="E438" s="37"/>
-      <c r="F438" s="37"/>
-      <c r="G438" s="73"/>
-      <c r="H438" s="17"/>
+      <c r="C438" s="105"/>
+      <c r="D438" s="124"/>
+      <c r="E438" s="91" t="s">
+        <v>787</v>
+      </c>
+      <c r="F438" s="111"/>
+      <c r="G438" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H438" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I438" s="32"/>
-      <c r="J438" s="17"/>
+      <c r="J438" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K438" s="17"/>
     </row>
-    <row r="439" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A439" s="17"/>
+    <row r="439" spans="1:11" ht="30">
+      <c r="A439" s="12">
+        <v>435</v>
+      </c>
       <c r="B439" s="72"/>
-      <c r="C439" s="37"/>
-      <c r="D439" s="73"/>
-      <c r="E439" s="37"/>
-      <c r="F439" s="37"/>
-      <c r="G439" s="73"/>
-      <c r="H439" s="17"/>
+      <c r="C439" s="105"/>
+      <c r="D439" s="124"/>
+      <c r="E439" s="91" t="s">
+        <v>788</v>
+      </c>
+      <c r="F439" s="112"/>
+      <c r="G439" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H439" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I439" s="32"/>
-      <c r="J439" s="17"/>
+      <c r="J439" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K439" s="17"/>
     </row>
-    <row r="440" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A440" s="17"/>
+    <row r="440" spans="1:11" ht="30">
+      <c r="A440" s="12">
+        <v>436</v>
+      </c>
       <c r="B440" s="72"/>
-      <c r="C440" s="37"/>
-      <c r="D440" s="73"/>
-      <c r="E440" s="37"/>
-      <c r="F440" s="37"/>
-      <c r="G440" s="73"/>
-      <c r="H440" s="17"/>
+      <c r="C440" s="105"/>
+      <c r="D440" s="124"/>
+      <c r="E440" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="F440" s="110" t="s">
+        <v>767</v>
+      </c>
+      <c r="G440" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H440" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I440" s="32"/>
-      <c r="J440" s="17"/>
+      <c r="J440" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K440" s="17"/>
     </row>
-    <row r="441" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A441" s="17"/>
+    <row r="441" spans="1:11" ht="30">
+      <c r="A441" s="12">
+        <v>437</v>
+      </c>
       <c r="B441" s="72"/>
-      <c r="C441" s="37"/>
-      <c r="D441" s="73"/>
-      <c r="E441" s="37"/>
-      <c r="F441" s="37"/>
-      <c r="G441" s="73"/>
-      <c r="H441" s="17"/>
+      <c r="C441" s="106"/>
+      <c r="D441" s="125"/>
+      <c r="E441" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="F441" s="112"/>
+      <c r="G441" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H441" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I441" s="32"/>
-      <c r="J441" s="17"/>
+      <c r="J441" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K441" s="17"/>
     </row>
-    <row r="442" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A442" s="17"/>
-      <c r="B442" s="72"/>
-      <c r="C442" s="37"/>
-      <c r="D442" s="73"/>
-      <c r="E442" s="37"/>
-      <c r="F442" s="37"/>
-      <c r="G442" s="73"/>
-      <c r="H442" s="17"/>
+    <row r="442" spans="1:11" ht="90">
+      <c r="A442" s="12">
+        <v>438</v>
+      </c>
+      <c r="B442" s="72" t="s">
+        <v>791</v>
+      </c>
+      <c r="C442" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D442" s="123" t="s">
+        <v>552</v>
+      </c>
+      <c r="E442" s="104" t="s">
+        <v>765</v>
+      </c>
+      <c r="F442" s="91" t="s">
+        <v>794</v>
+      </c>
+      <c r="G442" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H442" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I442" s="32"/>
-      <c r="J442" s="17"/>
+      <c r="J442" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K442" s="17"/>
     </row>
-    <row r="443" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A443" s="17"/>
+    <row r="443" spans="1:11" ht="75">
+      <c r="A443" s="12">
+        <v>439</v>
+      </c>
       <c r="B443" s="72"/>
-      <c r="C443" s="37"/>
-      <c r="D443" s="73"/>
-      <c r="E443" s="37"/>
-      <c r="F443" s="37"/>
-      <c r="G443" s="73"/>
-      <c r="H443" s="17"/>
+      <c r="C443" s="105"/>
+      <c r="D443" s="124"/>
+      <c r="E443" s="105"/>
+      <c r="F443" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="G443" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H443" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I443" s="32"/>
-      <c r="J443" s="17"/>
+      <c r="J443" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K443" s="17"/>
     </row>
-    <row r="444" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A444" s="17"/>
+    <row r="444" spans="1:11" ht="75">
+      <c r="A444" s="12">
+        <v>440</v>
+      </c>
       <c r="B444" s="72"/>
-      <c r="C444" s="37"/>
-      <c r="D444" s="73"/>
-      <c r="E444" s="37"/>
-      <c r="F444" s="37"/>
-      <c r="G444" s="73"/>
-      <c r="H444" s="17"/>
+      <c r="C444" s="105"/>
+      <c r="D444" s="124"/>
+      <c r="E444" s="105"/>
+      <c r="F444" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="G444" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H444" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I444" s="32"/>
-      <c r="J444" s="17"/>
+      <c r="J444" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K444" s="17"/>
     </row>
-    <row r="445" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A445" s="17"/>
+    <row r="445" spans="1:11" ht="90">
+      <c r="A445" s="12">
+        <v>441</v>
+      </c>
       <c r="B445" s="72"/>
-      <c r="C445" s="37"/>
-      <c r="D445" s="73"/>
-      <c r="E445" s="37"/>
-      <c r="F445" s="37"/>
-      <c r="G445" s="73"/>
-      <c r="H445" s="17"/>
+      <c r="C445" s="105"/>
+      <c r="D445" s="124"/>
+      <c r="E445" s="105"/>
+      <c r="F445" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="G445" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H445" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I445" s="32"/>
-      <c r="J445" s="17"/>
+      <c r="J445" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K445" s="17"/>
     </row>
-    <row r="446" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A446" s="17"/>
+    <row r="446" spans="1:11" ht="90">
+      <c r="A446" s="12">
+        <v>442</v>
+      </c>
       <c r="B446" s="72"/>
-      <c r="C446" s="37"/>
-      <c r="D446" s="73"/>
-      <c r="E446" s="37"/>
-      <c r="F446" s="37"/>
-      <c r="G446" s="73"/>
-      <c r="H446" s="17"/>
+      <c r="C446" s="105"/>
+      <c r="D446" s="124"/>
+      <c r="E446" s="105"/>
+      <c r="F446" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="G446" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H446" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I446" s="32"/>
-      <c r="J446" s="17"/>
+      <c r="J446" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K446" s="17"/>
     </row>
-    <row r="447" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A447" s="17"/>
+    <row r="447" spans="1:11" ht="90">
+      <c r="A447" s="12">
+        <v>443</v>
+      </c>
       <c r="B447" s="72"/>
-      <c r="C447" s="37"/>
-      <c r="D447" s="73"/>
-      <c r="E447" s="37"/>
-      <c r="F447" s="37"/>
-      <c r="G447" s="73"/>
-      <c r="H447" s="17"/>
+      <c r="C447" s="105"/>
+      <c r="D447" s="124"/>
+      <c r="E447" s="105"/>
+      <c r="F447" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="G447" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H447" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I447" s="32"/>
-      <c r="J447" s="17"/>
+      <c r="J447" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K447" s="17"/>
     </row>
-    <row r="448" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A448" s="17"/>
+    <row r="448" spans="1:11" ht="90">
+      <c r="A448" s="12">
+        <v>444</v>
+      </c>
       <c r="B448" s="72"/>
-      <c r="C448" s="37"/>
-      <c r="D448" s="73"/>
-      <c r="E448" s="37"/>
-      <c r="F448" s="37"/>
-      <c r="G448" s="73"/>
-      <c r="H448" s="17"/>
+      <c r="C448" s="106"/>
+      <c r="D448" s="125"/>
+      <c r="E448" s="105"/>
+      <c r="F448" s="103" t="s">
+        <v>793</v>
+      </c>
+      <c r="G448" s="93">
+        <v>44504</v>
+      </c>
+      <c r="H448" s="17" t="s">
+        <v>227</v>
+      </c>
       <c r="I448" s="32"/>
-      <c r="J448" s="17"/>
+      <c r="J448" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="K448" s="17"/>
     </row>
     <row r="449" spans="1:11" ht="11.25" customHeight="1">
@@ -32737,7 +33635,7 @@
       <c r="B449" s="72"/>
       <c r="C449" s="37"/>
       <c r="D449" s="73"/>
-      <c r="E449" s="37"/>
+      <c r="E449" s="32"/>
       <c r="F449" s="37"/>
       <c r="G449" s="73"/>
       <c r="H449" s="17"/>
@@ -32771,35 +33669,250 @@
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
     </row>
+    <row r="452" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A452" s="17"/>
+      <c r="B452" s="72"/>
+      <c r="C452" s="37"/>
+      <c r="D452" s="73"/>
+      <c r="E452" s="37"/>
+      <c r="F452" s="37"/>
+      <c r="G452" s="73"/>
+      <c r="H452" s="17"/>
+      <c r="I452" s="32"/>
+      <c r="J452" s="17"/>
+      <c r="K452" s="17"/>
+    </row>
+    <row r="453" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A453" s="17"/>
+      <c r="B453" s="72"/>
+      <c r="C453" s="37"/>
+      <c r="D453" s="73"/>
+      <c r="E453" s="37"/>
+      <c r="F453" s="37"/>
+      <c r="G453" s="73"/>
+      <c r="H453" s="17"/>
+      <c r="I453" s="32"/>
+      <c r="J453" s="17"/>
+      <c r="K453" s="17"/>
+    </row>
+    <row r="454" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A454" s="17"/>
+      <c r="B454" s="72"/>
+      <c r="C454" s="37"/>
+      <c r="D454" s="73"/>
+      <c r="E454" s="37"/>
+      <c r="F454" s="37"/>
+      <c r="G454" s="73"/>
+      <c r="H454" s="17"/>
+      <c r="I454" s="32"/>
+      <c r="J454" s="17"/>
+      <c r="K454" s="17"/>
+    </row>
+    <row r="455" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A455" s="17"/>
+      <c r="B455" s="72"/>
+      <c r="C455" s="37"/>
+      <c r="D455" s="73"/>
+      <c r="E455" s="37"/>
+      <c r="F455" s="37"/>
+      <c r="G455" s="73"/>
+      <c r="H455" s="17"/>
+      <c r="I455" s="32"/>
+      <c r="J455" s="17"/>
+      <c r="K455" s="17"/>
+    </row>
+    <row r="456" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A456" s="17"/>
+      <c r="B456" s="72"/>
+      <c r="C456" s="37"/>
+      <c r="D456" s="73"/>
+      <c r="E456" s="37"/>
+      <c r="F456" s="37"/>
+      <c r="G456" s="73"/>
+      <c r="H456" s="17"/>
+      <c r="I456" s="32"/>
+      <c r="J456" s="17"/>
+      <c r="K456" s="17"/>
+    </row>
+    <row r="457" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A457" s="17"/>
+      <c r="B457" s="72"/>
+      <c r="C457" s="37"/>
+      <c r="D457" s="73"/>
+      <c r="E457" s="37"/>
+      <c r="F457" s="37"/>
+      <c r="G457" s="73"/>
+      <c r="H457" s="17"/>
+      <c r="I457" s="32"/>
+      <c r="J457" s="17"/>
+      <c r="K457" s="17"/>
+    </row>
+    <row r="458" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A458" s="17"/>
+      <c r="B458" s="72"/>
+      <c r="C458" s="37"/>
+      <c r="D458" s="73"/>
+      <c r="E458" s="37"/>
+      <c r="F458" s="37"/>
+      <c r="G458" s="73"/>
+      <c r="H458" s="17"/>
+      <c r="I458" s="32"/>
+      <c r="J458" s="17"/>
+      <c r="K458" s="17"/>
+    </row>
+    <row r="459" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A459" s="17"/>
+      <c r="B459" s="72"/>
+      <c r="C459" s="37"/>
+      <c r="D459" s="73"/>
+      <c r="E459" s="37"/>
+      <c r="F459" s="37"/>
+      <c r="G459" s="73"/>
+      <c r="H459" s="17"/>
+      <c r="I459" s="32"/>
+      <c r="J459" s="17"/>
+      <c r="K459" s="17"/>
+    </row>
+    <row r="460" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A460" s="17"/>
+      <c r="B460" s="72"/>
+      <c r="C460" s="37"/>
+      <c r="D460" s="73"/>
+      <c r="E460" s="37"/>
+      <c r="F460" s="37"/>
+      <c r="G460" s="73"/>
+      <c r="H460" s="17"/>
+      <c r="I460" s="32"/>
+      <c r="J460" s="17"/>
+      <c r="K460" s="17"/>
+    </row>
+    <row r="461" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A461" s="17"/>
+      <c r="B461" s="72"/>
+      <c r="C461" s="37"/>
+      <c r="D461" s="73"/>
+      <c r="E461" s="37"/>
+      <c r="F461" s="37"/>
+      <c r="G461" s="73"/>
+      <c r="H461" s="17"/>
+      <c r="I461" s="32"/>
+      <c r="J461" s="17"/>
+      <c r="K461" s="17"/>
+    </row>
+    <row r="462" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A462" s="17"/>
+      <c r="B462" s="72"/>
+      <c r="C462" s="37"/>
+      <c r="D462" s="73"/>
+      <c r="E462" s="37"/>
+      <c r="F462" s="37"/>
+      <c r="G462" s="73"/>
+      <c r="H462" s="17"/>
+      <c r="I462" s="32"/>
+      <c r="J462" s="17"/>
+      <c r="K462" s="17"/>
+    </row>
+    <row r="463" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A463" s="17"/>
+      <c r="B463" s="72"/>
+      <c r="C463" s="37"/>
+      <c r="D463" s="73"/>
+      <c r="E463" s="37"/>
+      <c r="F463" s="37"/>
+      <c r="G463" s="73"/>
+      <c r="H463" s="17"/>
+      <c r="I463" s="32"/>
+      <c r="J463" s="17"/>
+      <c r="K463" s="17"/>
+    </row>
+    <row r="464" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A464" s="17"/>
+      <c r="B464" s="72"/>
+      <c r="C464" s="37"/>
+      <c r="D464" s="73"/>
+      <c r="E464" s="37"/>
+      <c r="F464" s="37"/>
+      <c r="G464" s="73"/>
+      <c r="H464" s="17"/>
+      <c r="I464" s="32"/>
+      <c r="J464" s="17"/>
+      <c r="K464" s="17"/>
+    </row>
+    <row r="465" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A465" s="17"/>
+      <c r="B465" s="72"/>
+      <c r="C465" s="37"/>
+      <c r="D465" s="73"/>
+      <c r="E465" s="37"/>
+      <c r="F465" s="37"/>
+      <c r="G465" s="73"/>
+      <c r="H465" s="17"/>
+      <c r="I465" s="32"/>
+      <c r="J465" s="17"/>
+      <c r="K465" s="17"/>
+    </row>
+    <row r="466" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A466" s="17"/>
+      <c r="B466" s="72"/>
+      <c r="C466" s="37"/>
+      <c r="D466" s="73"/>
+      <c r="E466" s="37"/>
+      <c r="F466" s="37"/>
+      <c r="G466" s="73"/>
+      <c r="H466" s="17"/>
+      <c r="I466" s="32"/>
+      <c r="J466" s="17"/>
+      <c r="K466" s="17"/>
+    </row>
+    <row r="467" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A467" s="17"/>
+      <c r="B467" s="72"/>
+      <c r="C467" s="37"/>
+      <c r="D467" s="73"/>
+      <c r="E467" s="37"/>
+      <c r="F467" s="37"/>
+      <c r="G467" s="73"/>
+      <c r="H467" s="17"/>
+      <c r="I467" s="32"/>
+      <c r="J467" s="17"/>
+      <c r="K467" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="E420:E425"/>
-    <mergeCell ref="F420:F425"/>
-    <mergeCell ref="F405:F406"/>
-    <mergeCell ref="F408:F409"/>
-    <mergeCell ref="F397:F402"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="F366:F367"/>
-    <mergeCell ref="E388:E395"/>
-    <mergeCell ref="F388:F395"/>
-    <mergeCell ref="E411:E418"/>
-    <mergeCell ref="F411:F418"/>
-    <mergeCell ref="E397:E402"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
+  <mergeCells count="77">
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="C435:C441"/>
+    <mergeCell ref="D435:D441"/>
+    <mergeCell ref="C442:C448"/>
+    <mergeCell ref="D442:D448"/>
+    <mergeCell ref="E442:E448"/>
+    <mergeCell ref="E427:E434"/>
+    <mergeCell ref="D427:D434"/>
+    <mergeCell ref="C427:C434"/>
+    <mergeCell ref="F435:F439"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="F344:F345"/>
+    <mergeCell ref="F325:F335"/>
+    <mergeCell ref="E325:E335"/>
+    <mergeCell ref="F303:F313"/>
+    <mergeCell ref="E303:E313"/>
+    <mergeCell ref="F314:F324"/>
+    <mergeCell ref="E259:E269"/>
+    <mergeCell ref="F259:F269"/>
+    <mergeCell ref="E281:E291"/>
+    <mergeCell ref="F270:F280"/>
+    <mergeCell ref="F281:F291"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
     <mergeCell ref="F170:F181"/>
     <mergeCell ref="D182:D191"/>
     <mergeCell ref="F66:F77"/>
@@ -32816,34 +33929,1240 @@
     <mergeCell ref="E144:E145"/>
     <mergeCell ref="D114:D125"/>
     <mergeCell ref="E114:E125"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E259:E269"/>
-    <mergeCell ref="F259:F269"/>
-    <mergeCell ref="E281:E291"/>
-    <mergeCell ref="F270:F280"/>
-    <mergeCell ref="F281:F291"/>
-    <mergeCell ref="F337:F338"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="F325:F335"/>
-    <mergeCell ref="E325:E335"/>
-    <mergeCell ref="F303:F313"/>
-    <mergeCell ref="E303:E313"/>
-    <mergeCell ref="F314:F324"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="F366:F367"/>
+    <mergeCell ref="E388:E395"/>
+    <mergeCell ref="F388:F395"/>
+    <mergeCell ref="E411:E418"/>
+    <mergeCell ref="F411:F418"/>
+    <mergeCell ref="E397:E402"/>
+    <mergeCell ref="E420:E425"/>
+    <mergeCell ref="F420:F425"/>
+    <mergeCell ref="F405:F406"/>
+    <mergeCell ref="F408:F409"/>
+    <mergeCell ref="F397:F402"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233DE56-5C6E-461C-89EB-5672A18D2668}">
+  <dimension ref="A1:L82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="113" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="138"/>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" ht="15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="15">
+      <c r="A53" s="12"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" ht="15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" ht="15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" ht="15">
+      <c r="A56" s="12"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" ht="15">
+      <c r="A57" s="12"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="15">
+      <c r="A58" s="12"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" ht="15">
+      <c r="A59" s="12"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="15">
+      <c r="A60" s="12"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" ht="15">
+      <c r="A61" s="12"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="15">
+      <c r="A62" s="12"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" ht="15">
+      <c r="A63" s="12"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="15">
+      <c r="A64" s="12"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" ht="15">
+      <c r="A65" s="12"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="15">
+      <c r="A66" s="12"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="15">
+      <c r="A67" s="12"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="15">
+      <c r="A68" s="12"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" ht="15">
+      <c r="A69" s="12"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" ht="15">
+      <c r="A70" s="12"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" ht="15">
+      <c r="A71" s="12"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="15">
+      <c r="A72" s="12"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" ht="15">
+      <c r="A73" s="12"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" ht="15">
+      <c r="A74" s="12"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" ht="15">
+      <c r="A75" s="12"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" ht="15">
+      <c r="A76" s="12"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" ht="15">
+      <c r="A77" s="12"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" ht="15">
+      <c r="A78" s="12"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" ht="15">
+      <c r="A79" s="12"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" ht="15">
+      <c r="A80" s="12"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:12" ht="15">
+      <c r="A81" s="12"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" ht="15">
+      <c r="A82" s="12"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase_account_ver5.xlsx
+++ b/testcase_account_ver5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB947D1-C794-4D95-B792-D3B062EEE8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A02D3-8EFE-4196-9634-AF47248C02F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="831">
   <si>
     <t>作成者</t>
   </si>
@@ -13771,12 +13771,529 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ログイン画面
+から
+トップページ
+（regist_top.php）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+トップページ
+（regist.html）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント登録確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント登録完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント一覧画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント削除画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント削除確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント削除完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント更新画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント更新確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面
+から
+アカウント更新完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PHP MyAdminの負荷チェック</t>
+    <rPh sb="12" eb="14">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードに何も入れずに「ログイン」ボタンを100回押す。</t>
+    <rPh sb="14" eb="15">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの部分にPHP MyAdminにないメールアドレスを入力し、パスワードに何も入力しない状態で「ログイン」ボタンを100回押す。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの部分にPHP MyAdminにないパスワードを入力し、メールアドレスに何も入力しない状態で「ログイン」ボタンを100回押す。</t>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの部分にPHP MyAdminにあるメールアドレスを入力し、パスワードに何も入力しない状態で「ログイン」ボタンを100回押す。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの部分にPHP MyAdminにあるパスワードを入力し、メールアドレスに何も入力しない状態で「ログイン」ボタンを100回押す。</t>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスにスペース入力、もしくはパスワードにスペース入力。もしくは両方にスペース入力した状態で「ログイン」ボタンを押す。</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスポートに、PHP MyAdminに登録されているアカウントを入力し、「ログイン」ボタンをダブルクリックする。</t>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードに何も入れずにWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="14" eb="15">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの部分にPHP MyAdminにあるパスワードを入力し、メールアドレスに何も入力しない状態でWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの部分にPHP MyAdminにないメールアドレスを入力し、パスワードに何も入力しない状態でWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの部分にPHP MyAdminにあるメールアドレスを入力し、パスワードに何も入力しない状態でWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの部分にPHP MyAdminにないパスワードを入力し、メールアドレスに何も入力しない状態でWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="6" eb="8">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Webの更新ボタン
+または
+キーボードのF5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスにスペース入力、もしくはパスワードにスペース入力。もしくは両方にスペース入力した状態でWebの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスポートに、PHP MyAdminに登録されているアカウントを入力し、Webの更新ボタンかキーボードのF5を押す。</t>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態で「http://localhost/account/regist.html」を実行する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移
+画面表示
+チェック</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -13821,6 +14338,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -13842,7 +14365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -14134,13 +14657,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14451,6 +15002,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14460,22 +15039,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14508,6 +15072,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14517,20 +15090,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14541,24 +15114,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -14912,8 +15493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A237" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249:L260"/>
+    <sheetView showGridLines="0" topLeftCell="A194" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173:F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -14933,12 +15514,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -14961,10 +15542,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -15278,7 +15859,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="112" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -15308,7 +15889,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="111"/>
+      <c r="G13" s="117"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -15336,7 +15917,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -15364,7 +15945,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="111"/>
+      <c r="G15" s="117"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -15392,7 +15973,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="111"/>
+      <c r="G16" s="117"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -15420,7 +16001,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="111"/>
+      <c r="G17" s="117"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -15448,7 +16029,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="111"/>
+      <c r="G18" s="117"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -15476,7 +16057,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="111"/>
+      <c r="G19" s="117"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -15504,7 +16085,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="111"/>
+      <c r="G20" s="117"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -15532,7 +16113,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="111"/>
+      <c r="G21" s="117"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -15560,7 +16141,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="111"/>
+      <c r="G22" s="117"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -15588,7 +16169,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="112"/>
+      <c r="G23" s="113"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -16046,7 +16627,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="114" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -16076,7 +16657,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="105"/>
+      <c r="G39" s="115"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -16104,7 +16685,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="105"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -16132,7 +16713,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="105"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -16160,7 +16741,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="106"/>
+      <c r="G42" s="116"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -16312,7 +16893,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="104" t="s">
+      <c r="G47" s="114" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -16342,7 +16923,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="106"/>
+      <c r="G48" s="116"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -16623,7 +17204,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="112" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -16655,7 +17236,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="111"/>
+      <c r="F58" s="117"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -16682,10 +17263,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="117" t="s">
+      <c r="E59" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="111"/>
+      <c r="F59" s="117"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -16710,8 +17291,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="118"/>
-      <c r="F60" s="111"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="117"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -16736,8 +17317,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="118"/>
-      <c r="F61" s="111"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="117"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -16762,8 +17343,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="118"/>
-      <c r="F62" s="111"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="117"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -16788,8 +17369,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="118"/>
-      <c r="F63" s="111"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="117"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -16814,8 +17395,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="118"/>
-      <c r="F64" s="111"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="117"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -16840,8 +17421,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="118"/>
-      <c r="F65" s="111"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="117"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -16866,8 +17447,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="118"/>
-      <c r="F66" s="111"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="117"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -16892,8 +17473,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="118"/>
-      <c r="F67" s="111"/>
+      <c r="E67" s="123"/>
+      <c r="F67" s="117"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -16918,8 +17499,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="118"/>
-      <c r="F68" s="111"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="117"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -16944,8 +17525,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="118"/>
-      <c r="F69" s="111"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="117"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -16970,8 +17551,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="111"/>
+      <c r="E70" s="123"/>
+      <c r="F70" s="117"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -16996,8 +17577,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="112"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="113"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -17058,10 +17639,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="120" t="s">
+      <c r="E73" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="104" t="s">
+      <c r="F73" s="114" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -17088,8 +17669,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="121"/>
-      <c r="F74" s="105"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="115"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -17114,8 +17695,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="105"/>
+      <c r="E75" s="126"/>
+      <c r="F75" s="115"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -17140,8 +17721,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="121"/>
-      <c r="F76" s="105"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="115"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -17166,8 +17747,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="105"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="115"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -17192,8 +17773,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="121"/>
-      <c r="F78" s="105"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="115"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -17218,8 +17799,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="121"/>
-      <c r="F79" s="105"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="115"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -17244,8 +17825,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="121"/>
-      <c r="F80" s="105"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="115"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -17270,8 +17851,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="121"/>
-      <c r="F81" s="105"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="115"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -17296,8 +17877,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="121"/>
-      <c r="F82" s="105"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="115"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -17322,8 +17903,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="121"/>
-      <c r="F83" s="105"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="115"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -17348,8 +17929,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="122"/>
-      <c r="F84" s="106"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="116"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -17442,10 +18023,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="120" t="s">
+      <c r="E87" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="104" t="s">
+      <c r="F87" s="114" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -17472,8 +18053,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="121"/>
-      <c r="F88" s="105"/>
+      <c r="E88" s="126"/>
+      <c r="F88" s="115"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -17498,8 +18079,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="121"/>
-      <c r="F89" s="105"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="115"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -17524,8 +18105,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="122"/>
-      <c r="F90" s="106"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="116"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -17554,10 +18135,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="120" t="s">
+      <c r="E91" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="110" t="s">
+      <c r="F91" s="112" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -17586,8 +18167,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="121"/>
-      <c r="F92" s="111"/>
+      <c r="E92" s="126"/>
+      <c r="F92" s="117"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -17612,8 +18193,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="122"/>
-      <c r="F93" s="111"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="117"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -17645,7 +18226,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="111"/>
+      <c r="F94" s="117"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -17673,7 +18254,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="112"/>
+      <c r="F95" s="113"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -17768,10 +18349,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="120" t="s">
+      <c r="E98" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="104" t="s">
+      <c r="F98" s="114" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -17798,8 +18379,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="121"/>
-      <c r="F99" s="105"/>
+      <c r="E99" s="126"/>
+      <c r="F99" s="115"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -17824,8 +18405,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="121"/>
-      <c r="F100" s="105"/>
+      <c r="E100" s="126"/>
+      <c r="F100" s="115"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -17850,8 +18431,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="121"/>
-      <c r="F101" s="105"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="115"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -17876,8 +18457,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="121"/>
-      <c r="F102" s="105"/>
+      <c r="E102" s="126"/>
+      <c r="F102" s="115"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -17902,8 +18483,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="121"/>
-      <c r="F103" s="105"/>
+      <c r="E103" s="126"/>
+      <c r="F103" s="115"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -17928,8 +18509,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="121"/>
-      <c r="F104" s="105"/>
+      <c r="E104" s="126"/>
+      <c r="F104" s="115"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -17954,8 +18535,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="121"/>
-      <c r="F105" s="105"/>
+      <c r="E105" s="126"/>
+      <c r="F105" s="115"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -17980,8 +18561,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="121"/>
-      <c r="F106" s="105"/>
+      <c r="E106" s="126"/>
+      <c r="F106" s="115"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -18006,8 +18587,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="121"/>
-      <c r="F107" s="105"/>
+      <c r="E107" s="126"/>
+      <c r="F107" s="115"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -18032,8 +18613,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="121"/>
-      <c r="F108" s="105"/>
+      <c r="E108" s="126"/>
+      <c r="F108" s="115"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -18058,8 +18639,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="122"/>
-      <c r="F109" s="106"/>
+      <c r="E109" s="127"/>
+      <c r="F109" s="116"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -18156,7 +18737,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="110" t="s">
+      <c r="G112" s="112" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -18186,7 +18767,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="111"/>
+      <c r="G113" s="117"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -18214,7 +18795,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="111"/>
+      <c r="G114" s="117"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -18242,7 +18823,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="111"/>
+      <c r="G115" s="117"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -18270,7 +18851,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="111"/>
+      <c r="G116" s="117"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -18298,7 +18879,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="111"/>
+      <c r="G117" s="117"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -18328,7 +18909,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="111"/>
+      <c r="G118" s="117"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -18356,7 +18937,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="111"/>
+      <c r="G119" s="117"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -18384,7 +18965,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="111"/>
+      <c r="G120" s="117"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -18412,7 +18993,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="111"/>
+      <c r="G121" s="117"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -18440,7 +19021,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="111"/>
+      <c r="G122" s="117"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -18468,7 +19049,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="112"/>
+      <c r="G123" s="113"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -18801,7 +19382,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="104" t="s">
+      <c r="F134" s="114" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -18831,7 +19412,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="105"/>
+      <c r="F135" s="115"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -18859,7 +19440,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="105"/>
+      <c r="F136" s="115"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -18887,7 +19468,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="105"/>
+      <c r="F137" s="115"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -18915,7 +19496,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="105"/>
+      <c r="F138" s="115"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -18943,7 +19524,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="105"/>
+      <c r="F139" s="115"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -18971,7 +19552,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="105"/>
+      <c r="F140" s="115"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -19001,7 +19582,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="105"/>
+      <c r="F141" s="115"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -19029,7 +19610,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="105"/>
+      <c r="F142" s="115"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -19057,7 +19638,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="105"/>
+      <c r="F143" s="115"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -19085,7 +19666,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="105"/>
+      <c r="F144" s="115"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -19113,7 +19694,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="105"/>
+      <c r="F145" s="115"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -19141,7 +19722,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="105"/>
+      <c r="F146" s="115"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -19169,7 +19750,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="105"/>
+      <c r="F147" s="115"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -19197,7 +19778,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="106"/>
+      <c r="F148" s="116"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -19229,7 +19810,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="104" t="s">
+      <c r="F149" s="114" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -19259,7 +19840,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="105"/>
+      <c r="F150" s="115"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -19287,7 +19868,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="106"/>
+      <c r="F151" s="116"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -19316,13 +19897,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="107" t="s">
+      <c r="E152" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="104" t="s">
+      <c r="F152" s="114" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="110" t="s">
+      <c r="G152" s="112" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -19346,9 +19927,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="108"/>
-      <c r="F153" s="105"/>
-      <c r="G153" s="111"/>
+      <c r="E153" s="129"/>
+      <c r="F153" s="115"/>
+      <c r="G153" s="117"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -19370,9 +19951,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="108"/>
-      <c r="F154" s="105"/>
-      <c r="G154" s="111"/>
+      <c r="E154" s="129"/>
+      <c r="F154" s="115"/>
+      <c r="G154" s="117"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -19394,9 +19975,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="108"/>
-      <c r="F155" s="105"/>
-      <c r="G155" s="111"/>
+      <c r="E155" s="129"/>
+      <c r="F155" s="115"/>
+      <c r="G155" s="117"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -19418,9 +19999,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="108"/>
-      <c r="F156" s="105"/>
-      <c r="G156" s="111"/>
+      <c r="E156" s="129"/>
+      <c r="F156" s="115"/>
+      <c r="G156" s="117"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -19442,9 +20023,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="108"/>
-      <c r="F157" s="105"/>
-      <c r="G157" s="111"/>
+      <c r="E157" s="129"/>
+      <c r="F157" s="115"/>
+      <c r="G157" s="117"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -19468,9 +20049,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="108"/>
-      <c r="F158" s="105"/>
-      <c r="G158" s="111"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="115"/>
+      <c r="G158" s="117"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -19492,9 +20073,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="108"/>
-      <c r="F159" s="105"/>
-      <c r="G159" s="111"/>
+      <c r="E159" s="129"/>
+      <c r="F159" s="115"/>
+      <c r="G159" s="117"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -19516,9 +20097,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="108"/>
-      <c r="F160" s="105"/>
-      <c r="G160" s="111"/>
+      <c r="E160" s="129"/>
+      <c r="F160" s="115"/>
+      <c r="G160" s="117"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -19540,9 +20121,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="108"/>
-      <c r="F161" s="105"/>
-      <c r="G161" s="111"/>
+      <c r="E161" s="129"/>
+      <c r="F161" s="115"/>
+      <c r="G161" s="117"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -19564,9 +20145,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="108"/>
-      <c r="F162" s="105"/>
-      <c r="G162" s="111"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="115"/>
+      <c r="G162" s="117"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -19588,9 +20169,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="108"/>
-      <c r="F163" s="105"/>
-      <c r="G163" s="112"/>
+      <c r="E163" s="129"/>
+      <c r="F163" s="115"/>
+      <c r="G163" s="113"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -19612,8 +20193,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="108"/>
-      <c r="F164" s="105"/>
+      <c r="E164" s="129"/>
+      <c r="F164" s="115"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -19638,8 +20219,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="109"/>
-      <c r="F165" s="106"/>
+      <c r="E165" s="130"/>
+      <c r="F165" s="116"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -19740,7 +20321,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="110" t="s">
+      <c r="G168" s="112" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="68">
@@ -19770,7 +20351,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="112"/>
+      <c r="G169" s="113"/>
       <c r="H169" s="68">
         <v>44480</v>
       </c>
@@ -19900,7 +20481,7 @@
       <c r="F173" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="G173" s="104" t="s">
+      <c r="G173" s="114" t="s">
         <v>599</v>
       </c>
       <c r="H173" s="68">
@@ -19930,7 +20511,7 @@
       <c r="F174" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G174" s="105"/>
+      <c r="G174" s="115"/>
       <c r="H174" s="68">
         <v>44480</v>
       </c>
@@ -19958,7 +20539,7 @@
       <c r="F175" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="105"/>
+      <c r="G175" s="115"/>
       <c r="H175" s="68">
         <v>44480</v>
       </c>
@@ -19986,7 +20567,7 @@
       <c r="F176" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="105"/>
+      <c r="G176" s="115"/>
       <c r="H176" s="68">
         <v>44480</v>
       </c>
@@ -20014,7 +20595,7 @@
       <c r="F177" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G177" s="105"/>
+      <c r="G177" s="115"/>
       <c r="H177" s="68">
         <v>44480</v>
       </c>
@@ -20042,7 +20623,7 @@
       <c r="F178" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G178" s="105"/>
+      <c r="G178" s="115"/>
       <c r="H178" s="68">
         <v>44480</v>
       </c>
@@ -20070,7 +20651,7 @@
       <c r="F179" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G179" s="105"/>
+      <c r="G179" s="115"/>
       <c r="H179" s="68">
         <v>44480</v>
       </c>
@@ -20098,7 +20679,7 @@
       <c r="F180" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="105"/>
+      <c r="G180" s="115"/>
       <c r="H180" s="68">
         <v>44480</v>
       </c>
@@ -20126,7 +20707,7 @@
       <c r="F181" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="105"/>
+      <c r="G181" s="115"/>
       <c r="H181" s="68">
         <v>44480</v>
       </c>
@@ -20154,7 +20735,7 @@
       <c r="F182" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="105"/>
+      <c r="G182" s="115"/>
       <c r="H182" s="68">
         <v>44480</v>
       </c>
@@ -20182,7 +20763,7 @@
       <c r="F183" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G183" s="106"/>
+      <c r="G183" s="116"/>
       <c r="H183" s="68">
         <v>44480</v>
       </c>
@@ -20242,7 +20823,7 @@
       <c r="F185" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="G185" s="110" t="s">
+      <c r="G185" s="112" t="s">
         <v>601</v>
       </c>
       <c r="H185" s="68">
@@ -20272,7 +20853,7 @@
       <c r="F186" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="111"/>
+      <c r="G186" s="117"/>
       <c r="H186" s="68">
         <v>44480</v>
       </c>
@@ -20300,7 +20881,7 @@
       <c r="F187" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="G187" s="111"/>
+      <c r="G187" s="117"/>
       <c r="H187" s="68">
         <v>44480</v>
       </c>
@@ -20328,7 +20909,7 @@
       <c r="F188" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="G188" s="111"/>
+      <c r="G188" s="117"/>
       <c r="H188" s="68">
         <v>44480</v>
       </c>
@@ -20356,7 +20937,7 @@
       <c r="F189" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="111"/>
+      <c r="G189" s="117"/>
       <c r="H189" s="68">
         <v>44480</v>
       </c>
@@ -20384,7 +20965,7 @@
       <c r="F190" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G190" s="111"/>
+      <c r="G190" s="117"/>
       <c r="H190" s="68">
         <v>44480</v>
       </c>
@@ -20412,7 +20993,7 @@
       <c r="F191" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="G191" s="111"/>
+      <c r="G191" s="117"/>
       <c r="H191" s="68">
         <v>44480</v>
       </c>
@@ -20440,7 +21021,7 @@
       <c r="F192" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="G192" s="111"/>
+      <c r="G192" s="117"/>
       <c r="H192" s="68">
         <v>44480</v>
       </c>
@@ -20468,7 +21049,7 @@
       <c r="F193" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G193" s="111"/>
+      <c r="G193" s="117"/>
       <c r="H193" s="68">
         <v>44480</v>
       </c>
@@ -20496,7 +21077,7 @@
       <c r="F194" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G194" s="112"/>
+      <c r="G194" s="113"/>
       <c r="H194" s="68">
         <v>44480</v>
       </c>
@@ -20924,7 +21505,7 @@
       <c r="F208" s="99" t="s">
         <v>593</v>
       </c>
-      <c r="G208" s="110" t="s">
+      <c r="G208" s="112" t="s">
         <v>604</v>
       </c>
       <c r="H208" s="68">
@@ -20954,7 +21535,7 @@
       <c r="F209" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="G209" s="112"/>
+      <c r="G209" s="113"/>
       <c r="H209" s="68">
         <v>44480</v>
       </c>
@@ -21014,7 +21595,7 @@
       <c r="F211" s="99" t="s">
         <v>596</v>
       </c>
-      <c r="G211" s="110" t="s">
+      <c r="G211" s="112" t="s">
         <v>607</v>
       </c>
       <c r="H211" s="68">
@@ -21044,7 +21625,7 @@
       <c r="F212" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="G212" s="112"/>
+      <c r="G212" s="113"/>
       <c r="H212" s="68">
         <v>44480</v>
       </c>
@@ -21100,13 +21681,13 @@
       <c r="D214" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="107" t="s">
+      <c r="E214" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="104" t="s">
+      <c r="F214" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="G214" s="110" t="s">
+      <c r="G214" s="112" t="s">
         <v>757</v>
       </c>
       <c r="H214" s="68">
@@ -21130,9 +21711,9 @@
       <c r="D215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E215" s="108"/>
-      <c r="F215" s="105"/>
-      <c r="G215" s="111"/>
+      <c r="E215" s="129"/>
+      <c r="F215" s="115"/>
+      <c r="G215" s="117"/>
       <c r="H215" s="68">
         <v>44504</v>
       </c>
@@ -21154,9 +21735,9 @@
       <c r="D216" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="108"/>
-      <c r="F216" s="105"/>
-      <c r="G216" s="111"/>
+      <c r="E216" s="129"/>
+      <c r="F216" s="115"/>
+      <c r="G216" s="117"/>
       <c r="H216" s="68">
         <v>44504</v>
       </c>
@@ -21178,9 +21759,9 @@
       <c r="D217" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E217" s="108"/>
-      <c r="F217" s="105"/>
-      <c r="G217" s="111"/>
+      <c r="E217" s="129"/>
+      <c r="F217" s="115"/>
+      <c r="G217" s="117"/>
       <c r="H217" s="68">
         <v>44504</v>
       </c>
@@ -21202,9 +21783,9 @@
       <c r="D218" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E218" s="108"/>
-      <c r="F218" s="105"/>
-      <c r="G218" s="112"/>
+      <c r="E218" s="129"/>
+      <c r="F218" s="115"/>
+      <c r="G218" s="113"/>
       <c r="H218" s="68">
         <v>44504</v>
       </c>
@@ -21226,8 +21807,8 @@
       <c r="D219" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="108"/>
-      <c r="F219" s="105"/>
+      <c r="E219" s="129"/>
+      <c r="F219" s="115"/>
       <c r="G219" s="31" t="s">
         <v>759</v>
       </c>
@@ -21252,8 +21833,8 @@
       <c r="D220" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="108"/>
-      <c r="F220" s="105"/>
+      <c r="E220" s="129"/>
+      <c r="F220" s="115"/>
       <c r="G220" s="31" t="s">
         <v>758</v>
       </c>
@@ -21278,8 +21859,8 @@
       <c r="D221" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="109"/>
-      <c r="F221" s="105"/>
+      <c r="E221" s="130"/>
+      <c r="F221" s="115"/>
       <c r="G221" s="31" t="s">
         <v>760</v>
       </c>
@@ -21307,7 +21888,7 @@
       <c r="E222" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="F222" s="106"/>
+      <c r="F222" s="116"/>
       <c r="G222" s="31" t="s">
         <v>769</v>
       </c>
@@ -21334,13 +21915,13 @@
       <c r="D223" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="107" t="s">
+      <c r="E223" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="F223" s="104" t="s">
+      <c r="F223" s="114" t="s">
         <v>762</v>
       </c>
-      <c r="G223" s="110" t="s">
+      <c r="G223" s="112" t="s">
         <v>766</v>
       </c>
       <c r="H223" s="68">
@@ -21364,9 +21945,9 @@
       <c r="D224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E224" s="108"/>
-      <c r="F224" s="105"/>
-      <c r="G224" s="111"/>
+      <c r="E224" s="129"/>
+      <c r="F224" s="115"/>
+      <c r="G224" s="117"/>
       <c r="H224" s="68">
         <v>44504</v>
       </c>
@@ -21388,9 +21969,9 @@
       <c r="D225" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="108"/>
-      <c r="F225" s="105"/>
-      <c r="G225" s="111"/>
+      <c r="E225" s="129"/>
+      <c r="F225" s="115"/>
+      <c r="G225" s="117"/>
       <c r="H225" s="68">
         <v>44504</v>
       </c>
@@ -21412,9 +21993,9 @@
       <c r="D226" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="108"/>
-      <c r="F226" s="105"/>
-      <c r="G226" s="111"/>
+      <c r="E226" s="129"/>
+      <c r="F226" s="115"/>
+      <c r="G226" s="117"/>
       <c r="H226" s="68">
         <v>44504</v>
       </c>
@@ -21436,9 +22017,9 @@
       <c r="D227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="108"/>
-      <c r="F227" s="106"/>
-      <c r="G227" s="112"/>
+      <c r="E227" s="129"/>
+      <c r="F227" s="116"/>
+      <c r="G227" s="113"/>
       <c r="H227" s="68">
         <v>44504</v>
       </c>
@@ -21460,11 +22041,11 @@
       <c r="D228" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="108"/>
+      <c r="E228" s="129"/>
       <c r="F228" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="G228" s="110" t="s">
+      <c r="G228" s="112" t="s">
         <v>767</v>
       </c>
       <c r="H228" s="68">
@@ -21488,11 +22069,11 @@
       <c r="D229" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="108"/>
+      <c r="E229" s="129"/>
       <c r="F229" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="G229" s="112"/>
+      <c r="G229" s="113"/>
       <c r="H229" s="68">
         <v>44504</v>
       </c>
@@ -21516,13 +22097,13 @@
       <c r="D230" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="107" t="s">
+      <c r="E230" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="F230" s="104" t="s">
+      <c r="F230" s="114" t="s">
         <v>765</v>
       </c>
-      <c r="G230" s="110" t="s">
+      <c r="G230" s="112" t="s">
         <v>770</v>
       </c>
       <c r="H230" s="68">
@@ -21546,9 +22127,9 @@
       <c r="D231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E231" s="108"/>
-      <c r="F231" s="105"/>
-      <c r="G231" s="111"/>
+      <c r="E231" s="129"/>
+      <c r="F231" s="115"/>
+      <c r="G231" s="117"/>
       <c r="H231" s="68">
         <v>44504</v>
       </c>
@@ -21570,9 +22151,9 @@
       <c r="D232" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="108"/>
-      <c r="F232" s="105"/>
-      <c r="G232" s="111"/>
+      <c r="E232" s="129"/>
+      <c r="F232" s="115"/>
+      <c r="G232" s="117"/>
       <c r="H232" s="68">
         <v>44504</v>
       </c>
@@ -21594,9 +22175,9 @@
       <c r="D233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="108"/>
-      <c r="F233" s="105"/>
-      <c r="G233" s="111"/>
+      <c r="E233" s="129"/>
+      <c r="F233" s="115"/>
+      <c r="G233" s="117"/>
       <c r="H233" s="68">
         <v>44504</v>
       </c>
@@ -21618,9 +22199,9 @@
       <c r="D234" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="108"/>
-      <c r="F234" s="105"/>
-      <c r="G234" s="112"/>
+      <c r="E234" s="129"/>
+      <c r="F234" s="115"/>
+      <c r="G234" s="113"/>
       <c r="H234" s="68">
         <v>44504</v>
       </c>
@@ -21642,8 +22223,8 @@
       <c r="D235" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="108"/>
-      <c r="F235" s="105"/>
+      <c r="E235" s="129"/>
+      <c r="F235" s="115"/>
       <c r="G235" s="102" t="s">
         <v>771</v>
       </c>
@@ -21668,8 +22249,8 @@
       <c r="D236" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E236" s="108"/>
-      <c r="F236" s="105"/>
+      <c r="E236" s="129"/>
+      <c r="F236" s="115"/>
       <c r="G236" s="102" t="s">
         <v>772</v>
       </c>
@@ -21694,8 +22275,8 @@
       <c r="D237" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="E237" s="109"/>
-      <c r="F237" s="106"/>
+      <c r="E237" s="130"/>
+      <c r="F237" s="116"/>
       <c r="G237" s="31" t="s">
         <v>773</v>
       </c>
@@ -22035,6 +22616,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F230:F237"/>
+    <mergeCell ref="E230:E237"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="E214:E221"/>
+    <mergeCell ref="F214:F222"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="G223:G227"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="G173:G183"/>
     <mergeCell ref="G185:G194"/>
@@ -22051,25 +22651,6 @@
     <mergeCell ref="F87:F90"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="E98:E109"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="E152:E165"/>
-    <mergeCell ref="F152:F165"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="G152:G163"/>
-    <mergeCell ref="G112:G123"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="F230:F237"/>
-    <mergeCell ref="E230:E237"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="E214:E221"/>
-    <mergeCell ref="F214:F222"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="G223:G227"/>
-    <mergeCell ref="G228:G229"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -22082,8 +22663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9E524B-C67B-4990-A5C3-077E8DAB7E38}">
   <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J2"/>
+    <sheetView showGridLines="0" topLeftCell="A268" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -22103,11 +22684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="137"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -22130,9 +22711,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -22300,13 +22881,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="112" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="112" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -22326,11 +22907,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="111"/>
+      <c r="D9" s="117"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="111"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -22348,11 +22929,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="111"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -22370,11 +22951,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="111"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="111"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -22392,11 +22973,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="111"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -22414,11 +22995,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="111"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -22436,11 +23017,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="111"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="111"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -22458,11 +23039,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="111"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="111"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -22480,11 +23061,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="111"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -22502,11 +23083,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="111"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="111"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -22524,11 +23105,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="111"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -22546,11 +23127,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="112"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="112"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -22571,13 +23152,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="112" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -22600,9 +23181,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="111"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -22623,9 +23204,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="111"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -22646,9 +23227,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="111"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -22669,9 +23250,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="112"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -22692,8 +23273,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="140"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -22717,9 +23298,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="110" t="s">
+      <c r="D26" s="117"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="112" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -22742,9 +23323,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="111"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -22765,9 +23346,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="111"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -22788,9 +23369,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="111"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="117"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -22811,9 +23392,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="111"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="117"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -22834,9 +23415,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="113"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -22859,7 +23440,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="112" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -22888,7 +23469,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="111"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -22915,7 +23496,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="111"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -22942,7 +23523,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="111"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -22969,7 +23550,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="111"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -22996,7 +23577,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="111"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -23023,7 +23604,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="111"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -23050,7 +23631,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="111"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -23077,7 +23658,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="111"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -23104,7 +23685,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="112"/>
+      <c r="D41" s="113"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -23133,13 +23714,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="114" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -23162,9 +23743,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -23185,9 +23766,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -23208,9 +23789,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -23231,9 +23812,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -23254,9 +23835,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -23277,9 +23858,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -23300,9 +23881,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="108"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -23323,9 +23904,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="108"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -23346,9 +23927,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="108"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -23369,9 +23950,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="108"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -23392,9 +23973,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -23417,13 +23998,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="104" t="s">
+      <c r="E54" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="128" t="s">
+      <c r="F54" s="134" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -23446,9 +24027,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="108"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -23469,9 +24050,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -23492,9 +24073,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -23515,9 +24096,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="108"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -23538,9 +24119,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="130"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -23561,8 +24142,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="105"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="115"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -23586,8 +24167,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="108"/>
-      <c r="E61" s="105"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="115"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -23611,8 +24192,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="105"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="115"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -23636,9 +24217,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="108"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="128" t="s">
+      <c r="D63" s="129"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="134" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -23661,9 +24242,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="130"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="135"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -23684,8 +24265,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="106"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="116"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -23711,13 +24292,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="110" t="s">
+      <c r="D66" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="110" t="s">
+      <c r="E66" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="104" t="s">
+      <c r="F66" s="114" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -23740,9 +24321,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="108"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="105"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -23763,9 +24344,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="108"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="105"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="115"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -23786,9 +24367,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="108"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="105"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="115"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -23809,9 +24390,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="108"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="105"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="115"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -23832,9 +24413,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="108"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="105"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="115"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -23855,9 +24436,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="111"/>
-      <c r="F72" s="105"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="115"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -23878,9 +24459,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="108"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="105"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="115"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -23901,9 +24482,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="105"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="115"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -23924,9 +24505,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="108"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="105"/>
+      <c r="D75" s="129"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="115"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -23947,9 +24528,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="108"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="105"/>
+      <c r="D76" s="129"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="115"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -23970,9 +24551,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="106"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="116"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -24028,10 +24609,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="110" t="s">
+      <c r="D79" s="112" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="110" t="s">
+      <c r="E79" s="112" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -24057,8 +24638,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -24082,8 +24663,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="111"/>
-      <c r="E81" s="111"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -24107,8 +24688,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="111"/>
-      <c r="E82" s="111"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -24132,8 +24713,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="111"/>
-      <c r="E83" s="111"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -24157,8 +24738,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="111"/>
-      <c r="E84" s="111"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -24182,8 +24763,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -24207,8 +24788,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -24232,8 +24813,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="111"/>
-      <c r="E87" s="111"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -24257,8 +24838,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="111"/>
-      <c r="E88" s="111"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -24282,8 +24863,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="111"/>
-      <c r="E89" s="111"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -24307,8 +24888,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="111"/>
-      <c r="E90" s="111"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -24332,8 +24913,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -24357,8 +24938,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="111"/>
-      <c r="E92" s="111"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="117"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -24382,8 +24963,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="117"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -24409,8 +24990,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
+      <c r="D94" s="113"/>
+      <c r="E94" s="113"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -24529,10 +25110,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="104" t="s">
+      <c r="D98" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="104" t="s">
+      <c r="E98" s="114" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -24558,8 +25139,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="124"/>
-      <c r="E99" s="105"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="115"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -24583,8 +25164,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="124"/>
-      <c r="E100" s="105"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="115"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -24608,8 +25189,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="124"/>
-      <c r="E101" s="105"/>
+      <c r="D101" s="132"/>
+      <c r="E101" s="115"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -24633,8 +25214,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="124"/>
-      <c r="E102" s="105"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="115"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -24658,8 +25239,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="124"/>
-      <c r="E103" s="105"/>
+      <c r="D103" s="132"/>
+      <c r="E103" s="115"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -24683,8 +25264,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="124"/>
-      <c r="E104" s="105"/>
+      <c r="D104" s="132"/>
+      <c r="E104" s="115"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -24708,8 +25289,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="124"/>
-      <c r="E105" s="105"/>
+      <c r="D105" s="132"/>
+      <c r="E105" s="115"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -24733,8 +25314,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="124"/>
-      <c r="E106" s="105"/>
+      <c r="D106" s="132"/>
+      <c r="E106" s="115"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -24758,8 +25339,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="124"/>
-      <c r="E107" s="105"/>
+      <c r="D107" s="132"/>
+      <c r="E107" s="115"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -24783,8 +25364,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="125"/>
-      <c r="E108" s="106"/>
+      <c r="D108" s="133"/>
+      <c r="E108" s="116"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -24961,10 +25542,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="104" t="s">
+      <c r="D114" s="114" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="104" t="s">
+      <c r="E114" s="114" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -24990,8 +25571,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -25015,8 +25596,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="105"/>
-      <c r="E116" s="105"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -25040,8 +25621,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -25065,8 +25646,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -25090,8 +25671,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -25115,8 +25696,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -25140,8 +25721,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -25165,8 +25746,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -25190,8 +25771,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="105"/>
-      <c r="E123" s="105"/>
+      <c r="D123" s="115"/>
+      <c r="E123" s="115"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -25215,8 +25796,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
+      <c r="D124" s="115"/>
+      <c r="E124" s="115"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -25240,8 +25821,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="106"/>
-      <c r="E125" s="106"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="116"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -25395,13 +25976,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="104" t="s">
+      <c r="D130" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="110" t="s">
+      <c r="E130" s="112" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="104" t="s">
+      <c r="F130" s="114" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -25424,9 +26005,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="105"/>
-      <c r="E131" s="111"/>
-      <c r="F131" s="105"/>
+      <c r="D131" s="115"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="115"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -25447,9 +26028,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="105"/>
-      <c r="E132" s="111"/>
-      <c r="F132" s="105"/>
+      <c r="D132" s="115"/>
+      <c r="E132" s="117"/>
+      <c r="F132" s="115"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -25470,9 +26051,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="105"/>
-      <c r="E133" s="111"/>
-      <c r="F133" s="105"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="115"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -25493,9 +26074,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="105"/>
-      <c r="E134" s="111"/>
-      <c r="F134" s="105"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="115"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -25516,9 +26097,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="105"/>
-      <c r="E135" s="111"/>
-      <c r="F135" s="105"/>
+      <c r="D135" s="115"/>
+      <c r="E135" s="117"/>
+      <c r="F135" s="115"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -25539,9 +26120,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="105"/>
-      <c r="E136" s="111"/>
-      <c r="F136" s="105"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="117"/>
+      <c r="F136" s="115"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -25562,9 +26143,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="105"/>
-      <c r="E137" s="111"/>
-      <c r="F137" s="105"/>
+      <c r="D137" s="115"/>
+      <c r="E137" s="117"/>
+      <c r="F137" s="115"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -25585,9 +26166,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="105"/>
-      <c r="E138" s="111"/>
-      <c r="F138" s="105"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="117"/>
+      <c r="F138" s="115"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -25608,9 +26189,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="105"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="105"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="117"/>
+      <c r="F139" s="115"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -25631,9 +26212,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="105"/>
-      <c r="E140" s="111"/>
-      <c r="F140" s="105"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="117"/>
+      <c r="F140" s="115"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -25654,9 +26235,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="106"/>
-      <c r="E141" s="112"/>
-      <c r="F141" s="106"/>
+      <c r="D141" s="116"/>
+      <c r="E141" s="113"/>
+      <c r="F141" s="116"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -25741,10 +26322,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="104" t="s">
+      <c r="D144" s="114" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="104" t="s">
+      <c r="E144" s="114" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -25770,8 +26351,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="106"/>
-      <c r="E145" s="106"/>
+      <c r="D145" s="116"/>
+      <c r="E145" s="116"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -26124,10 +26705,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="104" t="s">
+      <c r="D157" s="114" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="104" t="s">
+      <c r="E157" s="114" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -26153,8 +26734,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
+      <c r="D158" s="115"/>
+      <c r="E158" s="115"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -26178,8 +26759,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="105"/>
-      <c r="E159" s="105"/>
+      <c r="D159" s="115"/>
+      <c r="E159" s="115"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -26203,8 +26784,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="105"/>
-      <c r="E160" s="105"/>
+      <c r="D160" s="115"/>
+      <c r="E160" s="115"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -26228,8 +26809,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="105"/>
-      <c r="E161" s="105"/>
+      <c r="D161" s="115"/>
+      <c r="E161" s="115"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -26253,8 +26834,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="105"/>
-      <c r="E162" s="105"/>
+      <c r="D162" s="115"/>
+      <c r="E162" s="115"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -26278,8 +26859,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="105"/>
-      <c r="E163" s="105"/>
+      <c r="D163" s="115"/>
+      <c r="E163" s="115"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -26303,8 +26884,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="105"/>
-      <c r="E164" s="105"/>
+      <c r="D164" s="115"/>
+      <c r="E164" s="115"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -26328,8 +26909,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="105"/>
-      <c r="E165" s="105"/>
+      <c r="D165" s="115"/>
+      <c r="E165" s="115"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -26353,8 +26934,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="105"/>
-      <c r="E166" s="105"/>
+      <c r="D166" s="115"/>
+      <c r="E166" s="115"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -26378,8 +26959,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="105"/>
-      <c r="E167" s="105"/>
+      <c r="D167" s="115"/>
+      <c r="E167" s="115"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -26403,8 +26984,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="106"/>
-      <c r="E168" s="106"/>
+      <c r="D168" s="116"/>
+      <c r="E168" s="116"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -26463,13 +27044,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="104" t="s">
+      <c r="D170" s="114" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="104" t="s">
+      <c r="F170" s="114" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -26492,11 +27073,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="105"/>
+      <c r="D171" s="115"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="105"/>
+      <c r="F171" s="115"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -26517,11 +27098,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="105"/>
+      <c r="D172" s="115"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="105"/>
+      <c r="F172" s="115"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -26542,11 +27123,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="105"/>
+      <c r="D173" s="115"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="105"/>
+      <c r="F173" s="115"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -26567,11 +27148,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="105"/>
+      <c r="D174" s="115"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="105"/>
+      <c r="F174" s="115"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -26592,11 +27173,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="105"/>
+      <c r="D175" s="115"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="105"/>
+      <c r="F175" s="115"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -26619,11 +27200,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="105"/>
+      <c r="D176" s="115"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="105"/>
+      <c r="F176" s="115"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -26644,11 +27225,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="105"/>
+      <c r="D177" s="115"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="105"/>
+      <c r="F177" s="115"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -26669,11 +27250,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="105"/>
+      <c r="D178" s="115"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="105"/>
+      <c r="F178" s="115"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -26694,11 +27275,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="105"/>
+      <c r="D179" s="115"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="105"/>
+      <c r="F179" s="115"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -26719,11 +27300,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="105"/>
+      <c r="D180" s="115"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="105"/>
+      <c r="F180" s="115"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -26744,11 +27325,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="106"/>
+      <c r="D181" s="116"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="106"/>
+      <c r="F181" s="116"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -26771,7 +27352,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="104" t="s">
+      <c r="D182" s="114" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -26800,7 +27381,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="105"/>
+      <c r="D183" s="115"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -26827,7 +27408,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="105"/>
+      <c r="D184" s="115"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -26854,7 +27435,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="105"/>
+      <c r="D185" s="115"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -26881,7 +27462,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="105"/>
+      <c r="D186" s="115"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -26908,7 +27489,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="105"/>
+      <c r="D187" s="115"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -26937,7 +27518,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="105"/>
+      <c r="D188" s="115"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -26964,7 +27545,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="105"/>
+      <c r="D189" s="115"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -26991,7 +27572,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="105"/>
+      <c r="D190" s="115"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -27018,7 +27599,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="106"/>
+      <c r="D191" s="116"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -27047,10 +27628,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="104" t="s">
+      <c r="D192" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="104" t="s">
+      <c r="E192" s="114" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -27076,8 +27657,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="105"/>
-      <c r="E193" s="105"/>
+      <c r="D193" s="115"/>
+      <c r="E193" s="115"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -27101,8 +27682,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="105"/>
-      <c r="E194" s="105"/>
+      <c r="D194" s="115"/>
+      <c r="E194" s="115"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -27126,8 +27707,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="105"/>
-      <c r="E195" s="105"/>
+      <c r="D195" s="115"/>
+      <c r="E195" s="115"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -27151,8 +27732,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="105"/>
-      <c r="E196" s="105"/>
+      <c r="D196" s="115"/>
+      <c r="E196" s="115"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -27176,8 +27757,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="105"/>
-      <c r="E197" s="105"/>
+      <c r="D197" s="115"/>
+      <c r="E197" s="115"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -27203,8 +27784,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="105"/>
-      <c r="E198" s="105"/>
+      <c r="D198" s="115"/>
+      <c r="E198" s="115"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -27228,8 +27809,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="105"/>
-      <c r="E199" s="105"/>
+      <c r="D199" s="115"/>
+      <c r="E199" s="115"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -27253,8 +27834,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="105"/>
-      <c r="E200" s="105"/>
+      <c r="D200" s="115"/>
+      <c r="E200" s="115"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -27278,8 +27859,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="105"/>
-      <c r="E201" s="105"/>
+      <c r="D201" s="115"/>
+      <c r="E201" s="115"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -27303,8 +27884,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="105"/>
-      <c r="E202" s="105"/>
+      <c r="D202" s="115"/>
+      <c r="E202" s="115"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -27328,8 +27909,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="106"/>
-      <c r="E203" s="106"/>
+      <c r="D203" s="116"/>
+      <c r="E203" s="116"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -27388,13 +27969,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="104" t="s">
+      <c r="D205" s="114" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="104" t="s">
+      <c r="E205" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="128" t="s">
+      <c r="F205" s="134" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -27417,9 +27998,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="105"/>
-      <c r="E206" s="105"/>
-      <c r="F206" s="129"/>
+      <c r="D206" s="115"/>
+      <c r="E206" s="115"/>
+      <c r="F206" s="136"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -27440,9 +28021,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="105"/>
-      <c r="E207" s="105"/>
-      <c r="F207" s="129"/>
+      <c r="D207" s="115"/>
+      <c r="E207" s="115"/>
+      <c r="F207" s="136"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -27463,9 +28044,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="105"/>
-      <c r="E208" s="105"/>
-      <c r="F208" s="129"/>
+      <c r="D208" s="115"/>
+      <c r="E208" s="115"/>
+      <c r="F208" s="136"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -27486,9 +28067,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="105"/>
-      <c r="E209" s="105"/>
-      <c r="F209" s="129"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="136"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -27509,9 +28090,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="105"/>
-      <c r="E210" s="105"/>
-      <c r="F210" s="130"/>
+      <c r="D210" s="115"/>
+      <c r="E210" s="115"/>
+      <c r="F210" s="135"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -27532,8 +28113,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="105"/>
-      <c r="E211" s="105"/>
+      <c r="D211" s="115"/>
+      <c r="E211" s="115"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -27557,8 +28138,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="105"/>
-      <c r="E212" s="105"/>
+      <c r="D212" s="115"/>
+      <c r="E212" s="115"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -27582,8 +28163,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="105"/>
-      <c r="E213" s="105"/>
+      <c r="D213" s="115"/>
+      <c r="E213" s="115"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -27607,9 +28188,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="105"/>
-      <c r="E214" s="105"/>
-      <c r="F214" s="128" t="s">
+      <c r="D214" s="115"/>
+      <c r="E214" s="115"/>
+      <c r="F214" s="134" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -27632,9 +28213,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="105"/>
-      <c r="E215" s="105"/>
-      <c r="F215" s="130"/>
+      <c r="D215" s="115"/>
+      <c r="E215" s="115"/>
+      <c r="F215" s="135"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -27655,8 +28236,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="106"/>
-      <c r="E216" s="106"/>
+      <c r="D216" s="116"/>
+      <c r="E216" s="116"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -27742,10 +28323,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="104" t="s">
+      <c r="D219" s="114" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="104" t="s">
+      <c r="E219" s="114" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -27771,8 +28352,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="105"/>
-      <c r="E220" s="105"/>
+      <c r="D220" s="115"/>
+      <c r="E220" s="115"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -27796,8 +28377,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="105"/>
-      <c r="E221" s="105"/>
+      <c r="D221" s="115"/>
+      <c r="E221" s="115"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -27821,8 +28402,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="105"/>
-      <c r="E222" s="105"/>
+      <c r="D222" s="115"/>
+      <c r="E222" s="115"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -27846,8 +28427,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="105"/>
-      <c r="E223" s="105"/>
+      <c r="D223" s="115"/>
+      <c r="E223" s="115"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -27871,8 +28452,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="105"/>
-      <c r="E224" s="105"/>
+      <c r="D224" s="115"/>
+      <c r="E224" s="115"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -27898,8 +28479,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="105"/>
-      <c r="E225" s="105"/>
+      <c r="D225" s="115"/>
+      <c r="E225" s="115"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -27923,8 +28504,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="105"/>
-      <c r="E226" s="105"/>
+      <c r="D226" s="115"/>
+      <c r="E226" s="115"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -27948,8 +28529,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="105"/>
-      <c r="E227" s="105"/>
+      <c r="D227" s="115"/>
+      <c r="E227" s="115"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -27973,8 +28554,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="105"/>
-      <c r="E228" s="105"/>
+      <c r="D228" s="115"/>
+      <c r="E228" s="115"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -27998,8 +28579,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="105"/>
-      <c r="E229" s="105"/>
+      <c r="D229" s="115"/>
+      <c r="E229" s="115"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -28023,8 +28604,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="105"/>
-      <c r="E230" s="105"/>
+      <c r="D230" s="115"/>
+      <c r="E230" s="115"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -28048,8 +28629,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="105"/>
-      <c r="E231" s="105"/>
+      <c r="D231" s="115"/>
+      <c r="E231" s="115"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -28073,8 +28654,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="106"/>
-      <c r="E232" s="106"/>
+      <c r="D232" s="116"/>
+      <c r="E232" s="116"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -28464,7 +29045,7 @@
       <c r="E245" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F245" s="128" t="s">
+      <c r="F245" s="134" t="s">
         <v>625</v>
       </c>
       <c r="G245" s="93">
@@ -28493,7 +29074,7 @@
       <c r="E246" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="F246" s="130"/>
+      <c r="F246" s="135"/>
       <c r="G246" s="93">
         <v>44481</v>
       </c>
@@ -28849,10 +29430,10 @@
       <c r="D259" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E259" s="104" t="s">
+      <c r="E259" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F259" s="104" t="s">
+      <c r="F259" s="114" t="s">
         <v>691</v>
       </c>
       <c r="G259" s="93">
@@ -28876,8 +29457,8 @@
       <c r="D260" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E260" s="105"/>
-      <c r="F260" s="105"/>
+      <c r="E260" s="115"/>
+      <c r="F260" s="115"/>
       <c r="G260" s="93">
         <v>44481</v>
       </c>
@@ -28899,8 +29480,8 @@
       <c r="D261" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="105"/>
-      <c r="F261" s="105"/>
+      <c r="E261" s="115"/>
+      <c r="F261" s="115"/>
       <c r="G261" s="93">
         <v>44481</v>
       </c>
@@ -28922,8 +29503,8 @@
       <c r="D262" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="105"/>
-      <c r="F262" s="105"/>
+      <c r="E262" s="115"/>
+      <c r="F262" s="115"/>
       <c r="G262" s="93">
         <v>44481</v>
       </c>
@@ -28945,8 +29526,8 @@
       <c r="D263" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E263" s="105"/>
-      <c r="F263" s="105"/>
+      <c r="E263" s="115"/>
+      <c r="F263" s="115"/>
       <c r="G263" s="93">
         <v>44481</v>
       </c>
@@ -28968,8 +29549,8 @@
       <c r="D264" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E264" s="105"/>
-      <c r="F264" s="105"/>
+      <c r="E264" s="115"/>
+      <c r="F264" s="115"/>
       <c r="G264" s="93">
         <v>44481</v>
       </c>
@@ -28991,8 +29572,8 @@
       <c r="D265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E265" s="105"/>
-      <c r="F265" s="105"/>
+      <c r="E265" s="115"/>
+      <c r="F265" s="115"/>
       <c r="G265" s="93">
         <v>44481</v>
       </c>
@@ -29014,8 +29595,8 @@
       <c r="D266" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E266" s="105"/>
-      <c r="F266" s="105"/>
+      <c r="E266" s="115"/>
+      <c r="F266" s="115"/>
       <c r="G266" s="93">
         <v>44481</v>
       </c>
@@ -29037,8 +29618,8 @@
       <c r="D267" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E267" s="105"/>
-      <c r="F267" s="105"/>
+      <c r="E267" s="115"/>
+      <c r="F267" s="115"/>
       <c r="G267" s="93">
         <v>44481</v>
       </c>
@@ -29060,8 +29641,8 @@
       <c r="D268" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E268" s="105"/>
-      <c r="F268" s="105"/>
+      <c r="E268" s="115"/>
+      <c r="F268" s="115"/>
       <c r="G268" s="93">
         <v>44481</v>
       </c>
@@ -29083,8 +29664,8 @@
       <c r="D269" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E269" s="106"/>
-      <c r="F269" s="106"/>
+      <c r="E269" s="116"/>
+      <c r="F269" s="116"/>
       <c r="G269" s="93">
         <v>44481</v>
       </c>
@@ -29113,7 +29694,7 @@
       <c r="E270" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="F270" s="104" t="s">
+      <c r="F270" s="114" t="s">
         <v>693</v>
       </c>
       <c r="G270" s="93">
@@ -29140,7 +29721,7 @@
       <c r="E271" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="F271" s="105"/>
+      <c r="F271" s="115"/>
       <c r="G271" s="93">
         <v>44481</v>
       </c>
@@ -29165,7 +29746,7 @@
       <c r="E272" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="F272" s="105"/>
+      <c r="F272" s="115"/>
       <c r="G272" s="93">
         <v>44481</v>
       </c>
@@ -29190,7 +29771,7 @@
       <c r="E273" s="99" t="s">
         <v>670</v>
       </c>
-      <c r="F273" s="105"/>
+      <c r="F273" s="115"/>
       <c r="G273" s="93">
         <v>44481</v>
       </c>
@@ -29215,7 +29796,7 @@
       <c r="E274" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="F274" s="105"/>
+      <c r="F274" s="115"/>
       <c r="G274" s="93">
         <v>44481</v>
       </c>
@@ -29240,7 +29821,7 @@
       <c r="E275" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="105"/>
+      <c r="F275" s="115"/>
       <c r="G275" s="93">
         <v>44481</v>
       </c>
@@ -29265,7 +29846,7 @@
       <c r="E276" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="F276" s="105"/>
+      <c r="F276" s="115"/>
       <c r="G276" s="93">
         <v>44481</v>
       </c>
@@ -29290,7 +29871,7 @@
       <c r="E277" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F277" s="105"/>
+      <c r="F277" s="115"/>
       <c r="G277" s="93">
         <v>44481</v>
       </c>
@@ -29315,7 +29896,7 @@
       <c r="E278" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="F278" s="105"/>
+      <c r="F278" s="115"/>
       <c r="G278" s="93">
         <v>44481</v>
       </c>
@@ -29340,7 +29921,7 @@
       <c r="E279" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="F279" s="105"/>
+      <c r="F279" s="115"/>
       <c r="G279" s="93">
         <v>44481</v>
       </c>
@@ -29365,7 +29946,7 @@
       <c r="E280" s="99" t="s">
         <v>677</v>
       </c>
-      <c r="F280" s="106"/>
+      <c r="F280" s="116"/>
       <c r="G280" s="93">
         <v>44481</v>
       </c>
@@ -29387,10 +29968,10 @@
       <c r="D281" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E281" s="104" t="s">
+      <c r="E281" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F281" s="104" t="s">
+      <c r="F281" s="114" t="s">
         <v>535</v>
       </c>
       <c r="G281" s="93">
@@ -29414,8 +29995,8 @@
       <c r="D282" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E282" s="105"/>
-      <c r="F282" s="105"/>
+      <c r="E282" s="115"/>
+      <c r="F282" s="115"/>
       <c r="G282" s="93">
         <v>44481</v>
       </c>
@@ -29437,8 +30018,8 @@
       <c r="D283" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E283" s="105"/>
-      <c r="F283" s="105"/>
+      <c r="E283" s="115"/>
+      <c r="F283" s="115"/>
       <c r="G283" s="93">
         <v>44481</v>
       </c>
@@ -29460,8 +30041,8 @@
       <c r="D284" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E284" s="105"/>
-      <c r="F284" s="105"/>
+      <c r="E284" s="115"/>
+      <c r="F284" s="115"/>
       <c r="G284" s="93">
         <v>44481</v>
       </c>
@@ -29483,8 +30064,8 @@
       <c r="D285" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="105"/>
-      <c r="F285" s="105"/>
+      <c r="E285" s="115"/>
+      <c r="F285" s="115"/>
       <c r="G285" s="93">
         <v>44481</v>
       </c>
@@ -29506,8 +30087,8 @@
       <c r="D286" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
+      <c r="E286" s="115"/>
+      <c r="F286" s="115"/>
       <c r="G286" s="93">
         <v>44481</v>
       </c>
@@ -29529,8 +30110,8 @@
       <c r="D287" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E287" s="105"/>
-      <c r="F287" s="105"/>
+      <c r="E287" s="115"/>
+      <c r="F287" s="115"/>
       <c r="G287" s="93">
         <v>44481</v>
       </c>
@@ -29552,8 +30133,8 @@
       <c r="D288" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="105"/>
-      <c r="F288" s="105"/>
+      <c r="E288" s="115"/>
+      <c r="F288" s="115"/>
       <c r="G288" s="93">
         <v>44481</v>
       </c>
@@ -29575,8 +30156,8 @@
       <c r="D289" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E289" s="105"/>
-      <c r="F289" s="105"/>
+      <c r="E289" s="115"/>
+      <c r="F289" s="115"/>
       <c r="G289" s="93">
         <v>44481</v>
       </c>
@@ -29598,8 +30179,8 @@
       <c r="D290" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="105"/>
-      <c r="F290" s="105"/>
+      <c r="E290" s="115"/>
+      <c r="F290" s="115"/>
       <c r="G290" s="93">
         <v>44481</v>
       </c>
@@ -29621,8 +30202,8 @@
       <c r="D291" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E291" s="106"/>
-      <c r="F291" s="106"/>
+      <c r="E291" s="116"/>
+      <c r="F291" s="116"/>
       <c r="G291" s="93">
         <v>44481</v>
       </c>
@@ -29945,10 +30526,10 @@
       <c r="D303" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E303" s="104" t="s">
+      <c r="E303" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F303" s="104" t="s">
+      <c r="F303" s="114" t="s">
         <v>691</v>
       </c>
       <c r="G303" s="93">
@@ -29972,8 +30553,8 @@
       <c r="D304" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E304" s="105"/>
-      <c r="F304" s="105"/>
+      <c r="E304" s="115"/>
+      <c r="F304" s="115"/>
       <c r="G304" s="93">
         <v>44481</v>
       </c>
@@ -29995,8 +30576,8 @@
       <c r="D305" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E305" s="105"/>
-      <c r="F305" s="105"/>
+      <c r="E305" s="115"/>
+      <c r="F305" s="115"/>
       <c r="G305" s="93">
         <v>44481</v>
       </c>
@@ -30018,8 +30599,8 @@
       <c r="D306" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E306" s="105"/>
-      <c r="F306" s="105"/>
+      <c r="E306" s="115"/>
+      <c r="F306" s="115"/>
       <c r="G306" s="93">
         <v>44481</v>
       </c>
@@ -30041,8 +30622,8 @@
       <c r="D307" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E307" s="105"/>
-      <c r="F307" s="105"/>
+      <c r="E307" s="115"/>
+      <c r="F307" s="115"/>
       <c r="G307" s="93">
         <v>44481</v>
       </c>
@@ -30064,8 +30645,8 @@
       <c r="D308" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E308" s="105"/>
-      <c r="F308" s="105"/>
+      <c r="E308" s="115"/>
+      <c r="F308" s="115"/>
       <c r="G308" s="93">
         <v>44481</v>
       </c>
@@ -30087,8 +30668,8 @@
       <c r="D309" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E309" s="105"/>
-      <c r="F309" s="105"/>
+      <c r="E309" s="115"/>
+      <c r="F309" s="115"/>
       <c r="G309" s="93">
         <v>44481</v>
       </c>
@@ -30110,8 +30691,8 @@
       <c r="D310" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E310" s="105"/>
-      <c r="F310" s="105"/>
+      <c r="E310" s="115"/>
+      <c r="F310" s="115"/>
       <c r="G310" s="93">
         <v>44481</v>
       </c>
@@ -30133,8 +30714,8 @@
       <c r="D311" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E311" s="105"/>
-      <c r="F311" s="105"/>
+      <c r="E311" s="115"/>
+      <c r="F311" s="115"/>
       <c r="G311" s="93">
         <v>44481</v>
       </c>
@@ -30156,8 +30737,8 @@
       <c r="D312" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E312" s="105"/>
-      <c r="F312" s="105"/>
+      <c r="E312" s="115"/>
+      <c r="F312" s="115"/>
       <c r="G312" s="93">
         <v>44481</v>
       </c>
@@ -30179,8 +30760,8 @@
       <c r="D313" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E313" s="106"/>
-      <c r="F313" s="106"/>
+      <c r="E313" s="116"/>
+      <c r="F313" s="116"/>
       <c r="G313" s="93">
         <v>44481</v>
       </c>
@@ -30209,7 +30790,7 @@
       <c r="E314" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="F314" s="104" t="s">
+      <c r="F314" s="114" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="93">
@@ -30236,7 +30817,7 @@
       <c r="E315" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F315" s="105"/>
+      <c r="F315" s="115"/>
       <c r="G315" s="93">
         <v>44481</v>
       </c>
@@ -30261,7 +30842,7 @@
       <c r="E316" s="99" t="s">
         <v>696</v>
       </c>
-      <c r="F316" s="105"/>
+      <c r="F316" s="115"/>
       <c r="G316" s="93">
         <v>44481</v>
       </c>
@@ -30286,7 +30867,7 @@
       <c r="E317" s="99" t="s">
         <v>697</v>
       </c>
-      <c r="F317" s="105"/>
+      <c r="F317" s="115"/>
       <c r="G317" s="93">
         <v>44481</v>
       </c>
@@ -30311,7 +30892,7 @@
       <c r="E318" s="99" t="s">
         <v>698</v>
       </c>
-      <c r="F318" s="105"/>
+      <c r="F318" s="115"/>
       <c r="G318" s="93">
         <v>44481</v>
       </c>
@@ -30336,7 +30917,7 @@
       <c r="E319" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F319" s="105"/>
+      <c r="F319" s="115"/>
       <c r="G319" s="93">
         <v>44481</v>
       </c>
@@ -30361,7 +30942,7 @@
       <c r="E320" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F320" s="105"/>
+      <c r="F320" s="115"/>
       <c r="G320" s="93">
         <v>44481</v>
       </c>
@@ -30386,7 +30967,7 @@
       <c r="E321" s="99" t="s">
         <v>701</v>
       </c>
-      <c r="F321" s="105"/>
+      <c r="F321" s="115"/>
       <c r="G321" s="93">
         <v>44481</v>
       </c>
@@ -30411,7 +30992,7 @@
       <c r="E322" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F322" s="105"/>
+      <c r="F322" s="115"/>
       <c r="G322" s="93">
         <v>44481</v>
       </c>
@@ -30436,7 +31017,7 @@
       <c r="E323" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F323" s="105"/>
+      <c r="F323" s="115"/>
       <c r="G323" s="93">
         <v>44481</v>
       </c>
@@ -30461,7 +31042,7 @@
       <c r="E324" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="F324" s="106"/>
+      <c r="F324" s="116"/>
       <c r="G324" s="93">
         <v>44481</v>
       </c>
@@ -30483,10 +31064,10 @@
       <c r="D325" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="104" t="s">
+      <c r="E325" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F325" s="104" t="s">
+      <c r="F325" s="114" t="s">
         <v>535</v>
       </c>
       <c r="G325" s="93">
@@ -30510,8 +31091,8 @@
       <c r="D326" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E326" s="105"/>
-      <c r="F326" s="105"/>
+      <c r="E326" s="115"/>
+      <c r="F326" s="115"/>
       <c r="G326" s="93">
         <v>44481</v>
       </c>
@@ -30533,8 +31114,8 @@
       <c r="D327" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E327" s="105"/>
-      <c r="F327" s="105"/>
+      <c r="E327" s="115"/>
+      <c r="F327" s="115"/>
       <c r="G327" s="93">
         <v>44481</v>
       </c>
@@ -30556,8 +31137,8 @@
       <c r="D328" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E328" s="105"/>
-      <c r="F328" s="105"/>
+      <c r="E328" s="115"/>
+      <c r="F328" s="115"/>
       <c r="G328" s="93">
         <v>44481</v>
       </c>
@@ -30579,8 +31160,8 @@
       <c r="D329" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E329" s="105"/>
-      <c r="F329" s="105"/>
+      <c r="E329" s="115"/>
+      <c r="F329" s="115"/>
       <c r="G329" s="93">
         <v>44481</v>
       </c>
@@ -30602,8 +31183,8 @@
       <c r="D330" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="105"/>
-      <c r="F330" s="105"/>
+      <c r="E330" s="115"/>
+      <c r="F330" s="115"/>
       <c r="G330" s="93">
         <v>44481</v>
       </c>
@@ -30625,8 +31206,8 @@
       <c r="D331" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E331" s="105"/>
-      <c r="F331" s="105"/>
+      <c r="E331" s="115"/>
+      <c r="F331" s="115"/>
       <c r="G331" s="93">
         <v>44481</v>
       </c>
@@ -30648,8 +31229,8 @@
       <c r="D332" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E332" s="105"/>
-      <c r="F332" s="105"/>
+      <c r="E332" s="115"/>
+      <c r="F332" s="115"/>
       <c r="G332" s="93">
         <v>44481</v>
       </c>
@@ -30671,8 +31252,8 @@
       <c r="D333" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E333" s="105"/>
-      <c r="F333" s="105"/>
+      <c r="E333" s="115"/>
+      <c r="F333" s="115"/>
       <c r="G333" s="93">
         <v>44481</v>
       </c>
@@ -30694,8 +31275,8 @@
       <c r="D334" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E334" s="105"/>
-      <c r="F334" s="105"/>
+      <c r="E334" s="115"/>
+      <c r="F334" s="115"/>
       <c r="G334" s="93">
         <v>44481</v>
       </c>
@@ -30717,8 +31298,8 @@
       <c r="D335" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E335" s="106"/>
-      <c r="F335" s="106"/>
+      <c r="E335" s="116"/>
+      <c r="F335" s="116"/>
       <c r="G335" s="93">
         <v>44481</v>
       </c>
@@ -30774,7 +31355,7 @@
       <c r="E337" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F337" s="104" t="s">
+      <c r="F337" s="114" t="s">
         <v>680</v>
       </c>
       <c r="G337" s="93">
@@ -30801,7 +31382,7 @@
       <c r="E338" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F338" s="106"/>
+      <c r="F338" s="116"/>
       <c r="G338" s="93">
         <v>44483</v>
       </c>
@@ -30961,7 +31542,7 @@
       <c r="E344" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F344" s="104" t="s">
+      <c r="F344" s="114" t="s">
         <v>684</v>
       </c>
       <c r="G344" s="93">
@@ -30988,7 +31569,7 @@
       <c r="E345" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F345" s="106"/>
+      <c r="F345" s="116"/>
       <c r="G345" s="93">
         <v>44483</v>
       </c>
@@ -31368,7 +31949,7 @@
       <c r="E359" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F359" s="104" t="s">
+      <c r="F359" s="114" t="s">
         <v>718</v>
       </c>
       <c r="G359" s="93">
@@ -31395,7 +31976,7 @@
       <c r="E360" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F360" s="106"/>
+      <c r="F360" s="116"/>
       <c r="G360" s="93">
         <v>44483</v>
       </c>
@@ -31555,7 +32136,7 @@
       <c r="E366" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F366" s="104" t="s">
+      <c r="F366" s="114" t="s">
         <v>611</v>
       </c>
       <c r="G366" s="93">
@@ -31582,7 +32163,7 @@
       <c r="E367" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F367" s="106"/>
+      <c r="F367" s="116"/>
       <c r="G367" s="93">
         <v>44483</v>
       </c>
@@ -32148,10 +32729,10 @@
       <c r="D388" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E388" s="104" t="s">
+      <c r="E388" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F388" s="104" t="s">
+      <c r="F388" s="114" t="s">
         <v>691</v>
       </c>
       <c r="G388" s="93">
@@ -32175,8 +32756,8 @@
       <c r="D389" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E389" s="105"/>
-      <c r="F389" s="105"/>
+      <c r="E389" s="115"/>
+      <c r="F389" s="115"/>
       <c r="G389" s="93">
         <v>44483</v>
       </c>
@@ -32198,8 +32779,8 @@
       <c r="D390" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E390" s="105"/>
-      <c r="F390" s="105"/>
+      <c r="E390" s="115"/>
+      <c r="F390" s="115"/>
       <c r="G390" s="93">
         <v>44483</v>
       </c>
@@ -32221,8 +32802,8 @@
       <c r="D391" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E391" s="105"/>
-      <c r="F391" s="105"/>
+      <c r="E391" s="115"/>
+      <c r="F391" s="115"/>
       <c r="G391" s="93">
         <v>44483</v>
       </c>
@@ -32244,8 +32825,8 @@
       <c r="D392" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E392" s="105"/>
-      <c r="F392" s="105"/>
+      <c r="E392" s="115"/>
+      <c r="F392" s="115"/>
       <c r="G392" s="93">
         <v>44483</v>
       </c>
@@ -32267,8 +32848,8 @@
       <c r="D393" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E393" s="105"/>
-      <c r="F393" s="105"/>
+      <c r="E393" s="115"/>
+      <c r="F393" s="115"/>
       <c r="G393" s="93">
         <v>44483</v>
       </c>
@@ -32290,8 +32871,8 @@
       <c r="D394" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E394" s="105"/>
-      <c r="F394" s="105"/>
+      <c r="E394" s="115"/>
+      <c r="F394" s="115"/>
       <c r="G394" s="93">
         <v>44483</v>
       </c>
@@ -32313,8 +32894,8 @@
       <c r="D395" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E395" s="106"/>
-      <c r="F395" s="106"/>
+      <c r="E395" s="116"/>
+      <c r="F395" s="116"/>
       <c r="G395" s="93">
         <v>44483</v>
       </c>
@@ -32363,10 +32944,10 @@
       <c r="D397" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="E397" s="123" t="s">
+      <c r="E397" s="131" t="s">
         <v>747</v>
       </c>
-      <c r="F397" s="104" t="s">
+      <c r="F397" s="114" t="s">
         <v>748</v>
       </c>
       <c r="G397" s="93">
@@ -32390,8 +32971,8 @@
       <c r="D398" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E398" s="124"/>
-      <c r="F398" s="105"/>
+      <c r="E398" s="132"/>
+      <c r="F398" s="115"/>
       <c r="G398" s="93">
         <v>44483</v>
       </c>
@@ -32413,8 +32994,8 @@
       <c r="D399" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E399" s="124"/>
-      <c r="F399" s="105"/>
+      <c r="E399" s="132"/>
+      <c r="F399" s="115"/>
       <c r="G399" s="93">
         <v>44483</v>
       </c>
@@ -32436,8 +33017,8 @@
       <c r="D400" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E400" s="124"/>
-      <c r="F400" s="105"/>
+      <c r="E400" s="132"/>
+      <c r="F400" s="115"/>
       <c r="G400" s="93">
         <v>44483</v>
       </c>
@@ -32459,8 +33040,8 @@
       <c r="D401" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E401" s="124"/>
-      <c r="F401" s="105"/>
+      <c r="E401" s="132"/>
+      <c r="F401" s="115"/>
       <c r="G401" s="93">
         <v>44483</v>
       </c>
@@ -32482,8 +33063,8 @@
       <c r="D402" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E402" s="125"/>
-      <c r="F402" s="106"/>
+      <c r="E402" s="133"/>
+      <c r="F402" s="116"/>
       <c r="G402" s="93">
         <v>44483</v>
       </c>
@@ -32566,7 +33147,7 @@
       <c r="E405" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F405" s="104" t="s">
+      <c r="F405" s="114" t="s">
         <v>742</v>
       </c>
       <c r="G405" s="93">
@@ -32593,7 +33174,7 @@
       <c r="E406" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F406" s="106"/>
+      <c r="F406" s="116"/>
       <c r="G406" s="93">
         <v>44483</v>
       </c>
@@ -32645,7 +33226,7 @@
       <c r="E408" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F408" s="104" t="s">
+      <c r="F408" s="114" t="s">
         <v>744</v>
       </c>
       <c r="G408" s="93">
@@ -32672,7 +33253,7 @@
       <c r="E409" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F409" s="106"/>
+      <c r="F409" s="116"/>
       <c r="G409" s="93">
         <v>44483</v>
       </c>
@@ -32721,10 +33302,10 @@
       <c r="D411" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E411" s="104" t="s">
+      <c r="E411" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="F411" s="104" t="s">
+      <c r="F411" s="114" t="s">
         <v>535</v>
       </c>
       <c r="G411" s="93">
@@ -32748,8 +33329,8 @@
       <c r="D412" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E412" s="105"/>
-      <c r="F412" s="105"/>
+      <c r="E412" s="115"/>
+      <c r="F412" s="115"/>
       <c r="G412" s="93">
         <v>44483</v>
       </c>
@@ -32771,8 +33352,8 @@
       <c r="D413" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E413" s="105"/>
-      <c r="F413" s="105"/>
+      <c r="E413" s="115"/>
+      <c r="F413" s="115"/>
       <c r="G413" s="93">
         <v>44483</v>
       </c>
@@ -32794,8 +33375,8 @@
       <c r="D414" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E414" s="105"/>
-      <c r="F414" s="105"/>
+      <c r="E414" s="115"/>
+      <c r="F414" s="115"/>
       <c r="G414" s="93">
         <v>44483</v>
       </c>
@@ -32817,8 +33398,8 @@
       <c r="D415" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E415" s="105"/>
-      <c r="F415" s="105"/>
+      <c r="E415" s="115"/>
+      <c r="F415" s="115"/>
       <c r="G415" s="93">
         <v>44483</v>
       </c>
@@ -32840,8 +33421,8 @@
       <c r="D416" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E416" s="105"/>
-      <c r="F416" s="105"/>
+      <c r="E416" s="115"/>
+      <c r="F416" s="115"/>
       <c r="G416" s="93">
         <v>44483</v>
       </c>
@@ -32863,8 +33444,8 @@
       <c r="D417" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E417" s="105"/>
-      <c r="F417" s="105"/>
+      <c r="E417" s="115"/>
+      <c r="F417" s="115"/>
       <c r="G417" s="93">
         <v>44483</v>
       </c>
@@ -32886,8 +33467,8 @@
       <c r="D418" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E418" s="106"/>
-      <c r="F418" s="106"/>
+      <c r="E418" s="116"/>
+      <c r="F418" s="116"/>
       <c r="G418" s="93">
         <v>44483</v>
       </c>
@@ -32936,10 +33517,10 @@
       <c r="D420" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E420" s="123" t="s">
+      <c r="E420" s="131" t="s">
         <v>747</v>
       </c>
-      <c r="F420" s="104" t="s">
+      <c r="F420" s="114" t="s">
         <v>611</v>
       </c>
       <c r="G420" s="93">
@@ -32963,8 +33544,8 @@
       <c r="D421" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E421" s="124"/>
-      <c r="F421" s="105"/>
+      <c r="E421" s="132"/>
+      <c r="F421" s="115"/>
       <c r="G421" s="93">
         <v>44483</v>
       </c>
@@ -32986,8 +33567,8 @@
       <c r="D422" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E422" s="124"/>
-      <c r="F422" s="105"/>
+      <c r="E422" s="132"/>
+      <c r="F422" s="115"/>
       <c r="G422" s="93">
         <v>44483</v>
       </c>
@@ -33009,8 +33590,8 @@
       <c r="D423" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E423" s="124"/>
-      <c r="F423" s="105"/>
+      <c r="E423" s="132"/>
+      <c r="F423" s="115"/>
       <c r="G423" s="93">
         <v>44483</v>
       </c>
@@ -33032,8 +33613,8 @@
       <c r="D424" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E424" s="124"/>
-      <c r="F424" s="105"/>
+      <c r="E424" s="132"/>
+      <c r="F424" s="115"/>
       <c r="G424" s="93">
         <v>44483</v>
       </c>
@@ -33055,8 +33636,8 @@
       <c r="D425" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E425" s="125"/>
-      <c r="F425" s="106"/>
+      <c r="E425" s="133"/>
+      <c r="F425" s="116"/>
       <c r="G425" s="93">
         <v>44483</v>
       </c>
@@ -33105,13 +33686,13 @@
         <v>423</v>
       </c>
       <c r="B427" s="72"/>
-      <c r="C427" s="104" t="s">
+      <c r="C427" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D427" s="104" t="s">
+      <c r="D427" s="114" t="s">
         <v>657</v>
       </c>
-      <c r="E427" s="104" t="s">
+      <c r="E427" s="114" t="s">
         <v>774</v>
       </c>
       <c r="F427" s="91" t="s">
@@ -33134,9 +33715,9 @@
         <v>424</v>
       </c>
       <c r="B428" s="72"/>
-      <c r="C428" s="105"/>
-      <c r="D428" s="105"/>
-      <c r="E428" s="105"/>
+      <c r="C428" s="115"/>
+      <c r="D428" s="115"/>
+      <c r="E428" s="115"/>
       <c r="F428" s="91" t="s">
         <v>779</v>
       </c>
@@ -33157,9 +33738,9 @@
         <v>425</v>
       </c>
       <c r="B429" s="72"/>
-      <c r="C429" s="105"/>
-      <c r="D429" s="105"/>
-      <c r="E429" s="105"/>
+      <c r="C429" s="115"/>
+      <c r="D429" s="115"/>
+      <c r="E429" s="115"/>
       <c r="F429" s="91" t="s">
         <v>780</v>
       </c>
@@ -33180,9 +33761,9 @@
         <v>426</v>
       </c>
       <c r="B430" s="72"/>
-      <c r="C430" s="105"/>
-      <c r="D430" s="105"/>
-      <c r="E430" s="105"/>
+      <c r="C430" s="115"/>
+      <c r="D430" s="115"/>
+      <c r="E430" s="115"/>
       <c r="F430" s="91" t="s">
         <v>781</v>
       </c>
@@ -33203,9 +33784,9 @@
         <v>427</v>
       </c>
       <c r="B431" s="72"/>
-      <c r="C431" s="105"/>
-      <c r="D431" s="105"/>
-      <c r="E431" s="105"/>
+      <c r="C431" s="115"/>
+      <c r="D431" s="115"/>
+      <c r="E431" s="115"/>
       <c r="F431" s="91" t="s">
         <v>782</v>
       </c>
@@ -33226,9 +33807,9 @@
         <v>428</v>
       </c>
       <c r="B432" s="72"/>
-      <c r="C432" s="105"/>
-      <c r="D432" s="105"/>
-      <c r="E432" s="105"/>
+      <c r="C432" s="115"/>
+      <c r="D432" s="115"/>
+      <c r="E432" s="115"/>
       <c r="F432" s="31" t="s">
         <v>776</v>
       </c>
@@ -33249,9 +33830,9 @@
         <v>429</v>
       </c>
       <c r="B433" s="72"/>
-      <c r="C433" s="105"/>
-      <c r="D433" s="105"/>
-      <c r="E433" s="105"/>
+      <c r="C433" s="115"/>
+      <c r="D433" s="115"/>
+      <c r="E433" s="115"/>
       <c r="F433" s="31" t="s">
         <v>777</v>
       </c>
@@ -33272,9 +33853,9 @@
         <v>430</v>
       </c>
       <c r="B434" s="72"/>
-      <c r="C434" s="106"/>
-      <c r="D434" s="106"/>
-      <c r="E434" s="106"/>
+      <c r="C434" s="116"/>
+      <c r="D434" s="116"/>
+      <c r="E434" s="116"/>
       <c r="F434" s="31" t="s">
         <v>760</v>
       </c>
@@ -33297,16 +33878,16 @@
       <c r="B435" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C435" s="104" t="s">
+      <c r="C435" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D435" s="123" t="s">
+      <c r="D435" s="131" t="s">
         <v>552</v>
       </c>
       <c r="E435" s="91" t="s">
         <v>784</v>
       </c>
-      <c r="F435" s="110" t="s">
+      <c r="F435" s="112" t="s">
         <v>766</v>
       </c>
       <c r="G435" s="93">
@@ -33326,12 +33907,12 @@
         <v>432</v>
       </c>
       <c r="B436" s="72"/>
-      <c r="C436" s="105"/>
-      <c r="D436" s="124"/>
+      <c r="C436" s="115"/>
+      <c r="D436" s="132"/>
       <c r="E436" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="F436" s="111"/>
+      <c r="F436" s="117"/>
       <c r="G436" s="93">
         <v>44504</v>
       </c>
@@ -33349,12 +33930,12 @@
         <v>433</v>
       </c>
       <c r="B437" s="72"/>
-      <c r="C437" s="105"/>
-      <c r="D437" s="124"/>
+      <c r="C437" s="115"/>
+      <c r="D437" s="132"/>
       <c r="E437" s="91" t="s">
         <v>786</v>
       </c>
-      <c r="F437" s="111"/>
+      <c r="F437" s="117"/>
       <c r="G437" s="93">
         <v>44504</v>
       </c>
@@ -33372,12 +33953,12 @@
         <v>434</v>
       </c>
       <c r="B438" s="72"/>
-      <c r="C438" s="105"/>
-      <c r="D438" s="124"/>
+      <c r="C438" s="115"/>
+      <c r="D438" s="132"/>
       <c r="E438" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="F438" s="111"/>
+      <c r="F438" s="117"/>
       <c r="G438" s="93">
         <v>44504</v>
       </c>
@@ -33395,12 +33976,12 @@
         <v>435</v>
       </c>
       <c r="B439" s="72"/>
-      <c r="C439" s="105"/>
-      <c r="D439" s="124"/>
+      <c r="C439" s="115"/>
+      <c r="D439" s="132"/>
       <c r="E439" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="F439" s="112"/>
+      <c r="F439" s="113"/>
       <c r="G439" s="93">
         <v>44504</v>
       </c>
@@ -33418,12 +33999,12 @@
         <v>436</v>
       </c>
       <c r="B440" s="72"/>
-      <c r="C440" s="105"/>
-      <c r="D440" s="124"/>
+      <c r="C440" s="115"/>
+      <c r="D440" s="132"/>
       <c r="E440" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="F440" s="110" t="s">
+      <c r="F440" s="112" t="s">
         <v>767</v>
       </c>
       <c r="G440" s="93">
@@ -33443,12 +34024,12 @@
         <v>437</v>
       </c>
       <c r="B441" s="72"/>
-      <c r="C441" s="106"/>
-      <c r="D441" s="125"/>
+      <c r="C441" s="116"/>
+      <c r="D441" s="133"/>
       <c r="E441" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="F441" s="112"/>
+      <c r="F441" s="113"/>
       <c r="G441" s="93">
         <v>44504</v>
       </c>
@@ -33468,13 +34049,13 @@
       <c r="B442" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="C442" s="104" t="s">
+      <c r="C442" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D442" s="123" t="s">
+      <c r="D442" s="131" t="s">
         <v>552</v>
       </c>
-      <c r="E442" s="104" t="s">
+      <c r="E442" s="114" t="s">
         <v>765</v>
       </c>
       <c r="F442" s="91" t="s">
@@ -33497,9 +34078,9 @@
         <v>439</v>
       </c>
       <c r="B443" s="72"/>
-      <c r="C443" s="105"/>
-      <c r="D443" s="124"/>
-      <c r="E443" s="105"/>
+      <c r="C443" s="115"/>
+      <c r="D443" s="132"/>
+      <c r="E443" s="115"/>
       <c r="F443" s="31" t="s">
         <v>795</v>
       </c>
@@ -33520,9 +34101,9 @@
         <v>440</v>
       </c>
       <c r="B444" s="72"/>
-      <c r="C444" s="105"/>
-      <c r="D444" s="124"/>
-      <c r="E444" s="105"/>
+      <c r="C444" s="115"/>
+      <c r="D444" s="132"/>
+      <c r="E444" s="115"/>
       <c r="F444" s="31" t="s">
         <v>796</v>
       </c>
@@ -33543,9 +34124,9 @@
         <v>441</v>
       </c>
       <c r="B445" s="72"/>
-      <c r="C445" s="105"/>
-      <c r="D445" s="124"/>
-      <c r="E445" s="105"/>
+      <c r="C445" s="115"/>
+      <c r="D445" s="132"/>
+      <c r="E445" s="115"/>
       <c r="F445" s="31" t="s">
         <v>797</v>
       </c>
@@ -33566,9 +34147,9 @@
         <v>442</v>
       </c>
       <c r="B446" s="72"/>
-      <c r="C446" s="105"/>
-      <c r="D446" s="124"/>
-      <c r="E446" s="105"/>
+      <c r="C446" s="115"/>
+      <c r="D446" s="132"/>
+      <c r="E446" s="115"/>
       <c r="F446" s="31" t="s">
         <v>798</v>
       </c>
@@ -33589,9 +34170,9 @@
         <v>443</v>
       </c>
       <c r="B447" s="72"/>
-      <c r="C447" s="105"/>
-      <c r="D447" s="124"/>
-      <c r="E447" s="105"/>
+      <c r="C447" s="115"/>
+      <c r="D447" s="132"/>
+      <c r="E447" s="115"/>
       <c r="F447" s="48" t="s">
         <v>792</v>
       </c>
@@ -33612,9 +34193,9 @@
         <v>444</v>
       </c>
       <c r="B448" s="72"/>
-      <c r="C448" s="106"/>
-      <c r="D448" s="125"/>
-      <c r="E448" s="105"/>
+      <c r="C448" s="116"/>
+      <c r="D448" s="133"/>
+      <c r="E448" s="115"/>
       <c r="F448" s="103" t="s">
         <v>793</v>
       </c>
@@ -33879,40 +34460,23 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="C435:C441"/>
-    <mergeCell ref="D435:D441"/>
-    <mergeCell ref="C442:C448"/>
-    <mergeCell ref="D442:D448"/>
-    <mergeCell ref="E442:E448"/>
-    <mergeCell ref="E427:E434"/>
-    <mergeCell ref="D427:D434"/>
-    <mergeCell ref="C427:C434"/>
-    <mergeCell ref="F435:F439"/>
-    <mergeCell ref="F337:F338"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="F325:F335"/>
-    <mergeCell ref="E325:E335"/>
-    <mergeCell ref="F303:F313"/>
-    <mergeCell ref="E303:E313"/>
-    <mergeCell ref="F314:F324"/>
-    <mergeCell ref="E259:E269"/>
-    <mergeCell ref="F259:F269"/>
-    <mergeCell ref="E281:E291"/>
-    <mergeCell ref="F270:F280"/>
-    <mergeCell ref="F281:F291"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F408:F409"/>
+    <mergeCell ref="F397:F402"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
     <mergeCell ref="F170:F181"/>
     <mergeCell ref="D182:D191"/>
     <mergeCell ref="F66:F77"/>
@@ -33929,21 +34493,34 @@
     <mergeCell ref="E144:E145"/>
     <mergeCell ref="D114:D125"/>
     <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E259:E269"/>
+    <mergeCell ref="F259:F269"/>
+    <mergeCell ref="E281:E291"/>
+    <mergeCell ref="F270:F280"/>
+    <mergeCell ref="F281:F291"/>
+    <mergeCell ref="F325:F335"/>
+    <mergeCell ref="E325:E335"/>
+    <mergeCell ref="F303:F313"/>
+    <mergeCell ref="E303:E313"/>
+    <mergeCell ref="F314:F324"/>
+    <mergeCell ref="E427:E434"/>
+    <mergeCell ref="D427:D434"/>
+    <mergeCell ref="C427:C434"/>
+    <mergeCell ref="F435:F439"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="F344:F345"/>
     <mergeCell ref="F359:F360"/>
     <mergeCell ref="F366:F367"/>
     <mergeCell ref="E388:E395"/>
@@ -33954,8 +34531,12 @@
     <mergeCell ref="E420:E425"/>
     <mergeCell ref="F420:F425"/>
     <mergeCell ref="F405:F406"/>
-    <mergeCell ref="F408:F409"/>
-    <mergeCell ref="F397:F402"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="C435:C441"/>
+    <mergeCell ref="D435:D441"/>
+    <mergeCell ref="C442:C448"/>
+    <mergeCell ref="D442:D448"/>
+    <mergeCell ref="E442:E448"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -33969,13 +34550,13 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="144" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" customWidth="1"/>
     <col min="7" max="7" width="38.44140625" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" customWidth="1"/>
@@ -33985,23 +34566,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="126"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="137"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="139" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="108" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -34010,19 +34591,19 @@
       <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="127"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="33"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="140" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="138"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
@@ -34038,10 +34619,10 @@
       <c r="C4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="35" t="s">
@@ -34050,7 +34631,7 @@
       <c r="G4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="146" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -34066,181 +34647,242 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="31"/>
+    <row r="5" spans="1:12" ht="60">
+      <c r="A5" s="52"/>
+      <c r="B5" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>800</v>
+      </c>
+      <c r="E5" s="148" t="s">
+        <v>830</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" s="145"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="15">
+      <c r="I5" s="8"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="104"/>
+    </row>
+    <row r="6" spans="1:12" ht="60">
       <c r="A6" s="12"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="31"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="72" t="s">
+        <v>801</v>
+      </c>
+      <c r="E6" s="149"/>
+      <c r="F6" s="99" t="s">
+        <v>829</v>
+      </c>
+      <c r="G6" s="66"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="I6" s="104"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" s="12"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="72" t="s">
+        <v>802</v>
+      </c>
+      <c r="E7" s="149"/>
+      <c r="F7" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" s="66"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="I7" s="104"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="60">
       <c r="A8" s="12"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="31"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="72" t="s">
+        <v>803</v>
+      </c>
+      <c r="E8" s="149"/>
+      <c r="F8" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="G8" s="66"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="I8" s="104"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="60">
       <c r="A9" s="12"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="31"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="72" t="s">
+        <v>804</v>
+      </c>
+      <c r="E9" s="149"/>
+      <c r="F9" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="G9" s="66"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="I9" s="104"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" s="12"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="72" t="s">
+        <v>805</v>
+      </c>
+      <c r="E10" s="149"/>
+      <c r="F10" s="99" t="s">
+        <v>564</v>
+      </c>
+      <c r="G10" s="66"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="I10" s="104"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="45">
       <c r="A11" s="12"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="72" t="s">
+        <v>806</v>
+      </c>
+      <c r="E11" s="149"/>
+      <c r="F11" s="99" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="66"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="I11" s="104"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="60">
       <c r="A12" s="12"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="72" t="s">
+        <v>807</v>
+      </c>
+      <c r="E12" s="149"/>
+      <c r="F12" s="99" t="s">
+        <v>566</v>
+      </c>
+      <c r="G12" s="66"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="I12" s="104"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" s="12"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="31"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="72" t="s">
+        <v>808</v>
+      </c>
+      <c r="E13" s="149"/>
+      <c r="F13" s="99" t="s">
+        <v>567</v>
+      </c>
+      <c r="G13" s="66"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="I13" s="104"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="45">
       <c r="A14" s="12"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="31"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="72" t="s">
+        <v>809</v>
+      </c>
+      <c r="E14" s="149"/>
+      <c r="F14" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="G14" s="66"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
+      <c r="I14" s="104"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="60">
       <c r="A15" s="12"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="31"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="72" t="s">
+        <v>810</v>
+      </c>
+      <c r="E15" s="149"/>
+      <c r="F15" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="66"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="15">
+      <c r="I15" s="104"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="60">
       <c r="A16" s="12"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="72" t="s">
+        <v>811</v>
+      </c>
+      <c r="E16" s="150"/>
+      <c r="F16" s="99" t="s">
+        <v>570</v>
+      </c>
+      <c r="G16" s="66"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="15">
+      <c r="I16" s="104"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>812</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>813</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>814</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -34248,13 +34890,15 @@
       <c r="K17" s="39"/>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="12"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="37" t="s">
+        <v>815</v>
+      </c>
       <c r="G18" s="31"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -34262,13 +34906,15 @@
       <c r="K18" s="39"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="15">
+    <row r="19" spans="1:12" ht="45">
       <c r="A19" s="12"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="37" t="s">
+        <v>817</v>
+      </c>
       <c r="G19" s="31"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -34276,13 +34922,15 @@
       <c r="K19" s="39"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="15">
+    <row r="20" spans="1:12" ht="45">
       <c r="A20" s="12"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="37" t="s">
+        <v>816</v>
+      </c>
       <c r="G20" s="31"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -34290,13 +34938,15 @@
       <c r="K20" s="39"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="15">
+    <row r="21" spans="1:12" ht="45">
       <c r="A21" s="12"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="37" t="s">
+        <v>818</v>
+      </c>
       <c r="G21" s="31"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -34304,13 +34954,15 @@
       <c r="K21" s="39"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="12"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="37" t="s">
+        <v>819</v>
+      </c>
       <c r="G22" s="31"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -34318,13 +34970,15 @@
       <c r="K22" s="39"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" ht="15">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="12"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="37"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="37" t="s">
+        <v>820</v>
+      </c>
       <c r="G23" s="31"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -34332,13 +34986,21 @@
       <c r="K23" s="39"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12" ht="15">
+    <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="37"/>
+      <c r="C24" s="112" t="s">
+        <v>826</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>826</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>813</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>821</v>
+      </c>
       <c r="G24" s="31"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -34346,13 +35008,15 @@
       <c r="K24" s="39"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="15">
+    <row r="25" spans="1:12" ht="60">
       <c r="A25" s="12"/>
       <c r="B25" s="48"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="37" t="s">
+        <v>823</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -34360,13 +35024,15 @@
       <c r="K25" s="39"/>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="15">
+    <row r="26" spans="1:12" ht="60">
       <c r="A26" s="12"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="37"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="37" t="s">
+        <v>824</v>
+      </c>
       <c r="G26" s="31"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -34374,13 +35040,15 @@
       <c r="K26" s="39"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="15">
+    <row r="27" spans="1:12" ht="60">
       <c r="A27" s="12"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="37" t="s">
+        <v>825</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -34388,13 +35056,15 @@
       <c r="K27" s="39"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="15">
+    <row r="28" spans="1:12" ht="60">
       <c r="A28" s="12"/>
       <c r="B28" s="48"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="37" t="s">
+        <v>822</v>
+      </c>
       <c r="G28" s="31"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
@@ -34402,13 +35072,15 @@
       <c r="K28" s="39"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="15">
+    <row r="29" spans="1:12" ht="60">
       <c r="A29" s="12"/>
       <c r="B29" s="48"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="37"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="37" t="s">
+        <v>827</v>
+      </c>
       <c r="G29" s="31"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -34416,13 +35088,15 @@
       <c r="K29" s="39"/>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="15">
+    <row r="30" spans="1:12" ht="45">
       <c r="A30" s="12"/>
       <c r="B30" s="48"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="37"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="37" t="s">
+        <v>828</v>
+      </c>
       <c r="G30" s="31"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -34435,7 +35109,7 @@
       <c r="B31" s="48"/>
       <c r="C31" s="25"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="37"/>
       <c r="G31" s="31"/>
       <c r="H31" s="12"/>
@@ -34449,7 +35123,7 @@
       <c r="B32" s="48"/>
       <c r="C32" s="25"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="37"/>
       <c r="G32" s="31"/>
       <c r="H32" s="12"/>
@@ -34463,7 +35137,7 @@
       <c r="B33" s="48"/>
       <c r="C33" s="25"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="24"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="37"/>
       <c r="G33" s="31"/>
       <c r="H33" s="12"/>
@@ -34477,7 +35151,7 @@
       <c r="B34" s="48"/>
       <c r="C34" s="25"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="37"/>
       <c r="G34" s="31"/>
       <c r="H34" s="12"/>
@@ -34491,7 +35165,7 @@
       <c r="B35" s="48"/>
       <c r="C35" s="25"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="37"/>
       <c r="G35" s="31"/>
       <c r="H35" s="12"/>
@@ -34505,7 +35179,7 @@
       <c r="B36" s="48"/>
       <c r="C36" s="25"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="37"/>
       <c r="G36" s="31"/>
       <c r="H36" s="12"/>
@@ -34519,7 +35193,7 @@
       <c r="B37" s="48"/>
       <c r="C37" s="25"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="24"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="37"/>
       <c r="G37" s="31"/>
       <c r="H37" s="12"/>
@@ -34533,7 +35207,7 @@
       <c r="B38" s="48"/>
       <c r="C38" s="25"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="37"/>
       <c r="G38" s="31"/>
       <c r="H38" s="12"/>
@@ -34547,7 +35221,7 @@
       <c r="B39" s="48"/>
       <c r="C39" s="25"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="37"/>
       <c r="G39" s="31"/>
       <c r="H39" s="12"/>
@@ -34561,7 +35235,7 @@
       <c r="B40" s="48"/>
       <c r="C40" s="25"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="24"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="37"/>
       <c r="G40" s="31"/>
       <c r="H40" s="12"/>
@@ -34575,7 +35249,7 @@
       <c r="B41" s="48"/>
       <c r="C41" s="25"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="37"/>
       <c r="G41" s="31"/>
       <c r="H41" s="12"/>
@@ -34589,7 +35263,7 @@
       <c r="B42" s="48"/>
       <c r="C42" s="25"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="37"/>
       <c r="G42" s="31"/>
       <c r="H42" s="12"/>
@@ -34603,7 +35277,7 @@
       <c r="B43" s="48"/>
       <c r="C43" s="25"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="24"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="37"/>
       <c r="G43" s="31"/>
       <c r="H43" s="12"/>
@@ -34617,7 +35291,7 @@
       <c r="B44" s="48"/>
       <c r="C44" s="25"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="24"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="37"/>
       <c r="G44" s="31"/>
       <c r="H44" s="12"/>
@@ -34631,7 +35305,7 @@
       <c r="B45" s="48"/>
       <c r="C45" s="25"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="24"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="37"/>
       <c r="G45" s="31"/>
       <c r="H45" s="12"/>
@@ -34645,7 +35319,7 @@
       <c r="B46" s="48"/>
       <c r="C46" s="25"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="24"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="37"/>
       <c r="G46" s="31"/>
       <c r="H46" s="12"/>
@@ -34659,7 +35333,7 @@
       <c r="B47" s="48"/>
       <c r="C47" s="25"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="24"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="37"/>
       <c r="G47" s="31"/>
       <c r="H47" s="12"/>
@@ -34673,7 +35347,7 @@
       <c r="B48" s="48"/>
       <c r="C48" s="25"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="24"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="37"/>
       <c r="G48" s="31"/>
       <c r="H48" s="12"/>
@@ -34687,7 +35361,7 @@
       <c r="B49" s="48"/>
       <c r="C49" s="25"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="24"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="37"/>
       <c r="G49" s="31"/>
       <c r="H49" s="12"/>
@@ -34701,7 +35375,7 @@
       <c r="B50" s="48"/>
       <c r="C50" s="25"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="24"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="37"/>
       <c r="G50" s="31"/>
       <c r="H50" s="12"/>
@@ -34715,7 +35389,7 @@
       <c r="B51" s="48"/>
       <c r="C51" s="25"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="24"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="37"/>
       <c r="G51" s="31"/>
       <c r="H51" s="12"/>
@@ -34729,7 +35403,7 @@
       <c r="B52" s="48"/>
       <c r="C52" s="25"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="24"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="37"/>
       <c r="G52" s="31"/>
       <c r="H52" s="12"/>
@@ -34743,7 +35417,7 @@
       <c r="B53" s="48"/>
       <c r="C53" s="25"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="24"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="37"/>
       <c r="G53" s="31"/>
       <c r="H53" s="12"/>
@@ -34757,7 +35431,7 @@
       <c r="B54" s="48"/>
       <c r="C54" s="25"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="24"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="37"/>
       <c r="G54" s="31"/>
       <c r="H54" s="12"/>
@@ -34771,7 +35445,7 @@
       <c r="B55" s="48"/>
       <c r="C55" s="25"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="24"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="37"/>
       <c r="G55" s="31"/>
       <c r="H55" s="12"/>
@@ -34785,7 +35459,7 @@
       <c r="B56" s="48"/>
       <c r="C56" s="25"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="24"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="37"/>
       <c r="G56" s="31"/>
       <c r="H56" s="12"/>
@@ -34799,7 +35473,7 @@
       <c r="B57" s="48"/>
       <c r="C57" s="25"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="24"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="37"/>
       <c r="G57" s="31"/>
       <c r="H57" s="12"/>
@@ -34813,7 +35487,7 @@
       <c r="B58" s="48"/>
       <c r="C58" s="25"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="24"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="37"/>
       <c r="G58" s="31"/>
       <c r="H58" s="12"/>
@@ -34827,7 +35501,7 @@
       <c r="B59" s="48"/>
       <c r="C59" s="25"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="24"/>
+      <c r="E59" s="25"/>
       <c r="F59" s="37"/>
       <c r="G59" s="31"/>
       <c r="H59" s="12"/>
@@ -34841,7 +35515,7 @@
       <c r="B60" s="48"/>
       <c r="C60" s="25"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="24"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="37"/>
       <c r="G60" s="31"/>
       <c r="H60" s="12"/>
@@ -34855,7 +35529,7 @@
       <c r="B61" s="48"/>
       <c r="C61" s="25"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="24"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="37"/>
       <c r="G61" s="31"/>
       <c r="H61" s="12"/>
@@ -34869,7 +35543,7 @@
       <c r="B62" s="48"/>
       <c r="C62" s="25"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="24"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="37"/>
       <c r="G62" s="31"/>
       <c r="H62" s="12"/>
@@ -34883,7 +35557,7 @@
       <c r="B63" s="48"/>
       <c r="C63" s="25"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="24"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="37"/>
       <c r="G63" s="31"/>
       <c r="H63" s="12"/>
@@ -34897,7 +35571,7 @@
       <c r="B64" s="48"/>
       <c r="C64" s="25"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="24"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="37"/>
       <c r="G64" s="31"/>
       <c r="H64" s="12"/>
@@ -34911,7 +35585,7 @@
       <c r="B65" s="48"/>
       <c r="C65" s="25"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="24"/>
+      <c r="E65" s="25"/>
       <c r="F65" s="37"/>
       <c r="G65" s="31"/>
       <c r="H65" s="12"/>
@@ -34925,7 +35599,7 @@
       <c r="B66" s="48"/>
       <c r="C66" s="25"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="24"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="37"/>
       <c r="G66" s="31"/>
       <c r="H66" s="12"/>
@@ -34939,7 +35613,7 @@
       <c r="B67" s="48"/>
       <c r="C67" s="25"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="24"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="37"/>
       <c r="G67" s="31"/>
       <c r="H67" s="12"/>
@@ -34953,7 +35627,7 @@
       <c r="B68" s="48"/>
       <c r="C68" s="25"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="24"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="37"/>
       <c r="G68" s="31"/>
       <c r="H68" s="12"/>
@@ -34967,7 +35641,7 @@
       <c r="B69" s="48"/>
       <c r="C69" s="25"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="24"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="37"/>
       <c r="G69" s="31"/>
       <c r="H69" s="12"/>
@@ -34981,7 +35655,7 @@
       <c r="B70" s="48"/>
       <c r="C70" s="25"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="24"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="37"/>
       <c r="G70" s="31"/>
       <c r="H70" s="12"/>
@@ -34995,7 +35669,7 @@
       <c r="B71" s="48"/>
       <c r="C71" s="25"/>
       <c r="D71" s="11"/>
-      <c r="E71" s="24"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="37"/>
       <c r="G71" s="31"/>
       <c r="H71" s="12"/>
@@ -35009,7 +35683,7 @@
       <c r="B72" s="48"/>
       <c r="C72" s="25"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="24"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="37"/>
       <c r="G72" s="31"/>
       <c r="H72" s="12"/>
@@ -35023,7 +35697,7 @@
       <c r="B73" s="48"/>
       <c r="C73" s="25"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="24"/>
+      <c r="E73" s="25"/>
       <c r="F73" s="37"/>
       <c r="G73" s="31"/>
       <c r="H73" s="12"/>
@@ -35037,7 +35711,7 @@
       <c r="B74" s="48"/>
       <c r="C74" s="25"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="24"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="37"/>
       <c r="G74" s="31"/>
       <c r="H74" s="12"/>
@@ -35051,7 +35725,7 @@
       <c r="B75" s="48"/>
       <c r="C75" s="25"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="24"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="37"/>
       <c r="G75" s="31"/>
       <c r="H75" s="12"/>
@@ -35065,7 +35739,7 @@
       <c r="B76" s="48"/>
       <c r="C76" s="25"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="24"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="37"/>
       <c r="G76" s="31"/>
       <c r="H76" s="12"/>
@@ -35079,7 +35753,7 @@
       <c r="B77" s="48"/>
       <c r="C77" s="25"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="24"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="37"/>
       <c r="G77" s="31"/>
       <c r="H77" s="12"/>
@@ -35093,7 +35767,7 @@
       <c r="B78" s="48"/>
       <c r="C78" s="25"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="24"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="37"/>
       <c r="G78" s="31"/>
       <c r="H78" s="12"/>
@@ -35107,7 +35781,7 @@
       <c r="B79" s="48"/>
       <c r="C79" s="25"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="24"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="37"/>
       <c r="G79" s="31"/>
       <c r="H79" s="12"/>
@@ -35121,7 +35795,7 @@
       <c r="B80" s="48"/>
       <c r="C80" s="25"/>
       <c r="D80" s="11"/>
-      <c r="E80" s="24"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="37"/>
       <c r="G80" s="31"/>
       <c r="H80" s="12"/>
@@ -35135,7 +35809,7 @@
       <c r="B81" s="48"/>
       <c r="C81" s="25"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="24"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="37"/>
       <c r="G81" s="31"/>
       <c r="H81" s="12"/>
@@ -35149,7 +35823,7 @@
       <c r="B82" s="48"/>
       <c r="C82" s="25"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="24"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="37"/>
       <c r="G82" s="31"/>
       <c r="H82" s="12"/>
@@ -35159,10 +35833,19 @@
       <c r="L82" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="C5:C16"/>
+    <mergeCell ref="E5:E16"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcase_account_ver5.xlsx
+++ b/testcase_account_ver5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724A02D3-8EFE-4196-9634-AF47248C02F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964A78A0-927A-4DA0-B117-A984BA4C5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
     <sheet name="結合テスト" sheetId="168" r:id="rId2"/>
     <sheet name="総合テスト" sheetId="169" r:id="rId3"/>
+    <sheet name="負荷てすと" sheetId="170" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="907">
   <si>
     <t>作成者</t>
   </si>
@@ -14277,14 +14278,1030 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>画面遷移
-画面表示
-チェック</t>
+    <t>「ログインを行ってください。」と赤文字で画面中央に表示され、その下にログイン画面に戻るボタンが表示される。
+その先へは勧めくなっている。</t>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メールアドレスが未入力です。」と「パスワードが未入力です。」と表示される。</t>
+    <rPh sb="9" eb="12">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>負荷</t>
+    <rPh sb="0" eb="2">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログイン状態</t>
     <rPh sb="0" eb="4">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ガメンヒョウジ</t>
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント登録画面</t>
+    <rPh sb="32" eb="36">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別タブ表示</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+トップページ
+（regist.html）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント登録確認画面</t>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント登録完了画面</t>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント一覧画面</t>
+    <rPh sb="32" eb="34">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント削除画面</t>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント削除確認画面</t>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント削除完了画面</t>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント更新画面</t>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント更新確認画面</t>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップページ
+（regist_top.php）
+から
+アカウント更新完了画面</t>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でいずれかの画面を表示させた後、そのまま別タブで表示させる。そのあとどれかのページに表示されている「ログイン画面へ戻る」ボタンを押す。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインし、トップページを表示させた後、そのまま別タブで表示させる。そのあとどれかのページで表示されている「ログイン画面へ戻る」ボタンを押す。</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/regist.php」を実行する。</t>
+    <rPh sb="0" eb="4">
+      <t>イッパンケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/regist_confirm.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/regist_complete.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/regist.html」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/list.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/delete.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/delete_confirm.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/delete_complete.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/update.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/update_confirm.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般権限でログインした状態で「http://localhost/account/update_complete.php」を実行する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログイン状態</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、トップページを表示させた後、そのまま別タブで表示させる。そのあとどれかのページで表示されているトップページの画面の「ログイン画面へ戻る」ボタンを押す。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別タブで表示</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/regist.html」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/regist_confirm.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/regist_complete.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/delete.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/delete_confirm.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/delete_complete.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/update.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/update_confirm.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインした状態で「http://localhost/account/update_complete.php」を実行する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンを2回クリックしてみる。</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更の操作</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）にスペースを１回押して登録してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）にスペースを１回押して登録してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）にスペースを１回押して登録してみる。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）にスペースを１回押して登録してみる。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスにスペースを１回押して登録してみる。</t>
+    <rPh sb="14" eb="16">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードにスペースを１回押して登録してみる。</t>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号にスペースを１回押して登録してみる。</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市区町村）にスペースを１回押して登録してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）にスペースを１回押して登録してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再登録</t>
+    <rPh sb="0" eb="3">
+      <t>サイトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一度登録したアカウントを削除し、再度同じアカウントで登録をする。</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンを押したページに関しては、ログイン画面に戻る。それ以外のアカウントではほかのページを開こうとすると「ログインを行ってください。」と表示される。また、ページを更新しても「ログインを行ってください。」と画面中央に赤文字で表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="102" eb="106">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="107" eb="110">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンを押したページに関しては、ログイン画面に戻る。それ以外のアカウントではほかのページを開こうとすると「ログインを行ってください。」と表示される。また、ページを更新しても「ログインを行ってください。」と画面中央に赤文字で表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したアカウント</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「※この画面は操作できません」と赤文字で表示、その下に「ログイン画面へ戻る」ボタンが表示される。
+その先へは進めなくなっている。</t>
+    <rPh sb="75" eb="76">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままトップページが表示される。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「エラーが発生したためアカウント削除できません。アカウント一覧画面から削除するデータを選択してください。」と赤文字で表示され、「ログイン画面に戻る」と「TOPページに戻る」ボタンが表示される。</t>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「※アカウント一覧画面から削除するデータを選択してください。」と赤文字で表示され、「アカウント一覧画面へ進む」ボタンが表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「アカウント登録画面からアカウント登録をしてください。」と赤文字で表示され、その下に「アカウント登録画面へ進む」ボタンが表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「アカウント登録画面からアカウント登録をしてください。エラーが発生したためアカウント登録できません。」と赤文字で表示され、「ログイン画面に戻る」ボタンと「TOPページに戻る」ボタンが表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「※アカウント一覧画面から更新するデータを選択してください。」と赤文字で表示され、「アカウント一覧画面へ進む」ボタンが表示される。</t>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データがないため、画面中央に「エラーが発生したためアカウント更新できません。アカウント一覧画面から更新するデータを選択してください。」と赤文字で表示され、「ログイン画面に戻る」と「TOPページに戻る」ボタンが表示される。</t>
+    <rPh sb="30" eb="32">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索の内容</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）にスペースを１回押して検索してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）にスペースを１回押して検索してみる。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）にスペースを１回押して検索してみる。</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）にスペースを１回押して検索してみる。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスにスペースを１回押して検索してみる。</t>
+    <rPh sb="14" eb="16">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードにスペースを１回押して検索してみる。</t>
+    <rPh sb="12" eb="14">
+      <t>カイオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -14365,7 +15382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -14641,43 +15658,6 @@
         <color indexed="64"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
@@ -15005,13 +15985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15024,10 +15998,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15039,7 +16022,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15072,38 +16070,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15114,22 +16094,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15140,6 +16114,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15493,8 +16473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A194" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173:F183"/>
+    <sheetView showGridLines="0" topLeftCell="A206" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211:G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -15514,12 +16494,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -15542,10 +16522,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -15859,7 +16839,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="121" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -15889,7 +16869,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="117"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -15917,7 +16897,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="117"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -15945,7 +16925,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="117"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -15973,7 +16953,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="117"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -16001,7 +16981,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="117"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -16029,7 +17009,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="117"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -16057,7 +17037,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="117"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -16085,7 +17065,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="117"/>
+      <c r="G20" s="122"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -16113,7 +17093,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="117"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -16141,7 +17121,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="117"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -16169,7 +17149,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="113"/>
+      <c r="G23" s="123"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -16627,7 +17607,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="115" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -16657,7 +17637,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="115"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -16685,7 +17665,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="115"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -16713,7 +17693,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -16741,7 +17721,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="116"/>
+      <c r="G42" s="117"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -16893,7 +17873,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="115" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -16923,7 +17903,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="116"/>
+      <c r="G48" s="117"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -17204,7 +18184,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="121" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -17236,7 +18216,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="117"/>
+      <c r="F58" s="122"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -17263,10 +18243,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="122" t="s">
+      <c r="E59" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="117"/>
+      <c r="F59" s="122"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -17291,8 +18271,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="123"/>
-      <c r="F60" s="117"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="122"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -17317,8 +18297,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="123"/>
-      <c r="F61" s="117"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="122"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -17343,8 +18323,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="123"/>
-      <c r="F62" s="117"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="122"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -17369,8 +18349,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="123"/>
-      <c r="F63" s="117"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="122"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -17395,8 +18375,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="123"/>
-      <c r="F64" s="117"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="122"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -17421,8 +18401,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="123"/>
-      <c r="F65" s="117"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="122"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -17447,8 +18427,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="123"/>
-      <c r="F66" s="117"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="122"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -17473,8 +18453,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="123"/>
-      <c r="F67" s="117"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="122"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -17499,8 +18479,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="123"/>
-      <c r="F68" s="117"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="122"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -17525,8 +18505,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="123"/>
-      <c r="F69" s="117"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="122"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -17551,8 +18531,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="123"/>
-      <c r="F70" s="117"/>
+      <c r="E70" s="129"/>
+      <c r="F70" s="122"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -17577,8 +18557,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="124"/>
-      <c r="F71" s="113"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="123"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -17639,10 +18619,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="125" t="s">
+      <c r="E73" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="114" t="s">
+      <c r="F73" s="115" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -17669,8 +18649,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="126"/>
-      <c r="F74" s="115"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="116"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -17695,8 +18675,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="126"/>
-      <c r="F75" s="115"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="116"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -17721,8 +18701,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="126"/>
-      <c r="F76" s="115"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="116"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -17747,8 +18727,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="126"/>
-      <c r="F77" s="115"/>
+      <c r="E77" s="132"/>
+      <c r="F77" s="116"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -17773,8 +18753,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="126"/>
-      <c r="F78" s="115"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="116"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -17799,8 +18779,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="126"/>
-      <c r="F79" s="115"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="116"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -17825,8 +18805,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="126"/>
-      <c r="F80" s="115"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="116"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -17851,8 +18831,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="126"/>
-      <c r="F81" s="115"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="116"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -17877,8 +18857,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="126"/>
-      <c r="F82" s="115"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="116"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -17903,8 +18883,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="126"/>
-      <c r="F83" s="115"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="116"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -17929,8 +18909,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="127"/>
-      <c r="F84" s="116"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="117"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -18023,10 +19003,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="125" t="s">
+      <c r="E87" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="114" t="s">
+      <c r="F87" s="115" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -18053,8 +19033,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="126"/>
-      <c r="F88" s="115"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="116"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -18079,8 +19059,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="126"/>
-      <c r="F89" s="115"/>
+      <c r="E89" s="132"/>
+      <c r="F89" s="116"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -18105,8 +19085,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="127"/>
-      <c r="F90" s="116"/>
+      <c r="E90" s="133"/>
+      <c r="F90" s="117"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -18135,10 +19115,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="125" t="s">
+      <c r="E91" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="112" t="s">
+      <c r="F91" s="121" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -18167,8 +19147,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="126"/>
-      <c r="F92" s="117"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="122"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -18193,8 +19173,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="127"/>
-      <c r="F93" s="117"/>
+      <c r="E93" s="133"/>
+      <c r="F93" s="122"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -18226,7 +19206,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="117"/>
+      <c r="F94" s="122"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -18254,7 +19234,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="113"/>
+      <c r="F95" s="123"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -18349,10 +19329,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="125" t="s">
+      <c r="E98" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="114" t="s">
+      <c r="F98" s="115" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -18379,8 +19359,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="126"/>
-      <c r="F99" s="115"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="116"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -18405,8 +19385,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="126"/>
-      <c r="F100" s="115"/>
+      <c r="E100" s="132"/>
+      <c r="F100" s="116"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -18431,8 +19411,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="126"/>
-      <c r="F101" s="115"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="116"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -18457,8 +19437,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="126"/>
-      <c r="F102" s="115"/>
+      <c r="E102" s="132"/>
+      <c r="F102" s="116"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -18483,8 +19463,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="126"/>
-      <c r="F103" s="115"/>
+      <c r="E103" s="132"/>
+      <c r="F103" s="116"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -18509,8 +19489,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="126"/>
-      <c r="F104" s="115"/>
+      <c r="E104" s="132"/>
+      <c r="F104" s="116"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -18535,8 +19515,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="126"/>
-      <c r="F105" s="115"/>
+      <c r="E105" s="132"/>
+      <c r="F105" s="116"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -18561,8 +19541,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="126"/>
-      <c r="F106" s="115"/>
+      <c r="E106" s="132"/>
+      <c r="F106" s="116"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -18587,8 +19567,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="126"/>
-      <c r="F107" s="115"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="116"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -18613,8 +19593,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="126"/>
-      <c r="F108" s="115"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="116"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -18639,8 +19619,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="127"/>
-      <c r="F109" s="116"/>
+      <c r="E109" s="133"/>
+      <c r="F109" s="117"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -18737,7 +19717,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="112" t="s">
+      <c r="G112" s="121" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -18767,7 +19747,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="117"/>
+      <c r="G113" s="122"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -18795,7 +19775,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="117"/>
+      <c r="G114" s="122"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -18823,7 +19803,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="117"/>
+      <c r="G115" s="122"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -18851,7 +19831,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="117"/>
+      <c r="G116" s="122"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -18879,7 +19859,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="117"/>
+      <c r="G117" s="122"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -18909,7 +19889,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="117"/>
+      <c r="G118" s="122"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -18937,7 +19917,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="117"/>
+      <c r="G119" s="122"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -18965,7 +19945,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="117"/>
+      <c r="G120" s="122"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -18993,7 +19973,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="117"/>
+      <c r="G121" s="122"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -19021,7 +20001,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="117"/>
+      <c r="G122" s="122"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -19049,7 +20029,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="113"/>
+      <c r="G123" s="123"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -19382,7 +20362,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="114" t="s">
+      <c r="F134" s="115" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -19412,7 +20392,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="115"/>
+      <c r="F135" s="116"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -19440,7 +20420,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="115"/>
+      <c r="F136" s="116"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -19468,7 +20448,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="115"/>
+      <c r="F137" s="116"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -19496,7 +20476,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="115"/>
+      <c r="F138" s="116"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -19524,7 +20504,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="115"/>
+      <c r="F139" s="116"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -19552,7 +20532,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="115"/>
+      <c r="F140" s="116"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -19582,7 +20562,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="115"/>
+      <c r="F141" s="116"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -19610,7 +20590,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="115"/>
+      <c r="F142" s="116"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -19638,7 +20618,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="115"/>
+      <c r="F143" s="116"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -19666,7 +20646,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="115"/>
+      <c r="F144" s="116"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -19694,7 +20674,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="115"/>
+      <c r="F145" s="116"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -19722,7 +20702,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="115"/>
+      <c r="F146" s="116"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -19750,7 +20730,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="115"/>
+      <c r="F147" s="116"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -19778,7 +20758,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="116"/>
+      <c r="F148" s="117"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -19810,7 +20790,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="114" t="s">
+      <c r="F149" s="115" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -19840,7 +20820,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="115"/>
+      <c r="F150" s="116"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -19868,7 +20848,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="116"/>
+      <c r="F151" s="117"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -19897,13 +20877,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="128" t="s">
+      <c r="E152" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="114" t="s">
+      <c r="F152" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="112" t="s">
+      <c r="G152" s="121" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -19927,9 +20907,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="129"/>
-      <c r="F153" s="115"/>
-      <c r="G153" s="117"/>
+      <c r="E153" s="119"/>
+      <c r="F153" s="116"/>
+      <c r="G153" s="122"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -19951,9 +20931,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="129"/>
-      <c r="F154" s="115"/>
-      <c r="G154" s="117"/>
+      <c r="E154" s="119"/>
+      <c r="F154" s="116"/>
+      <c r="G154" s="122"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -19975,9 +20955,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="129"/>
-      <c r="F155" s="115"/>
-      <c r="G155" s="117"/>
+      <c r="E155" s="119"/>
+      <c r="F155" s="116"/>
+      <c r="G155" s="122"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -19999,9 +20979,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="129"/>
-      <c r="F156" s="115"/>
-      <c r="G156" s="117"/>
+      <c r="E156" s="119"/>
+      <c r="F156" s="116"/>
+      <c r="G156" s="122"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -20023,9 +21003,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="129"/>
-      <c r="F157" s="115"/>
-      <c r="G157" s="117"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="116"/>
+      <c r="G157" s="122"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -20049,9 +21029,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="129"/>
-      <c r="F158" s="115"/>
-      <c r="G158" s="117"/>
+      <c r="E158" s="119"/>
+      <c r="F158" s="116"/>
+      <c r="G158" s="122"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -20073,9 +21053,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="129"/>
-      <c r="F159" s="115"/>
-      <c r="G159" s="117"/>
+      <c r="E159" s="119"/>
+      <c r="F159" s="116"/>
+      <c r="G159" s="122"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -20097,9 +21077,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="129"/>
-      <c r="F160" s="115"/>
-      <c r="G160" s="117"/>
+      <c r="E160" s="119"/>
+      <c r="F160" s="116"/>
+      <c r="G160" s="122"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -20121,9 +21101,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="129"/>
-      <c r="F161" s="115"/>
-      <c r="G161" s="117"/>
+      <c r="E161" s="119"/>
+      <c r="F161" s="116"/>
+      <c r="G161" s="122"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -20145,9 +21125,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="129"/>
-      <c r="F162" s="115"/>
-      <c r="G162" s="117"/>
+      <c r="E162" s="119"/>
+      <c r="F162" s="116"/>
+      <c r="G162" s="122"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -20169,9 +21149,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="129"/>
-      <c r="F163" s="115"/>
-      <c r="G163" s="113"/>
+      <c r="E163" s="119"/>
+      <c r="F163" s="116"/>
+      <c r="G163" s="123"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -20193,8 +21173,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="129"/>
-      <c r="F164" s="115"/>
+      <c r="E164" s="119"/>
+      <c r="F164" s="116"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -20219,8 +21199,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="130"/>
-      <c r="F165" s="116"/>
+      <c r="E165" s="120"/>
+      <c r="F165" s="117"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -20321,7 +21301,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="112" t="s">
+      <c r="G168" s="121" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="68">
@@ -20351,7 +21331,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="113"/>
+      <c r="G169" s="123"/>
       <c r="H169" s="68">
         <v>44480</v>
       </c>
@@ -20481,7 +21461,7 @@
       <c r="F173" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="G173" s="114" t="s">
+      <c r="G173" s="115" t="s">
         <v>599</v>
       </c>
       <c r="H173" s="68">
@@ -20511,7 +21491,7 @@
       <c r="F174" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G174" s="115"/>
+      <c r="G174" s="116"/>
       <c r="H174" s="68">
         <v>44480</v>
       </c>
@@ -20539,7 +21519,7 @@
       <c r="F175" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="115"/>
+      <c r="G175" s="116"/>
       <c r="H175" s="68">
         <v>44480</v>
       </c>
@@ -20567,7 +21547,7 @@
       <c r="F176" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="115"/>
+      <c r="G176" s="116"/>
       <c r="H176" s="68">
         <v>44480</v>
       </c>
@@ -20595,7 +21575,7 @@
       <c r="F177" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G177" s="115"/>
+      <c r="G177" s="116"/>
       <c r="H177" s="68">
         <v>44480</v>
       </c>
@@ -20623,7 +21603,7 @@
       <c r="F178" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G178" s="115"/>
+      <c r="G178" s="116"/>
       <c r="H178" s="68">
         <v>44480</v>
       </c>
@@ -20651,7 +21631,7 @@
       <c r="F179" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G179" s="115"/>
+      <c r="G179" s="116"/>
       <c r="H179" s="68">
         <v>44480</v>
       </c>
@@ -20679,7 +21659,7 @@
       <c r="F180" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="115"/>
+      <c r="G180" s="116"/>
       <c r="H180" s="68">
         <v>44480</v>
       </c>
@@ -20707,7 +21687,7 @@
       <c r="F181" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="115"/>
+      <c r="G181" s="116"/>
       <c r="H181" s="68">
         <v>44480</v>
       </c>
@@ -20735,7 +21715,7 @@
       <c r="F182" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="115"/>
+      <c r="G182" s="116"/>
       <c r="H182" s="68">
         <v>44480</v>
       </c>
@@ -20763,7 +21743,7 @@
       <c r="F183" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G183" s="116"/>
+      <c r="G183" s="117"/>
       <c r="H183" s="68">
         <v>44480</v>
       </c>
@@ -20823,7 +21803,7 @@
       <c r="F185" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="G185" s="112" t="s">
+      <c r="G185" s="121" t="s">
         <v>601</v>
       </c>
       <c r="H185" s="68">
@@ -20853,7 +21833,7 @@
       <c r="F186" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="117"/>
+      <c r="G186" s="122"/>
       <c r="H186" s="68">
         <v>44480</v>
       </c>
@@ -20881,7 +21861,7 @@
       <c r="F187" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="G187" s="117"/>
+      <c r="G187" s="122"/>
       <c r="H187" s="68">
         <v>44480</v>
       </c>
@@ -20909,7 +21889,7 @@
       <c r="F188" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="G188" s="117"/>
+      <c r="G188" s="122"/>
       <c r="H188" s="68">
         <v>44480</v>
       </c>
@@ -20937,7 +21917,7 @@
       <c r="F189" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="117"/>
+      <c r="G189" s="122"/>
       <c r="H189" s="68">
         <v>44480</v>
       </c>
@@ -20965,7 +21945,7 @@
       <c r="F190" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G190" s="117"/>
+      <c r="G190" s="122"/>
       <c r="H190" s="68">
         <v>44480</v>
       </c>
@@ -20993,7 +21973,7 @@
       <c r="F191" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="G191" s="117"/>
+      <c r="G191" s="122"/>
       <c r="H191" s="68">
         <v>44480</v>
       </c>
@@ -21021,7 +22001,7 @@
       <c r="F192" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="G192" s="117"/>
+      <c r="G192" s="122"/>
       <c r="H192" s="68">
         <v>44480</v>
       </c>
@@ -21049,7 +22029,7 @@
       <c r="F193" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G193" s="117"/>
+      <c r="G193" s="122"/>
       <c r="H193" s="68">
         <v>44480</v>
       </c>
@@ -21077,7 +22057,7 @@
       <c r="F194" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G194" s="113"/>
+      <c r="G194" s="123"/>
       <c r="H194" s="68">
         <v>44480</v>
       </c>
@@ -21505,7 +22485,7 @@
       <c r="F208" s="99" t="s">
         <v>593</v>
       </c>
-      <c r="G208" s="112" t="s">
+      <c r="G208" s="121" t="s">
         <v>604</v>
       </c>
       <c r="H208" s="68">
@@ -21535,7 +22515,7 @@
       <c r="F209" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="G209" s="113"/>
+      <c r="G209" s="123"/>
       <c r="H209" s="68">
         <v>44480</v>
       </c>
@@ -21595,7 +22575,7 @@
       <c r="F211" s="99" t="s">
         <v>596</v>
       </c>
-      <c r="G211" s="112" t="s">
+      <c r="G211" s="121" t="s">
         <v>607</v>
       </c>
       <c r="H211" s="68">
@@ -21625,7 +22605,7 @@
       <c r="F212" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="G212" s="113"/>
+      <c r="G212" s="123"/>
       <c r="H212" s="68">
         <v>44480</v>
       </c>
@@ -21681,13 +22661,13 @@
       <c r="D214" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="128" t="s">
+      <c r="E214" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="114" t="s">
+      <c r="F214" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="G214" s="112" t="s">
+      <c r="G214" s="121" t="s">
         <v>757</v>
       </c>
       <c r="H214" s="68">
@@ -21711,9 +22691,9 @@
       <c r="D215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E215" s="129"/>
-      <c r="F215" s="115"/>
-      <c r="G215" s="117"/>
+      <c r="E215" s="119"/>
+      <c r="F215" s="116"/>
+      <c r="G215" s="122"/>
       <c r="H215" s="68">
         <v>44504</v>
       </c>
@@ -21735,9 +22715,9 @@
       <c r="D216" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="129"/>
-      <c r="F216" s="115"/>
-      <c r="G216" s="117"/>
+      <c r="E216" s="119"/>
+      <c r="F216" s="116"/>
+      <c r="G216" s="122"/>
       <c r="H216" s="68">
         <v>44504</v>
       </c>
@@ -21759,9 +22739,9 @@
       <c r="D217" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E217" s="129"/>
-      <c r="F217" s="115"/>
-      <c r="G217" s="117"/>
+      <c r="E217" s="119"/>
+      <c r="F217" s="116"/>
+      <c r="G217" s="122"/>
       <c r="H217" s="68">
         <v>44504</v>
       </c>
@@ -21783,9 +22763,9 @@
       <c r="D218" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E218" s="129"/>
-      <c r="F218" s="115"/>
-      <c r="G218" s="113"/>
+      <c r="E218" s="119"/>
+      <c r="F218" s="116"/>
+      <c r="G218" s="123"/>
       <c r="H218" s="68">
         <v>44504</v>
       </c>
@@ -21807,8 +22787,8 @@
       <c r="D219" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="129"/>
-      <c r="F219" s="115"/>
+      <c r="E219" s="119"/>
+      <c r="F219" s="116"/>
       <c r="G219" s="31" t="s">
         <v>759</v>
       </c>
@@ -21833,8 +22813,8 @@
       <c r="D220" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="129"/>
-      <c r="F220" s="115"/>
+      <c r="E220" s="119"/>
+      <c r="F220" s="116"/>
       <c r="G220" s="31" t="s">
         <v>758</v>
       </c>
@@ -21859,8 +22839,8 @@
       <c r="D221" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="130"/>
-      <c r="F221" s="115"/>
+      <c r="E221" s="120"/>
+      <c r="F221" s="116"/>
       <c r="G221" s="31" t="s">
         <v>760</v>
       </c>
@@ -21888,7 +22868,7 @@
       <c r="E222" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="F222" s="116"/>
+      <c r="F222" s="117"/>
       <c r="G222" s="31" t="s">
         <v>769</v>
       </c>
@@ -21915,13 +22895,13 @@
       <c r="D223" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="128" t="s">
+      <c r="E223" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="F223" s="114" t="s">
+      <c r="F223" s="115" t="s">
         <v>762</v>
       </c>
-      <c r="G223" s="112" t="s">
+      <c r="G223" s="121" t="s">
         <v>766</v>
       </c>
       <c r="H223" s="68">
@@ -21945,9 +22925,9 @@
       <c r="D224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E224" s="129"/>
-      <c r="F224" s="115"/>
-      <c r="G224" s="117"/>
+      <c r="E224" s="119"/>
+      <c r="F224" s="116"/>
+      <c r="G224" s="122"/>
       <c r="H224" s="68">
         <v>44504</v>
       </c>
@@ -21969,9 +22949,9 @@
       <c r="D225" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="129"/>
-      <c r="F225" s="115"/>
-      <c r="G225" s="117"/>
+      <c r="E225" s="119"/>
+      <c r="F225" s="116"/>
+      <c r="G225" s="122"/>
       <c r="H225" s="68">
         <v>44504</v>
       </c>
@@ -21993,9 +22973,9 @@
       <c r="D226" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="129"/>
-      <c r="F226" s="115"/>
-      <c r="G226" s="117"/>
+      <c r="E226" s="119"/>
+      <c r="F226" s="116"/>
+      <c r="G226" s="122"/>
       <c r="H226" s="68">
         <v>44504</v>
       </c>
@@ -22017,9 +22997,9 @@
       <c r="D227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="129"/>
-      <c r="F227" s="116"/>
-      <c r="G227" s="113"/>
+      <c r="E227" s="119"/>
+      <c r="F227" s="117"/>
+      <c r="G227" s="123"/>
       <c r="H227" s="68">
         <v>44504</v>
       </c>
@@ -22041,11 +23021,11 @@
       <c r="D228" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="129"/>
+      <c r="E228" s="119"/>
       <c r="F228" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="G228" s="112" t="s">
+      <c r="G228" s="121" t="s">
         <v>767</v>
       </c>
       <c r="H228" s="68">
@@ -22069,11 +23049,11 @@
       <c r="D229" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="129"/>
+      <c r="E229" s="119"/>
       <c r="F229" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="G229" s="113"/>
+      <c r="G229" s="123"/>
       <c r="H229" s="68">
         <v>44504</v>
       </c>
@@ -22097,13 +23077,13 @@
       <c r="D230" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="128" t="s">
+      <c r="E230" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="F230" s="114" t="s">
+      <c r="F230" s="115" t="s">
         <v>765</v>
       </c>
-      <c r="G230" s="112" t="s">
+      <c r="G230" s="121" t="s">
         <v>770</v>
       </c>
       <c r="H230" s="68">
@@ -22127,9 +23107,9 @@
       <c r="D231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E231" s="129"/>
-      <c r="F231" s="115"/>
-      <c r="G231" s="117"/>
+      <c r="E231" s="119"/>
+      <c r="F231" s="116"/>
+      <c r="G231" s="122"/>
       <c r="H231" s="68">
         <v>44504</v>
       </c>
@@ -22151,9 +23131,9 @@
       <c r="D232" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="129"/>
-      <c r="F232" s="115"/>
-      <c r="G232" s="117"/>
+      <c r="E232" s="119"/>
+      <c r="F232" s="116"/>
+      <c r="G232" s="122"/>
       <c r="H232" s="68">
         <v>44504</v>
       </c>
@@ -22175,9 +23155,9 @@
       <c r="D233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="129"/>
-      <c r="F233" s="115"/>
-      <c r="G233" s="117"/>
+      <c r="E233" s="119"/>
+      <c r="F233" s="116"/>
+      <c r="G233" s="122"/>
       <c r="H233" s="68">
         <v>44504</v>
       </c>
@@ -22199,9 +23179,9 @@
       <c r="D234" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="129"/>
-      <c r="F234" s="115"/>
-      <c r="G234" s="113"/>
+      <c r="E234" s="119"/>
+      <c r="F234" s="116"/>
+      <c r="G234" s="123"/>
       <c r="H234" s="68">
         <v>44504</v>
       </c>
@@ -22223,8 +23203,8 @@
       <c r="D235" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="129"/>
-      <c r="F235" s="115"/>
+      <c r="E235" s="119"/>
+      <c r="F235" s="116"/>
       <c r="G235" s="102" t="s">
         <v>771</v>
       </c>
@@ -22249,8 +23229,8 @@
       <c r="D236" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E236" s="129"/>
-      <c r="F236" s="115"/>
+      <c r="E236" s="119"/>
+      <c r="F236" s="116"/>
       <c r="G236" s="102" t="s">
         <v>772</v>
       </c>
@@ -22275,8 +23255,8 @@
       <c r="D237" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="E237" s="130"/>
-      <c r="F237" s="116"/>
+      <c r="E237" s="120"/>
+      <c r="F237" s="117"/>
       <c r="G237" s="31" t="s">
         <v>773</v>
       </c>
@@ -22616,25 +23596,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F230:F237"/>
-    <mergeCell ref="E230:E237"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="E214:E221"/>
-    <mergeCell ref="F214:F222"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="G223:G227"/>
-    <mergeCell ref="G228:G229"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="E152:E165"/>
-    <mergeCell ref="F152:F165"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="G152:G163"/>
-    <mergeCell ref="G112:G123"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="F149:F151"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="G173:G183"/>
     <mergeCell ref="G185:G194"/>
@@ -22651,6 +23612,25 @@
     <mergeCell ref="F87:F90"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="F230:F237"/>
+    <mergeCell ref="E230:E237"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="E214:E221"/>
+    <mergeCell ref="F214:F222"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="G223:G227"/>
+    <mergeCell ref="G228:G229"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -22684,11 +23664,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="134"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -22711,9 +23691,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="138"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="135"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -22881,13 +23861,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="121" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="121" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -22907,11 +23887,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="117"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -22929,11 +23909,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="117"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -22951,11 +23931,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="117"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -22973,11 +23953,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -22995,11 +23975,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="117"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -23017,11 +23997,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="117"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -23039,11 +24019,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="117"/>
+      <c r="D15" s="122"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="117"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -23061,11 +24041,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="117"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="117"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -23083,11 +24063,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="117"/>
+      <c r="D17" s="122"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="117"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -23105,11 +24085,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="117"/>
+      <c r="D18" s="122"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="117"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -23127,11 +24107,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="113"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -23152,13 +24132,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="121" t="s">
         <v>203</v>
       </c>
       <c r="E20" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="112" t="s">
+      <c r="F20" s="121" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -23181,9 +24161,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="117"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="140"/>
-      <c r="F21" s="117"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -23204,9 +24184,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="117"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="140"/>
-      <c r="F22" s="117"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -23227,9 +24207,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="117"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="140"/>
-      <c r="F23" s="117"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -23250,9 +24230,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="117"/>
+      <c r="D24" s="122"/>
       <c r="E24" s="140"/>
-      <c r="F24" s="113"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -23273,7 +24253,7 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="117"/>
+      <c r="D25" s="122"/>
       <c r="E25" s="140"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
@@ -23298,9 +24278,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="117"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="140"/>
-      <c r="F26" s="112" t="s">
+      <c r="F26" s="121" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -23323,9 +24303,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="117"/>
+      <c r="D27" s="122"/>
       <c r="E27" s="140"/>
-      <c r="F27" s="117"/>
+      <c r="F27" s="122"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -23346,9 +24326,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="117"/>
+      <c r="D28" s="122"/>
       <c r="E28" s="140"/>
-      <c r="F28" s="117"/>
+      <c r="F28" s="122"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -23369,9 +24349,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="117"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="140"/>
-      <c r="F29" s="117"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -23392,9 +24372,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="117"/>
+      <c r="D30" s="122"/>
       <c r="E30" s="140"/>
-      <c r="F30" s="117"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -23415,9 +24395,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="113"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="141"/>
-      <c r="F31" s="113"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -23440,7 +24420,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="112" t="s">
+      <c r="D32" s="121" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -23469,7 +24449,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="117"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -23496,7 +24476,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="117"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -23523,7 +24503,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="117"/>
+      <c r="D35" s="122"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -23550,7 +24530,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="117"/>
+      <c r="D36" s="122"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -23577,7 +24557,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="117"/>
+      <c r="D37" s="122"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -23604,7 +24584,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="117"/>
+      <c r="D38" s="122"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -23631,7 +24611,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="117"/>
+      <c r="D39" s="122"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -23658,7 +24638,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="122"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -23685,7 +24665,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="113"/>
+      <c r="D41" s="123"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -23714,13 +24694,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="115" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -23743,9 +24723,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="129"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -23766,9 +24746,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="129"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -23789,9 +24769,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="129"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -23812,9 +24792,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="129"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -23835,9 +24815,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="129"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -23858,9 +24838,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="129"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -23881,9 +24861,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="129"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -23904,9 +24884,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="129"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -23927,9 +24907,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="129"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -23950,9 +24930,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="129"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -23973,9 +24953,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="130"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -23998,13 +24978,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="114" t="s">
+      <c r="E54" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="134" t="s">
+      <c r="F54" s="136" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -24027,9 +25007,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="136"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="137"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -24050,9 +25030,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="136"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="137"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -24073,9 +25053,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="129"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="136"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="137"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -24096,9 +25076,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="129"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="136"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="137"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -24119,9 +25099,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="129"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="135"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -24142,8 +25122,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="129"/>
-      <c r="E60" s="115"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="116"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -24167,8 +25147,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="129"/>
-      <c r="E61" s="115"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="116"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -24192,8 +25172,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="129"/>
-      <c r="E62" s="115"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="116"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -24217,9 +25197,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="129"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="134" t="s">
+      <c r="D63" s="119"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="136" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -24242,9 +25222,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="129"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="135"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -24265,8 +25245,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="130"/>
-      <c r="E65" s="116"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="117"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -24292,13 +25272,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="112" t="s">
+      <c r="D66" s="121" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="112" t="s">
+      <c r="E66" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="115" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -24321,9 +25301,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="129"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="115"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="116"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -24344,9 +25324,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="129"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="115"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="116"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -24367,9 +25347,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="129"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="115"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="116"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -24390,9 +25370,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="129"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="115"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="116"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -24413,9 +25393,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="129"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="115"/>
+      <c r="D71" s="119"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="116"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -24436,9 +25416,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="129"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="115"/>
+      <c r="D72" s="119"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="116"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -24459,9 +25439,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="129"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="115"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="116"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -24482,9 +25462,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="129"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="115"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="116"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -24505,9 +25485,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="129"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="115"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="116"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -24528,9 +25508,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="129"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="115"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="116"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -24551,9 +25531,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="130"/>
-      <c r="E77" s="113"/>
-      <c r="F77" s="116"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="117"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -24609,10 +25589,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="112" t="s">
+      <c r="D79" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="112" t="s">
+      <c r="E79" s="121" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -24638,8 +25618,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -24663,8 +25643,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -24688,8 +25668,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="117"/>
-      <c r="E82" s="117"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -24713,8 +25693,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
+      <c r="D83" s="122"/>
+      <c r="E83" s="122"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -24738,8 +25718,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="117"/>
-      <c r="E84" s="117"/>
+      <c r="D84" s="122"/>
+      <c r="E84" s="122"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -24763,8 +25743,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="117"/>
-      <c r="E85" s="117"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -24788,8 +25768,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -24813,8 +25793,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -24838,8 +25818,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -24863,8 +25843,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -24888,8 +25868,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="122"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -24913,8 +25893,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -24938,8 +25918,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="122"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -24963,8 +25943,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="117"/>
-      <c r="E93" s="117"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="122"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -24990,8 +25970,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="113"/>
+      <c r="D94" s="123"/>
+      <c r="E94" s="123"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -25110,10 +26090,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="114" t="s">
+      <c r="D98" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="114" t="s">
+      <c r="E98" s="115" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -25139,8 +26119,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="132"/>
-      <c r="E99" s="115"/>
+      <c r="D99" s="142"/>
+      <c r="E99" s="116"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -25164,8 +26144,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="132"/>
-      <c r="E100" s="115"/>
+      <c r="D100" s="142"/>
+      <c r="E100" s="116"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -25189,8 +26169,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="132"/>
-      <c r="E101" s="115"/>
+      <c r="D101" s="142"/>
+      <c r="E101" s="116"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -25214,8 +26194,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="132"/>
-      <c r="E102" s="115"/>
+      <c r="D102" s="142"/>
+      <c r="E102" s="116"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -25239,8 +26219,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="132"/>
-      <c r="E103" s="115"/>
+      <c r="D103" s="142"/>
+      <c r="E103" s="116"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -25264,8 +26244,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="132"/>
-      <c r="E104" s="115"/>
+      <c r="D104" s="142"/>
+      <c r="E104" s="116"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -25289,8 +26269,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="132"/>
-      <c r="E105" s="115"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="116"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -25314,8 +26294,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="132"/>
-      <c r="E106" s="115"/>
+      <c r="D106" s="142"/>
+      <c r="E106" s="116"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -25339,8 +26319,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="132"/>
-      <c r="E107" s="115"/>
+      <c r="D107" s="142"/>
+      <c r="E107" s="116"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -25364,8 +26344,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="133"/>
-      <c r="E108" s="116"/>
+      <c r="D108" s="143"/>
+      <c r="E108" s="117"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -25542,10 +26522,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="114" t="s">
+      <c r="D114" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="115" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -25571,8 +26551,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="115"/>
-      <c r="E115" s="115"/>
+      <c r="D115" s="116"/>
+      <c r="E115" s="116"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -25596,8 +26576,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="115"/>
-      <c r="E116" s="115"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="116"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -25621,8 +26601,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="115"/>
-      <c r="E117" s="115"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="116"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -25646,8 +26626,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="115"/>
-      <c r="E118" s="115"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -25671,8 +26651,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="115"/>
-      <c r="E119" s="115"/>
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -25696,8 +26676,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -25721,8 +26701,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -25746,8 +26726,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="115"/>
-      <c r="E122" s="115"/>
+      <c r="D122" s="116"/>
+      <c r="E122" s="116"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -25771,8 +26751,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
+      <c r="D123" s="116"/>
+      <c r="E123" s="116"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -25796,8 +26776,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="115"/>
-      <c r="E124" s="115"/>
+      <c r="D124" s="116"/>
+      <c r="E124" s="116"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -25821,8 +26801,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="116"/>
-      <c r="E125" s="116"/>
+      <c r="D125" s="117"/>
+      <c r="E125" s="117"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -25976,13 +26956,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="114" t="s">
+      <c r="D130" s="115" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="112" t="s">
+      <c r="E130" s="121" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="114" t="s">
+      <c r="F130" s="115" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -26005,9 +26985,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="115"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="115"/>
+      <c r="D131" s="116"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="116"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -26028,9 +27008,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="115"/>
-      <c r="E132" s="117"/>
-      <c r="F132" s="115"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="116"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -26051,9 +27031,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="115"/>
-      <c r="E133" s="117"/>
-      <c r="F133" s="115"/>
+      <c r="D133" s="116"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="116"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -26074,9 +27054,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="115"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="115"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="122"/>
+      <c r="F134" s="116"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -26097,9 +27077,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="115"/>
-      <c r="E135" s="117"/>
-      <c r="F135" s="115"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="122"/>
+      <c r="F135" s="116"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -26120,9 +27100,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="115"/>
-      <c r="E136" s="117"/>
-      <c r="F136" s="115"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="116"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -26143,9 +27123,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="115"/>
-      <c r="E137" s="117"/>
-      <c r="F137" s="115"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="122"/>
+      <c r="F137" s="116"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -26166,9 +27146,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="115"/>
-      <c r="E138" s="117"/>
-      <c r="F138" s="115"/>
+      <c r="D138" s="116"/>
+      <c r="E138" s="122"/>
+      <c r="F138" s="116"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -26189,9 +27169,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="115"/>
-      <c r="E139" s="117"/>
-      <c r="F139" s="115"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="122"/>
+      <c r="F139" s="116"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -26212,9 +27192,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="115"/>
-      <c r="E140" s="117"/>
-      <c r="F140" s="115"/>
+      <c r="D140" s="116"/>
+      <c r="E140" s="122"/>
+      <c r="F140" s="116"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -26235,9 +27215,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="116"/>
-      <c r="E141" s="113"/>
-      <c r="F141" s="116"/>
+      <c r="D141" s="117"/>
+      <c r="E141" s="123"/>
+      <c r="F141" s="117"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -26322,10 +27302,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="114" t="s">
+      <c r="D144" s="115" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="114" t="s">
+      <c r="E144" s="115" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -26351,8 +27331,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="116"/>
-      <c r="E145" s="116"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="117"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -26705,10 +27685,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="114" t="s">
+      <c r="D157" s="115" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="114" t="s">
+      <c r="E157" s="115" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -26734,8 +27714,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="115"/>
-      <c r="E158" s="115"/>
+      <c r="D158" s="116"/>
+      <c r="E158" s="116"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -26759,8 +27739,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="115"/>
-      <c r="E159" s="115"/>
+      <c r="D159" s="116"/>
+      <c r="E159" s="116"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -26784,8 +27764,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="115"/>
-      <c r="E160" s="115"/>
+      <c r="D160" s="116"/>
+      <c r="E160" s="116"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -26809,8 +27789,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="115"/>
-      <c r="E161" s="115"/>
+      <c r="D161" s="116"/>
+      <c r="E161" s="116"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -26834,8 +27814,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="115"/>
-      <c r="E162" s="115"/>
+      <c r="D162" s="116"/>
+      <c r="E162" s="116"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -26859,8 +27839,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="115"/>
-      <c r="E163" s="115"/>
+      <c r="D163" s="116"/>
+      <c r="E163" s="116"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -26884,8 +27864,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="115"/>
-      <c r="E164" s="115"/>
+      <c r="D164" s="116"/>
+      <c r="E164" s="116"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -26909,8 +27889,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="115"/>
-      <c r="E165" s="115"/>
+      <c r="D165" s="116"/>
+      <c r="E165" s="116"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -26934,8 +27914,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="115"/>
-      <c r="E166" s="115"/>
+      <c r="D166" s="116"/>
+      <c r="E166" s="116"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -26959,8 +27939,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="115"/>
-      <c r="E167" s="115"/>
+      <c r="D167" s="116"/>
+      <c r="E167" s="116"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -26984,8 +27964,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="116"/>
-      <c r="E168" s="116"/>
+      <c r="D168" s="117"/>
+      <c r="E168" s="117"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -27044,13 +28024,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="114" t="s">
+      <c r="D170" s="115" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="114" t="s">
+      <c r="F170" s="115" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -27073,11 +28053,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="115"/>
+      <c r="D171" s="116"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="115"/>
+      <c r="F171" s="116"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -27098,11 +28078,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="115"/>
+      <c r="D172" s="116"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="115"/>
+      <c r="F172" s="116"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -27123,11 +28103,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="115"/>
+      <c r="D173" s="116"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="115"/>
+      <c r="F173" s="116"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -27148,11 +28128,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="115"/>
+      <c r="D174" s="116"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="115"/>
+      <c r="F174" s="116"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -27173,11 +28153,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="115"/>
+      <c r="D175" s="116"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="115"/>
+      <c r="F175" s="116"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -27200,11 +28180,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="115"/>
+      <c r="D176" s="116"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="115"/>
+      <c r="F176" s="116"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -27225,11 +28205,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="115"/>
+      <c r="D177" s="116"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="115"/>
+      <c r="F177" s="116"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -27250,11 +28230,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="115"/>
+      <c r="D178" s="116"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="115"/>
+      <c r="F178" s="116"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -27275,11 +28255,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="115"/>
+      <c r="D179" s="116"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="115"/>
+      <c r="F179" s="116"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -27300,11 +28280,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="115"/>
+      <c r="D180" s="116"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="115"/>
+      <c r="F180" s="116"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -27325,11 +28305,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="116"/>
+      <c r="D181" s="117"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="116"/>
+      <c r="F181" s="117"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -27352,7 +28332,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="114" t="s">
+      <c r="D182" s="115" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -27381,7 +28361,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="115"/>
+      <c r="D183" s="116"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -27408,7 +28388,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="115"/>
+      <c r="D184" s="116"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -27435,7 +28415,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="115"/>
+      <c r="D185" s="116"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -27462,7 +28442,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="115"/>
+      <c r="D186" s="116"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -27489,7 +28469,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="115"/>
+      <c r="D187" s="116"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -27518,7 +28498,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="115"/>
+      <c r="D188" s="116"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -27545,7 +28525,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="115"/>
+      <c r="D189" s="116"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -27572,7 +28552,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="115"/>
+      <c r="D190" s="116"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -27599,7 +28579,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="116"/>
+      <c r="D191" s="117"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -27628,10 +28608,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="114" t="s">
+      <c r="D192" s="115" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="114" t="s">
+      <c r="E192" s="115" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -27657,8 +28637,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="115"/>
-      <c r="E193" s="115"/>
+      <c r="D193" s="116"/>
+      <c r="E193" s="116"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -27682,8 +28662,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="115"/>
-      <c r="E194" s="115"/>
+      <c r="D194" s="116"/>
+      <c r="E194" s="116"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -27707,8 +28687,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="115"/>
-      <c r="E195" s="115"/>
+      <c r="D195" s="116"/>
+      <c r="E195" s="116"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -27732,8 +28712,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="115"/>
-      <c r="E196" s="115"/>
+      <c r="D196" s="116"/>
+      <c r="E196" s="116"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -27757,8 +28737,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="115"/>
-      <c r="E197" s="115"/>
+      <c r="D197" s="116"/>
+      <c r="E197" s="116"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -27784,8 +28764,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="115"/>
-      <c r="E198" s="115"/>
+      <c r="D198" s="116"/>
+      <c r="E198" s="116"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -27809,8 +28789,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="115"/>
-      <c r="E199" s="115"/>
+      <c r="D199" s="116"/>
+      <c r="E199" s="116"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -27834,8 +28814,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="115"/>
-      <c r="E200" s="115"/>
+      <c r="D200" s="116"/>
+      <c r="E200" s="116"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -27859,8 +28839,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="115"/>
-      <c r="E201" s="115"/>
+      <c r="D201" s="116"/>
+      <c r="E201" s="116"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -27884,8 +28864,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="115"/>
-      <c r="E202" s="115"/>
+      <c r="D202" s="116"/>
+      <c r="E202" s="116"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -27909,8 +28889,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="116"/>
-      <c r="E203" s="116"/>
+      <c r="D203" s="117"/>
+      <c r="E203" s="117"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -27969,13 +28949,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="114" t="s">
+      <c r="D205" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="114" t="s">
+      <c r="E205" s="115" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="134" t="s">
+      <c r="F205" s="136" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -27998,9 +28978,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="115"/>
-      <c r="E206" s="115"/>
-      <c r="F206" s="136"/>
+      <c r="D206" s="116"/>
+      <c r="E206" s="116"/>
+      <c r="F206" s="137"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -28021,9 +29001,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="115"/>
-      <c r="E207" s="115"/>
-      <c r="F207" s="136"/>
+      <c r="D207" s="116"/>
+      <c r="E207" s="116"/>
+      <c r="F207" s="137"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -28044,9 +29024,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="115"/>
-      <c r="E208" s="115"/>
-      <c r="F208" s="136"/>
+      <c r="D208" s="116"/>
+      <c r="E208" s="116"/>
+      <c r="F208" s="137"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -28067,9 +29047,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="136"/>
+      <c r="D209" s="116"/>
+      <c r="E209" s="116"/>
+      <c r="F209" s="137"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -28090,9 +29070,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="115"/>
-      <c r="E210" s="115"/>
-      <c r="F210" s="135"/>
+      <c r="D210" s="116"/>
+      <c r="E210" s="116"/>
+      <c r="F210" s="138"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -28113,8 +29093,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="115"/>
-      <c r="E211" s="115"/>
+      <c r="D211" s="116"/>
+      <c r="E211" s="116"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -28138,8 +29118,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="115"/>
-      <c r="E212" s="115"/>
+      <c r="D212" s="116"/>
+      <c r="E212" s="116"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -28163,8 +29143,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="115"/>
-      <c r="E213" s="115"/>
+      <c r="D213" s="116"/>
+      <c r="E213" s="116"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -28188,9 +29168,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="115"/>
-      <c r="E214" s="115"/>
-      <c r="F214" s="134" t="s">
+      <c r="D214" s="116"/>
+      <c r="E214" s="116"/>
+      <c r="F214" s="136" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -28213,9 +29193,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="115"/>
-      <c r="E215" s="115"/>
-      <c r="F215" s="135"/>
+      <c r="D215" s="116"/>
+      <c r="E215" s="116"/>
+      <c r="F215" s="138"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -28236,8 +29216,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="116"/>
-      <c r="E216" s="116"/>
+      <c r="D216" s="117"/>
+      <c r="E216" s="117"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -28323,10 +29303,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="114" t="s">
+      <c r="D219" s="115" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="114" t="s">
+      <c r="E219" s="115" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -28352,8 +29332,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="115"/>
-      <c r="E220" s="115"/>
+      <c r="D220" s="116"/>
+      <c r="E220" s="116"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -28377,8 +29357,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="115"/>
-      <c r="E221" s="115"/>
+      <c r="D221" s="116"/>
+      <c r="E221" s="116"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -28402,8 +29382,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="115"/>
-      <c r="E222" s="115"/>
+      <c r="D222" s="116"/>
+      <c r="E222" s="116"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -28427,8 +29407,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="115"/>
-      <c r="E223" s="115"/>
+      <c r="D223" s="116"/>
+      <c r="E223" s="116"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -28452,8 +29432,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="115"/>
-      <c r="E224" s="115"/>
+      <c r="D224" s="116"/>
+      <c r="E224" s="116"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -28479,8 +29459,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="115"/>
-      <c r="E225" s="115"/>
+      <c r="D225" s="116"/>
+      <c r="E225" s="116"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -28504,8 +29484,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="115"/>
-      <c r="E226" s="115"/>
+      <c r="D226" s="116"/>
+      <c r="E226" s="116"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -28529,8 +29509,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="115"/>
-      <c r="E227" s="115"/>
+      <c r="D227" s="116"/>
+      <c r="E227" s="116"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -28554,8 +29534,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="115"/>
-      <c r="E228" s="115"/>
+      <c r="D228" s="116"/>
+      <c r="E228" s="116"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -28579,8 +29559,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="115"/>
-      <c r="E229" s="115"/>
+      <c r="D229" s="116"/>
+      <c r="E229" s="116"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -28604,8 +29584,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="115"/>
-      <c r="E230" s="115"/>
+      <c r="D230" s="116"/>
+      <c r="E230" s="116"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -28629,8 +29609,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="115"/>
-      <c r="E231" s="115"/>
+      <c r="D231" s="116"/>
+      <c r="E231" s="116"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -28654,8 +29634,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="116"/>
-      <c r="E232" s="116"/>
+      <c r="D232" s="117"/>
+      <c r="E232" s="117"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -29045,7 +30025,7 @@
       <c r="E245" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F245" s="134" t="s">
+      <c r="F245" s="136" t="s">
         <v>625</v>
       </c>
       <c r="G245" s="93">
@@ -29074,7 +30054,7 @@
       <c r="E246" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="F246" s="135"/>
+      <c r="F246" s="138"/>
       <c r="G246" s="93">
         <v>44481</v>
       </c>
@@ -29430,10 +30410,10 @@
       <c r="D259" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E259" s="114" t="s">
+      <c r="E259" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F259" s="114" t="s">
+      <c r="F259" s="115" t="s">
         <v>691</v>
       </c>
       <c r="G259" s="93">
@@ -29457,8 +30437,8 @@
       <c r="D260" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E260" s="115"/>
-      <c r="F260" s="115"/>
+      <c r="E260" s="116"/>
+      <c r="F260" s="116"/>
       <c r="G260" s="93">
         <v>44481</v>
       </c>
@@ -29480,8 +30460,8 @@
       <c r="D261" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="115"/>
-      <c r="F261" s="115"/>
+      <c r="E261" s="116"/>
+      <c r="F261" s="116"/>
       <c r="G261" s="93">
         <v>44481</v>
       </c>
@@ -29503,8 +30483,8 @@
       <c r="D262" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="115"/>
-      <c r="F262" s="115"/>
+      <c r="E262" s="116"/>
+      <c r="F262" s="116"/>
       <c r="G262" s="93">
         <v>44481</v>
       </c>
@@ -29526,8 +30506,8 @@
       <c r="D263" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E263" s="115"/>
-      <c r="F263" s="115"/>
+      <c r="E263" s="116"/>
+      <c r="F263" s="116"/>
       <c r="G263" s="93">
         <v>44481</v>
       </c>
@@ -29549,8 +30529,8 @@
       <c r="D264" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E264" s="115"/>
-      <c r="F264" s="115"/>
+      <c r="E264" s="116"/>
+      <c r="F264" s="116"/>
       <c r="G264" s="93">
         <v>44481</v>
       </c>
@@ -29572,8 +30552,8 @@
       <c r="D265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E265" s="115"/>
-      <c r="F265" s="115"/>
+      <c r="E265" s="116"/>
+      <c r="F265" s="116"/>
       <c r="G265" s="93">
         <v>44481</v>
       </c>
@@ -29595,8 +30575,8 @@
       <c r="D266" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E266" s="115"/>
-      <c r="F266" s="115"/>
+      <c r="E266" s="116"/>
+      <c r="F266" s="116"/>
       <c r="G266" s="93">
         <v>44481</v>
       </c>
@@ -29618,8 +30598,8 @@
       <c r="D267" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E267" s="115"/>
-      <c r="F267" s="115"/>
+      <c r="E267" s="116"/>
+      <c r="F267" s="116"/>
       <c r="G267" s="93">
         <v>44481</v>
       </c>
@@ -29641,8 +30621,8 @@
       <c r="D268" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E268" s="115"/>
-      <c r="F268" s="115"/>
+      <c r="E268" s="116"/>
+      <c r="F268" s="116"/>
       <c r="G268" s="93">
         <v>44481</v>
       </c>
@@ -29664,8 +30644,8 @@
       <c r="D269" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E269" s="116"/>
-      <c r="F269" s="116"/>
+      <c r="E269" s="117"/>
+      <c r="F269" s="117"/>
       <c r="G269" s="93">
         <v>44481</v>
       </c>
@@ -29694,7 +30674,7 @@
       <c r="E270" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="F270" s="114" t="s">
+      <c r="F270" s="115" t="s">
         <v>693</v>
       </c>
       <c r="G270" s="93">
@@ -29721,7 +30701,7 @@
       <c r="E271" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="F271" s="115"/>
+      <c r="F271" s="116"/>
       <c r="G271" s="93">
         <v>44481</v>
       </c>
@@ -29746,7 +30726,7 @@
       <c r="E272" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="F272" s="115"/>
+      <c r="F272" s="116"/>
       <c r="G272" s="93">
         <v>44481</v>
       </c>
@@ -29771,7 +30751,7 @@
       <c r="E273" s="99" t="s">
         <v>670</v>
       </c>
-      <c r="F273" s="115"/>
+      <c r="F273" s="116"/>
       <c r="G273" s="93">
         <v>44481</v>
       </c>
@@ -29796,7 +30776,7 @@
       <c r="E274" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="F274" s="115"/>
+      <c r="F274" s="116"/>
       <c r="G274" s="93">
         <v>44481</v>
       </c>
@@ -29821,7 +30801,7 @@
       <c r="E275" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="115"/>
+      <c r="F275" s="116"/>
       <c r="G275" s="93">
         <v>44481</v>
       </c>
@@ -29846,7 +30826,7 @@
       <c r="E276" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="F276" s="115"/>
+      <c r="F276" s="116"/>
       <c r="G276" s="93">
         <v>44481</v>
       </c>
@@ -29871,7 +30851,7 @@
       <c r="E277" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F277" s="115"/>
+      <c r="F277" s="116"/>
       <c r="G277" s="93">
         <v>44481</v>
       </c>
@@ -29896,7 +30876,7 @@
       <c r="E278" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="F278" s="115"/>
+      <c r="F278" s="116"/>
       <c r="G278" s="93">
         <v>44481</v>
       </c>
@@ -29921,7 +30901,7 @@
       <c r="E279" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="F279" s="115"/>
+      <c r="F279" s="116"/>
       <c r="G279" s="93">
         <v>44481</v>
       </c>
@@ -29946,7 +30926,7 @@
       <c r="E280" s="99" t="s">
         <v>677</v>
       </c>
-      <c r="F280" s="116"/>
+      <c r="F280" s="117"/>
       <c r="G280" s="93">
         <v>44481</v>
       </c>
@@ -29968,10 +30948,10 @@
       <c r="D281" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E281" s="114" t="s">
+      <c r="E281" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F281" s="114" t="s">
+      <c r="F281" s="115" t="s">
         <v>535</v>
       </c>
       <c r="G281" s="93">
@@ -29995,8 +30975,8 @@
       <c r="D282" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E282" s="115"/>
-      <c r="F282" s="115"/>
+      <c r="E282" s="116"/>
+      <c r="F282" s="116"/>
       <c r="G282" s="93">
         <v>44481</v>
       </c>
@@ -30018,8 +30998,8 @@
       <c r="D283" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E283" s="115"/>
-      <c r="F283" s="115"/>
+      <c r="E283" s="116"/>
+      <c r="F283" s="116"/>
       <c r="G283" s="93">
         <v>44481</v>
       </c>
@@ -30041,8 +31021,8 @@
       <c r="D284" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E284" s="115"/>
-      <c r="F284" s="115"/>
+      <c r="E284" s="116"/>
+      <c r="F284" s="116"/>
       <c r="G284" s="93">
         <v>44481</v>
       </c>
@@ -30064,8 +31044,8 @@
       <c r="D285" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="115"/>
-      <c r="F285" s="115"/>
+      <c r="E285" s="116"/>
+      <c r="F285" s="116"/>
       <c r="G285" s="93">
         <v>44481</v>
       </c>
@@ -30087,8 +31067,8 @@
       <c r="D286" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E286" s="115"/>
-      <c r="F286" s="115"/>
+      <c r="E286" s="116"/>
+      <c r="F286" s="116"/>
       <c r="G286" s="93">
         <v>44481</v>
       </c>
@@ -30110,8 +31090,8 @@
       <c r="D287" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E287" s="115"/>
-      <c r="F287" s="115"/>
+      <c r="E287" s="116"/>
+      <c r="F287" s="116"/>
       <c r="G287" s="93">
         <v>44481</v>
       </c>
@@ -30133,8 +31113,8 @@
       <c r="D288" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="115"/>
-      <c r="F288" s="115"/>
+      <c r="E288" s="116"/>
+      <c r="F288" s="116"/>
       <c r="G288" s="93">
         <v>44481</v>
       </c>
@@ -30156,8 +31136,8 @@
       <c r="D289" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E289" s="115"/>
-      <c r="F289" s="115"/>
+      <c r="E289" s="116"/>
+      <c r="F289" s="116"/>
       <c r="G289" s="93">
         <v>44481</v>
       </c>
@@ -30179,8 +31159,8 @@
       <c r="D290" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="115"/>
-      <c r="F290" s="115"/>
+      <c r="E290" s="116"/>
+      <c r="F290" s="116"/>
       <c r="G290" s="93">
         <v>44481</v>
       </c>
@@ -30202,8 +31182,8 @@
       <c r="D291" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E291" s="116"/>
-      <c r="F291" s="116"/>
+      <c r="E291" s="117"/>
+      <c r="F291" s="117"/>
       <c r="G291" s="93">
         <v>44481</v>
       </c>
@@ -30526,10 +31506,10 @@
       <c r="D303" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E303" s="114" t="s">
+      <c r="E303" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F303" s="114" t="s">
+      <c r="F303" s="115" t="s">
         <v>691</v>
       </c>
       <c r="G303" s="93">
@@ -30553,8 +31533,8 @@
       <c r="D304" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E304" s="115"/>
-      <c r="F304" s="115"/>
+      <c r="E304" s="116"/>
+      <c r="F304" s="116"/>
       <c r="G304" s="93">
         <v>44481</v>
       </c>
@@ -30576,8 +31556,8 @@
       <c r="D305" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E305" s="115"/>
-      <c r="F305" s="115"/>
+      <c r="E305" s="116"/>
+      <c r="F305" s="116"/>
       <c r="G305" s="93">
         <v>44481</v>
       </c>
@@ -30599,8 +31579,8 @@
       <c r="D306" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E306" s="115"/>
-      <c r="F306" s="115"/>
+      <c r="E306" s="116"/>
+      <c r="F306" s="116"/>
       <c r="G306" s="93">
         <v>44481</v>
       </c>
@@ -30622,8 +31602,8 @@
       <c r="D307" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E307" s="115"/>
-      <c r="F307" s="115"/>
+      <c r="E307" s="116"/>
+      <c r="F307" s="116"/>
       <c r="G307" s="93">
         <v>44481</v>
       </c>
@@ -30645,8 +31625,8 @@
       <c r="D308" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E308" s="115"/>
-      <c r="F308" s="115"/>
+      <c r="E308" s="116"/>
+      <c r="F308" s="116"/>
       <c r="G308" s="93">
         <v>44481</v>
       </c>
@@ -30668,8 +31648,8 @@
       <c r="D309" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E309" s="115"/>
-      <c r="F309" s="115"/>
+      <c r="E309" s="116"/>
+      <c r="F309" s="116"/>
       <c r="G309" s="93">
         <v>44481</v>
       </c>
@@ -30691,8 +31671,8 @@
       <c r="D310" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E310" s="115"/>
-      <c r="F310" s="115"/>
+      <c r="E310" s="116"/>
+      <c r="F310" s="116"/>
       <c r="G310" s="93">
         <v>44481</v>
       </c>
@@ -30714,8 +31694,8 @@
       <c r="D311" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E311" s="115"/>
-      <c r="F311" s="115"/>
+      <c r="E311" s="116"/>
+      <c r="F311" s="116"/>
       <c r="G311" s="93">
         <v>44481</v>
       </c>
@@ -30737,8 +31717,8 @@
       <c r="D312" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E312" s="115"/>
-      <c r="F312" s="115"/>
+      <c r="E312" s="116"/>
+      <c r="F312" s="116"/>
       <c r="G312" s="93">
         <v>44481</v>
       </c>
@@ -30760,8 +31740,8 @@
       <c r="D313" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E313" s="116"/>
-      <c r="F313" s="116"/>
+      <c r="E313" s="117"/>
+      <c r="F313" s="117"/>
       <c r="G313" s="93">
         <v>44481</v>
       </c>
@@ -30790,7 +31770,7 @@
       <c r="E314" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="F314" s="114" t="s">
+      <c r="F314" s="115" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="93">
@@ -30817,7 +31797,7 @@
       <c r="E315" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F315" s="115"/>
+      <c r="F315" s="116"/>
       <c r="G315" s="93">
         <v>44481</v>
       </c>
@@ -30842,7 +31822,7 @@
       <c r="E316" s="99" t="s">
         <v>696</v>
       </c>
-      <c r="F316" s="115"/>
+      <c r="F316" s="116"/>
       <c r="G316" s="93">
         <v>44481</v>
       </c>
@@ -30867,7 +31847,7 @@
       <c r="E317" s="99" t="s">
         <v>697</v>
       </c>
-      <c r="F317" s="115"/>
+      <c r="F317" s="116"/>
       <c r="G317" s="93">
         <v>44481</v>
       </c>
@@ -30892,7 +31872,7 @@
       <c r="E318" s="99" t="s">
         <v>698</v>
       </c>
-      <c r="F318" s="115"/>
+      <c r="F318" s="116"/>
       <c r="G318" s="93">
         <v>44481</v>
       </c>
@@ -30917,7 +31897,7 @@
       <c r="E319" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F319" s="115"/>
+      <c r="F319" s="116"/>
       <c r="G319" s="93">
         <v>44481</v>
       </c>
@@ -30942,7 +31922,7 @@
       <c r="E320" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F320" s="115"/>
+      <c r="F320" s="116"/>
       <c r="G320" s="93">
         <v>44481</v>
       </c>
@@ -30967,7 +31947,7 @@
       <c r="E321" s="99" t="s">
         <v>701</v>
       </c>
-      <c r="F321" s="115"/>
+      <c r="F321" s="116"/>
       <c r="G321" s="93">
         <v>44481</v>
       </c>
@@ -30992,7 +31972,7 @@
       <c r="E322" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F322" s="115"/>
+      <c r="F322" s="116"/>
       <c r="G322" s="93">
         <v>44481</v>
       </c>
@@ -31017,7 +31997,7 @@
       <c r="E323" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F323" s="115"/>
+      <c r="F323" s="116"/>
       <c r="G323" s="93">
         <v>44481</v>
       </c>
@@ -31042,7 +32022,7 @@
       <c r="E324" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="F324" s="116"/>
+      <c r="F324" s="117"/>
       <c r="G324" s="93">
         <v>44481</v>
       </c>
@@ -31064,10 +32044,10 @@
       <c r="D325" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="114" t="s">
+      <c r="E325" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F325" s="114" t="s">
+      <c r="F325" s="115" t="s">
         <v>535</v>
       </c>
       <c r="G325" s="93">
@@ -31091,8 +32071,8 @@
       <c r="D326" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E326" s="115"/>
-      <c r="F326" s="115"/>
+      <c r="E326" s="116"/>
+      <c r="F326" s="116"/>
       <c r="G326" s="93">
         <v>44481</v>
       </c>
@@ -31114,8 +32094,8 @@
       <c r="D327" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E327" s="115"/>
-      <c r="F327" s="115"/>
+      <c r="E327" s="116"/>
+      <c r="F327" s="116"/>
       <c r="G327" s="93">
         <v>44481</v>
       </c>
@@ -31137,8 +32117,8 @@
       <c r="D328" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E328" s="115"/>
-      <c r="F328" s="115"/>
+      <c r="E328" s="116"/>
+      <c r="F328" s="116"/>
       <c r="G328" s="93">
         <v>44481</v>
       </c>
@@ -31160,8 +32140,8 @@
       <c r="D329" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E329" s="115"/>
-      <c r="F329" s="115"/>
+      <c r="E329" s="116"/>
+      <c r="F329" s="116"/>
       <c r="G329" s="93">
         <v>44481</v>
       </c>
@@ -31183,8 +32163,8 @@
       <c r="D330" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="115"/>
-      <c r="F330" s="115"/>
+      <c r="E330" s="116"/>
+      <c r="F330" s="116"/>
       <c r="G330" s="93">
         <v>44481</v>
       </c>
@@ -31206,8 +32186,8 @@
       <c r="D331" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E331" s="115"/>
-      <c r="F331" s="115"/>
+      <c r="E331" s="116"/>
+      <c r="F331" s="116"/>
       <c r="G331" s="93">
         <v>44481</v>
       </c>
@@ -31229,8 +32209,8 @@
       <c r="D332" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E332" s="115"/>
-      <c r="F332" s="115"/>
+      <c r="E332" s="116"/>
+      <c r="F332" s="116"/>
       <c r="G332" s="93">
         <v>44481</v>
       </c>
@@ -31252,8 +32232,8 @@
       <c r="D333" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E333" s="115"/>
-      <c r="F333" s="115"/>
+      <c r="E333" s="116"/>
+      <c r="F333" s="116"/>
       <c r="G333" s="93">
         <v>44481</v>
       </c>
@@ -31275,8 +32255,8 @@
       <c r="D334" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E334" s="115"/>
-      <c r="F334" s="115"/>
+      <c r="E334" s="116"/>
+      <c r="F334" s="116"/>
       <c r="G334" s="93">
         <v>44481</v>
       </c>
@@ -31298,8 +32278,8 @@
       <c r="D335" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E335" s="116"/>
-      <c r="F335" s="116"/>
+      <c r="E335" s="117"/>
+      <c r="F335" s="117"/>
       <c r="G335" s="93">
         <v>44481</v>
       </c>
@@ -31355,7 +32335,7 @@
       <c r="E337" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F337" s="114" t="s">
+      <c r="F337" s="115" t="s">
         <v>680</v>
       </c>
       <c r="G337" s="93">
@@ -31382,7 +32362,7 @@
       <c r="E338" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F338" s="116"/>
+      <c r="F338" s="117"/>
       <c r="G338" s="93">
         <v>44483</v>
       </c>
@@ -31542,7 +32522,7 @@
       <c r="E344" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F344" s="114" t="s">
+      <c r="F344" s="115" t="s">
         <v>684</v>
       </c>
       <c r="G344" s="93">
@@ -31569,7 +32549,7 @@
       <c r="E345" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F345" s="116"/>
+      <c r="F345" s="117"/>
       <c r="G345" s="93">
         <v>44483</v>
       </c>
@@ -31949,7 +32929,7 @@
       <c r="E359" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F359" s="114" t="s">
+      <c r="F359" s="115" t="s">
         <v>718</v>
       </c>
       <c r="G359" s="93">
@@ -31976,7 +32956,7 @@
       <c r="E360" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F360" s="116"/>
+      <c r="F360" s="117"/>
       <c r="G360" s="93">
         <v>44483</v>
       </c>
@@ -32136,7 +33116,7 @@
       <c r="E366" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F366" s="114" t="s">
+      <c r="F366" s="115" t="s">
         <v>611</v>
       </c>
       <c r="G366" s="93">
@@ -32163,7 +33143,7 @@
       <c r="E367" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F367" s="116"/>
+      <c r="F367" s="117"/>
       <c r="G367" s="93">
         <v>44483</v>
       </c>
@@ -32729,10 +33709,10 @@
       <c r="D388" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E388" s="114" t="s">
+      <c r="E388" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F388" s="114" t="s">
+      <c r="F388" s="115" t="s">
         <v>691</v>
       </c>
       <c r="G388" s="93">
@@ -32756,8 +33736,8 @@
       <c r="D389" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E389" s="115"/>
-      <c r="F389" s="115"/>
+      <c r="E389" s="116"/>
+      <c r="F389" s="116"/>
       <c r="G389" s="93">
         <v>44483</v>
       </c>
@@ -32779,8 +33759,8 @@
       <c r="D390" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E390" s="115"/>
-      <c r="F390" s="115"/>
+      <c r="E390" s="116"/>
+      <c r="F390" s="116"/>
       <c r="G390" s="93">
         <v>44483</v>
       </c>
@@ -32802,8 +33782,8 @@
       <c r="D391" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E391" s="115"/>
-      <c r="F391" s="115"/>
+      <c r="E391" s="116"/>
+      <c r="F391" s="116"/>
       <c r="G391" s="93">
         <v>44483</v>
       </c>
@@ -32825,8 +33805,8 @@
       <c r="D392" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E392" s="115"/>
-      <c r="F392" s="115"/>
+      <c r="E392" s="116"/>
+      <c r="F392" s="116"/>
       <c r="G392" s="93">
         <v>44483</v>
       </c>
@@ -32848,8 +33828,8 @@
       <c r="D393" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E393" s="115"/>
-      <c r="F393" s="115"/>
+      <c r="E393" s="116"/>
+      <c r="F393" s="116"/>
       <c r="G393" s="93">
         <v>44483</v>
       </c>
@@ -32871,8 +33851,8 @@
       <c r="D394" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E394" s="115"/>
-      <c r="F394" s="115"/>
+      <c r="E394" s="116"/>
+      <c r="F394" s="116"/>
       <c r="G394" s="93">
         <v>44483</v>
       </c>
@@ -32894,8 +33874,8 @@
       <c r="D395" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E395" s="116"/>
-      <c r="F395" s="116"/>
+      <c r="E395" s="117"/>
+      <c r="F395" s="117"/>
       <c r="G395" s="93">
         <v>44483</v>
       </c>
@@ -32944,10 +33924,10 @@
       <c r="D397" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="E397" s="131" t="s">
+      <c r="E397" s="144" t="s">
         <v>747</v>
       </c>
-      <c r="F397" s="114" t="s">
+      <c r="F397" s="115" t="s">
         <v>748</v>
       </c>
       <c r="G397" s="93">
@@ -32971,8 +33951,8 @@
       <c r="D398" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E398" s="132"/>
-      <c r="F398" s="115"/>
+      <c r="E398" s="142"/>
+      <c r="F398" s="116"/>
       <c r="G398" s="93">
         <v>44483</v>
       </c>
@@ -32994,8 +33974,8 @@
       <c r="D399" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E399" s="132"/>
-      <c r="F399" s="115"/>
+      <c r="E399" s="142"/>
+      <c r="F399" s="116"/>
       <c r="G399" s="93">
         <v>44483</v>
       </c>
@@ -33017,8 +33997,8 @@
       <c r="D400" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E400" s="132"/>
-      <c r="F400" s="115"/>
+      <c r="E400" s="142"/>
+      <c r="F400" s="116"/>
       <c r="G400" s="93">
         <v>44483</v>
       </c>
@@ -33040,8 +34020,8 @@
       <c r="D401" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E401" s="132"/>
-      <c r="F401" s="115"/>
+      <c r="E401" s="142"/>
+      <c r="F401" s="116"/>
       <c r="G401" s="93">
         <v>44483</v>
       </c>
@@ -33063,8 +34043,8 @@
       <c r="D402" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E402" s="133"/>
-      <c r="F402" s="116"/>
+      <c r="E402" s="143"/>
+      <c r="F402" s="117"/>
       <c r="G402" s="93">
         <v>44483</v>
       </c>
@@ -33147,7 +34127,7 @@
       <c r="E405" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F405" s="114" t="s">
+      <c r="F405" s="115" t="s">
         <v>742</v>
       </c>
       <c r="G405" s="93">
@@ -33174,7 +34154,7 @@
       <c r="E406" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F406" s="116"/>
+      <c r="F406" s="117"/>
       <c r="G406" s="93">
         <v>44483</v>
       </c>
@@ -33226,7 +34206,7 @@
       <c r="E408" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F408" s="114" t="s">
+      <c r="F408" s="115" t="s">
         <v>744</v>
       </c>
       <c r="G408" s="93">
@@ -33253,7 +34233,7 @@
       <c r="E409" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F409" s="116"/>
+      <c r="F409" s="117"/>
       <c r="G409" s="93">
         <v>44483</v>
       </c>
@@ -33302,10 +34282,10 @@
       <c r="D411" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E411" s="114" t="s">
+      <c r="E411" s="115" t="s">
         <v>628</v>
       </c>
-      <c r="F411" s="114" t="s">
+      <c r="F411" s="115" t="s">
         <v>535</v>
       </c>
       <c r="G411" s="93">
@@ -33329,8 +34309,8 @@
       <c r="D412" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E412" s="115"/>
-      <c r="F412" s="115"/>
+      <c r="E412" s="116"/>
+      <c r="F412" s="116"/>
       <c r="G412" s="93">
         <v>44483</v>
       </c>
@@ -33352,8 +34332,8 @@
       <c r="D413" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E413" s="115"/>
-      <c r="F413" s="115"/>
+      <c r="E413" s="116"/>
+      <c r="F413" s="116"/>
       <c r="G413" s="93">
         <v>44483</v>
       </c>
@@ -33375,8 +34355,8 @@
       <c r="D414" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E414" s="115"/>
-      <c r="F414" s="115"/>
+      <c r="E414" s="116"/>
+      <c r="F414" s="116"/>
       <c r="G414" s="93">
         <v>44483</v>
       </c>
@@ -33398,8 +34378,8 @@
       <c r="D415" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E415" s="115"/>
-      <c r="F415" s="115"/>
+      <c r="E415" s="116"/>
+      <c r="F415" s="116"/>
       <c r="G415" s="93">
         <v>44483</v>
       </c>
@@ -33421,8 +34401,8 @@
       <c r="D416" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E416" s="115"/>
-      <c r="F416" s="115"/>
+      <c r="E416" s="116"/>
+      <c r="F416" s="116"/>
       <c r="G416" s="93">
         <v>44483</v>
       </c>
@@ -33444,8 +34424,8 @@
       <c r="D417" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E417" s="115"/>
-      <c r="F417" s="115"/>
+      <c r="E417" s="116"/>
+      <c r="F417" s="116"/>
       <c r="G417" s="93">
         <v>44483</v>
       </c>
@@ -33467,8 +34447,8 @@
       <c r="D418" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E418" s="116"/>
-      <c r="F418" s="116"/>
+      <c r="E418" s="117"/>
+      <c r="F418" s="117"/>
       <c r="G418" s="93">
         <v>44483</v>
       </c>
@@ -33517,10 +34497,10 @@
       <c r="D420" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E420" s="131" t="s">
+      <c r="E420" s="144" t="s">
         <v>747</v>
       </c>
-      <c r="F420" s="114" t="s">
+      <c r="F420" s="115" t="s">
         <v>611</v>
       </c>
       <c r="G420" s="93">
@@ -33544,8 +34524,8 @@
       <c r="D421" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E421" s="132"/>
-      <c r="F421" s="115"/>
+      <c r="E421" s="142"/>
+      <c r="F421" s="116"/>
       <c r="G421" s="93">
         <v>44483</v>
       </c>
@@ -33567,8 +34547,8 @@
       <c r="D422" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E422" s="132"/>
-      <c r="F422" s="115"/>
+      <c r="E422" s="142"/>
+      <c r="F422" s="116"/>
       <c r="G422" s="93">
         <v>44483</v>
       </c>
@@ -33590,8 +34570,8 @@
       <c r="D423" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E423" s="132"/>
-      <c r="F423" s="115"/>
+      <c r="E423" s="142"/>
+      <c r="F423" s="116"/>
       <c r="G423" s="93">
         <v>44483</v>
       </c>
@@ -33613,8 +34593,8 @@
       <c r="D424" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E424" s="132"/>
-      <c r="F424" s="115"/>
+      <c r="E424" s="142"/>
+      <c r="F424" s="116"/>
       <c r="G424" s="93">
         <v>44483</v>
       </c>
@@ -33636,8 +34616,8 @@
       <c r="D425" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E425" s="133"/>
-      <c r="F425" s="116"/>
+      <c r="E425" s="143"/>
+      <c r="F425" s="117"/>
       <c r="G425" s="93">
         <v>44483</v>
       </c>
@@ -33686,13 +34666,13 @@
         <v>423</v>
       </c>
       <c r="B427" s="72"/>
-      <c r="C427" s="114" t="s">
+      <c r="C427" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D427" s="114" t="s">
+      <c r="D427" s="115" t="s">
         <v>657</v>
       </c>
-      <c r="E427" s="114" t="s">
+      <c r="E427" s="115" t="s">
         <v>774</v>
       </c>
       <c r="F427" s="91" t="s">
@@ -33715,9 +34695,9 @@
         <v>424</v>
       </c>
       <c r="B428" s="72"/>
-      <c r="C428" s="115"/>
-      <c r="D428" s="115"/>
-      <c r="E428" s="115"/>
+      <c r="C428" s="116"/>
+      <c r="D428" s="116"/>
+      <c r="E428" s="116"/>
       <c r="F428" s="91" t="s">
         <v>779</v>
       </c>
@@ -33738,9 +34718,9 @@
         <v>425</v>
       </c>
       <c r="B429" s="72"/>
-      <c r="C429" s="115"/>
-      <c r="D429" s="115"/>
-      <c r="E429" s="115"/>
+      <c r="C429" s="116"/>
+      <c r="D429" s="116"/>
+      <c r="E429" s="116"/>
       <c r="F429" s="91" t="s">
         <v>780</v>
       </c>
@@ -33761,9 +34741,9 @@
         <v>426</v>
       </c>
       <c r="B430" s="72"/>
-      <c r="C430" s="115"/>
-      <c r="D430" s="115"/>
-      <c r="E430" s="115"/>
+      <c r="C430" s="116"/>
+      <c r="D430" s="116"/>
+      <c r="E430" s="116"/>
       <c r="F430" s="91" t="s">
         <v>781</v>
       </c>
@@ -33784,9 +34764,9 @@
         <v>427</v>
       </c>
       <c r="B431" s="72"/>
-      <c r="C431" s="115"/>
-      <c r="D431" s="115"/>
-      <c r="E431" s="115"/>
+      <c r="C431" s="116"/>
+      <c r="D431" s="116"/>
+      <c r="E431" s="116"/>
       <c r="F431" s="91" t="s">
         <v>782</v>
       </c>
@@ -33807,9 +34787,9 @@
         <v>428</v>
       </c>
       <c r="B432" s="72"/>
-      <c r="C432" s="115"/>
-      <c r="D432" s="115"/>
-      <c r="E432" s="115"/>
+      <c r="C432" s="116"/>
+      <c r="D432" s="116"/>
+      <c r="E432" s="116"/>
       <c r="F432" s="31" t="s">
         <v>776</v>
       </c>
@@ -33830,9 +34810,9 @@
         <v>429</v>
       </c>
       <c r="B433" s="72"/>
-      <c r="C433" s="115"/>
-      <c r="D433" s="115"/>
-      <c r="E433" s="115"/>
+      <c r="C433" s="116"/>
+      <c r="D433" s="116"/>
+      <c r="E433" s="116"/>
       <c r="F433" s="31" t="s">
         <v>777</v>
       </c>
@@ -33853,9 +34833,9 @@
         <v>430</v>
       </c>
       <c r="B434" s="72"/>
-      <c r="C434" s="116"/>
-      <c r="D434" s="116"/>
-      <c r="E434" s="116"/>
+      <c r="C434" s="117"/>
+      <c r="D434" s="117"/>
+      <c r="E434" s="117"/>
       <c r="F434" s="31" t="s">
         <v>760</v>
       </c>
@@ -33878,16 +34858,16 @@
       <c r="B435" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C435" s="114" t="s">
+      <c r="C435" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D435" s="131" t="s">
+      <c r="D435" s="144" t="s">
         <v>552</v>
       </c>
       <c r="E435" s="91" t="s">
         <v>784</v>
       </c>
-      <c r="F435" s="112" t="s">
+      <c r="F435" s="121" t="s">
         <v>766</v>
       </c>
       <c r="G435" s="93">
@@ -33907,12 +34887,12 @@
         <v>432</v>
       </c>
       <c r="B436" s="72"/>
-      <c r="C436" s="115"/>
-      <c r="D436" s="132"/>
+      <c r="C436" s="116"/>
+      <c r="D436" s="142"/>
       <c r="E436" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="F436" s="117"/>
+      <c r="F436" s="122"/>
       <c r="G436" s="93">
         <v>44504</v>
       </c>
@@ -33930,12 +34910,12 @@
         <v>433</v>
       </c>
       <c r="B437" s="72"/>
-      <c r="C437" s="115"/>
-      <c r="D437" s="132"/>
+      <c r="C437" s="116"/>
+      <c r="D437" s="142"/>
       <c r="E437" s="91" t="s">
         <v>786</v>
       </c>
-      <c r="F437" s="117"/>
+      <c r="F437" s="122"/>
       <c r="G437" s="93">
         <v>44504</v>
       </c>
@@ -33953,12 +34933,12 @@
         <v>434</v>
       </c>
       <c r="B438" s="72"/>
-      <c r="C438" s="115"/>
-      <c r="D438" s="132"/>
+      <c r="C438" s="116"/>
+      <c r="D438" s="142"/>
       <c r="E438" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="F438" s="117"/>
+      <c r="F438" s="122"/>
       <c r="G438" s="93">
         <v>44504</v>
       </c>
@@ -33976,12 +34956,12 @@
         <v>435</v>
       </c>
       <c r="B439" s="72"/>
-      <c r="C439" s="115"/>
-      <c r="D439" s="132"/>
+      <c r="C439" s="116"/>
+      <c r="D439" s="142"/>
       <c r="E439" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="F439" s="113"/>
+      <c r="F439" s="123"/>
       <c r="G439" s="93">
         <v>44504</v>
       </c>
@@ -33999,12 +34979,12 @@
         <v>436</v>
       </c>
       <c r="B440" s="72"/>
-      <c r="C440" s="115"/>
-      <c r="D440" s="132"/>
+      <c r="C440" s="116"/>
+      <c r="D440" s="142"/>
       <c r="E440" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="F440" s="112" t="s">
+      <c r="F440" s="121" t="s">
         <v>767</v>
       </c>
       <c r="G440" s="93">
@@ -34024,12 +35004,12 @@
         <v>437</v>
       </c>
       <c r="B441" s="72"/>
-      <c r="C441" s="116"/>
-      <c r="D441" s="133"/>
+      <c r="C441" s="117"/>
+      <c r="D441" s="143"/>
       <c r="E441" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="F441" s="113"/>
+      <c r="F441" s="123"/>
       <c r="G441" s="93">
         <v>44504</v>
       </c>
@@ -34049,13 +35029,13 @@
       <c r="B442" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="C442" s="114" t="s">
+      <c r="C442" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="D442" s="131" t="s">
+      <c r="D442" s="144" t="s">
         <v>552</v>
       </c>
-      <c r="E442" s="114" t="s">
+      <c r="E442" s="115" t="s">
         <v>765</v>
       </c>
       <c r="F442" s="91" t="s">
@@ -34078,9 +35058,9 @@
         <v>439</v>
       </c>
       <c r="B443" s="72"/>
-      <c r="C443" s="115"/>
-      <c r="D443" s="132"/>
-      <c r="E443" s="115"/>
+      <c r="C443" s="116"/>
+      <c r="D443" s="142"/>
+      <c r="E443" s="116"/>
       <c r="F443" s="31" t="s">
         <v>795</v>
       </c>
@@ -34101,9 +35081,9 @@
         <v>440</v>
       </c>
       <c r="B444" s="72"/>
-      <c r="C444" s="115"/>
-      <c r="D444" s="132"/>
-      <c r="E444" s="115"/>
+      <c r="C444" s="116"/>
+      <c r="D444" s="142"/>
+      <c r="E444" s="116"/>
       <c r="F444" s="31" t="s">
         <v>796</v>
       </c>
@@ -34124,9 +35104,9 @@
         <v>441</v>
       </c>
       <c r="B445" s="72"/>
-      <c r="C445" s="115"/>
-      <c r="D445" s="132"/>
-      <c r="E445" s="115"/>
+      <c r="C445" s="116"/>
+      <c r="D445" s="142"/>
+      <c r="E445" s="116"/>
       <c r="F445" s="31" t="s">
         <v>797</v>
       </c>
@@ -34147,9 +35127,9 @@
         <v>442</v>
       </c>
       <c r="B446" s="72"/>
-      <c r="C446" s="115"/>
-      <c r="D446" s="132"/>
-      <c r="E446" s="115"/>
+      <c r="C446" s="116"/>
+      <c r="D446" s="142"/>
+      <c r="E446" s="116"/>
       <c r="F446" s="31" t="s">
         <v>798</v>
       </c>
@@ -34170,9 +35150,9 @@
         <v>443</v>
       </c>
       <c r="B447" s="72"/>
-      <c r="C447" s="115"/>
-      <c r="D447" s="132"/>
-      <c r="E447" s="115"/>
+      <c r="C447" s="116"/>
+      <c r="D447" s="142"/>
+      <c r="E447" s="116"/>
       <c r="F447" s="48" t="s">
         <v>792</v>
       </c>
@@ -34193,9 +35173,9 @@
         <v>444</v>
       </c>
       <c r="B448" s="72"/>
-      <c r="C448" s="116"/>
-      <c r="D448" s="133"/>
-      <c r="E448" s="115"/>
+      <c r="C448" s="117"/>
+      <c r="D448" s="143"/>
+      <c r="E448" s="116"/>
       <c r="F448" s="103" t="s">
         <v>793</v>
       </c>
@@ -34460,6 +35440,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="C435:C441"/>
+    <mergeCell ref="D435:D441"/>
+    <mergeCell ref="C442:C448"/>
+    <mergeCell ref="D442:D448"/>
+    <mergeCell ref="E442:E448"/>
+    <mergeCell ref="E427:E434"/>
+    <mergeCell ref="D427:D434"/>
+    <mergeCell ref="C427:C434"/>
+    <mergeCell ref="F435:F439"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="F344:F345"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="F366:F367"/>
+    <mergeCell ref="E388:E395"/>
+    <mergeCell ref="F388:F395"/>
+    <mergeCell ref="E411:E418"/>
+    <mergeCell ref="F411:F418"/>
+    <mergeCell ref="E397:E402"/>
+    <mergeCell ref="E420:E425"/>
+    <mergeCell ref="F420:F425"/>
+    <mergeCell ref="F405:F406"/>
+    <mergeCell ref="F325:F335"/>
+    <mergeCell ref="E325:E335"/>
+    <mergeCell ref="F303:F313"/>
+    <mergeCell ref="E303:E313"/>
+    <mergeCell ref="F314:F324"/>
+    <mergeCell ref="E259:E269"/>
+    <mergeCell ref="F259:F269"/>
+    <mergeCell ref="E281:E291"/>
+    <mergeCell ref="F270:F280"/>
+    <mergeCell ref="F281:F291"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
     <mergeCell ref="F408:F409"/>
     <mergeCell ref="F397:F402"/>
     <mergeCell ref="D130:D141"/>
@@ -34476,67 +35517,6 @@
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
     <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E259:E269"/>
-    <mergeCell ref="F259:F269"/>
-    <mergeCell ref="E281:E291"/>
-    <mergeCell ref="F270:F280"/>
-    <mergeCell ref="F281:F291"/>
-    <mergeCell ref="F325:F335"/>
-    <mergeCell ref="E325:E335"/>
-    <mergeCell ref="F303:F313"/>
-    <mergeCell ref="E303:E313"/>
-    <mergeCell ref="F314:F324"/>
-    <mergeCell ref="E427:E434"/>
-    <mergeCell ref="D427:D434"/>
-    <mergeCell ref="C427:C434"/>
-    <mergeCell ref="F435:F439"/>
-    <mergeCell ref="F337:F338"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="F366:F367"/>
-    <mergeCell ref="E388:E395"/>
-    <mergeCell ref="F388:F395"/>
-    <mergeCell ref="E411:E418"/>
-    <mergeCell ref="F411:F418"/>
-    <mergeCell ref="E397:E402"/>
-    <mergeCell ref="E420:E425"/>
-    <mergeCell ref="F420:F425"/>
-    <mergeCell ref="F405:F406"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="C435:C441"/>
-    <mergeCell ref="D435:D441"/>
-    <mergeCell ref="C442:C448"/>
-    <mergeCell ref="D442:D448"/>
-    <mergeCell ref="E442:E448"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -34547,30 +35527,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233DE56-5C6E-461C-89EB-5672A18D2668}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="144" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="113" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="113" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="118" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="150" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -34578,1274 +35559,1502 @@
         <v>33</v>
       </c>
       <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="110" t="s">
+      <c r="G1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="H1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="138"/>
+      <c r="J1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="111" t="s">
+      <c r="G2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="107"/>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="85"/>
-    </row>
-    <row r="4" spans="1:12" ht="15">
+      <c r="J2" s="85"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="107" t="s">
+      <c r="C4" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="D4" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60">
+    <row r="5" spans="1:11" ht="60">
       <c r="A5" s="52"/>
-      <c r="B5" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="C5" s="142" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="72" t="s">
+      <c r="B5" s="111" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>800</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="146" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="F5" s="145" t="s">
         <v>830</v>
       </c>
-      <c r="F5" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" s="145"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="104"/>
-    </row>
-    <row r="6" spans="1:12" ht="60">
+      <c r="G5" s="110"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="104"/>
+    </row>
+    <row r="6" spans="1:11" ht="60">
       <c r="A6" s="12"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="72" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="72" t="s">
         <v>801</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="99" t="s">
+      <c r="D6" s="147"/>
+      <c r="E6" s="99" t="s">
         <v>829</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="45">
+      <c r="F6" s="122"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="45">
       <c r="A7" s="12"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="72" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="99" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="60">
+      <c r="F7" s="122"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="60">
       <c r="A8" s="12"/>
-      <c r="B8" s="147"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="72" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="72" t="s">
         <v>803</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="99" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="60">
+      <c r="F8" s="122"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="60">
       <c r="A9" s="12"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="72" t="s">
+      <c r="B9" s="114"/>
+      <c r="C9" s="72" t="s">
         <v>804</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="99" t="s">
+      <c r="D9" s="147"/>
+      <c r="E9" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="45">
+      <c r="F9" s="122"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="12"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="99" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+      <c r="F10" s="122"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="45">
       <c r="A11" s="12"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="72" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="72" t="s">
         <v>806</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="99" t="s">
+      <c r="D11" s="147"/>
+      <c r="E11" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="60">
+      <c r="F11" s="122"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="60">
       <c r="A12" s="12"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="72" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="72" t="s">
         <v>807</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="99" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="60">
+      <c r="F12" s="122"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="12"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="72" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="72" t="s">
         <v>808</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="99" t="s">
+      <c r="D13" s="147"/>
+      <c r="E13" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="45">
+      <c r="F13" s="122"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="12"/>
-      <c r="B14" s="147"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="72" t="s">
+      <c r="B14" s="114"/>
+      <c r="C14" s="72" t="s">
         <v>809</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="99" t="s">
+      <c r="D14" s="147"/>
+      <c r="E14" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="60">
+      <c r="F14" s="122"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="60">
       <c r="A15" s="12"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="72" t="s">
         <v>810</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="99" t="s">
+      <c r="D15" s="147"/>
+      <c r="E15" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="60">
+      <c r="F15" s="122"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" ht="60">
       <c r="A16" s="12"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="72" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="72" t="s">
         <v>811</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="99" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1">
+      <c r="F16" s="123"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="90">
       <c r="A17" s="12"/>
-      <c r="C17" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>812</v>
-      </c>
-      <c r="E17" s="112" t="s">
-        <v>813</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="45">
+      <c r="B17" s="114"/>
+      <c r="C17" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="D17" s="147"/>
+      <c r="E17" s="99" t="s">
+        <v>847</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="90">
       <c r="A18" s="12"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="37" t="s">
-        <v>815</v>
-      </c>
-      <c r="G18" s="31"/>
+      <c r="B18" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" ht="45">
+      <c r="I18" s="30"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" ht="75" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="37" t="s">
-        <v>817</v>
-      </c>
-      <c r="G19" s="31"/>
+      <c r="C19" s="72" t="s">
+        <v>835</v>
+      </c>
+      <c r="D19" s="147"/>
+      <c r="E19" s="99" t="s">
+        <v>849</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>892</v>
+      </c>
+      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="45">
+      <c r="I19" s="30"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" ht="75">
       <c r="A20" s="12"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="G20" s="31"/>
+      <c r="C20" s="72" t="s">
+        <v>838</v>
+      </c>
+      <c r="D20" s="147"/>
+      <c r="E20" s="99" t="s">
+        <v>850</v>
+      </c>
+      <c r="F20" s="122"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="45">
+      <c r="I20" s="30"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="75">
       <c r="A21" s="12"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="37" t="s">
-        <v>818</v>
-      </c>
-      <c r="G21" s="31"/>
+      <c r="C21" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="D21" s="147"/>
+      <c r="E21" s="99" t="s">
+        <v>851</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="45">
+      <c r="I21" s="30"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="12"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="37" t="s">
-        <v>819</v>
-      </c>
-      <c r="G22" s="31"/>
+      <c r="C22" s="72" t="s">
+        <v>837</v>
+      </c>
+      <c r="D22" s="147"/>
+      <c r="E22" s="99" t="s">
+        <v>852</v>
+      </c>
+      <c r="F22" s="122"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="45">
+      <c r="I22" s="30"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="60">
       <c r="A23" s="12"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="G23" s="31"/>
+      <c r="C23" s="72" t="s">
+        <v>840</v>
+      </c>
+      <c r="D23" s="147"/>
+      <c r="E23" s="99" t="s">
+        <v>853</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1">
+      <c r="I23" s="30"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="60">
       <c r="A24" s="12"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="112" t="s">
-        <v>826</v>
-      </c>
-      <c r="D24" s="112" t="s">
-        <v>826</v>
-      </c>
-      <c r="E24" s="112" t="s">
-        <v>813</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="G24" s="31"/>
+      <c r="C24" s="72" t="s">
+        <v>841</v>
+      </c>
+      <c r="D24" s="147"/>
+      <c r="E24" s="99" t="s">
+        <v>854</v>
+      </c>
+      <c r="F24" s="122"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="1:12" ht="60">
+      <c r="I24" s="30"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="75">
       <c r="A25" s="12"/>
       <c r="B25" s="48"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="G25" s="31"/>
+      <c r="C25" s="72" t="s">
+        <v>842</v>
+      </c>
+      <c r="D25" s="147"/>
+      <c r="E25" s="99" t="s">
+        <v>855</v>
+      </c>
+      <c r="F25" s="122"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="60">
+      <c r="I25" s="30"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="75">
       <c r="A26" s="12"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="G26" s="31"/>
+      <c r="C26" s="72" t="s">
+        <v>843</v>
+      </c>
+      <c r="D26" s="147"/>
+      <c r="E26" s="99" t="s">
+        <v>856</v>
+      </c>
+      <c r="F26" s="122"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12" ht="60">
+      <c r="I26" s="30"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" ht="60">
       <c r="A27" s="12"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="37" t="s">
-        <v>825</v>
-      </c>
-      <c r="G27" s="31"/>
+      <c r="C27" s="72" t="s">
+        <v>844</v>
+      </c>
+      <c r="D27" s="147"/>
+      <c r="E27" s="99" t="s">
+        <v>857</v>
+      </c>
+      <c r="F27" s="122"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="60">
+      <c r="I27" s="30"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" ht="75">
       <c r="A28" s="12"/>
       <c r="B28" s="48"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="G28" s="31"/>
+      <c r="C28" s="72" t="s">
+        <v>845</v>
+      </c>
+      <c r="D28" s="147"/>
+      <c r="E28" s="99" t="s">
+        <v>858</v>
+      </c>
+      <c r="F28" s="122"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12" ht="60">
+      <c r="I28" s="30"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" ht="75">
       <c r="A29" s="12"/>
       <c r="B29" s="48"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="37" t="s">
-        <v>827</v>
-      </c>
-      <c r="G29" s="31"/>
+      <c r="C29" s="72" t="s">
+        <v>846</v>
+      </c>
+      <c r="D29" s="147"/>
+      <c r="E29" s="99" t="s">
+        <v>859</v>
+      </c>
+      <c r="F29" s="123"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="45">
+      <c r="I29" s="30"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" ht="90">
       <c r="A30" s="12"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="37" t="s">
-        <v>828</v>
-      </c>
-      <c r="G30" s="31"/>
+      <c r="B30" s="48" t="s">
+        <v>860</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="D30" s="147"/>
+      <c r="E30" s="37" t="s">
+        <v>861</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="15">
+      <c r="I30" s="30"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" ht="75">
       <c r="A31" s="12"/>
       <c r="B31" s="48"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="31"/>
+      <c r="C31" s="72" t="s">
+        <v>837</v>
+      </c>
+      <c r="D31" s="147"/>
+      <c r="E31" s="99" t="s">
+        <v>863</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="15">
+      <c r="I31" s="30"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" ht="75">
       <c r="A32" s="12"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="31"/>
+      <c r="C32" s="72" t="s">
+        <v>838</v>
+      </c>
+      <c r="D32" s="147"/>
+      <c r="E32" s="99" t="s">
+        <v>864</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="G32" s="12"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="15">
+      <c r="I32" s="30"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" ht="75">
       <c r="A33" s="12"/>
       <c r="B33" s="48"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="31"/>
+      <c r="C33" s="72" t="s">
+        <v>839</v>
+      </c>
+      <c r="D33" s="147"/>
+      <c r="E33" s="99" t="s">
+        <v>865</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="G33" s="12"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="15">
+      <c r="I33" s="30"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" ht="60">
       <c r="A34" s="12"/>
       <c r="B34" s="48"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="72" t="s">
+        <v>841</v>
+      </c>
+      <c r="D34" s="147"/>
+      <c r="E34" s="99" t="s">
+        <v>866</v>
+      </c>
+      <c r="F34" s="121" t="s">
+        <v>895</v>
+      </c>
+      <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12" ht="15">
+      <c r="I34" s="30"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" ht="75">
       <c r="A35" s="12"/>
       <c r="B35" s="48"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="31"/>
+      <c r="C35" s="72" t="s">
+        <v>842</v>
+      </c>
+      <c r="D35" s="147"/>
+      <c r="E35" s="99" t="s">
+        <v>867</v>
+      </c>
+      <c r="F35" s="123"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="15">
+      <c r="I35" s="30"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" ht="90">
       <c r="A36" s="12"/>
       <c r="B36" s="48"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="72" t="s">
+        <v>843</v>
+      </c>
+      <c r="D36" s="147"/>
+      <c r="E36" s="99" t="s">
+        <v>868</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12" ht="15">
+      <c r="I36" s="30"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" ht="60">
       <c r="A37" s="12"/>
       <c r="B37" s="48"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="31"/>
+      <c r="C37" s="72" t="s">
+        <v>844</v>
+      </c>
+      <c r="D37" s="147"/>
+      <c r="E37" s="99" t="s">
+        <v>869</v>
+      </c>
+      <c r="F37" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="15">
+      <c r="I37" s="30"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" ht="75">
       <c r="A38" s="12"/>
       <c r="B38" s="48"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="31"/>
+      <c r="C38" s="72" t="s">
+        <v>845</v>
+      </c>
+      <c r="D38" s="147"/>
+      <c r="E38" s="99" t="s">
+        <v>870</v>
+      </c>
+      <c r="F38" s="123"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12" ht="15">
+      <c r="I38" s="30"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" ht="90">
       <c r="A39" s="12"/>
       <c r="B39" s="48"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="31"/>
+      <c r="C39" s="72" t="s">
+        <v>846</v>
+      </c>
+      <c r="D39" s="148"/>
+      <c r="E39" s="99" t="s">
+        <v>871</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="G39" s="12"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="15">
+      <c r="I39" s="30"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" ht="30">
       <c r="A40" s="12"/>
       <c r="B40" s="48"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="31"/>
+      <c r="C40" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="D40" s="121" t="s">
+        <v>877</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>878</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12" ht="15">
+      <c r="I40" s="30"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" ht="30">
       <c r="A41" s="12"/>
       <c r="B41" s="48"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="37" t="s">
+        <v>879</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="15">
+      <c r="I41" s="30"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" ht="30">
       <c r="A42" s="12"/>
       <c r="B42" s="48"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="37" t="s">
+        <v>880</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="15">
+      <c r="I42" s="30"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="12"/>
       <c r="B43" s="48"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="15">
+      <c r="I43" s="30"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" ht="30">
       <c r="A44" s="12"/>
       <c r="B44" s="48"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12" ht="15">
+      <c r="I44" s="30"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="12"/>
       <c r="B45" s="48"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="15">
+      <c r="I45" s="30"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" ht="15">
       <c r="A46" s="12"/>
       <c r="B46" s="48"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12" ht="15">
+      <c r="I46" s="30"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="12"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="15">
+      <c r="I47" s="30"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="12"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="15">
+      <c r="I48" s="30"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="12"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="31"/>
+      <c r="C49" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="D49" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>875</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
+      <c r="I49" s="30"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="12"/>
       <c r="B50" s="48"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="31"/>
+      <c r="C50" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D50" s="122"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12" ht="15">
+      <c r="I50" s="30"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="12"/>
       <c r="B51" s="48"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="31"/>
+      <c r="C51" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="D51" s="123"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="15">
+      <c r="I51" s="30"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="12"/>
       <c r="B52" s="48"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="31"/>
+      <c r="C52" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="F52" s="31"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" ht="15">
+      <c r="I52" s="30"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="12"/>
       <c r="B53" s="48"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="31"/>
+      <c r="C53" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" s="121" t="s">
+        <v>900</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" ht="15">
+      <c r="I53" s="30"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" ht="30">
       <c r="A54" s="12"/>
       <c r="B54" s="48"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="15">
+      <c r="I54" s="30"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" ht="30">
       <c r="A55" s="12"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" ht="15">
+      <c r="I55" s="30"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" ht="30">
       <c r="A56" s="12"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12" ht="15">
+      <c r="I56" s="30"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="12"/>
       <c r="B57" s="48"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" ht="15">
+      <c r="I57" s="30"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" ht="30">
       <c r="A58" s="12"/>
       <c r="B58" s="48"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" ht="15">
+      <c r="I58" s="30"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" ht="15">
       <c r="A59" s="12"/>
       <c r="B59" s="48"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="12"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" ht="15">
+      <c r="I59" s="30"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" ht="15">
       <c r="A60" s="12"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="12"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" ht="15">
+      <c r="I60" s="30"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" ht="15">
       <c r="A61" s="12"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12" ht="15">
+      <c r="I61" s="30"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" ht="15">
       <c r="A62" s="12"/>
       <c r="B62" s="48"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="11"/>
-    </row>
-    <row r="63" spans="1:12" ht="15">
+      <c r="I62" s="30"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" ht="15">
       <c r="A63" s="12"/>
       <c r="B63" s="48"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" spans="1:12" ht="15">
+      <c r="I63" s="30"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" ht="15">
       <c r="A64" s="12"/>
       <c r="B64" s="48"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" spans="1:12" ht="15">
+      <c r="I64" s="30"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" ht="15">
       <c r="A65" s="12"/>
       <c r="B65" s="48"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="12"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="11"/>
-    </row>
-    <row r="66" spans="1:12" ht="15">
+      <c r="I65" s="30"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" ht="15">
       <c r="A66" s="12"/>
       <c r="B66" s="48"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" spans="1:12" ht="15">
+      <c r="I66" s="30"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="12"/>
       <c r="B67" s="48"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12" ht="15">
+      <c r="I67" s="30"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" ht="15">
       <c r="A68" s="12"/>
       <c r="B68" s="48"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" ht="15">
+      <c r="I68" s="30"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" ht="15">
       <c r="A69" s="12"/>
       <c r="B69" s="48"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" ht="15">
+      <c r="I69" s="30"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" ht="15">
       <c r="A70" s="12"/>
       <c r="B70" s="48"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="12"/>
       <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12" ht="15">
+      <c r="I70" s="30"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" ht="15">
       <c r="A71" s="12"/>
       <c r="B71" s="48"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" ht="15">
+      <c r="I71" s="30"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" ht="15">
       <c r="A72" s="12"/>
       <c r="B72" s="48"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="12"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" ht="15">
+      <c r="I72" s="30"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" ht="15">
       <c r="A73" s="12"/>
       <c r="B73" s="48"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" ht="15">
+      <c r="I73" s="30"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" ht="15">
       <c r="A74" s="12"/>
       <c r="B74" s="48"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="12"/>
       <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" ht="15">
+      <c r="I74" s="30"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" ht="15">
       <c r="A75" s="12"/>
       <c r="B75" s="48"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="11"/>
-    </row>
-    <row r="76" spans="1:12" ht="15">
+      <c r="I75" s="30"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" ht="15">
       <c r="A76" s="12"/>
       <c r="B76" s="48"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" ht="15">
+      <c r="I76" s="30"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" ht="15">
       <c r="A77" s="12"/>
       <c r="B77" s="48"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="39"/>
-      <c r="L77" s="11"/>
-    </row>
-    <row r="78" spans="1:12" ht="15">
+      <c r="I77" s="30"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" ht="15">
       <c r="A78" s="12"/>
       <c r="B78" s="48"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="12"/>
       <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="39"/>
-      <c r="L78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" ht="15">
+      <c r="I78" s="30"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" ht="15">
       <c r="A79" s="12"/>
       <c r="B79" s="48"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="11"/>
-    </row>
-    <row r="80" spans="1:12" ht="15">
+      <c r="I79" s="30"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" ht="15">
       <c r="A80" s="12"/>
       <c r="B80" s="48"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="12"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="11"/>
-    </row>
-    <row r="81" spans="1:12" ht="15">
+      <c r="I80" s="30"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" ht="15">
       <c r="A81" s="12"/>
       <c r="B81" s="48"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="11"/>
-    </row>
-    <row r="82" spans="1:12" ht="15">
+      <c r="I81" s="30"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" ht="15">
       <c r="A82" s="12"/>
       <c r="B82" s="48"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="11"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" ht="15">
+      <c r="A83" s="12"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="E24:E30"/>
-    <mergeCell ref="C5:C16"/>
-    <mergeCell ref="E5:E16"/>
+  <mergeCells count="10">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F19:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D5:D39"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="F5:F16"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A799F5F-2670-4A63-B081-B858CBEA5C4E}">
+  <dimension ref="B4:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="4" spans="2:6" ht="135">
+      <c r="B4" s="121" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="210">
+      <c r="B5" s="122"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="2:6" ht="210">
+      <c r="B6" s="122"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="37" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="2:6" ht="210">
+      <c r="B7" s="122"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:6" ht="210">
+      <c r="B8" s="122"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:6" ht="195">
+      <c r="B9" s="122"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:6" ht="195">
+      <c r="B10" s="123"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:6" ht="135">
+      <c r="B11" s="121" t="s">
+        <v>833</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>826</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>813</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:6" ht="225">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:6" ht="225">
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="2:6" ht="225">
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="2:6" ht="225">
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="2:6" ht="240">
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" ht="210">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="F17" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase_account_ver5.xlsx
+++ b/testcase_account_ver5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2972057B-24CE-4873-8483-0F337F489A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E44AA-548A-4562-9958-09FE9E27319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4267" uniqueCount="1117">
   <si>
     <t>作成者</t>
   </si>
@@ -19805,6 +19805,66 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限があるアカウントでログインし、画面遷移した後に、ログイン画面までは戻らずアカウント登録画面やアカウント更新画面のところまでインターネットの戻るボタンを押し、そこから登録や更新を進める。</t>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進められるようになっている。</t>
+    <rPh sb="0" eb="1">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じ内容で登録しようとするとエラーが出る。</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -20205,7 +20265,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20586,6 +20646,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -20595,22 +20679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20643,20 +20712,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20667,23 +20754,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20691,7 +20763,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20709,23 +20784,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21100,12 +21163,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -21128,10 +21191,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -21475,7 +21538,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="135"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -21503,7 +21566,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="135"/>
+      <c r="G14" s="139"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -21531,7 +21594,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="135"/>
+      <c r="G15" s="139"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -21559,7 +21622,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="135"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -21587,7 +21650,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="135"/>
+      <c r="G17" s="139"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -21615,7 +21678,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="135"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -21643,7 +21706,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="135"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -21671,7 +21734,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="135"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -21699,7 +21762,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="135"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -21727,7 +21790,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="135"/>
+      <c r="G22" s="139"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -21755,7 +21818,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="136"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -22213,7 +22276,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="128" t="s">
+      <c r="G38" s="136" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -22243,7 +22306,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="129"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -22271,7 +22334,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="129"/>
+      <c r="G40" s="137"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -22299,7 +22362,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="129"/>
+      <c r="G41" s="137"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -22327,7 +22390,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="130"/>
+      <c r="G42" s="138"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -22479,7 +22542,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="128" t="s">
+      <c r="G47" s="136" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -22509,7 +22572,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="130"/>
+      <c r="G48" s="138"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -22822,7 +22885,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="135"/>
+      <c r="F58" s="139"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -22849,10 +22912,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="141" t="s">
+      <c r="E59" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="135"/>
+      <c r="F59" s="139"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -22877,8 +22940,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="142"/>
-      <c r="F60" s="135"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="139"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -22903,8 +22966,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="142"/>
-      <c r="F61" s="135"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="139"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -22929,8 +22992,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="142"/>
-      <c r="F62" s="135"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="139"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -22955,8 +23018,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="142"/>
-      <c r="F63" s="135"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="139"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -22981,8 +23044,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="142"/>
-      <c r="F64" s="135"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="139"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -23007,8 +23070,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="142"/>
-      <c r="F65" s="135"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="139"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -23033,8 +23096,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="142"/>
-      <c r="F66" s="135"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="139"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -23059,8 +23122,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="142"/>
-      <c r="F67" s="135"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="139"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -23085,8 +23148,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="142"/>
-      <c r="F68" s="135"/>
+      <c r="E68" s="145"/>
+      <c r="F68" s="139"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -23111,8 +23174,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="142"/>
-      <c r="F69" s="135"/>
+      <c r="E69" s="145"/>
+      <c r="F69" s="139"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -23137,8 +23200,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="142"/>
-      <c r="F70" s="135"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="139"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -23163,8 +23226,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="143"/>
-      <c r="F71" s="136"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="135"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -23225,10 +23288,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="144" t="s">
+      <c r="E73" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="128" t="s">
+      <c r="F73" s="136" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -23255,8 +23318,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="145"/>
-      <c r="F74" s="129"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="137"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -23281,8 +23344,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="145"/>
-      <c r="F75" s="129"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="137"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -23307,8 +23370,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="145"/>
-      <c r="F76" s="129"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="137"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -23333,8 +23396,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="145"/>
-      <c r="F77" s="129"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="137"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -23359,8 +23422,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="145"/>
-      <c r="F78" s="129"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="137"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -23385,8 +23448,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="145"/>
-      <c r="F79" s="129"/>
+      <c r="E79" s="148"/>
+      <c r="F79" s="137"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -23411,8 +23474,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="145"/>
-      <c r="F80" s="129"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="137"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -23437,8 +23500,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="145"/>
-      <c r="F81" s="129"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="137"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -23463,8 +23526,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="145"/>
-      <c r="F82" s="129"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="137"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -23489,8 +23552,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="145"/>
-      <c r="F83" s="129"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="137"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -23515,8 +23578,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="146"/>
-      <c r="F84" s="130"/>
+      <c r="E84" s="149"/>
+      <c r="F84" s="138"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -23609,10 +23672,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="144" t="s">
+      <c r="E87" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="128" t="s">
+      <c r="F87" s="136" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -23639,8 +23702,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="145"/>
-      <c r="F88" s="129"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="137"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -23665,8 +23728,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="145"/>
-      <c r="F89" s="129"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="137"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -23691,8 +23754,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="146"/>
-      <c r="F90" s="130"/>
+      <c r="E90" s="149"/>
+      <c r="F90" s="138"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -23721,7 +23784,7 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="144" t="s">
+      <c r="E91" s="147" t="s">
         <v>55</v>
       </c>
       <c r="F91" s="134" t="s">
@@ -23753,8 +23816,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="145"/>
-      <c r="F92" s="135"/>
+      <c r="E92" s="148"/>
+      <c r="F92" s="139"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -23779,8 +23842,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="146"/>
-      <c r="F93" s="135"/>
+      <c r="E93" s="149"/>
+      <c r="F93" s="139"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -23812,7 +23875,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="135"/>
+      <c r="F94" s="139"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -23840,7 +23903,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="136"/>
+      <c r="F95" s="135"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -23935,10 +23998,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="144" t="s">
+      <c r="E98" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="128" t="s">
+      <c r="F98" s="136" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -23965,8 +24028,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="145"/>
-      <c r="F99" s="129"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="137"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -23991,8 +24054,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="145"/>
-      <c r="F100" s="129"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="137"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -24017,8 +24080,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="145"/>
-      <c r="F101" s="129"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="137"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -24043,8 +24106,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="145"/>
-      <c r="F102" s="129"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="137"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -24069,8 +24132,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="145"/>
-      <c r="F103" s="129"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="137"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -24095,8 +24158,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="145"/>
-      <c r="F104" s="129"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="137"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -24121,8 +24184,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="145"/>
-      <c r="F105" s="129"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="137"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -24147,8 +24210,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="145"/>
-      <c r="F106" s="129"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="137"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -24173,8 +24236,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="145"/>
-      <c r="F107" s="129"/>
+      <c r="E107" s="148"/>
+      <c r="F107" s="137"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -24199,8 +24262,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="145"/>
-      <c r="F108" s="129"/>
+      <c r="E108" s="148"/>
+      <c r="F108" s="137"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -24225,8 +24288,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="146"/>
-      <c r="F109" s="130"/>
+      <c r="E109" s="149"/>
+      <c r="F109" s="138"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -24353,7 +24416,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="135"/>
+      <c r="G113" s="139"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -24381,7 +24444,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="135"/>
+      <c r="G114" s="139"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -24409,7 +24472,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="135"/>
+      <c r="G115" s="139"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -24437,7 +24500,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="135"/>
+      <c r="G116" s="139"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -24465,7 +24528,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="135"/>
+      <c r="G117" s="139"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -24495,7 +24558,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="135"/>
+      <c r="G118" s="139"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -24523,7 +24586,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="135"/>
+      <c r="G119" s="139"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -24551,7 +24614,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="135"/>
+      <c r="G120" s="139"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -24579,7 +24642,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="135"/>
+      <c r="G121" s="139"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -24607,7 +24670,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="135"/>
+      <c r="G122" s="139"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -24635,7 +24698,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="136"/>
+      <c r="G123" s="135"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -24968,7 +25031,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="128" t="s">
+      <c r="F134" s="136" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -24998,7 +25061,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="129"/>
+      <c r="F135" s="137"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -25026,7 +25089,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="129"/>
+      <c r="F136" s="137"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -25054,7 +25117,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="129"/>
+      <c r="F137" s="137"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -25082,7 +25145,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="129"/>
+      <c r="F138" s="137"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -25110,7 +25173,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="129"/>
+      <c r="F139" s="137"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -25138,7 +25201,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="129"/>
+      <c r="F140" s="137"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -25168,7 +25231,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="129"/>
+      <c r="F141" s="137"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -25196,7 +25259,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="129"/>
+      <c r="F142" s="137"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -25224,7 +25287,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="129"/>
+      <c r="F143" s="137"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -25252,7 +25315,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="129"/>
+      <c r="F144" s="137"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -25280,7 +25343,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="129"/>
+      <c r="F145" s="137"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -25308,7 +25371,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="129"/>
+      <c r="F146" s="137"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -25336,7 +25399,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="129"/>
+      <c r="F147" s="137"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -25364,7 +25427,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="130"/>
+      <c r="F148" s="138"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -25396,7 +25459,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="128" t="s">
+      <c r="F149" s="136" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -25426,7 +25489,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="129"/>
+      <c r="F150" s="137"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -25454,7 +25517,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="130"/>
+      <c r="F151" s="138"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -25483,10 +25546,10 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="131" t="s">
+      <c r="E152" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="128" t="s">
+      <c r="F152" s="136" t="s">
         <v>357</v>
       </c>
       <c r="G152" s="134" t="s">
@@ -25513,9 +25576,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="132"/>
-      <c r="F153" s="129"/>
-      <c r="G153" s="135"/>
+      <c r="E153" s="151"/>
+      <c r="F153" s="137"/>
+      <c r="G153" s="139"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -25537,9 +25600,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="132"/>
-      <c r="F154" s="129"/>
-      <c r="G154" s="135"/>
+      <c r="E154" s="151"/>
+      <c r="F154" s="137"/>
+      <c r="G154" s="139"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -25561,9 +25624,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="132"/>
-      <c r="F155" s="129"/>
-      <c r="G155" s="135"/>
+      <c r="E155" s="151"/>
+      <c r="F155" s="137"/>
+      <c r="G155" s="139"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -25585,9 +25648,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="132"/>
-      <c r="F156" s="129"/>
-      <c r="G156" s="135"/>
+      <c r="E156" s="151"/>
+      <c r="F156" s="137"/>
+      <c r="G156" s="139"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -25609,9 +25672,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="132"/>
-      <c r="F157" s="129"/>
-      <c r="G157" s="135"/>
+      <c r="E157" s="151"/>
+      <c r="F157" s="137"/>
+      <c r="G157" s="139"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -25635,9 +25698,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="132"/>
-      <c r="F158" s="129"/>
-      <c r="G158" s="135"/>
+      <c r="E158" s="151"/>
+      <c r="F158" s="137"/>
+      <c r="G158" s="139"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -25659,9 +25722,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="132"/>
-      <c r="F159" s="129"/>
-      <c r="G159" s="135"/>
+      <c r="E159" s="151"/>
+      <c r="F159" s="137"/>
+      <c r="G159" s="139"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -25683,9 +25746,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="132"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="135"/>
+      <c r="E160" s="151"/>
+      <c r="F160" s="137"/>
+      <c r="G160" s="139"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -25707,9 +25770,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="132"/>
-      <c r="F161" s="129"/>
-      <c r="G161" s="135"/>
+      <c r="E161" s="151"/>
+      <c r="F161" s="137"/>
+      <c r="G161" s="139"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -25731,9 +25794,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="132"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="135"/>
+      <c r="E162" s="151"/>
+      <c r="F162" s="137"/>
+      <c r="G162" s="139"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -25755,9 +25818,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="132"/>
-      <c r="F163" s="129"/>
-      <c r="G163" s="136"/>
+      <c r="E163" s="151"/>
+      <c r="F163" s="137"/>
+      <c r="G163" s="135"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -25779,8 +25842,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="132"/>
-      <c r="F164" s="129"/>
+      <c r="E164" s="151"/>
+      <c r="F164" s="137"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -25805,8 +25868,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="133"/>
-      <c r="F165" s="130"/>
+      <c r="E165" s="152"/>
+      <c r="F165" s="138"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -25937,7 +26000,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="136"/>
+      <c r="G169" s="135"/>
       <c r="H169" s="68">
         <v>44480</v>
       </c>
@@ -26067,7 +26130,7 @@
       <c r="F173" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="G173" s="128" t="s">
+      <c r="G173" s="136" t="s">
         <v>599</v>
       </c>
       <c r="H173" s="68">
@@ -26097,7 +26160,7 @@
       <c r="F174" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G174" s="129"/>
+      <c r="G174" s="137"/>
       <c r="H174" s="68">
         <v>44480</v>
       </c>
@@ -26125,7 +26188,7 @@
       <c r="F175" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="129"/>
+      <c r="G175" s="137"/>
       <c r="H175" s="68">
         <v>44480</v>
       </c>
@@ -26153,7 +26216,7 @@
       <c r="F176" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="129"/>
+      <c r="G176" s="137"/>
       <c r="H176" s="68">
         <v>44480</v>
       </c>
@@ -26181,7 +26244,7 @@
       <c r="F177" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G177" s="129"/>
+      <c r="G177" s="137"/>
       <c r="H177" s="68">
         <v>44480</v>
       </c>
@@ -26209,7 +26272,7 @@
       <c r="F178" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G178" s="129"/>
+      <c r="G178" s="137"/>
       <c r="H178" s="68">
         <v>44480</v>
       </c>
@@ -26237,7 +26300,7 @@
       <c r="F179" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G179" s="129"/>
+      <c r="G179" s="137"/>
       <c r="H179" s="68">
         <v>44480</v>
       </c>
@@ -26265,7 +26328,7 @@
       <c r="F180" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="129"/>
+      <c r="G180" s="137"/>
       <c r="H180" s="68">
         <v>44480</v>
       </c>
@@ -26293,7 +26356,7 @@
       <c r="F181" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="129"/>
+      <c r="G181" s="137"/>
       <c r="H181" s="68">
         <v>44480</v>
       </c>
@@ -26321,7 +26384,7 @@
       <c r="F182" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="129"/>
+      <c r="G182" s="137"/>
       <c r="H182" s="68">
         <v>44480</v>
       </c>
@@ -26349,7 +26412,7 @@
       <c r="F183" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G183" s="130"/>
+      <c r="G183" s="138"/>
       <c r="H183" s="68">
         <v>44480</v>
       </c>
@@ -26439,7 +26502,7 @@
       <c r="F186" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="135"/>
+      <c r="G186" s="139"/>
       <c r="H186" s="68">
         <v>44480</v>
       </c>
@@ -26467,7 +26530,7 @@
       <c r="F187" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="G187" s="135"/>
+      <c r="G187" s="139"/>
       <c r="H187" s="68">
         <v>44480</v>
       </c>
@@ -26495,7 +26558,7 @@
       <c r="F188" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="G188" s="135"/>
+      <c r="G188" s="139"/>
       <c r="H188" s="68">
         <v>44480</v>
       </c>
@@ -26523,7 +26586,7 @@
       <c r="F189" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="135"/>
+      <c r="G189" s="139"/>
       <c r="H189" s="68">
         <v>44480</v>
       </c>
@@ -26551,7 +26614,7 @@
       <c r="F190" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G190" s="135"/>
+      <c r="G190" s="139"/>
       <c r="H190" s="68">
         <v>44480</v>
       </c>
@@ -26579,7 +26642,7 @@
       <c r="F191" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="G191" s="135"/>
+      <c r="G191" s="139"/>
       <c r="H191" s="68">
         <v>44480</v>
       </c>
@@ -26607,7 +26670,7 @@
       <c r="F192" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="G192" s="135"/>
+      <c r="G192" s="139"/>
       <c r="H192" s="68">
         <v>44480</v>
       </c>
@@ -26635,7 +26698,7 @@
       <c r="F193" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G193" s="135"/>
+      <c r="G193" s="139"/>
       <c r="H193" s="68">
         <v>44480</v>
       </c>
@@ -26663,7 +26726,7 @@
       <c r="F194" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G194" s="136"/>
+      <c r="G194" s="135"/>
       <c r="H194" s="68">
         <v>44480</v>
       </c>
@@ -27121,7 +27184,7 @@
       <c r="F209" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="G209" s="136"/>
+      <c r="G209" s="135"/>
       <c r="H209" s="68">
         <v>44480</v>
       </c>
@@ -27211,7 +27274,7 @@
       <c r="F212" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="G212" s="136"/>
+      <c r="G212" s="135"/>
       <c r="H212" s="68">
         <v>44480</v>
       </c>
@@ -27267,10 +27330,10 @@
       <c r="D214" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="131" t="s">
+      <c r="E214" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="128" t="s">
+      <c r="F214" s="136" t="s">
         <v>232</v>
       </c>
       <c r="G214" s="134" t="s">
@@ -27297,9 +27360,9 @@
       <c r="D215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E215" s="132"/>
-      <c r="F215" s="129"/>
-      <c r="G215" s="135"/>
+      <c r="E215" s="151"/>
+      <c r="F215" s="137"/>
+      <c r="G215" s="139"/>
       <c r="H215" s="68">
         <v>44504</v>
       </c>
@@ -27321,9 +27384,9 @@
       <c r="D216" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="132"/>
-      <c r="F216" s="129"/>
-      <c r="G216" s="135"/>
+      <c r="E216" s="151"/>
+      <c r="F216" s="137"/>
+      <c r="G216" s="139"/>
       <c r="H216" s="68">
         <v>44504</v>
       </c>
@@ -27345,9 +27408,9 @@
       <c r="D217" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E217" s="132"/>
-      <c r="F217" s="129"/>
-      <c r="G217" s="135"/>
+      <c r="E217" s="151"/>
+      <c r="F217" s="137"/>
+      <c r="G217" s="139"/>
       <c r="H217" s="68">
         <v>44504</v>
       </c>
@@ -27369,9 +27432,9 @@
       <c r="D218" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E218" s="132"/>
-      <c r="F218" s="129"/>
-      <c r="G218" s="136"/>
+      <c r="E218" s="151"/>
+      <c r="F218" s="137"/>
+      <c r="G218" s="135"/>
       <c r="H218" s="68">
         <v>44504</v>
       </c>
@@ -27393,8 +27456,8 @@
       <c r="D219" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="132"/>
-      <c r="F219" s="129"/>
+      <c r="E219" s="151"/>
+      <c r="F219" s="137"/>
       <c r="G219" s="31" t="s">
         <v>759</v>
       </c>
@@ -27419,8 +27482,8 @@
       <c r="D220" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="132"/>
-      <c r="F220" s="129"/>
+      <c r="E220" s="151"/>
+      <c r="F220" s="137"/>
       <c r="G220" s="31" t="s">
         <v>758</v>
       </c>
@@ -27445,8 +27508,8 @@
       <c r="D221" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="133"/>
-      <c r="F221" s="129"/>
+      <c r="E221" s="152"/>
+      <c r="F221" s="137"/>
       <c r="G221" s="31" t="s">
         <v>760</v>
       </c>
@@ -27474,7 +27537,7 @@
       <c r="E222" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="F222" s="130"/>
+      <c r="F222" s="138"/>
       <c r="G222" s="31" t="s">
         <v>769</v>
       </c>
@@ -27501,10 +27564,10 @@
       <c r="D223" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="131" t="s">
+      <c r="E223" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F223" s="128" t="s">
+      <c r="F223" s="136" t="s">
         <v>762</v>
       </c>
       <c r="G223" s="134" t="s">
@@ -27531,9 +27594,9 @@
       <c r="D224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E224" s="132"/>
-      <c r="F224" s="129"/>
-      <c r="G224" s="135"/>
+      <c r="E224" s="151"/>
+      <c r="F224" s="137"/>
+      <c r="G224" s="139"/>
       <c r="H224" s="68">
         <v>44504</v>
       </c>
@@ -27555,9 +27618,9 @@
       <c r="D225" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="132"/>
-      <c r="F225" s="129"/>
-      <c r="G225" s="135"/>
+      <c r="E225" s="151"/>
+      <c r="F225" s="137"/>
+      <c r="G225" s="139"/>
       <c r="H225" s="68">
         <v>44504</v>
       </c>
@@ -27579,9 +27642,9 @@
       <c r="D226" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="132"/>
-      <c r="F226" s="129"/>
-      <c r="G226" s="135"/>
+      <c r="E226" s="151"/>
+      <c r="F226" s="137"/>
+      <c r="G226" s="139"/>
       <c r="H226" s="68">
         <v>44504</v>
       </c>
@@ -27603,9 +27666,9 @@
       <c r="D227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="132"/>
-      <c r="F227" s="130"/>
-      <c r="G227" s="136"/>
+      <c r="E227" s="151"/>
+      <c r="F227" s="138"/>
+      <c r="G227" s="135"/>
       <c r="H227" s="68">
         <v>44504</v>
       </c>
@@ -27627,7 +27690,7 @@
       <c r="D228" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="132"/>
+      <c r="E228" s="151"/>
       <c r="F228" s="37" t="s">
         <v>763</v>
       </c>
@@ -27655,11 +27718,11 @@
       <c r="D229" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="132"/>
+      <c r="E229" s="151"/>
       <c r="F229" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="G229" s="136"/>
+      <c r="G229" s="135"/>
       <c r="H229" s="68">
         <v>44504</v>
       </c>
@@ -27683,10 +27746,10 @@
       <c r="D230" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="131" t="s">
+      <c r="E230" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F230" s="128" t="s">
+      <c r="F230" s="136" t="s">
         <v>765</v>
       </c>
       <c r="G230" s="134" t="s">
@@ -27713,9 +27776,9 @@
       <c r="D231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E231" s="132"/>
-      <c r="F231" s="129"/>
-      <c r="G231" s="135"/>
+      <c r="E231" s="151"/>
+      <c r="F231" s="137"/>
+      <c r="G231" s="139"/>
       <c r="H231" s="68">
         <v>44504</v>
       </c>
@@ -27737,9 +27800,9 @@
       <c r="D232" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="132"/>
-      <c r="F232" s="129"/>
-      <c r="G232" s="135"/>
+      <c r="E232" s="151"/>
+      <c r="F232" s="137"/>
+      <c r="G232" s="139"/>
       <c r="H232" s="68">
         <v>44504</v>
       </c>
@@ -27761,9 +27824,9 @@
       <c r="D233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="132"/>
-      <c r="F233" s="129"/>
-      <c r="G233" s="135"/>
+      <c r="E233" s="151"/>
+      <c r="F233" s="137"/>
+      <c r="G233" s="139"/>
       <c r="H233" s="68">
         <v>44504</v>
       </c>
@@ -27785,9 +27848,9 @@
       <c r="D234" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="132"/>
-      <c r="F234" s="129"/>
-      <c r="G234" s="136"/>
+      <c r="E234" s="151"/>
+      <c r="F234" s="137"/>
+      <c r="G234" s="135"/>
       <c r="H234" s="68">
         <v>44504</v>
       </c>
@@ -27809,8 +27872,8 @@
       <c r="D235" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="132"/>
-      <c r="F235" s="129"/>
+      <c r="E235" s="151"/>
+      <c r="F235" s="137"/>
       <c r="G235" s="102" t="s">
         <v>771</v>
       </c>
@@ -27835,8 +27898,8 @@
       <c r="D236" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E236" s="132"/>
-      <c r="F236" s="129"/>
+      <c r="E236" s="151"/>
+      <c r="F236" s="137"/>
       <c r="G236" s="102" t="s">
         <v>772</v>
       </c>
@@ -27861,8 +27924,8 @@
       <c r="D237" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="E237" s="133"/>
-      <c r="F237" s="130"/>
+      <c r="E237" s="152"/>
+      <c r="F237" s="138"/>
       <c r="G237" s="31" t="s">
         <v>773</v>
       </c>
@@ -28202,6 +28265,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="F230:F237"/>
+    <mergeCell ref="E230:E237"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="E214:E221"/>
+    <mergeCell ref="F214:F222"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="G223:G227"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="G173:G183"/>
     <mergeCell ref="G185:G194"/>
@@ -28218,25 +28300,6 @@
     <mergeCell ref="F87:F90"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="E98:E109"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="E152:E165"/>
-    <mergeCell ref="F152:F165"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="G152:G163"/>
-    <mergeCell ref="G112:G123"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="F230:F237"/>
-    <mergeCell ref="E230:E237"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="E214:E221"/>
-    <mergeCell ref="F214:F222"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="G223:G227"/>
-    <mergeCell ref="G228:G229"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -28270,11 +28333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="147"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="159"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -28297,9 +28360,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="148"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -28493,11 +28556,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="135"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -28515,11 +28578,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -28537,11 +28600,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -28559,11 +28622,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -28581,11 +28644,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -28603,11 +28666,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="135"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -28625,11 +28688,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="135"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -28647,11 +28710,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="135"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -28669,11 +28732,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="135"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="139"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -28691,11 +28754,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="135"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="135"/>
+      <c r="F18" s="139"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -28713,11 +28776,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="136"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="136"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -28741,7 +28804,7 @@
       <c r="D20" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="152" t="s">
+      <c r="E20" s="161" t="s">
         <v>201</v>
       </c>
       <c r="F20" s="134" t="s">
@@ -28767,9 +28830,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="135"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -28790,9 +28853,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="135"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -28813,9 +28876,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="135"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -28836,9 +28899,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="136"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -28859,8 +28922,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="153"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="162"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -28884,8 +28947,8 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="153"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="162"/>
       <c r="F26" s="134" t="s">
         <v>187</v>
       </c>
@@ -28909,9 +28972,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="135"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -28932,9 +28995,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="135"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="139"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -28955,9 +29018,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="135"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -28978,9 +29041,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="135"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="135"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="139"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -29001,9 +29064,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="136"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -29055,7 +29118,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="135"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -29082,7 +29145,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="135"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -29109,7 +29172,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="135"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -29136,7 +29199,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="135"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -29163,7 +29226,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="135"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -29190,7 +29253,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -29217,7 +29280,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="135"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -29244,7 +29307,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="135"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -29271,7 +29334,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="136"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -29303,10 +29366,10 @@
       <c r="D42" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="128" t="s">
+      <c r="E42" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="128" t="s">
+      <c r="F42" s="136" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -29329,9 +29392,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="132"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -29352,9 +29415,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="132"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -29375,9 +29438,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="132"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -29398,9 +29461,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -29421,9 +29484,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -29444,9 +29507,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -29467,9 +29530,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -29490,9 +29553,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -29513,9 +29576,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="132"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -29536,9 +29599,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -29559,9 +29622,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="133"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -29587,10 +29650,10 @@
       <c r="D54" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="128" t="s">
+      <c r="E54" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="149" t="s">
+      <c r="F54" s="156" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -29613,9 +29676,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="132"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="150"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="158"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -29636,9 +29699,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="150"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -29659,9 +29722,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="132"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="150"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="158"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -29682,9 +29745,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="132"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="150"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="158"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -29705,9 +29768,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="132"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="157"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -29728,8 +29791,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="129"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="137"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -29753,8 +29816,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="129"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="137"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -29778,8 +29841,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="132"/>
-      <c r="E62" s="129"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="137"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -29803,9 +29866,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="132"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="149" t="s">
+      <c r="D63" s="151"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="156" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -29828,9 +29891,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="151"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="157"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -29851,8 +29914,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="133"/>
-      <c r="E65" s="130"/>
+      <c r="D65" s="152"/>
+      <c r="E65" s="138"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -29884,7 +29947,7 @@
       <c r="E66" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="128" t="s">
+      <c r="F66" s="136" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -29907,9 +29970,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="132"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="129"/>
+      <c r="D67" s="151"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="137"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -29930,9 +29993,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="132"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="129"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="137"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -29953,9 +30016,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="132"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="129"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="137"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -29976,9 +30039,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="132"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="129"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="137"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -29999,9 +30062,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="132"/>
-      <c r="E71" s="135"/>
-      <c r="F71" s="129"/>
+      <c r="D71" s="151"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="137"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -30022,9 +30085,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="132"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="129"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="137"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -30045,9 +30108,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="132"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="129"/>
+      <c r="D73" s="151"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="137"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -30068,9 +30131,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="132"/>
-      <c r="E74" s="135"/>
-      <c r="F74" s="129"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="137"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -30091,9 +30154,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="132"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="129"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="137"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -30114,9 +30177,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="132"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="129"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="137"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -30137,9 +30200,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="133"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="130"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="138"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -30224,8 +30287,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="135"/>
-      <c r="E80" s="135"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="139"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -30249,8 +30312,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -30274,8 +30337,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -30299,8 +30362,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -30324,8 +30387,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -30349,8 +30412,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -30374,8 +30437,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
+      <c r="D86" s="139"/>
+      <c r="E86" s="139"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -30399,8 +30462,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
+      <c r="D87" s="139"/>
+      <c r="E87" s="139"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -30424,8 +30487,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
+      <c r="D88" s="139"/>
+      <c r="E88" s="139"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -30449,8 +30512,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
+      <c r="D89" s="139"/>
+      <c r="E89" s="139"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -30474,8 +30537,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
+      <c r="D90" s="139"/>
+      <c r="E90" s="139"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -30499,8 +30562,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="135"/>
-      <c r="E91" s="135"/>
+      <c r="D91" s="139"/>
+      <c r="E91" s="139"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -30524,8 +30587,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
+      <c r="D92" s="139"/>
+      <c r="E92" s="139"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -30549,8 +30612,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
+      <c r="D93" s="139"/>
+      <c r="E93" s="139"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -30576,8 +30639,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="136"/>
-      <c r="E94" s="136"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="135"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -30696,10 +30759,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="128" t="s">
+      <c r="D98" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="128" t="s">
+      <c r="E98" s="136" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -30725,8 +30788,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="155"/>
-      <c r="E99" s="129"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="137"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -30750,8 +30813,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="155"/>
-      <c r="E100" s="129"/>
+      <c r="D100" s="154"/>
+      <c r="E100" s="137"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -30775,8 +30838,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="155"/>
-      <c r="E101" s="129"/>
+      <c r="D101" s="154"/>
+      <c r="E101" s="137"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -30800,8 +30863,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="155"/>
-      <c r="E102" s="129"/>
+      <c r="D102" s="154"/>
+      <c r="E102" s="137"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -30825,8 +30888,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="155"/>
-      <c r="E103" s="129"/>
+      <c r="D103" s="154"/>
+      <c r="E103" s="137"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -30850,8 +30913,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="155"/>
-      <c r="E104" s="129"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="137"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -30875,8 +30938,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="155"/>
-      <c r="E105" s="129"/>
+      <c r="D105" s="154"/>
+      <c r="E105" s="137"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -30900,8 +30963,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="155"/>
-      <c r="E106" s="129"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="137"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -30925,8 +30988,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="155"/>
-      <c r="E107" s="129"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="137"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -30950,8 +31013,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="156"/>
-      <c r="E108" s="130"/>
+      <c r="D108" s="155"/>
+      <c r="E108" s="138"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -31128,10 +31191,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="128" t="s">
+      <c r="D114" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="128" t="s">
+      <c r="E114" s="136" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -31157,8 +31220,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="129"/>
-      <c r="E115" s="129"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -31182,8 +31245,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
+      <c r="D116" s="137"/>
+      <c r="E116" s="137"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -31207,8 +31270,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="129"/>
-      <c r="E117" s="129"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -31232,8 +31295,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="129"/>
-      <c r="E118" s="129"/>
+      <c r="D118" s="137"/>
+      <c r="E118" s="137"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -31257,8 +31320,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="129"/>
-      <c r="E119" s="129"/>
+      <c r="D119" s="137"/>
+      <c r="E119" s="137"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -31282,8 +31345,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="129"/>
-      <c r="E120" s="129"/>
+      <c r="D120" s="137"/>
+      <c r="E120" s="137"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -31307,8 +31370,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="129"/>
-      <c r="E121" s="129"/>
+      <c r="D121" s="137"/>
+      <c r="E121" s="137"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -31332,8 +31395,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="129"/>
-      <c r="E122" s="129"/>
+      <c r="D122" s="137"/>
+      <c r="E122" s="137"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -31357,8 +31420,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="129"/>
-      <c r="E123" s="129"/>
+      <c r="D123" s="137"/>
+      <c r="E123" s="137"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -31382,8 +31445,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="129"/>
-      <c r="E124" s="129"/>
+      <c r="D124" s="137"/>
+      <c r="E124" s="137"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -31407,8 +31470,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="130"/>
-      <c r="E125" s="130"/>
+      <c r="D125" s="138"/>
+      <c r="E125" s="138"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -31562,13 +31625,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="128" t="s">
+      <c r="D130" s="136" t="s">
         <v>491</v>
       </c>
       <c r="E130" s="134" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="128" t="s">
+      <c r="F130" s="136" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -31591,9 +31654,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="129"/>
-      <c r="E131" s="135"/>
-      <c r="F131" s="129"/>
+      <c r="D131" s="137"/>
+      <c r="E131" s="139"/>
+      <c r="F131" s="137"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -31614,9 +31677,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="129"/>
-      <c r="E132" s="135"/>
-      <c r="F132" s="129"/>
+      <c r="D132" s="137"/>
+      <c r="E132" s="139"/>
+      <c r="F132" s="137"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -31637,9 +31700,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="129"/>
-      <c r="E133" s="135"/>
-      <c r="F133" s="129"/>
+      <c r="D133" s="137"/>
+      <c r="E133" s="139"/>
+      <c r="F133" s="137"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -31660,9 +31723,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="129"/>
-      <c r="E134" s="135"/>
-      <c r="F134" s="129"/>
+      <c r="D134" s="137"/>
+      <c r="E134" s="139"/>
+      <c r="F134" s="137"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -31683,9 +31746,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="129"/>
-      <c r="E135" s="135"/>
-      <c r="F135" s="129"/>
+      <c r="D135" s="137"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="137"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -31706,9 +31769,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="129"/>
-      <c r="E136" s="135"/>
-      <c r="F136" s="129"/>
+      <c r="D136" s="137"/>
+      <c r="E136" s="139"/>
+      <c r="F136" s="137"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -31729,9 +31792,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="129"/>
-      <c r="E137" s="135"/>
-      <c r="F137" s="129"/>
+      <c r="D137" s="137"/>
+      <c r="E137" s="139"/>
+      <c r="F137" s="137"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -31752,9 +31815,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="129"/>
-      <c r="E138" s="135"/>
-      <c r="F138" s="129"/>
+      <c r="D138" s="137"/>
+      <c r="E138" s="139"/>
+      <c r="F138" s="137"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -31775,9 +31838,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="129"/>
-      <c r="E139" s="135"/>
-      <c r="F139" s="129"/>
+      <c r="D139" s="137"/>
+      <c r="E139" s="139"/>
+      <c r="F139" s="137"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -31798,9 +31861,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="129"/>
-      <c r="E140" s="135"/>
-      <c r="F140" s="129"/>
+      <c r="D140" s="137"/>
+      <c r="E140" s="139"/>
+      <c r="F140" s="137"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -31821,9 +31884,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="130"/>
-      <c r="E141" s="136"/>
-      <c r="F141" s="130"/>
+      <c r="D141" s="138"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="138"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -31908,10 +31971,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="128" t="s">
+      <c r="D144" s="136" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="128" t="s">
+      <c r="E144" s="136" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -31937,8 +32000,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="130"/>
-      <c r="E145" s="130"/>
+      <c r="D145" s="138"/>
+      <c r="E145" s="138"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -32291,10 +32354,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="128" t="s">
+      <c r="D157" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="128" t="s">
+      <c r="E157" s="136" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -32320,8 +32383,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="129"/>
-      <c r="E158" s="129"/>
+      <c r="D158" s="137"/>
+      <c r="E158" s="137"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -32345,8 +32408,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="129"/>
-      <c r="E159" s="129"/>
+      <c r="D159" s="137"/>
+      <c r="E159" s="137"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -32370,8 +32433,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="129"/>
-      <c r="E160" s="129"/>
+      <c r="D160" s="137"/>
+      <c r="E160" s="137"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -32395,8 +32458,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="129"/>
-      <c r="E161" s="129"/>
+      <c r="D161" s="137"/>
+      <c r="E161" s="137"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -32420,8 +32483,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
+      <c r="D162" s="137"/>
+      <c r="E162" s="137"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -32445,8 +32508,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="129"/>
-      <c r="E163" s="129"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="137"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -32470,8 +32533,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
+      <c r="D164" s="137"/>
+      <c r="E164" s="137"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -32495,8 +32558,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="129"/>
-      <c r="E165" s="129"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="137"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -32520,8 +32583,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="129"/>
-      <c r="E166" s="129"/>
+      <c r="D166" s="137"/>
+      <c r="E166" s="137"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -32545,8 +32608,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="129"/>
-      <c r="E167" s="129"/>
+      <c r="D167" s="137"/>
+      <c r="E167" s="137"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -32570,8 +32633,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="130"/>
-      <c r="E168" s="130"/>
+      <c r="D168" s="138"/>
+      <c r="E168" s="138"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -32630,13 +32693,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="128" t="s">
+      <c r="D170" s="136" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="128" t="s">
+      <c r="F170" s="136" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -32659,11 +32722,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="129"/>
+      <c r="D171" s="137"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="129"/>
+      <c r="F171" s="137"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -32684,11 +32747,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="129"/>
+      <c r="D172" s="137"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="129"/>
+      <c r="F172" s="137"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -32709,11 +32772,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="129"/>
+      <c r="D173" s="137"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="129"/>
+      <c r="F173" s="137"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -32734,11 +32797,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="129"/>
+      <c r="D174" s="137"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="129"/>
+      <c r="F174" s="137"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -32759,11 +32822,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="129"/>
+      <c r="D175" s="137"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="129"/>
+      <c r="F175" s="137"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -32786,11 +32849,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="129"/>
+      <c r="D176" s="137"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="129"/>
+      <c r="F176" s="137"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -32811,11 +32874,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="129"/>
+      <c r="D177" s="137"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="129"/>
+      <c r="F177" s="137"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -32836,11 +32899,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="129"/>
+      <c r="D178" s="137"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="129"/>
+      <c r="F178" s="137"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -32861,11 +32924,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="129"/>
+      <c r="D179" s="137"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="129"/>
+      <c r="F179" s="137"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -32886,11 +32949,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="129"/>
+      <c r="D180" s="137"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="129"/>
+      <c r="F180" s="137"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -32911,11 +32974,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="130"/>
+      <c r="D181" s="138"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="130"/>
+      <c r="F181" s="138"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -32938,7 +33001,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="128" t="s">
+      <c r="D182" s="136" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -32967,7 +33030,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="129"/>
+      <c r="D183" s="137"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -32994,7 +33057,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="129"/>
+      <c r="D184" s="137"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -33021,7 +33084,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="129"/>
+      <c r="D185" s="137"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -33048,7 +33111,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="129"/>
+      <c r="D186" s="137"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -33075,7 +33138,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="129"/>
+      <c r="D187" s="137"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -33104,7 +33167,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="129"/>
+      <c r="D188" s="137"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -33131,7 +33194,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="129"/>
+      <c r="D189" s="137"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -33158,7 +33221,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="129"/>
+      <c r="D190" s="137"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -33185,7 +33248,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="130"/>
+      <c r="D191" s="138"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -33214,10 +33277,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="128" t="s">
+      <c r="D192" s="136" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="128" t="s">
+      <c r="E192" s="136" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -33243,8 +33306,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="129"/>
-      <c r="E193" s="129"/>
+      <c r="D193" s="137"/>
+      <c r="E193" s="137"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -33268,8 +33331,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="129"/>
-      <c r="E194" s="129"/>
+      <c r="D194" s="137"/>
+      <c r="E194" s="137"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -33293,8 +33356,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="129"/>
-      <c r="E195" s="129"/>
+      <c r="D195" s="137"/>
+      <c r="E195" s="137"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -33318,8 +33381,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="129"/>
-      <c r="E196" s="129"/>
+      <c r="D196" s="137"/>
+      <c r="E196" s="137"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -33343,8 +33406,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="129"/>
-      <c r="E197" s="129"/>
+      <c r="D197" s="137"/>
+      <c r="E197" s="137"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -33370,8 +33433,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="129"/>
-      <c r="E198" s="129"/>
+      <c r="D198" s="137"/>
+      <c r="E198" s="137"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -33395,8 +33458,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="129"/>
-      <c r="E199" s="129"/>
+      <c r="D199" s="137"/>
+      <c r="E199" s="137"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -33420,8 +33483,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="129"/>
-      <c r="E200" s="129"/>
+      <c r="D200" s="137"/>
+      <c r="E200" s="137"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -33445,8 +33508,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="129"/>
-      <c r="E201" s="129"/>
+      <c r="D201" s="137"/>
+      <c r="E201" s="137"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -33470,8 +33533,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="129"/>
-      <c r="E202" s="129"/>
+      <c r="D202" s="137"/>
+      <c r="E202" s="137"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -33495,8 +33558,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="130"/>
-      <c r="E203" s="130"/>
+      <c r="D203" s="138"/>
+      <c r="E203" s="138"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -33555,13 +33618,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="128" t="s">
+      <c r="D205" s="136" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="128" t="s">
+      <c r="E205" s="136" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="149" t="s">
+      <c r="F205" s="156" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -33584,9 +33647,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="129"/>
-      <c r="E206" s="129"/>
-      <c r="F206" s="150"/>
+      <c r="D206" s="137"/>
+      <c r="E206" s="137"/>
+      <c r="F206" s="158"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -33607,9 +33670,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="129"/>
-      <c r="E207" s="129"/>
-      <c r="F207" s="150"/>
+      <c r="D207" s="137"/>
+      <c r="E207" s="137"/>
+      <c r="F207" s="158"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -33630,9 +33693,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="129"/>
-      <c r="E208" s="129"/>
-      <c r="F208" s="150"/>
+      <c r="D208" s="137"/>
+      <c r="E208" s="137"/>
+      <c r="F208" s="158"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -33653,9 +33716,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="129"/>
-      <c r="E209" s="129"/>
-      <c r="F209" s="150"/>
+      <c r="D209" s="137"/>
+      <c r="E209" s="137"/>
+      <c r="F209" s="158"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -33676,9 +33739,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="129"/>
-      <c r="E210" s="129"/>
-      <c r="F210" s="151"/>
+      <c r="D210" s="137"/>
+      <c r="E210" s="137"/>
+      <c r="F210" s="157"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -33699,8 +33762,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="129"/>
-      <c r="E211" s="129"/>
+      <c r="D211" s="137"/>
+      <c r="E211" s="137"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -33724,8 +33787,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="129"/>
-      <c r="E212" s="129"/>
+      <c r="D212" s="137"/>
+      <c r="E212" s="137"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -33749,8 +33812,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="129"/>
-      <c r="E213" s="129"/>
+      <c r="D213" s="137"/>
+      <c r="E213" s="137"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -33774,9 +33837,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="129"/>
-      <c r="E214" s="129"/>
-      <c r="F214" s="149" t="s">
+      <c r="D214" s="137"/>
+      <c r="E214" s="137"/>
+      <c r="F214" s="156" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -33799,9 +33862,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="129"/>
-      <c r="E215" s="129"/>
-      <c r="F215" s="151"/>
+      <c r="D215" s="137"/>
+      <c r="E215" s="137"/>
+      <c r="F215" s="157"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -33822,8 +33885,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="130"/>
-      <c r="E216" s="130"/>
+      <c r="D216" s="138"/>
+      <c r="E216" s="138"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -33909,10 +33972,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="128" t="s">
+      <c r="D219" s="136" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="128" t="s">
+      <c r="E219" s="136" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -33938,8 +34001,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="129"/>
-      <c r="E220" s="129"/>
+      <c r="D220" s="137"/>
+      <c r="E220" s="137"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -33963,8 +34026,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="129"/>
-      <c r="E221" s="129"/>
+      <c r="D221" s="137"/>
+      <c r="E221" s="137"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -33988,8 +34051,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="129"/>
-      <c r="E222" s="129"/>
+      <c r="D222" s="137"/>
+      <c r="E222" s="137"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -34013,8 +34076,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="129"/>
-      <c r="E223" s="129"/>
+      <c r="D223" s="137"/>
+      <c r="E223" s="137"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -34038,8 +34101,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="129"/>
-      <c r="E224" s="129"/>
+      <c r="D224" s="137"/>
+      <c r="E224" s="137"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -34065,8 +34128,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="129"/>
-      <c r="E225" s="129"/>
+      <c r="D225" s="137"/>
+      <c r="E225" s="137"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -34090,8 +34153,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="129"/>
-      <c r="E226" s="129"/>
+      <c r="D226" s="137"/>
+      <c r="E226" s="137"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -34115,8 +34178,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="129"/>
-      <c r="E227" s="129"/>
+      <c r="D227" s="137"/>
+      <c r="E227" s="137"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -34140,8 +34203,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="129"/>
-      <c r="E228" s="129"/>
+      <c r="D228" s="137"/>
+      <c r="E228" s="137"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -34165,8 +34228,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="129"/>
-      <c r="E229" s="129"/>
+      <c r="D229" s="137"/>
+      <c r="E229" s="137"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -34190,8 +34253,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="129"/>
-      <c r="E230" s="129"/>
+      <c r="D230" s="137"/>
+      <c r="E230" s="137"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -34215,8 +34278,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="129"/>
-      <c r="E231" s="129"/>
+      <c r="D231" s="137"/>
+      <c r="E231" s="137"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -34240,8 +34303,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="130"/>
-      <c r="E232" s="130"/>
+      <c r="D232" s="138"/>
+      <c r="E232" s="138"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -34631,7 +34694,7 @@
       <c r="E245" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F245" s="149" t="s">
+      <c r="F245" s="156" t="s">
         <v>625</v>
       </c>
       <c r="G245" s="93">
@@ -34660,7 +34723,7 @@
       <c r="E246" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="F246" s="151"/>
+      <c r="F246" s="157"/>
       <c r="G246" s="93">
         <v>44481</v>
       </c>
@@ -35016,10 +35079,10 @@
       <c r="D259" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E259" s="128" t="s">
+      <c r="E259" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F259" s="128" t="s">
+      <c r="F259" s="136" t="s">
         <v>691</v>
       </c>
       <c r="G259" s="93">
@@ -35043,8 +35106,8 @@
       <c r="D260" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E260" s="129"/>
-      <c r="F260" s="129"/>
+      <c r="E260" s="137"/>
+      <c r="F260" s="137"/>
       <c r="G260" s="93">
         <v>44481</v>
       </c>
@@ -35066,8 +35129,8 @@
       <c r="D261" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="129"/>
-      <c r="F261" s="129"/>
+      <c r="E261" s="137"/>
+      <c r="F261" s="137"/>
       <c r="G261" s="93">
         <v>44481</v>
       </c>
@@ -35089,8 +35152,8 @@
       <c r="D262" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="129"/>
-      <c r="F262" s="129"/>
+      <c r="E262" s="137"/>
+      <c r="F262" s="137"/>
       <c r="G262" s="93">
         <v>44481</v>
       </c>
@@ -35112,8 +35175,8 @@
       <c r="D263" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E263" s="129"/>
-      <c r="F263" s="129"/>
+      <c r="E263" s="137"/>
+      <c r="F263" s="137"/>
       <c r="G263" s="93">
         <v>44481</v>
       </c>
@@ -35135,8 +35198,8 @@
       <c r="D264" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E264" s="129"/>
-      <c r="F264" s="129"/>
+      <c r="E264" s="137"/>
+      <c r="F264" s="137"/>
       <c r="G264" s="93">
         <v>44481</v>
       </c>
@@ -35158,8 +35221,8 @@
       <c r="D265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E265" s="129"/>
-      <c r="F265" s="129"/>
+      <c r="E265" s="137"/>
+      <c r="F265" s="137"/>
       <c r="G265" s="93">
         <v>44481</v>
       </c>
@@ -35181,8 +35244,8 @@
       <c r="D266" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E266" s="129"/>
-      <c r="F266" s="129"/>
+      <c r="E266" s="137"/>
+      <c r="F266" s="137"/>
       <c r="G266" s="93">
         <v>44481</v>
       </c>
@@ -35204,8 +35267,8 @@
       <c r="D267" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E267" s="129"/>
-      <c r="F267" s="129"/>
+      <c r="E267" s="137"/>
+      <c r="F267" s="137"/>
       <c r="G267" s="93">
         <v>44481</v>
       </c>
@@ -35227,8 +35290,8 @@
       <c r="D268" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E268" s="129"/>
-      <c r="F268" s="129"/>
+      <c r="E268" s="137"/>
+      <c r="F268" s="137"/>
       <c r="G268" s="93">
         <v>44481</v>
       </c>
@@ -35250,8 +35313,8 @@
       <c r="D269" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E269" s="130"/>
-      <c r="F269" s="130"/>
+      <c r="E269" s="138"/>
+      <c r="F269" s="138"/>
       <c r="G269" s="93">
         <v>44481</v>
       </c>
@@ -35280,7 +35343,7 @@
       <c r="E270" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="F270" s="128" t="s">
+      <c r="F270" s="136" t="s">
         <v>693</v>
       </c>
       <c r="G270" s="93">
@@ -35307,7 +35370,7 @@
       <c r="E271" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="F271" s="129"/>
+      <c r="F271" s="137"/>
       <c r="G271" s="93">
         <v>44481</v>
       </c>
@@ -35332,7 +35395,7 @@
       <c r="E272" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="F272" s="129"/>
+      <c r="F272" s="137"/>
       <c r="G272" s="93">
         <v>44481</v>
       </c>
@@ -35357,7 +35420,7 @@
       <c r="E273" s="99" t="s">
         <v>670</v>
       </c>
-      <c r="F273" s="129"/>
+      <c r="F273" s="137"/>
       <c r="G273" s="93">
         <v>44481</v>
       </c>
@@ -35382,7 +35445,7 @@
       <c r="E274" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="F274" s="129"/>
+      <c r="F274" s="137"/>
       <c r="G274" s="93">
         <v>44481</v>
       </c>
@@ -35407,7 +35470,7 @@
       <c r="E275" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="129"/>
+      <c r="F275" s="137"/>
       <c r="G275" s="93">
         <v>44481</v>
       </c>
@@ -35432,7 +35495,7 @@
       <c r="E276" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="F276" s="129"/>
+      <c r="F276" s="137"/>
       <c r="G276" s="93">
         <v>44481</v>
       </c>
@@ -35457,7 +35520,7 @@
       <c r="E277" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F277" s="129"/>
+      <c r="F277" s="137"/>
       <c r="G277" s="93">
         <v>44481</v>
       </c>
@@ -35482,7 +35545,7 @@
       <c r="E278" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="F278" s="129"/>
+      <c r="F278" s="137"/>
       <c r="G278" s="93">
         <v>44481</v>
       </c>
@@ -35507,7 +35570,7 @@
       <c r="E279" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="F279" s="129"/>
+      <c r="F279" s="137"/>
       <c r="G279" s="93">
         <v>44481</v>
       </c>
@@ -35532,7 +35595,7 @@
       <c r="E280" s="99" t="s">
         <v>677</v>
       </c>
-      <c r="F280" s="130"/>
+      <c r="F280" s="138"/>
       <c r="G280" s="93">
         <v>44481</v>
       </c>
@@ -35554,10 +35617,10 @@
       <c r="D281" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E281" s="128" t="s">
+      <c r="E281" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F281" s="128" t="s">
+      <c r="F281" s="136" t="s">
         <v>535</v>
       </c>
       <c r="G281" s="93">
@@ -35581,8 +35644,8 @@
       <c r="D282" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E282" s="129"/>
-      <c r="F282" s="129"/>
+      <c r="E282" s="137"/>
+      <c r="F282" s="137"/>
       <c r="G282" s="93">
         <v>44481</v>
       </c>
@@ -35604,8 +35667,8 @@
       <c r="D283" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E283" s="129"/>
-      <c r="F283" s="129"/>
+      <c r="E283" s="137"/>
+      <c r="F283" s="137"/>
       <c r="G283" s="93">
         <v>44481</v>
       </c>
@@ -35627,8 +35690,8 @@
       <c r="D284" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E284" s="129"/>
-      <c r="F284" s="129"/>
+      <c r="E284" s="137"/>
+      <c r="F284" s="137"/>
       <c r="G284" s="93">
         <v>44481</v>
       </c>
@@ -35650,8 +35713,8 @@
       <c r="D285" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="129"/>
-      <c r="F285" s="129"/>
+      <c r="E285" s="137"/>
+      <c r="F285" s="137"/>
       <c r="G285" s="93">
         <v>44481</v>
       </c>
@@ -35673,8 +35736,8 @@
       <c r="D286" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E286" s="129"/>
-      <c r="F286" s="129"/>
+      <c r="E286" s="137"/>
+      <c r="F286" s="137"/>
       <c r="G286" s="93">
         <v>44481</v>
       </c>
@@ -35696,8 +35759,8 @@
       <c r="D287" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E287" s="129"/>
-      <c r="F287" s="129"/>
+      <c r="E287" s="137"/>
+      <c r="F287" s="137"/>
       <c r="G287" s="93">
         <v>44481</v>
       </c>
@@ -35719,8 +35782,8 @@
       <c r="D288" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="129"/>
-      <c r="F288" s="129"/>
+      <c r="E288" s="137"/>
+      <c r="F288" s="137"/>
       <c r="G288" s="93">
         <v>44481</v>
       </c>
@@ -35742,8 +35805,8 @@
       <c r="D289" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E289" s="129"/>
-      <c r="F289" s="129"/>
+      <c r="E289" s="137"/>
+      <c r="F289" s="137"/>
       <c r="G289" s="93">
         <v>44481</v>
       </c>
@@ -35765,8 +35828,8 @@
       <c r="D290" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="129"/>
-      <c r="F290" s="129"/>
+      <c r="E290" s="137"/>
+      <c r="F290" s="137"/>
       <c r="G290" s="93">
         <v>44481</v>
       </c>
@@ -35788,8 +35851,8 @@
       <c r="D291" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E291" s="130"/>
-      <c r="F291" s="130"/>
+      <c r="E291" s="138"/>
+      <c r="F291" s="138"/>
       <c r="G291" s="93">
         <v>44481</v>
       </c>
@@ -36112,10 +36175,10 @@
       <c r="D303" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E303" s="128" t="s">
+      <c r="E303" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F303" s="128" t="s">
+      <c r="F303" s="136" t="s">
         <v>691</v>
       </c>
       <c r="G303" s="93">
@@ -36139,8 +36202,8 @@
       <c r="D304" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E304" s="129"/>
-      <c r="F304" s="129"/>
+      <c r="E304" s="137"/>
+      <c r="F304" s="137"/>
       <c r="G304" s="93">
         <v>44481</v>
       </c>
@@ -36162,8 +36225,8 @@
       <c r="D305" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E305" s="129"/>
-      <c r="F305" s="129"/>
+      <c r="E305" s="137"/>
+      <c r="F305" s="137"/>
       <c r="G305" s="93">
         <v>44481</v>
       </c>
@@ -36185,8 +36248,8 @@
       <c r="D306" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E306" s="129"/>
-      <c r="F306" s="129"/>
+      <c r="E306" s="137"/>
+      <c r="F306" s="137"/>
       <c r="G306" s="93">
         <v>44481</v>
       </c>
@@ -36208,8 +36271,8 @@
       <c r="D307" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E307" s="129"/>
-      <c r="F307" s="129"/>
+      <c r="E307" s="137"/>
+      <c r="F307" s="137"/>
       <c r="G307" s="93">
         <v>44481</v>
       </c>
@@ -36231,8 +36294,8 @@
       <c r="D308" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E308" s="129"/>
-      <c r="F308" s="129"/>
+      <c r="E308" s="137"/>
+      <c r="F308" s="137"/>
       <c r="G308" s="93">
         <v>44481</v>
       </c>
@@ -36254,8 +36317,8 @@
       <c r="D309" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E309" s="129"/>
-      <c r="F309" s="129"/>
+      <c r="E309" s="137"/>
+      <c r="F309" s="137"/>
       <c r="G309" s="93">
         <v>44481</v>
       </c>
@@ -36277,8 +36340,8 @@
       <c r="D310" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E310" s="129"/>
-      <c r="F310" s="129"/>
+      <c r="E310" s="137"/>
+      <c r="F310" s="137"/>
       <c r="G310" s="93">
         <v>44481</v>
       </c>
@@ -36300,8 +36363,8 @@
       <c r="D311" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E311" s="129"/>
-      <c r="F311" s="129"/>
+      <c r="E311" s="137"/>
+      <c r="F311" s="137"/>
       <c r="G311" s="93">
         <v>44481</v>
       </c>
@@ -36323,8 +36386,8 @@
       <c r="D312" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E312" s="129"/>
-      <c r="F312" s="129"/>
+      <c r="E312" s="137"/>
+      <c r="F312" s="137"/>
       <c r="G312" s="93">
         <v>44481</v>
       </c>
@@ -36346,8 +36409,8 @@
       <c r="D313" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E313" s="130"/>
-      <c r="F313" s="130"/>
+      <c r="E313" s="138"/>
+      <c r="F313" s="138"/>
       <c r="G313" s="93">
         <v>44481</v>
       </c>
@@ -36376,7 +36439,7 @@
       <c r="E314" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="F314" s="128" t="s">
+      <c r="F314" s="136" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="93">
@@ -36403,7 +36466,7 @@
       <c r="E315" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F315" s="129"/>
+      <c r="F315" s="137"/>
       <c r="G315" s="93">
         <v>44481</v>
       </c>
@@ -36428,7 +36491,7 @@
       <c r="E316" s="99" t="s">
         <v>696</v>
       </c>
-      <c r="F316" s="129"/>
+      <c r="F316" s="137"/>
       <c r="G316" s="93">
         <v>44481</v>
       </c>
@@ -36453,7 +36516,7 @@
       <c r="E317" s="99" t="s">
         <v>697</v>
       </c>
-      <c r="F317" s="129"/>
+      <c r="F317" s="137"/>
       <c r="G317" s="93">
         <v>44481</v>
       </c>
@@ -36478,7 +36541,7 @@
       <c r="E318" s="99" t="s">
         <v>698</v>
       </c>
-      <c r="F318" s="129"/>
+      <c r="F318" s="137"/>
       <c r="G318" s="93">
         <v>44481</v>
       </c>
@@ -36503,7 +36566,7 @@
       <c r="E319" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F319" s="129"/>
+      <c r="F319" s="137"/>
       <c r="G319" s="93">
         <v>44481</v>
       </c>
@@ -36528,7 +36591,7 @@
       <c r="E320" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F320" s="129"/>
+      <c r="F320" s="137"/>
       <c r="G320" s="93">
         <v>44481</v>
       </c>
@@ -36553,7 +36616,7 @@
       <c r="E321" s="99" t="s">
         <v>701</v>
       </c>
-      <c r="F321" s="129"/>
+      <c r="F321" s="137"/>
       <c r="G321" s="93">
         <v>44481</v>
       </c>
@@ -36578,7 +36641,7 @@
       <c r="E322" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F322" s="129"/>
+      <c r="F322" s="137"/>
       <c r="G322" s="93">
         <v>44481</v>
       </c>
@@ -36603,7 +36666,7 @@
       <c r="E323" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F323" s="129"/>
+      <c r="F323" s="137"/>
       <c r="G323" s="93">
         <v>44481</v>
       </c>
@@ -36628,7 +36691,7 @@
       <c r="E324" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="F324" s="130"/>
+      <c r="F324" s="138"/>
       <c r="G324" s="93">
         <v>44481</v>
       </c>
@@ -36650,10 +36713,10 @@
       <c r="D325" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="128" t="s">
+      <c r="E325" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F325" s="128" t="s">
+      <c r="F325" s="136" t="s">
         <v>535</v>
       </c>
       <c r="G325" s="93">
@@ -36677,8 +36740,8 @@
       <c r="D326" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E326" s="129"/>
-      <c r="F326" s="129"/>
+      <c r="E326" s="137"/>
+      <c r="F326" s="137"/>
       <c r="G326" s="93">
         <v>44481</v>
       </c>
@@ -36700,8 +36763,8 @@
       <c r="D327" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E327" s="129"/>
-      <c r="F327" s="129"/>
+      <c r="E327" s="137"/>
+      <c r="F327" s="137"/>
       <c r="G327" s="93">
         <v>44481</v>
       </c>
@@ -36723,8 +36786,8 @@
       <c r="D328" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E328" s="129"/>
-      <c r="F328" s="129"/>
+      <c r="E328" s="137"/>
+      <c r="F328" s="137"/>
       <c r="G328" s="93">
         <v>44481</v>
       </c>
@@ -36746,8 +36809,8 @@
       <c r="D329" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E329" s="129"/>
-      <c r="F329" s="129"/>
+      <c r="E329" s="137"/>
+      <c r="F329" s="137"/>
       <c r="G329" s="93">
         <v>44481</v>
       </c>
@@ -36769,8 +36832,8 @@
       <c r="D330" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="129"/>
-      <c r="F330" s="129"/>
+      <c r="E330" s="137"/>
+      <c r="F330" s="137"/>
       <c r="G330" s="93">
         <v>44481</v>
       </c>
@@ -36792,8 +36855,8 @@
       <c r="D331" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E331" s="129"/>
-      <c r="F331" s="129"/>
+      <c r="E331" s="137"/>
+      <c r="F331" s="137"/>
       <c r="G331" s="93">
         <v>44481</v>
       </c>
@@ -36815,8 +36878,8 @@
       <c r="D332" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E332" s="129"/>
-      <c r="F332" s="129"/>
+      <c r="E332" s="137"/>
+      <c r="F332" s="137"/>
       <c r="G332" s="93">
         <v>44481</v>
       </c>
@@ -36838,8 +36901,8 @@
       <c r="D333" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E333" s="129"/>
-      <c r="F333" s="129"/>
+      <c r="E333" s="137"/>
+      <c r="F333" s="137"/>
       <c r="G333" s="93">
         <v>44481</v>
       </c>
@@ -36861,8 +36924,8 @@
       <c r="D334" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E334" s="129"/>
-      <c r="F334" s="129"/>
+      <c r="E334" s="137"/>
+      <c r="F334" s="137"/>
       <c r="G334" s="93">
         <v>44481</v>
       </c>
@@ -36884,8 +36947,8 @@
       <c r="D335" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E335" s="130"/>
-      <c r="F335" s="130"/>
+      <c r="E335" s="138"/>
+      <c r="F335" s="138"/>
       <c r="G335" s="93">
         <v>44481</v>
       </c>
@@ -36941,7 +37004,7 @@
       <c r="E337" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F337" s="128" t="s">
+      <c r="F337" s="136" t="s">
         <v>680</v>
       </c>
       <c r="G337" s="93">
@@ -36968,7 +37031,7 @@
       <c r="E338" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F338" s="130"/>
+      <c r="F338" s="138"/>
       <c r="G338" s="93">
         <v>44483</v>
       </c>
@@ -37128,7 +37191,7 @@
       <c r="E344" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F344" s="128" t="s">
+      <c r="F344" s="136" t="s">
         <v>684</v>
       </c>
       <c r="G344" s="93">
@@ -37155,7 +37218,7 @@
       <c r="E345" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F345" s="130"/>
+      <c r="F345" s="138"/>
       <c r="G345" s="93">
         <v>44483</v>
       </c>
@@ -37535,7 +37598,7 @@
       <c r="E359" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F359" s="128" t="s">
+      <c r="F359" s="136" t="s">
         <v>718</v>
       </c>
       <c r="G359" s="93">
@@ -37562,7 +37625,7 @@
       <c r="E360" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F360" s="130"/>
+      <c r="F360" s="138"/>
       <c r="G360" s="93">
         <v>44483</v>
       </c>
@@ -37722,7 +37785,7 @@
       <c r="E366" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F366" s="128" t="s">
+      <c r="F366" s="136" t="s">
         <v>611</v>
       </c>
       <c r="G366" s="93">
@@ -37749,7 +37812,7 @@
       <c r="E367" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F367" s="130"/>
+      <c r="F367" s="138"/>
       <c r="G367" s="93">
         <v>44483</v>
       </c>
@@ -38315,10 +38378,10 @@
       <c r="D388" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E388" s="128" t="s">
+      <c r="E388" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F388" s="128" t="s">
+      <c r="F388" s="136" t="s">
         <v>691</v>
       </c>
       <c r="G388" s="93">
@@ -38342,8 +38405,8 @@
       <c r="D389" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E389" s="129"/>
-      <c r="F389" s="129"/>
+      <c r="E389" s="137"/>
+      <c r="F389" s="137"/>
       <c r="G389" s="93">
         <v>44483</v>
       </c>
@@ -38365,8 +38428,8 @@
       <c r="D390" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E390" s="129"/>
-      <c r="F390" s="129"/>
+      <c r="E390" s="137"/>
+      <c r="F390" s="137"/>
       <c r="G390" s="93">
         <v>44483</v>
       </c>
@@ -38388,8 +38451,8 @@
       <c r="D391" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E391" s="129"/>
-      <c r="F391" s="129"/>
+      <c r="E391" s="137"/>
+      <c r="F391" s="137"/>
       <c r="G391" s="93">
         <v>44483</v>
       </c>
@@ -38411,8 +38474,8 @@
       <c r="D392" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E392" s="129"/>
-      <c r="F392" s="129"/>
+      <c r="E392" s="137"/>
+      <c r="F392" s="137"/>
       <c r="G392" s="93">
         <v>44483</v>
       </c>
@@ -38434,8 +38497,8 @@
       <c r="D393" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E393" s="129"/>
-      <c r="F393" s="129"/>
+      <c r="E393" s="137"/>
+      <c r="F393" s="137"/>
       <c r="G393" s="93">
         <v>44483</v>
       </c>
@@ -38457,8 +38520,8 @@
       <c r="D394" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E394" s="129"/>
-      <c r="F394" s="129"/>
+      <c r="E394" s="137"/>
+      <c r="F394" s="137"/>
       <c r="G394" s="93">
         <v>44483</v>
       </c>
@@ -38480,8 +38543,8 @@
       <c r="D395" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E395" s="130"/>
-      <c r="F395" s="130"/>
+      <c r="E395" s="138"/>
+      <c r="F395" s="138"/>
       <c r="G395" s="93">
         <v>44483</v>
       </c>
@@ -38530,10 +38593,10 @@
       <c r="D397" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="E397" s="157" t="s">
+      <c r="E397" s="153" t="s">
         <v>747</v>
       </c>
-      <c r="F397" s="128" t="s">
+      <c r="F397" s="136" t="s">
         <v>748</v>
       </c>
       <c r="G397" s="93">
@@ -38557,8 +38620,8 @@
       <c r="D398" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E398" s="155"/>
-      <c r="F398" s="129"/>
+      <c r="E398" s="154"/>
+      <c r="F398" s="137"/>
       <c r="G398" s="93">
         <v>44483</v>
       </c>
@@ -38580,8 +38643,8 @@
       <c r="D399" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E399" s="155"/>
-      <c r="F399" s="129"/>
+      <c r="E399" s="154"/>
+      <c r="F399" s="137"/>
       <c r="G399" s="93">
         <v>44483</v>
       </c>
@@ -38603,8 +38666,8 @@
       <c r="D400" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E400" s="155"/>
-      <c r="F400" s="129"/>
+      <c r="E400" s="154"/>
+      <c r="F400" s="137"/>
       <c r="G400" s="93">
         <v>44483</v>
       </c>
@@ -38626,8 +38689,8 @@
       <c r="D401" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E401" s="155"/>
-      <c r="F401" s="129"/>
+      <c r="E401" s="154"/>
+      <c r="F401" s="137"/>
       <c r="G401" s="93">
         <v>44483</v>
       </c>
@@ -38649,8 +38712,8 @@
       <c r="D402" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E402" s="156"/>
-      <c r="F402" s="130"/>
+      <c r="E402" s="155"/>
+      <c r="F402" s="138"/>
       <c r="G402" s="93">
         <v>44483</v>
       </c>
@@ -38733,7 +38796,7 @@
       <c r="E405" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F405" s="128" t="s">
+      <c r="F405" s="136" t="s">
         <v>742</v>
       </c>
       <c r="G405" s="93">
@@ -38760,7 +38823,7 @@
       <c r="E406" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F406" s="130"/>
+      <c r="F406" s="138"/>
       <c r="G406" s="93">
         <v>44483</v>
       </c>
@@ -38812,7 +38875,7 @@
       <c r="E408" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F408" s="128" t="s">
+      <c r="F408" s="136" t="s">
         <v>744</v>
       </c>
       <c r="G408" s="93">
@@ -38839,7 +38902,7 @@
       <c r="E409" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F409" s="130"/>
+      <c r="F409" s="138"/>
       <c r="G409" s="93">
         <v>44483</v>
       </c>
@@ -38888,10 +38951,10 @@
       <c r="D411" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E411" s="128" t="s">
+      <c r="E411" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="F411" s="128" t="s">
+      <c r="F411" s="136" t="s">
         <v>535</v>
       </c>
       <c r="G411" s="93">
@@ -38915,8 +38978,8 @@
       <c r="D412" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E412" s="129"/>
-      <c r="F412" s="129"/>
+      <c r="E412" s="137"/>
+      <c r="F412" s="137"/>
       <c r="G412" s="93">
         <v>44483</v>
       </c>
@@ -38938,8 +39001,8 @@
       <c r="D413" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E413" s="129"/>
-      <c r="F413" s="129"/>
+      <c r="E413" s="137"/>
+      <c r="F413" s="137"/>
       <c r="G413" s="93">
         <v>44483</v>
       </c>
@@ -38961,8 +39024,8 @@
       <c r="D414" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E414" s="129"/>
-      <c r="F414" s="129"/>
+      <c r="E414" s="137"/>
+      <c r="F414" s="137"/>
       <c r="G414" s="93">
         <v>44483</v>
       </c>
@@ -38984,8 +39047,8 @@
       <c r="D415" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E415" s="129"/>
-      <c r="F415" s="129"/>
+      <c r="E415" s="137"/>
+      <c r="F415" s="137"/>
       <c r="G415" s="93">
         <v>44483</v>
       </c>
@@ -39007,8 +39070,8 @@
       <c r="D416" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E416" s="129"/>
-      <c r="F416" s="129"/>
+      <c r="E416" s="137"/>
+      <c r="F416" s="137"/>
       <c r="G416" s="93">
         <v>44483</v>
       </c>
@@ -39030,8 +39093,8 @@
       <c r="D417" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E417" s="129"/>
-      <c r="F417" s="129"/>
+      <c r="E417" s="137"/>
+      <c r="F417" s="137"/>
       <c r="G417" s="93">
         <v>44483</v>
       </c>
@@ -39053,8 +39116,8 @@
       <c r="D418" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E418" s="130"/>
-      <c r="F418" s="130"/>
+      <c r="E418" s="138"/>
+      <c r="F418" s="138"/>
       <c r="G418" s="93">
         <v>44483</v>
       </c>
@@ -39103,10 +39166,10 @@
       <c r="D420" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E420" s="157" t="s">
+      <c r="E420" s="153" t="s">
         <v>747</v>
       </c>
-      <c r="F420" s="128" t="s">
+      <c r="F420" s="136" t="s">
         <v>611</v>
       </c>
       <c r="G420" s="93">
@@ -39130,8 +39193,8 @@
       <c r="D421" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E421" s="155"/>
-      <c r="F421" s="129"/>
+      <c r="E421" s="154"/>
+      <c r="F421" s="137"/>
       <c r="G421" s="93">
         <v>44483</v>
       </c>
@@ -39153,8 +39216,8 @@
       <c r="D422" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E422" s="155"/>
-      <c r="F422" s="129"/>
+      <c r="E422" s="154"/>
+      <c r="F422" s="137"/>
       <c r="G422" s="93">
         <v>44483</v>
       </c>
@@ -39176,8 +39239,8 @@
       <c r="D423" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E423" s="155"/>
-      <c r="F423" s="129"/>
+      <c r="E423" s="154"/>
+      <c r="F423" s="137"/>
       <c r="G423" s="93">
         <v>44483</v>
       </c>
@@ -39199,8 +39262,8 @@
       <c r="D424" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E424" s="155"/>
-      <c r="F424" s="129"/>
+      <c r="E424" s="154"/>
+      <c r="F424" s="137"/>
       <c r="G424" s="93">
         <v>44483</v>
       </c>
@@ -39222,8 +39285,8 @@
       <c r="D425" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E425" s="156"/>
-      <c r="F425" s="130"/>
+      <c r="E425" s="155"/>
+      <c r="F425" s="138"/>
       <c r="G425" s="93">
         <v>44483</v>
       </c>
@@ -39272,13 +39335,13 @@
         <v>423</v>
       </c>
       <c r="B427" s="72"/>
-      <c r="C427" s="128" t="s">
+      <c r="C427" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D427" s="128" t="s">
+      <c r="D427" s="136" t="s">
         <v>657</v>
       </c>
-      <c r="E427" s="128" t="s">
+      <c r="E427" s="136" t="s">
         <v>774</v>
       </c>
       <c r="F427" s="91" t="s">
@@ -39301,9 +39364,9 @@
         <v>424</v>
       </c>
       <c r="B428" s="72"/>
-      <c r="C428" s="129"/>
-      <c r="D428" s="129"/>
-      <c r="E428" s="129"/>
+      <c r="C428" s="137"/>
+      <c r="D428" s="137"/>
+      <c r="E428" s="137"/>
       <c r="F428" s="91" t="s">
         <v>779</v>
       </c>
@@ -39324,9 +39387,9 @@
         <v>425</v>
       </c>
       <c r="B429" s="72"/>
-      <c r="C429" s="129"/>
-      <c r="D429" s="129"/>
-      <c r="E429" s="129"/>
+      <c r="C429" s="137"/>
+      <c r="D429" s="137"/>
+      <c r="E429" s="137"/>
       <c r="F429" s="91" t="s">
         <v>780</v>
       </c>
@@ -39347,9 +39410,9 @@
         <v>426</v>
       </c>
       <c r="B430" s="72"/>
-      <c r="C430" s="129"/>
-      <c r="D430" s="129"/>
-      <c r="E430" s="129"/>
+      <c r="C430" s="137"/>
+      <c r="D430" s="137"/>
+      <c r="E430" s="137"/>
       <c r="F430" s="91" t="s">
         <v>781</v>
       </c>
@@ -39370,9 +39433,9 @@
         <v>427</v>
       </c>
       <c r="B431" s="72"/>
-      <c r="C431" s="129"/>
-      <c r="D431" s="129"/>
-      <c r="E431" s="129"/>
+      <c r="C431" s="137"/>
+      <c r="D431" s="137"/>
+      <c r="E431" s="137"/>
       <c r="F431" s="91" t="s">
         <v>782</v>
       </c>
@@ -39393,9 +39456,9 @@
         <v>428</v>
       </c>
       <c r="B432" s="72"/>
-      <c r="C432" s="129"/>
-      <c r="D432" s="129"/>
-      <c r="E432" s="129"/>
+      <c r="C432" s="137"/>
+      <c r="D432" s="137"/>
+      <c r="E432" s="137"/>
       <c r="F432" s="31" t="s">
         <v>776</v>
       </c>
@@ -39416,9 +39479,9 @@
         <v>429</v>
       </c>
       <c r="B433" s="72"/>
-      <c r="C433" s="129"/>
-      <c r="D433" s="129"/>
-      <c r="E433" s="129"/>
+      <c r="C433" s="137"/>
+      <c r="D433" s="137"/>
+      <c r="E433" s="137"/>
       <c r="F433" s="31" t="s">
         <v>777</v>
       </c>
@@ -39439,9 +39502,9 @@
         <v>430</v>
       </c>
       <c r="B434" s="72"/>
-      <c r="C434" s="130"/>
-      <c r="D434" s="130"/>
-      <c r="E434" s="130"/>
+      <c r="C434" s="138"/>
+      <c r="D434" s="138"/>
+      <c r="E434" s="138"/>
       <c r="F434" s="31" t="s">
         <v>760</v>
       </c>
@@ -39464,10 +39527,10 @@
       <c r="B435" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C435" s="128" t="s">
+      <c r="C435" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D435" s="157" t="s">
+      <c r="D435" s="153" t="s">
         <v>552</v>
       </c>
       <c r="E435" s="91" t="s">
@@ -39493,12 +39556,12 @@
         <v>432</v>
       </c>
       <c r="B436" s="72"/>
-      <c r="C436" s="129"/>
-      <c r="D436" s="155"/>
+      <c r="C436" s="137"/>
+      <c r="D436" s="154"/>
       <c r="E436" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="F436" s="135"/>
+      <c r="F436" s="139"/>
       <c r="G436" s="93">
         <v>44504</v>
       </c>
@@ -39516,12 +39579,12 @@
         <v>433</v>
       </c>
       <c r="B437" s="72"/>
-      <c r="C437" s="129"/>
-      <c r="D437" s="155"/>
+      <c r="C437" s="137"/>
+      <c r="D437" s="154"/>
       <c r="E437" s="91" t="s">
         <v>786</v>
       </c>
-      <c r="F437" s="135"/>
+      <c r="F437" s="139"/>
       <c r="G437" s="93">
         <v>44504</v>
       </c>
@@ -39539,12 +39602,12 @@
         <v>434</v>
       </c>
       <c r="B438" s="72"/>
-      <c r="C438" s="129"/>
-      <c r="D438" s="155"/>
+      <c r="C438" s="137"/>
+      <c r="D438" s="154"/>
       <c r="E438" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="F438" s="135"/>
+      <c r="F438" s="139"/>
       <c r="G438" s="93">
         <v>44504</v>
       </c>
@@ -39562,12 +39625,12 @@
         <v>435</v>
       </c>
       <c r="B439" s="72"/>
-      <c r="C439" s="129"/>
-      <c r="D439" s="155"/>
+      <c r="C439" s="137"/>
+      <c r="D439" s="154"/>
       <c r="E439" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="F439" s="136"/>
+      <c r="F439" s="135"/>
       <c r="G439" s="93">
         <v>44504</v>
       </c>
@@ -39585,8 +39648,8 @@
         <v>436</v>
       </c>
       <c r="B440" s="72"/>
-      <c r="C440" s="129"/>
-      <c r="D440" s="155"/>
+      <c r="C440" s="137"/>
+      <c r="D440" s="154"/>
       <c r="E440" s="31" t="s">
         <v>789</v>
       </c>
@@ -39610,12 +39673,12 @@
         <v>437</v>
       </c>
       <c r="B441" s="72"/>
-      <c r="C441" s="130"/>
-      <c r="D441" s="156"/>
+      <c r="C441" s="138"/>
+      <c r="D441" s="155"/>
       <c r="E441" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="F441" s="136"/>
+      <c r="F441" s="135"/>
       <c r="G441" s="93">
         <v>44504</v>
       </c>
@@ -39635,13 +39698,13 @@
       <c r="B442" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="C442" s="128" t="s">
+      <c r="C442" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D442" s="157" t="s">
+      <c r="D442" s="153" t="s">
         <v>552</v>
       </c>
-      <c r="E442" s="128" t="s">
+      <c r="E442" s="136" t="s">
         <v>765</v>
       </c>
       <c r="F442" s="91" t="s">
@@ -39664,9 +39727,9 @@
         <v>439</v>
       </c>
       <c r="B443" s="72"/>
-      <c r="C443" s="129"/>
-      <c r="D443" s="155"/>
-      <c r="E443" s="129"/>
+      <c r="C443" s="137"/>
+      <c r="D443" s="154"/>
+      <c r="E443" s="137"/>
       <c r="F443" s="31" t="s">
         <v>795</v>
       </c>
@@ -39687,9 +39750,9 @@
         <v>440</v>
       </c>
       <c r="B444" s="72"/>
-      <c r="C444" s="129"/>
-      <c r="D444" s="155"/>
-      <c r="E444" s="129"/>
+      <c r="C444" s="137"/>
+      <c r="D444" s="154"/>
+      <c r="E444" s="137"/>
       <c r="F444" s="31" t="s">
         <v>796</v>
       </c>
@@ -39710,9 +39773,9 @@
         <v>441</v>
       </c>
       <c r="B445" s="72"/>
-      <c r="C445" s="129"/>
-      <c r="D445" s="155"/>
-      <c r="E445" s="129"/>
+      <c r="C445" s="137"/>
+      <c r="D445" s="154"/>
+      <c r="E445" s="137"/>
       <c r="F445" s="31" t="s">
         <v>797</v>
       </c>
@@ -39733,9 +39796,9 @@
         <v>442</v>
       </c>
       <c r="B446" s="72"/>
-      <c r="C446" s="129"/>
-      <c r="D446" s="155"/>
-      <c r="E446" s="129"/>
+      <c r="C446" s="137"/>
+      <c r="D446" s="154"/>
+      <c r="E446" s="137"/>
       <c r="F446" s="31" t="s">
         <v>798</v>
       </c>
@@ -39756,9 +39819,9 @@
         <v>443</v>
       </c>
       <c r="B447" s="72"/>
-      <c r="C447" s="129"/>
-      <c r="D447" s="155"/>
-      <c r="E447" s="129"/>
+      <c r="C447" s="137"/>
+      <c r="D447" s="154"/>
+      <c r="E447" s="137"/>
       <c r="F447" s="48" t="s">
         <v>792</v>
       </c>
@@ -39779,9 +39842,9 @@
         <v>444</v>
       </c>
       <c r="B448" s="72"/>
-      <c r="C448" s="130"/>
-      <c r="D448" s="156"/>
-      <c r="E448" s="129"/>
+      <c r="C448" s="138"/>
+      <c r="D448" s="155"/>
+      <c r="E448" s="137"/>
       <c r="F448" s="103" t="s">
         <v>793</v>
       </c>
@@ -40046,12 +40109,61 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="C435:C441"/>
-    <mergeCell ref="D435:D441"/>
-    <mergeCell ref="C442:C448"/>
-    <mergeCell ref="D442:D448"/>
-    <mergeCell ref="E442:E448"/>
+    <mergeCell ref="F408:F409"/>
+    <mergeCell ref="F397:F402"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="F8:F19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D41"/>
+    <mergeCell ref="F42:F53"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E259:E269"/>
+    <mergeCell ref="F259:F269"/>
+    <mergeCell ref="E281:E291"/>
+    <mergeCell ref="F270:F280"/>
+    <mergeCell ref="F281:F291"/>
+    <mergeCell ref="F325:F335"/>
+    <mergeCell ref="E325:E335"/>
+    <mergeCell ref="F303:F313"/>
+    <mergeCell ref="E303:E313"/>
+    <mergeCell ref="F314:F324"/>
     <mergeCell ref="E427:E434"/>
     <mergeCell ref="D427:D434"/>
     <mergeCell ref="C427:C434"/>
@@ -40068,61 +40180,12 @@
     <mergeCell ref="E420:E425"/>
     <mergeCell ref="F420:F425"/>
     <mergeCell ref="F405:F406"/>
-    <mergeCell ref="F325:F335"/>
-    <mergeCell ref="E325:E335"/>
-    <mergeCell ref="F303:F313"/>
-    <mergeCell ref="E303:E313"/>
-    <mergeCell ref="F314:F324"/>
-    <mergeCell ref="E259:E269"/>
-    <mergeCell ref="F259:F269"/>
-    <mergeCell ref="E281:E291"/>
-    <mergeCell ref="F270:F280"/>
-    <mergeCell ref="F281:F291"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="F408:F409"/>
-    <mergeCell ref="F397:F402"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="C435:C441"/>
+    <mergeCell ref="D435:D441"/>
+    <mergeCell ref="C442:C448"/>
+    <mergeCell ref="D442:D448"/>
+    <mergeCell ref="E442:E448"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -40133,10 +40196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1233DE56-5C6E-461C-89EB-5672A18D2668}">
-  <dimension ref="A1:L290"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="J238" sqref="J238"/>
+      <selection activeCell="J235" sqref="J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -40153,11 +40216,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="170" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -40179,9 +40242,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -40243,13 +40306,13 @@
       <c r="C5" s="72" t="s">
         <v>800</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="171" t="s">
         <v>832</v>
       </c>
       <c r="E5" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="169" t="s">
         <v>830</v>
       </c>
       <c r="G5" s="60">
@@ -40272,11 +40335,11 @@
       <c r="C6" s="72" t="s">
         <v>801</v>
       </c>
-      <c r="D6" s="167"/>
+      <c r="D6" s="172"/>
       <c r="E6" s="99" t="s">
         <v>829</v>
       </c>
-      <c r="F6" s="135"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="68">
         <v>44512</v>
       </c>
@@ -40299,11 +40362,11 @@
       <c r="C7" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="D7" s="167"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="139"/>
       <c r="G7" s="60">
         <v>44512</v>
       </c>
@@ -40324,11 +40387,11 @@
       <c r="C8" s="72" t="s">
         <v>803</v>
       </c>
-      <c r="D8" s="167"/>
+      <c r="D8" s="172"/>
       <c r="E8" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="F8" s="135"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="68">
         <v>44512</v>
       </c>
@@ -40349,11 +40412,11 @@
       <c r="C9" s="72" t="s">
         <v>804</v>
       </c>
-      <c r="D9" s="167"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="F9" s="135"/>
+      <c r="F9" s="139"/>
       <c r="G9" s="60">
         <v>44512</v>
       </c>
@@ -40374,11 +40437,11 @@
       <c r="C10" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="172"/>
       <c r="E10" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="F10" s="135"/>
+      <c r="F10" s="139"/>
       <c r="G10" s="68">
         <v>44512</v>
       </c>
@@ -40399,11 +40462,11 @@
       <c r="C11" s="72" t="s">
         <v>806</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="172"/>
       <c r="E11" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="F11" s="135"/>
+      <c r="F11" s="139"/>
       <c r="G11" s="60">
         <v>44512</v>
       </c>
@@ -40424,11 +40487,11 @@
       <c r="C12" s="72" t="s">
         <v>807</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="172"/>
       <c r="E12" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="F12" s="135"/>
+      <c r="F12" s="139"/>
       <c r="G12" s="68">
         <v>44512</v>
       </c>
@@ -40449,11 +40512,11 @@
       <c r="C13" s="72" t="s">
         <v>808</v>
       </c>
-      <c r="D13" s="167"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="F13" s="135"/>
+      <c r="F13" s="139"/>
       <c r="G13" s="60">
         <v>44512</v>
       </c>
@@ -40474,11 +40537,11 @@
       <c r="C14" s="72" t="s">
         <v>809</v>
       </c>
-      <c r="D14" s="167"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="F14" s="135"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="68">
         <v>44512</v>
       </c>
@@ -40499,11 +40562,11 @@
       <c r="C15" s="72" t="s">
         <v>810</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="172"/>
       <c r="E15" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="F15" s="135"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="60">
         <v>44512</v>
       </c>
@@ -40524,11 +40587,11 @@
       <c r="C16" s="72" t="s">
         <v>811</v>
       </c>
-      <c r="D16" s="167"/>
+      <c r="D16" s="172"/>
       <c r="E16" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="F16" s="136"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="68">
         <v>44512</v>
       </c>
@@ -40549,7 +40612,7 @@
       <c r="C17" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="99" t="s">
         <v>847</v>
       </c>
@@ -40578,7 +40641,7 @@
       <c r="C18" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="172"/>
       <c r="E18" s="37" t="s">
         <v>848</v>
       </c>
@@ -40605,7 +40668,7 @@
       <c r="C19" s="72" t="s">
         <v>835</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="99" t="s">
         <v>849</v>
       </c>
@@ -40632,11 +40695,11 @@
       <c r="C20" s="72" t="s">
         <v>838</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="172"/>
       <c r="E20" s="99" t="s">
         <v>850</v>
       </c>
-      <c r="F20" s="135"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="68">
         <v>44512</v>
       </c>
@@ -40657,11 +40720,11 @@
       <c r="C21" s="72" t="s">
         <v>839</v>
       </c>
-      <c r="D21" s="167"/>
+      <c r="D21" s="172"/>
       <c r="E21" s="99" t="s">
         <v>851</v>
       </c>
-      <c r="F21" s="135"/>
+      <c r="F21" s="139"/>
       <c r="G21" s="60">
         <v>44512</v>
       </c>
@@ -40682,11 +40745,11 @@
       <c r="C22" s="72" t="s">
         <v>837</v>
       </c>
-      <c r="D22" s="167"/>
+      <c r="D22" s="172"/>
       <c r="E22" s="99" t="s">
         <v>852</v>
       </c>
-      <c r="F22" s="135"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="68">
         <v>44512</v>
       </c>
@@ -40709,11 +40772,11 @@
       <c r="C23" s="72" t="s">
         <v>840</v>
       </c>
-      <c r="D23" s="167"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="99" t="s">
         <v>853</v>
       </c>
-      <c r="F23" s="135"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="60">
         <v>44512</v>
       </c>
@@ -40734,11 +40797,11 @@
       <c r="C24" s="72" t="s">
         <v>841</v>
       </c>
-      <c r="D24" s="167"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="99" t="s">
         <v>854</v>
       </c>
-      <c r="F24" s="135"/>
+      <c r="F24" s="139"/>
       <c r="G24" s="68">
         <v>44512</v>
       </c>
@@ -40759,11 +40822,11 @@
       <c r="C25" s="72" t="s">
         <v>842</v>
       </c>
-      <c r="D25" s="167"/>
+      <c r="D25" s="172"/>
       <c r="E25" s="99" t="s">
         <v>855</v>
       </c>
-      <c r="F25" s="135"/>
+      <c r="F25" s="139"/>
       <c r="G25" s="60">
         <v>44512</v>
       </c>
@@ -40784,11 +40847,11 @@
       <c r="C26" s="72" t="s">
         <v>843</v>
       </c>
-      <c r="D26" s="167"/>
+      <c r="D26" s="172"/>
       <c r="E26" s="99" t="s">
         <v>856</v>
       </c>
-      <c r="F26" s="135"/>
+      <c r="F26" s="139"/>
       <c r="G26" s="68">
         <v>44512</v>
       </c>
@@ -40809,11 +40872,11 @@
       <c r="C27" s="72" t="s">
         <v>844</v>
       </c>
-      <c r="D27" s="167"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="99" t="s">
         <v>857</v>
       </c>
-      <c r="F27" s="135"/>
+      <c r="F27" s="139"/>
       <c r="G27" s="60">
         <v>44512</v>
       </c>
@@ -40834,11 +40897,11 @@
       <c r="C28" s="72" t="s">
         <v>845</v>
       </c>
-      <c r="D28" s="167"/>
+      <c r="D28" s="172"/>
       <c r="E28" s="99" t="s">
         <v>858</v>
       </c>
-      <c r="F28" s="135"/>
+      <c r="F28" s="139"/>
       <c r="G28" s="68">
         <v>44512</v>
       </c>
@@ -40859,11 +40922,11 @@
       <c r="C29" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="D29" s="167"/>
+      <c r="D29" s="172"/>
       <c r="E29" s="99" t="s">
         <v>859</v>
       </c>
-      <c r="F29" s="136"/>
+      <c r="F29" s="135"/>
       <c r="G29" s="60">
         <v>44512</v>
       </c>
@@ -40886,7 +40949,7 @@
       <c r="C30" s="31" t="s">
         <v>862</v>
       </c>
-      <c r="D30" s="167"/>
+      <c r="D30" s="172"/>
       <c r="E30" s="37" t="s">
         <v>861</v>
       </c>
@@ -40913,7 +40976,7 @@
       <c r="C31" s="72" t="s">
         <v>837</v>
       </c>
-      <c r="D31" s="167"/>
+      <c r="D31" s="172"/>
       <c r="E31" s="99" t="s">
         <v>863</v>
       </c>
@@ -40940,7 +41003,7 @@
       <c r="C32" s="72" t="s">
         <v>838</v>
       </c>
-      <c r="D32" s="167"/>
+      <c r="D32" s="172"/>
       <c r="E32" s="99" t="s">
         <v>864</v>
       </c>
@@ -40967,7 +41030,7 @@
       <c r="C33" s="72" t="s">
         <v>839</v>
       </c>
-      <c r="D33" s="167"/>
+      <c r="D33" s="172"/>
       <c r="E33" s="99" t="s">
         <v>865</v>
       </c>
@@ -40994,7 +41057,7 @@
       <c r="C34" s="72" t="s">
         <v>841</v>
       </c>
-      <c r="D34" s="167"/>
+      <c r="D34" s="172"/>
       <c r="E34" s="99" t="s">
         <v>866</v>
       </c>
@@ -41021,11 +41084,11 @@
       <c r="C35" s="72" t="s">
         <v>842</v>
       </c>
-      <c r="D35" s="167"/>
+      <c r="D35" s="172"/>
       <c r="E35" s="99" t="s">
         <v>867</v>
       </c>
-      <c r="F35" s="136"/>
+      <c r="F35" s="135"/>
       <c r="G35" s="60">
         <v>44512</v>
       </c>
@@ -41046,7 +41109,7 @@
       <c r="C36" s="72" t="s">
         <v>843</v>
       </c>
-      <c r="D36" s="167"/>
+      <c r="D36" s="172"/>
       <c r="E36" s="99" t="s">
         <v>868</v>
       </c>
@@ -41073,7 +41136,7 @@
       <c r="C37" s="72" t="s">
         <v>844</v>
       </c>
-      <c r="D37" s="167"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="99" t="s">
         <v>869</v>
       </c>
@@ -41100,11 +41163,11 @@
       <c r="C38" s="72" t="s">
         <v>845</v>
       </c>
-      <c r="D38" s="167"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="F38" s="136"/>
+      <c r="F38" s="135"/>
       <c r="G38" s="68">
         <v>44512</v>
       </c>
@@ -41125,7 +41188,7 @@
       <c r="C39" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="D39" s="168"/>
+      <c r="D39" s="173"/>
       <c r="E39" s="99" t="s">
         <v>871</v>
       </c>
@@ -41178,12 +41241,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="48"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="F41" s="135"/>
+      <c r="F41" s="139"/>
       <c r="G41" s="60">
         <v>44512</v>
       </c>
@@ -41201,12 +41264,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="48"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="F42" s="135"/>
+      <c r="F42" s="139"/>
       <c r="G42" s="68">
         <v>44512</v>
       </c>
@@ -41224,12 +41287,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="48"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="F43" s="135"/>
+      <c r="F43" s="139"/>
       <c r="G43" s="60">
         <v>44512</v>
       </c>
@@ -41247,12 +41310,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="48"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="135"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="F44" s="135"/>
+      <c r="F44" s="139"/>
       <c r="G44" s="68">
         <v>44512</v>
       </c>
@@ -41270,12 +41333,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="48"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="135"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
       <c r="E45" s="37" t="s">
         <v>881</v>
       </c>
-      <c r="F45" s="135"/>
+      <c r="F45" s="139"/>
       <c r="G45" s="60">
         <v>44512</v>
       </c>
@@ -41293,12 +41356,12 @@
         <v>42</v>
       </c>
       <c r="B46" s="48"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
       <c r="E46" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="F46" s="136"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="68">
         <v>44512</v>
       </c>
@@ -41316,8 +41379,8 @@
         <v>43</v>
       </c>
       <c r="B47" s="48"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="37" t="s">
         <v>883</v>
       </c>
@@ -41343,12 +41406,12 @@
         <v>44</v>
       </c>
       <c r="B48" s="48"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="37" t="s">
         <v>884</v>
       </c>
-      <c r="F48" s="136"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="68">
         <v>44512</v>
       </c>
@@ -41368,10 +41431,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="48"/>
-      <c r="C49" s="161" t="s">
+      <c r="C49" s="165" t="s">
         <v>954</v>
       </c>
-      <c r="D49" s="158" t="s">
+      <c r="D49" s="167" t="s">
         <v>938</v>
       </c>
       <c r="E49" s="31" t="s">
@@ -41397,12 +41460,12 @@
         <v>46</v>
       </c>
       <c r="B50" s="48"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="159"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="31" t="s">
         <v>933</v>
       </c>
-      <c r="F50" s="135"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="68">
         <v>44512</v>
       </c>
@@ -41420,12 +41483,12 @@
         <v>47</v>
       </c>
       <c r="B51" s="48"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="159"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="31" t="s">
         <v>934</v>
       </c>
-      <c r="F51" s="135"/>
+      <c r="F51" s="139"/>
       <c r="G51" s="60">
         <v>44512</v>
       </c>
@@ -41443,12 +41506,12 @@
         <v>48</v>
       </c>
       <c r="B52" s="48"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="159"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="31" t="s">
         <v>935</v>
       </c>
-      <c r="F52" s="135"/>
+      <c r="F52" s="139"/>
       <c r="G52" s="68">
         <v>44512</v>
       </c>
@@ -41466,12 +41529,12 @@
         <v>49</v>
       </c>
       <c r="B53" s="48"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="159"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="31" t="s">
         <v>936</v>
       </c>
-      <c r="F53" s="135"/>
+      <c r="F53" s="139"/>
       <c r="G53" s="60">
         <v>44512</v>
       </c>
@@ -41489,12 +41552,12 @@
         <v>50</v>
       </c>
       <c r="B54" s="48"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="159"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="168"/>
       <c r="E54" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="F54" s="169" t="s">
+      <c r="F54" s="129" t="s">
         <v>953</v>
       </c>
       <c r="G54" s="68">
@@ -41514,8 +41577,8 @@
         <v>51</v>
       </c>
       <c r="B55" s="48"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="159"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="168"/>
       <c r="E55" s="31" t="s">
         <v>929</v>
       </c>
@@ -41539,12 +41602,12 @@
         <v>52</v>
       </c>
       <c r="B56" s="48"/>
-      <c r="C56" s="162"/>
-      <c r="D56" s="159"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="168"/>
       <c r="E56" s="31" t="s">
         <v>930</v>
       </c>
-      <c r="F56" s="135"/>
+      <c r="F56" s="139"/>
       <c r="G56" s="68">
         <v>44512</v>
       </c>
@@ -41562,12 +41625,12 @@
         <v>53</v>
       </c>
       <c r="B57" s="48"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="159"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="168"/>
       <c r="E57" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="F57" s="135"/>
+      <c r="F57" s="139"/>
       <c r="G57" s="60">
         <v>44512</v>
       </c>
@@ -41585,12 +41648,12 @@
         <v>54</v>
       </c>
       <c r="B58" s="48"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="159"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="168"/>
       <c r="E58" s="31" t="s">
         <v>931</v>
       </c>
-      <c r="F58" s="135"/>
+      <c r="F58" s="139"/>
       <c r="G58" s="68">
         <v>44512</v>
       </c>
@@ -41608,12 +41671,12 @@
         <v>55</v>
       </c>
       <c r="B59" s="48"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="159"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="168"/>
       <c r="E59" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="F59" s="135"/>
+      <c r="F59" s="139"/>
       <c r="G59" s="60">
         <v>44512</v>
       </c>
@@ -41631,12 +41694,12 @@
         <v>56</v>
       </c>
       <c r="B60" s="48"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="160"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="174"/>
       <c r="E60" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="136"/>
+      <c r="F60" s="135"/>
       <c r="G60" s="68">
         <v>44512</v>
       </c>
@@ -41686,7 +41749,7 @@
       <c r="C62" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="D62" s="135"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="37" t="s">
         <v>977</v>
       </c>
@@ -41713,7 +41776,7 @@
       <c r="C63" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="D63" s="136"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="37" t="s">
         <v>159</v>
       </c>
@@ -41737,10 +41800,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="48"/>
-      <c r="C64" s="161" t="s">
+      <c r="C64" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="158" t="s">
+      <c r="D64" s="167" t="s">
         <v>939</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -41766,8 +41829,8 @@
         <v>61</v>
       </c>
       <c r="B65" s="48"/>
-      <c r="C65" s="162"/>
-      <c r="D65" s="159"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="168"/>
       <c r="E65" s="31" t="s">
         <v>941</v>
       </c>
@@ -41791,8 +41854,8 @@
         <v>62</v>
       </c>
       <c r="B66" s="48"/>
-      <c r="C66" s="162"/>
-      <c r="D66" s="159"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="168"/>
       <c r="E66" s="31" t="s">
         <v>942</v>
       </c>
@@ -41816,8 +41879,8 @@
         <v>63</v>
       </c>
       <c r="B67" s="48"/>
-      <c r="C67" s="162"/>
-      <c r="D67" s="159"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="168"/>
       <c r="E67" s="31" t="s">
         <v>943</v>
       </c>
@@ -41841,8 +41904,8 @@
         <v>64</v>
       </c>
       <c r="B68" s="48"/>
-      <c r="C68" s="162"/>
-      <c r="D68" s="159"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="31" t="s">
         <v>944</v>
       </c>
@@ -41866,8 +41929,8 @@
         <v>65</v>
       </c>
       <c r="B69" s="48"/>
-      <c r="C69" s="162"/>
-      <c r="D69" s="159"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="168"/>
       <c r="E69" s="31" t="s">
         <v>945</v>
       </c>
@@ -41891,8 +41954,8 @@
         <v>66</v>
       </c>
       <c r="B70" s="48"/>
-      <c r="C70" s="162"/>
-      <c r="D70" s="159"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="168"/>
       <c r="E70" s="31" t="s">
         <v>946</v>
       </c>
@@ -41916,8 +41979,8 @@
         <v>67</v>
       </c>
       <c r="B71" s="48"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="159"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="168"/>
       <c r="E71" s="31" t="s">
         <v>947</v>
       </c>
@@ -41941,8 +42004,8 @@
         <v>68</v>
       </c>
       <c r="B72" s="48"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="159"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="168"/>
       <c r="E72" s="31" t="s">
         <v>950</v>
       </c>
@@ -41966,8 +42029,8 @@
         <v>69</v>
       </c>
       <c r="B73" s="48"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="159"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="168"/>
       <c r="E73" s="31" t="s">
         <v>949</v>
       </c>
@@ -41997,7 +42060,7 @@
       <c r="D74" s="134" t="s">
         <v>956</v>
       </c>
-      <c r="E74" s="128" t="s">
+      <c r="E74" s="136" t="s">
         <v>223</v>
       </c>
       <c r="F74" s="127" t="s">
@@ -42021,9 +42084,9 @@
         <v>71</v>
       </c>
       <c r="B75" s="48"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="129"/>
+      <c r="C75" s="151"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="137"/>
       <c r="F75" s="127" t="s">
         <v>960</v>
       </c>
@@ -42045,9 +42108,9 @@
         <v>72</v>
       </c>
       <c r="B76" s="48"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="129"/>
+      <c r="C76" s="151"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="137"/>
       <c r="F76" s="127" t="s">
         <v>961</v>
       </c>
@@ -42069,9 +42132,9 @@
         <v>73</v>
       </c>
       <c r="B77" s="48"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="132"/>
-      <c r="E77" s="129"/>
+      <c r="C77" s="151"/>
+      <c r="D77" s="151"/>
+      <c r="E77" s="137"/>
       <c r="F77" s="127" t="s">
         <v>962</v>
       </c>
@@ -42093,9 +42156,9 @@
         <v>74</v>
       </c>
       <c r="B78" s="48"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="132"/>
-      <c r="E78" s="129"/>
+      <c r="C78" s="151"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="137"/>
       <c r="F78" s="127" t="s">
         <v>963</v>
       </c>
@@ -42117,9 +42180,9 @@
         <v>75</v>
       </c>
       <c r="B79" s="48"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="132"/>
-      <c r="E79" s="129"/>
+      <c r="C79" s="151"/>
+      <c r="D79" s="151"/>
+      <c r="E79" s="137"/>
       <c r="F79" s="127" t="s">
         <v>964</v>
       </c>
@@ -42141,9 +42204,9 @@
         <v>76</v>
       </c>
       <c r="B80" s="48"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="132"/>
-      <c r="E80" s="129"/>
+      <c r="C80" s="151"/>
+      <c r="D80" s="151"/>
+      <c r="E80" s="137"/>
       <c r="F80" s="32" t="s">
         <v>965</v>
       </c>
@@ -42165,9 +42228,9 @@
         <v>77</v>
       </c>
       <c r="B81" s="48"/>
-      <c r="C81" s="132"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="129"/>
+      <c r="C81" s="151"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="137"/>
       <c r="F81" s="32" t="s">
         <v>966</v>
       </c>
@@ -42189,9 +42252,9 @@
         <v>78</v>
       </c>
       <c r="B82" s="48"/>
-      <c r="C82" s="132"/>
-      <c r="D82" s="132"/>
-      <c r="E82" s="129"/>
+      <c r="C82" s="151"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="137"/>
       <c r="F82" s="32" t="s">
         <v>967</v>
       </c>
@@ -42213,9 +42276,9 @@
         <v>79</v>
       </c>
       <c r="B83" s="48"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="129"/>
+      <c r="C83" s="151"/>
+      <c r="D83" s="151"/>
+      <c r="E83" s="137"/>
       <c r="F83" s="127" t="s">
         <v>968</v>
       </c>
@@ -42237,9 +42300,9 @@
         <v>80</v>
       </c>
       <c r="B84" s="115"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="129"/>
+      <c r="C84" s="151"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="137"/>
       <c r="F84" s="127" t="s">
         <v>969</v>
       </c>
@@ -42261,9 +42324,9 @@
         <v>81</v>
       </c>
       <c r="B85" s="48"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="130"/>
+      <c r="C85" s="152"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="138"/>
       <c r="F85" s="32" t="s">
         <v>970</v>
       </c>
@@ -42291,7 +42354,7 @@
       <c r="D86" s="134" t="s">
         <v>957</v>
       </c>
-      <c r="E86" s="128" t="s">
+      <c r="E86" s="136" t="s">
         <v>958</v>
       </c>
       <c r="F86" s="127" t="s">
@@ -42315,9 +42378,9 @@
         <v>83</v>
       </c>
       <c r="B87" s="48"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="132"/>
-      <c r="E87" s="129"/>
+      <c r="C87" s="151"/>
+      <c r="D87" s="151"/>
+      <c r="E87" s="137"/>
       <c r="F87" s="127" t="s">
         <v>960</v>
       </c>
@@ -42339,9 +42402,9 @@
         <v>84</v>
       </c>
       <c r="B88" s="48"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="129"/>
+      <c r="C88" s="151"/>
+      <c r="D88" s="151"/>
+      <c r="E88" s="137"/>
       <c r="F88" s="127" t="s">
         <v>961</v>
       </c>
@@ -42363,9 +42426,9 @@
         <v>85</v>
       </c>
       <c r="B89" s="48"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
-      <c r="E89" s="129"/>
+      <c r="C89" s="151"/>
+      <c r="D89" s="151"/>
+      <c r="E89" s="137"/>
       <c r="F89" s="127" t="s">
         <v>962</v>
       </c>
@@ -42387,9 +42450,9 @@
         <v>86</v>
       </c>
       <c r="B90" s="48"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="132"/>
-      <c r="E90" s="129"/>
+      <c r="C90" s="151"/>
+      <c r="D90" s="151"/>
+      <c r="E90" s="137"/>
       <c r="F90" s="127" t="s">
         <v>963</v>
       </c>
@@ -42411,9 +42474,9 @@
         <v>87</v>
       </c>
       <c r="B91" s="48"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="132"/>
-      <c r="E91" s="129"/>
+      <c r="C91" s="151"/>
+      <c r="D91" s="151"/>
+      <c r="E91" s="137"/>
       <c r="F91" s="127" t="s">
         <v>964</v>
       </c>
@@ -42435,9 +42498,9 @@
         <v>88</v>
       </c>
       <c r="B92" s="48"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="132"/>
-      <c r="E92" s="129"/>
+      <c r="C92" s="151"/>
+      <c r="D92" s="151"/>
+      <c r="E92" s="137"/>
       <c r="F92" s="32" t="s">
         <v>965</v>
       </c>
@@ -42459,9 +42522,9 @@
         <v>89</v>
       </c>
       <c r="B93" s="48"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="129"/>
+      <c r="C93" s="151"/>
+      <c r="D93" s="151"/>
+      <c r="E93" s="137"/>
       <c r="F93" s="32" t="s">
         <v>966</v>
       </c>
@@ -42483,9 +42546,9 @@
         <v>90</v>
       </c>
       <c r="B94" s="48"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="132"/>
-      <c r="E94" s="129"/>
+      <c r="C94" s="151"/>
+      <c r="D94" s="151"/>
+      <c r="E94" s="137"/>
       <c r="F94" s="32" t="s">
         <v>967</v>
       </c>
@@ -42507,9 +42570,9 @@
         <v>91</v>
       </c>
       <c r="B95" s="48"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="129"/>
+      <c r="C95" s="151"/>
+      <c r="D95" s="151"/>
+      <c r="E95" s="137"/>
       <c r="F95" s="127" t="s">
         <v>968</v>
       </c>
@@ -42531,9 +42594,9 @@
         <v>92</v>
       </c>
       <c r="B96" s="115"/>
-      <c r="C96" s="132"/>
-      <c r="D96" s="132"/>
-      <c r="E96" s="129"/>
+      <c r="C96" s="151"/>
+      <c r="D96" s="151"/>
+      <c r="E96" s="137"/>
       <c r="F96" s="127" t="s">
         <v>969</v>
       </c>
@@ -42555,9 +42618,9 @@
         <v>93</v>
       </c>
       <c r="B97" s="48"/>
-      <c r="C97" s="133"/>
-      <c r="D97" s="133"/>
-      <c r="E97" s="130"/>
+      <c r="C97" s="152"/>
+      <c r="D97" s="152"/>
+      <c r="E97" s="138"/>
       <c r="F97" s="32" t="s">
         <v>970</v>
       </c>
@@ -42642,7 +42705,7 @@
       <c r="C100" s="72" t="s">
         <v>987</v>
       </c>
-      <c r="D100" s="157" t="s">
+      <c r="D100" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E100" s="37" t="s">
@@ -42672,7 +42735,7 @@
       <c r="C101" s="72" t="s">
         <v>988</v>
       </c>
-      <c r="D101" s="155"/>
+      <c r="D101" s="154"/>
       <c r="E101" s="37" t="s">
         <v>977</v>
       </c>
@@ -42700,7 +42763,7 @@
       <c r="C102" s="72" t="s">
         <v>989</v>
       </c>
-      <c r="D102" s="156"/>
+      <c r="D102" s="155"/>
       <c r="E102" s="37" t="s">
         <v>159</v>
       </c>
@@ -42728,7 +42791,7 @@
       <c r="C103" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="D103" s="157" t="s">
+      <c r="D103" s="153" t="s">
         <v>956</v>
       </c>
       <c r="E103" s="37" t="s">
@@ -42758,7 +42821,7 @@
       <c r="C104" s="72" t="s">
         <v>655</v>
       </c>
-      <c r="D104" s="156"/>
+      <c r="D104" s="155"/>
       <c r="E104" s="37" t="s">
         <v>628</v>
       </c>
@@ -42786,7 +42849,7 @@
       <c r="C105" s="72" t="s">
         <v>975</v>
       </c>
-      <c r="D105" s="157" t="s">
+      <c r="D105" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E105" s="37" t="s">
@@ -42816,7 +42879,7 @@
       <c r="C106" s="72" t="s">
         <v>976</v>
       </c>
-      <c r="D106" s="155"/>
+      <c r="D106" s="154"/>
       <c r="E106" s="37" t="s">
         <v>977</v>
       </c>
@@ -42844,7 +42907,7 @@
       <c r="C107" s="72" t="s">
         <v>654</v>
       </c>
-      <c r="D107" s="156"/>
+      <c r="D107" s="155"/>
       <c r="E107" s="37" t="s">
         <v>159</v>
       </c>
@@ -42887,7 +42950,7 @@
       <c r="H108" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I108" s="170"/>
+      <c r="I108" s="130"/>
       <c r="J108" s="11" t="s">
         <v>144</v>
       </c>
@@ -42928,12 +42991,12 @@
         <v>106</v>
       </c>
       <c r="B110" s="48"/>
-      <c r="C110" s="135"/>
-      <c r="D110" s="135"/>
+      <c r="C110" s="139"/>
+      <c r="D110" s="139"/>
       <c r="E110" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="F110" s="135"/>
+      <c r="F110" s="139"/>
       <c r="G110" s="68">
         <v>44512</v>
       </c>
@@ -42951,12 +43014,12 @@
         <v>107</v>
       </c>
       <c r="B111" s="48"/>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
+      <c r="C111" s="139"/>
+      <c r="D111" s="139"/>
       <c r="E111" s="37" t="s">
         <v>1011</v>
       </c>
-      <c r="F111" s="135"/>
+      <c r="F111" s="139"/>
       <c r="G111" s="60">
         <v>44512</v>
       </c>
@@ -42974,12 +43037,12 @@
         <v>108</v>
       </c>
       <c r="B112" s="48"/>
-      <c r="C112" s="135"/>
-      <c r="D112" s="135"/>
+      <c r="C112" s="139"/>
+      <c r="D112" s="139"/>
       <c r="E112" s="37" t="s">
         <v>1012</v>
       </c>
-      <c r="F112" s="135"/>
+      <c r="F112" s="139"/>
       <c r="G112" s="68">
         <v>44512</v>
       </c>
@@ -42997,12 +43060,12 @@
         <v>109</v>
       </c>
       <c r="B113" s="48"/>
-      <c r="C113" s="135"/>
-      <c r="D113" s="135"/>
+      <c r="C113" s="139"/>
+      <c r="D113" s="139"/>
       <c r="E113" s="37" t="s">
         <v>1013</v>
       </c>
-      <c r="F113" s="135"/>
+      <c r="F113" s="139"/>
       <c r="G113" s="60">
         <v>44512</v>
       </c>
@@ -43020,12 +43083,12 @@
         <v>110</v>
       </c>
       <c r="B114" s="48"/>
-      <c r="C114" s="135"/>
-      <c r="D114" s="135"/>
+      <c r="C114" s="139"/>
+      <c r="D114" s="139"/>
       <c r="E114" s="37" t="s">
         <v>1014</v>
       </c>
-      <c r="F114" s="135"/>
+      <c r="F114" s="139"/>
       <c r="G114" s="68">
         <v>44512</v>
       </c>
@@ -43043,12 +43106,12 @@
         <v>111</v>
       </c>
       <c r="B115" s="48"/>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
+      <c r="C115" s="135"/>
+      <c r="D115" s="135"/>
       <c r="E115" s="37" t="s">
         <v>1015</v>
       </c>
-      <c r="F115" s="136"/>
+      <c r="F115" s="135"/>
       <c r="G115" s="60">
         <v>44512</v>
       </c>
@@ -43095,12 +43158,12 @@
         <v>113</v>
       </c>
       <c r="B117" s="48"/>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
+      <c r="C117" s="139"/>
+      <c r="D117" s="139"/>
       <c r="E117" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="F117" s="135"/>
+      <c r="F117" s="139"/>
       <c r="G117" s="60">
         <v>44512</v>
       </c>
@@ -43118,12 +43181,12 @@
         <v>114</v>
       </c>
       <c r="B118" s="48"/>
-      <c r="C118" s="135"/>
-      <c r="D118" s="135"/>
+      <c r="C118" s="139"/>
+      <c r="D118" s="139"/>
       <c r="E118" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="F118" s="135"/>
+      <c r="F118" s="139"/>
       <c r="G118" s="68">
         <v>44512</v>
       </c>
@@ -43141,12 +43204,12 @@
         <v>115</v>
       </c>
       <c r="B119" s="48"/>
-      <c r="C119" s="135"/>
-      <c r="D119" s="135"/>
+      <c r="C119" s="139"/>
+      <c r="D119" s="139"/>
       <c r="E119" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="F119" s="135"/>
+      <c r="F119" s="139"/>
       <c r="G119" s="60">
         <v>44512</v>
       </c>
@@ -43164,12 +43227,12 @@
         <v>116</v>
       </c>
       <c r="B120" s="48"/>
-      <c r="C120" s="135"/>
-      <c r="D120" s="135"/>
+      <c r="C120" s="139"/>
+      <c r="D120" s="139"/>
       <c r="E120" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="F120" s="135"/>
+      <c r="F120" s="139"/>
       <c r="G120" s="68">
         <v>44512</v>
       </c>
@@ -43218,19 +43281,19 @@
         <v>118</v>
       </c>
       <c r="B122" s="48"/>
-      <c r="C122" s="135"/>
-      <c r="D122" s="135"/>
+      <c r="C122" s="139"/>
+      <c r="D122" s="139"/>
       <c r="E122" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="F122" s="135"/>
+      <c r="F122" s="139"/>
       <c r="G122" s="68">
         <v>44512</v>
       </c>
       <c r="H122" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I122" s="135"/>
+      <c r="I122" s="139"/>
       <c r="J122" s="11" t="s">
         <v>510</v>
       </c>
@@ -43241,19 +43304,19 @@
         <v>119</v>
       </c>
       <c r="B123" s="48"/>
-      <c r="C123" s="135"/>
-      <c r="D123" s="135"/>
+      <c r="C123" s="139"/>
+      <c r="D123" s="139"/>
       <c r="E123" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="F123" s="135"/>
+      <c r="F123" s="139"/>
       <c r="G123" s="60">
         <v>44512</v>
       </c>
       <c r="H123" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="135"/>
+      <c r="I123" s="139"/>
       <c r="J123" s="11" t="s">
         <v>510</v>
       </c>
@@ -43264,19 +43327,19 @@
         <v>120</v>
       </c>
       <c r="B124" s="48"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="135"/>
+      <c r="C124" s="139"/>
+      <c r="D124" s="139"/>
       <c r="E124" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="F124" s="135"/>
+      <c r="F124" s="139"/>
       <c r="G124" s="68">
         <v>44512</v>
       </c>
       <c r="H124" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I124" s="135"/>
+      <c r="I124" s="139"/>
       <c r="J124" s="11" t="s">
         <v>510</v>
       </c>
@@ -43287,19 +43350,19 @@
         <v>121</v>
       </c>
       <c r="B125" s="48"/>
-      <c r="C125" s="135"/>
-      <c r="D125" s="135"/>
+      <c r="C125" s="139"/>
+      <c r="D125" s="139"/>
       <c r="E125" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="F125" s="135"/>
+      <c r="F125" s="139"/>
       <c r="G125" s="60">
         <v>44512</v>
       </c>
       <c r="H125" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I125" s="135"/>
+      <c r="I125" s="139"/>
       <c r="J125" s="11" t="s">
         <v>510</v>
       </c>
@@ -43310,19 +43373,19 @@
         <v>122</v>
       </c>
       <c r="B126" s="48"/>
-      <c r="C126" s="135"/>
-      <c r="D126" s="135"/>
+      <c r="C126" s="139"/>
+      <c r="D126" s="139"/>
       <c r="E126" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="F126" s="135"/>
+      <c r="F126" s="139"/>
       <c r="G126" s="68">
         <v>44512</v>
       </c>
       <c r="H126" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I126" s="135"/>
+      <c r="I126" s="139"/>
       <c r="J126" s="11" t="s">
         <v>510</v>
       </c>
@@ -43333,19 +43396,19 @@
         <v>123</v>
       </c>
       <c r="B127" s="48"/>
-      <c r="C127" s="136"/>
-      <c r="D127" s="136"/>
+      <c r="C127" s="135"/>
+      <c r="D127" s="135"/>
       <c r="E127" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="F127" s="136"/>
+      <c r="F127" s="135"/>
       <c r="G127" s="60">
         <v>44512</v>
       </c>
       <c r="H127" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I127" s="136"/>
+      <c r="I127" s="135"/>
       <c r="J127" s="11" t="s">
         <v>510</v>
       </c>
@@ -43420,7 +43483,7 @@
       <c r="C130" s="72" t="s">
         <v>1020</v>
       </c>
-      <c r="D130" s="157" t="s">
+      <c r="D130" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E130" s="37" t="s">
@@ -43450,7 +43513,7 @@
       <c r="C131" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="155"/>
+      <c r="D131" s="154"/>
       <c r="E131" s="37" t="s">
         <v>977</v>
       </c>
@@ -43478,7 +43541,7 @@
       <c r="C132" s="72" t="s">
         <v>1021</v>
       </c>
-      <c r="D132" s="156"/>
+      <c r="D132" s="155"/>
       <c r="E132" s="37" t="s">
         <v>159</v>
       </c>
@@ -43503,13 +43566,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="72"/>
-      <c r="C133" s="128" t="s">
+      <c r="C133" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="D133" s="128" t="s">
+      <c r="D133" s="136" t="s">
         <v>956</v>
       </c>
-      <c r="E133" s="128" t="s">
+      <c r="E133" s="136" t="s">
         <v>373</v>
       </c>
       <c r="F133" s="37" t="s">
@@ -43533,9 +43596,9 @@
         <v>130</v>
       </c>
       <c r="B134" s="72"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="129"/>
+      <c r="C134" s="137"/>
+      <c r="D134" s="137"/>
+      <c r="E134" s="137"/>
       <c r="F134" s="37" t="s">
         <v>412</v>
       </c>
@@ -43557,9 +43620,9 @@
         <v>131</v>
       </c>
       <c r="B135" s="72"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="129"/>
-      <c r="E135" s="129"/>
+      <c r="C135" s="137"/>
+      <c r="D135" s="137"/>
+      <c r="E135" s="137"/>
       <c r="F135" s="37" t="s">
         <v>413</v>
       </c>
@@ -43581,9 +43644,9 @@
         <v>132</v>
       </c>
       <c r="B136" s="72"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="129"/>
+      <c r="C136" s="137"/>
+      <c r="D136" s="137"/>
+      <c r="E136" s="137"/>
       <c r="F136" s="37" t="s">
         <v>414</v>
       </c>
@@ -43605,9 +43668,9 @@
         <v>133</v>
       </c>
       <c r="B137" s="72"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
+      <c r="C137" s="137"/>
+      <c r="D137" s="137"/>
+      <c r="E137" s="137"/>
       <c r="F137" s="37" t="s">
         <v>415</v>
       </c>
@@ -43629,9 +43692,9 @@
         <v>134</v>
       </c>
       <c r="B138" s="72"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
+      <c r="C138" s="137"/>
+      <c r="D138" s="137"/>
+      <c r="E138" s="137"/>
       <c r="F138" s="37" t="s">
         <v>416</v>
       </c>
@@ -43653,9 +43716,9 @@
         <v>135</v>
       </c>
       <c r="B139" s="72"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
+      <c r="C139" s="137"/>
+      <c r="D139" s="137"/>
+      <c r="E139" s="137"/>
       <c r="F139" s="37" t="s">
         <v>417</v>
       </c>
@@ -43677,9 +43740,9 @@
         <v>136</v>
       </c>
       <c r="B140" s="72"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="129"/>
+      <c r="C140" s="137"/>
+      <c r="D140" s="137"/>
+      <c r="E140" s="137"/>
       <c r="F140" s="37" t="s">
         <v>418</v>
       </c>
@@ -43701,9 +43764,9 @@
         <v>137</v>
       </c>
       <c r="B141" s="72"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="129"/>
-      <c r="E141" s="129"/>
+      <c r="C141" s="137"/>
+      <c r="D141" s="137"/>
+      <c r="E141" s="137"/>
       <c r="F141" s="37" t="s">
         <v>419</v>
       </c>
@@ -43725,9 +43788,9 @@
         <v>138</v>
       </c>
       <c r="B142" s="72"/>
-      <c r="C142" s="129"/>
-      <c r="D142" s="129"/>
-      <c r="E142" s="129"/>
+      <c r="C142" s="137"/>
+      <c r="D142" s="137"/>
+      <c r="E142" s="137"/>
       <c r="F142" s="37" t="s">
         <v>420</v>
       </c>
@@ -43749,9 +43812,9 @@
         <v>139</v>
       </c>
       <c r="B143" s="72"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="129"/>
-      <c r="E143" s="129"/>
+      <c r="C143" s="137"/>
+      <c r="D143" s="137"/>
+      <c r="E143" s="137"/>
       <c r="F143" s="37" t="s">
         <v>421</v>
       </c>
@@ -43773,9 +43836,9 @@
         <v>140</v>
       </c>
       <c r="B144" s="72"/>
-      <c r="C144" s="130"/>
-      <c r="D144" s="130"/>
-      <c r="E144" s="130"/>
+      <c r="C144" s="138"/>
+      <c r="D144" s="138"/>
+      <c r="E144" s="138"/>
       <c r="F144" s="37" t="s">
         <v>422</v>
       </c>
@@ -43800,10 +43863,10 @@
       <c r="C145" s="72" t="s">
         <v>1029</v>
       </c>
-      <c r="D145" s="173" t="s">
+      <c r="D145" s="132" t="s">
         <v>1026</v>
       </c>
-      <c r="E145" s="173" t="s">
+      <c r="E145" s="132" t="s">
         <v>1030</v>
       </c>
       <c r="F145" s="93" t="s">
@@ -43829,7 +43892,7 @@
       <c r="C146" s="72" t="s">
         <v>1029</v>
       </c>
-      <c r="D146" s="157" t="s">
+      <c r="D146" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E146" s="37" t="s">
@@ -43859,7 +43922,7 @@
       <c r="C147" s="72" t="s">
         <v>1032</v>
       </c>
-      <c r="D147" s="155"/>
+      <c r="D147" s="154"/>
       <c r="E147" s="37" t="s">
         <v>977</v>
       </c>
@@ -43887,7 +43950,7 @@
       <c r="C148" s="72" t="s">
         <v>1033</v>
       </c>
-      <c r="D148" s="156"/>
+      <c r="D148" s="155"/>
       <c r="E148" s="37" t="s">
         <v>159</v>
       </c>
@@ -43945,7 +44008,7 @@
       <c r="C150" s="116" t="s">
         <v>491</v>
       </c>
-      <c r="D150" s="174" t="s">
+      <c r="D150" s="133" t="s">
         <v>956</v>
       </c>
       <c r="E150" s="91" t="s">
@@ -43975,7 +44038,7 @@
       <c r="C151" s="118" t="s">
         <v>491</v>
       </c>
-      <c r="D151" s="172" t="s">
+      <c r="D151" s="131" t="s">
         <v>1026</v>
       </c>
       <c r="E151" s="115" t="s">
@@ -44005,7 +44068,7 @@
       <c r="C152" s="72" t="s">
         <v>1037</v>
       </c>
-      <c r="D152" s="157" t="s">
+      <c r="D152" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E152" s="37" t="s">
@@ -44035,7 +44098,7 @@
       <c r="C153" s="72" t="s">
         <v>1038</v>
       </c>
-      <c r="D153" s="155"/>
+      <c r="D153" s="154"/>
       <c r="E153" s="37" t="s">
         <v>977</v>
       </c>
@@ -44063,7 +44126,7 @@
       <c r="C154" s="72" t="s">
         <v>1039</v>
       </c>
-      <c r="D154" s="156"/>
+      <c r="D154" s="155"/>
       <c r="E154" s="37" t="s">
         <v>159</v>
       </c>
@@ -44121,7 +44184,7 @@
       <c r="C156" s="72" t="s">
         <v>1044</v>
       </c>
-      <c r="D156" s="157" t="s">
+      <c r="D156" s="153" t="s">
         <v>956</v>
       </c>
       <c r="E156" s="37" t="s">
@@ -44151,7 +44214,7 @@
       <c r="C157" s="72" t="s">
         <v>662</v>
       </c>
-      <c r="D157" s="156"/>
+      <c r="D157" s="155"/>
       <c r="E157" s="37" t="s">
         <v>628</v>
       </c>
@@ -44179,7 +44242,7 @@
       <c r="C158" s="72" t="s">
         <v>1043</v>
       </c>
-      <c r="D158" s="157" t="s">
+      <c r="D158" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E158" s="37" t="s">
@@ -44209,7 +44272,7 @@
       <c r="C159" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="D159" s="155"/>
+      <c r="D159" s="154"/>
       <c r="E159" s="37" t="s">
         <v>977</v>
       </c>
@@ -44237,7 +44300,7 @@
       <c r="C160" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="D160" s="156"/>
+      <c r="D160" s="155"/>
       <c r="E160" s="37" t="s">
         <v>159</v>
       </c>
@@ -44262,13 +44325,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="72"/>
-      <c r="C161" s="128" t="s">
+      <c r="C161" s="136" t="s">
         <v>423</v>
       </c>
-      <c r="D161" s="128" t="s">
+      <c r="D161" s="136" t="s">
         <v>832</v>
       </c>
-      <c r="E161" s="128" t="s">
+      <c r="E161" s="136" t="s">
         <v>424</v>
       </c>
       <c r="F161" s="31" t="s">
@@ -44292,9 +44355,9 @@
         <v>158</v>
       </c>
       <c r="B162" s="72"/>
-      <c r="C162" s="129"/>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
+      <c r="C162" s="137"/>
+      <c r="D162" s="137"/>
+      <c r="E162" s="137"/>
       <c r="F162" s="31" t="s">
         <v>310</v>
       </c>
@@ -44316,9 +44379,9 @@
         <v>159</v>
       </c>
       <c r="B163" s="72"/>
-      <c r="C163" s="129"/>
-      <c r="D163" s="129"/>
-      <c r="E163" s="129"/>
+      <c r="C163" s="137"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="137"/>
       <c r="F163" s="31" t="s">
         <v>309</v>
       </c>
@@ -44340,9 +44403,9 @@
         <v>160</v>
       </c>
       <c r="B164" s="72"/>
-      <c r="C164" s="129"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
+      <c r="C164" s="137"/>
+      <c r="D164" s="137"/>
+      <c r="E164" s="137"/>
       <c r="F164" s="31" t="s">
         <v>308</v>
       </c>
@@ -44364,9 +44427,9 @@
         <v>161</v>
       </c>
       <c r="B165" s="72"/>
-      <c r="C165" s="129"/>
-      <c r="D165" s="129"/>
-      <c r="E165" s="129"/>
+      <c r="C165" s="137"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="137"/>
       <c r="F165" s="31" t="s">
         <v>311</v>
       </c>
@@ -44388,9 +44451,9 @@
         <v>162</v>
       </c>
       <c r="B166" s="72"/>
-      <c r="C166" s="129"/>
-      <c r="D166" s="129"/>
-      <c r="E166" s="129"/>
+      <c r="C166" s="137"/>
+      <c r="D166" s="137"/>
+      <c r="E166" s="137"/>
       <c r="F166" s="31" t="s">
         <v>312</v>
       </c>
@@ -44412,9 +44475,9 @@
         <v>163</v>
       </c>
       <c r="B167" s="72"/>
-      <c r="C167" s="129"/>
-      <c r="D167" s="129"/>
-      <c r="E167" s="129"/>
+      <c r="C167" s="137"/>
+      <c r="D167" s="137"/>
+      <c r="E167" s="137"/>
       <c r="F167" s="31" t="s">
         <v>319</v>
       </c>
@@ -44436,9 +44499,9 @@
         <v>164</v>
       </c>
       <c r="B168" s="72"/>
-      <c r="C168" s="129"/>
-      <c r="D168" s="129"/>
-      <c r="E168" s="129"/>
+      <c r="C168" s="137"/>
+      <c r="D168" s="137"/>
+      <c r="E168" s="137"/>
       <c r="F168" s="31" t="s">
         <v>314</v>
       </c>
@@ -44460,9 +44523,9 @@
         <v>165</v>
       </c>
       <c r="B169" s="72"/>
-      <c r="C169" s="129"/>
-      <c r="D169" s="129"/>
-      <c r="E169" s="129"/>
+      <c r="C169" s="137"/>
+      <c r="D169" s="137"/>
+      <c r="E169" s="137"/>
       <c r="F169" s="31" t="s">
         <v>315</v>
       </c>
@@ -44484,9 +44547,9 @@
         <v>166</v>
       </c>
       <c r="B170" s="72"/>
-      <c r="C170" s="129"/>
-      <c r="D170" s="129"/>
-      <c r="E170" s="129"/>
+      <c r="C170" s="137"/>
+      <c r="D170" s="137"/>
+      <c r="E170" s="137"/>
       <c r="F170" s="31" t="s">
         <v>316</v>
       </c>
@@ -44508,9 +44571,9 @@
         <v>167</v>
       </c>
       <c r="B171" s="72"/>
-      <c r="C171" s="129"/>
-      <c r="D171" s="129"/>
-      <c r="E171" s="129"/>
+      <c r="C171" s="137"/>
+      <c r="D171" s="137"/>
+      <c r="E171" s="137"/>
       <c r="F171" s="31" t="s">
         <v>317</v>
       </c>
@@ -44532,9 +44595,9 @@
         <v>168</v>
       </c>
       <c r="B172" s="72"/>
-      <c r="C172" s="130"/>
-      <c r="D172" s="130"/>
-      <c r="E172" s="130"/>
+      <c r="C172" s="138"/>
+      <c r="D172" s="138"/>
+      <c r="E172" s="138"/>
       <c r="F172" s="31" t="s">
         <v>318</v>
       </c>
@@ -44586,16 +44649,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="72"/>
-      <c r="C174" s="128" t="s">
+      <c r="C174" s="136" t="s">
         <v>426</v>
       </c>
-      <c r="D174" s="155" t="s">
+      <c r="D174" s="154" t="s">
         <v>832</v>
       </c>
       <c r="E174" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="F174" s="128" t="s">
+      <c r="F174" s="136" t="s">
         <v>1050</v>
       </c>
       <c r="G174" s="68">
@@ -44616,12 +44679,12 @@
         <v>171</v>
       </c>
       <c r="B175" s="72"/>
-      <c r="C175" s="129"/>
-      <c r="D175" s="155"/>
+      <c r="C175" s="137"/>
+      <c r="D175" s="154"/>
       <c r="E175" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="F175" s="129"/>
+      <c r="F175" s="137"/>
       <c r="G175" s="60">
         <v>44512</v>
       </c>
@@ -44640,12 +44703,12 @@
         <v>172</v>
       </c>
       <c r="B176" s="72"/>
-      <c r="C176" s="129"/>
-      <c r="D176" s="155"/>
+      <c r="C176" s="137"/>
+      <c r="D176" s="154"/>
       <c r="E176" s="31" t="s">
         <v>1053</v>
       </c>
-      <c r="F176" s="129"/>
+      <c r="F176" s="137"/>
       <c r="G176" s="68">
         <v>44512</v>
       </c>
@@ -44664,12 +44727,12 @@
         <v>173</v>
       </c>
       <c r="B177" s="72"/>
-      <c r="C177" s="129"/>
-      <c r="D177" s="155"/>
+      <c r="C177" s="137"/>
+      <c r="D177" s="154"/>
       <c r="E177" s="31" t="s">
         <v>1054</v>
       </c>
-      <c r="F177" s="129"/>
+      <c r="F177" s="137"/>
       <c r="G177" s="60">
         <v>44512</v>
       </c>
@@ -44688,12 +44751,12 @@
         <v>174</v>
       </c>
       <c r="B178" s="72"/>
-      <c r="C178" s="129"/>
-      <c r="D178" s="155"/>
+      <c r="C178" s="137"/>
+      <c r="D178" s="154"/>
       <c r="E178" s="31" t="s">
         <v>1055</v>
       </c>
-      <c r="F178" s="129"/>
+      <c r="F178" s="137"/>
       <c r="G178" s="68">
         <v>44512</v>
       </c>
@@ -44712,12 +44775,12 @@
         <v>175</v>
       </c>
       <c r="B179" s="72"/>
-      <c r="C179" s="129"/>
-      <c r="D179" s="155"/>
+      <c r="C179" s="137"/>
+      <c r="D179" s="154"/>
       <c r="E179" s="31" t="s">
         <v>1056</v>
       </c>
-      <c r="F179" s="129"/>
+      <c r="F179" s="137"/>
       <c r="G179" s="60">
         <v>44512</v>
       </c>
@@ -44736,12 +44799,12 @@
         <v>176</v>
       </c>
       <c r="B180" s="72"/>
-      <c r="C180" s="129"/>
-      <c r="D180" s="155"/>
+      <c r="C180" s="137"/>
+      <c r="D180" s="154"/>
       <c r="E180" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="F180" s="129"/>
+      <c r="F180" s="137"/>
       <c r="G180" s="68">
         <v>44512</v>
       </c>
@@ -44760,12 +44823,12 @@
         <v>177</v>
       </c>
       <c r="B181" s="72"/>
-      <c r="C181" s="129"/>
-      <c r="D181" s="155"/>
+      <c r="C181" s="137"/>
+      <c r="D181" s="154"/>
       <c r="E181" s="31" t="s">
         <v>1058</v>
       </c>
-      <c r="F181" s="129"/>
+      <c r="F181" s="137"/>
       <c r="G181" s="60">
         <v>44512</v>
       </c>
@@ -44784,12 +44847,12 @@
         <v>178</v>
       </c>
       <c r="B182" s="72"/>
-      <c r="C182" s="129"/>
-      <c r="D182" s="155"/>
+      <c r="C182" s="137"/>
+      <c r="D182" s="154"/>
       <c r="E182" s="31" t="s">
         <v>1059</v>
       </c>
-      <c r="F182" s="129"/>
+      <c r="F182" s="137"/>
       <c r="G182" s="68">
         <v>44512</v>
       </c>
@@ -44808,12 +44871,12 @@
         <v>179</v>
       </c>
       <c r="B183" s="72"/>
-      <c r="C183" s="129"/>
-      <c r="D183" s="155"/>
+      <c r="C183" s="137"/>
+      <c r="D183" s="154"/>
       <c r="E183" s="31" t="s">
         <v>1060</v>
       </c>
-      <c r="F183" s="129"/>
+      <c r="F183" s="137"/>
       <c r="G183" s="60">
         <v>44512</v>
       </c>
@@ -44832,12 +44895,12 @@
         <v>180</v>
       </c>
       <c r="B184" s="72"/>
-      <c r="C184" s="129"/>
-      <c r="D184" s="155"/>
+      <c r="C184" s="137"/>
+      <c r="D184" s="154"/>
       <c r="E184" s="31" t="s">
         <v>1061</v>
       </c>
-      <c r="F184" s="129"/>
+      <c r="F184" s="137"/>
       <c r="G184" s="68">
         <v>44512</v>
       </c>
@@ -44856,12 +44919,12 @@
         <v>181</v>
       </c>
       <c r="B185" s="72"/>
-      <c r="C185" s="130"/>
-      <c r="D185" s="156"/>
+      <c r="C185" s="138"/>
+      <c r="D185" s="155"/>
       <c r="E185" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F185" s="130"/>
+      <c r="F185" s="138"/>
       <c r="G185" s="60">
         <v>44512</v>
       </c>
@@ -44880,10 +44943,10 @@
         <v>182</v>
       </c>
       <c r="B186" s="72"/>
-      <c r="C186" s="128" t="s">
+      <c r="C186" s="136" t="s">
         <v>427</v>
       </c>
-      <c r="D186" s="157" t="s">
+      <c r="D186" s="153" t="s">
         <v>832</v>
       </c>
       <c r="E186" s="31" t="s">
@@ -44910,8 +44973,8 @@
         <v>183</v>
       </c>
       <c r="B187" s="72"/>
-      <c r="C187" s="129"/>
-      <c r="D187" s="155"/>
+      <c r="C187" s="137"/>
+      <c r="D187" s="154"/>
       <c r="E187" s="31" t="s">
         <v>1086</v>
       </c>
@@ -44936,8 +44999,8 @@
         <v>184</v>
       </c>
       <c r="B188" s="72"/>
-      <c r="C188" s="129"/>
-      <c r="D188" s="155"/>
+      <c r="C188" s="137"/>
+      <c r="D188" s="154"/>
       <c r="E188" s="31" t="s">
         <v>1087</v>
       </c>
@@ -44962,8 +45025,8 @@
         <v>185</v>
       </c>
       <c r="B189" s="72"/>
-      <c r="C189" s="129"/>
-      <c r="D189" s="155"/>
+      <c r="C189" s="137"/>
+      <c r="D189" s="154"/>
       <c r="E189" s="31" t="s">
         <v>1094</v>
       </c>
@@ -44988,8 +45051,8 @@
         <v>186</v>
       </c>
       <c r="B190" s="72"/>
-      <c r="C190" s="129"/>
-      <c r="D190" s="155"/>
+      <c r="C190" s="137"/>
+      <c r="D190" s="154"/>
       <c r="E190" s="31" t="s">
         <v>1095</v>
       </c>
@@ -45014,8 +45077,8 @@
         <v>187</v>
       </c>
       <c r="B191" s="72"/>
-      <c r="C191" s="129"/>
-      <c r="D191" s="155"/>
+      <c r="C191" s="137"/>
+      <c r="D191" s="154"/>
       <c r="E191" s="31" t="s">
         <v>1096</v>
       </c>
@@ -45040,8 +45103,8 @@
         <v>188</v>
       </c>
       <c r="B192" s="72"/>
-      <c r="C192" s="129"/>
-      <c r="D192" s="155"/>
+      <c r="C192" s="137"/>
+      <c r="D192" s="154"/>
       <c r="E192" s="31" t="s">
         <v>1097</v>
       </c>
@@ -45066,8 +45129,8 @@
         <v>189</v>
       </c>
       <c r="B193" s="72"/>
-      <c r="C193" s="129"/>
-      <c r="D193" s="155"/>
+      <c r="C193" s="137"/>
+      <c r="D193" s="154"/>
       <c r="E193" s="31" t="s">
         <v>1098</v>
       </c>
@@ -45092,8 +45155,8 @@
         <v>190</v>
       </c>
       <c r="B194" s="72"/>
-      <c r="C194" s="129"/>
-      <c r="D194" s="155"/>
+      <c r="C194" s="137"/>
+      <c r="D194" s="154"/>
       <c r="E194" s="31" t="s">
         <v>1062</v>
       </c>
@@ -45120,8 +45183,8 @@
         <v>191</v>
       </c>
       <c r="B195" s="72"/>
-      <c r="C195" s="130"/>
-      <c r="D195" s="156"/>
+      <c r="C195" s="138"/>
+      <c r="D195" s="155"/>
       <c r="E195" s="31" t="s">
         <v>1063</v>
       </c>
@@ -45151,10 +45214,10 @@
       <c r="C196" s="72" t="s">
         <v>1066</v>
       </c>
-      <c r="D196" s="173" t="s">
+      <c r="D196" s="132" t="s">
         <v>1026</v>
       </c>
-      <c r="E196" s="173" t="s">
+      <c r="E196" s="132" t="s">
         <v>1069</v>
       </c>
       <c r="F196" s="93" t="s">
@@ -45180,7 +45243,7 @@
       <c r="C197" s="72" t="s">
         <v>1066</v>
       </c>
-      <c r="D197" s="157" t="s">
+      <c r="D197" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -45210,7 +45273,7 @@
       <c r="C198" s="72" t="s">
         <v>1067</v>
       </c>
-      <c r="D198" s="155"/>
+      <c r="D198" s="154"/>
       <c r="E198" s="37" t="s">
         <v>977</v>
       </c>
@@ -45238,7 +45301,7 @@
       <c r="C199" s="72" t="s">
         <v>1068</v>
       </c>
-      <c r="D199" s="156"/>
+      <c r="D199" s="155"/>
       <c r="E199" s="37" t="s">
         <v>159</v>
       </c>
@@ -45263,13 +45326,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="72"/>
-      <c r="C200" s="128" t="s">
+      <c r="C200" s="136" t="s">
         <v>429</v>
       </c>
-      <c r="D200" s="171" t="s">
+      <c r="D200" s="164" t="s">
         <v>956</v>
       </c>
-      <c r="E200" s="128" t="s">
+      <c r="E200" s="136" t="s">
         <v>428</v>
       </c>
       <c r="F200" s="32" t="s">
@@ -45293,9 +45356,9 @@
         <v>197</v>
       </c>
       <c r="B201" s="72"/>
-      <c r="C201" s="129"/>
-      <c r="D201" s="171"/>
-      <c r="E201" s="129"/>
+      <c r="C201" s="137"/>
+      <c r="D201" s="164"/>
+      <c r="E201" s="137"/>
       <c r="F201" s="32" t="s">
         <v>109</v>
       </c>
@@ -45317,9 +45380,9 @@
         <v>198</v>
       </c>
       <c r="B202" s="72"/>
-      <c r="C202" s="129"/>
-      <c r="D202" s="171"/>
-      <c r="E202" s="129"/>
+      <c r="C202" s="137"/>
+      <c r="D202" s="164"/>
+      <c r="E202" s="137"/>
       <c r="F202" s="32" t="s">
         <v>112</v>
       </c>
@@ -45341,9 +45404,9 @@
         <v>199</v>
       </c>
       <c r="B203" s="72"/>
-      <c r="C203" s="129"/>
-      <c r="D203" s="171"/>
-      <c r="E203" s="129"/>
+      <c r="C203" s="137"/>
+      <c r="D203" s="164"/>
+      <c r="E203" s="137"/>
       <c r="F203" s="32" t="s">
         <v>113</v>
       </c>
@@ -45365,9 +45428,9 @@
         <v>200</v>
       </c>
       <c r="B204" s="72"/>
-      <c r="C204" s="129"/>
-      <c r="D204" s="171"/>
-      <c r="E204" s="129"/>
+      <c r="C204" s="137"/>
+      <c r="D204" s="164"/>
+      <c r="E204" s="137"/>
       <c r="F204" s="32" t="s">
         <v>114</v>
       </c>
@@ -45389,9 +45452,9 @@
         <v>201</v>
       </c>
       <c r="B205" s="72"/>
-      <c r="C205" s="129"/>
-      <c r="D205" s="171"/>
-      <c r="E205" s="129"/>
+      <c r="C205" s="137"/>
+      <c r="D205" s="164"/>
+      <c r="E205" s="137"/>
       <c r="F205" s="32" t="s">
         <v>111</v>
       </c>
@@ -45413,9 +45476,9 @@
         <v>202</v>
       </c>
       <c r="B206" s="72"/>
-      <c r="C206" s="129"/>
-      <c r="D206" s="171"/>
-      <c r="E206" s="129"/>
+      <c r="C206" s="137"/>
+      <c r="D206" s="164"/>
+      <c r="E206" s="137"/>
       <c r="F206" s="32" t="s">
         <v>115</v>
       </c>
@@ -45437,9 +45500,9 @@
         <v>203</v>
       </c>
       <c r="B207" s="72"/>
-      <c r="C207" s="129"/>
-      <c r="D207" s="171"/>
-      <c r="E207" s="129"/>
+      <c r="C207" s="137"/>
+      <c r="D207" s="164"/>
+      <c r="E207" s="137"/>
       <c r="F207" s="32" t="s">
         <v>430</v>
       </c>
@@ -45461,9 +45524,9 @@
         <v>204</v>
       </c>
       <c r="B208" s="72"/>
-      <c r="C208" s="129"/>
-      <c r="D208" s="171"/>
-      <c r="E208" s="129"/>
+      <c r="C208" s="137"/>
+      <c r="D208" s="164"/>
+      <c r="E208" s="137"/>
       <c r="F208" s="32" t="s">
         <v>431</v>
       </c>
@@ -45485,9 +45548,9 @@
         <v>205</v>
       </c>
       <c r="B209" s="72"/>
-      <c r="C209" s="129"/>
-      <c r="D209" s="171"/>
-      <c r="E209" s="129"/>
+      <c r="C209" s="137"/>
+      <c r="D209" s="164"/>
+      <c r="E209" s="137"/>
       <c r="F209" s="32" t="s">
         <v>432</v>
       </c>
@@ -45509,9 +45572,9 @@
         <v>206</v>
       </c>
       <c r="B210" s="72"/>
-      <c r="C210" s="129"/>
-      <c r="D210" s="171"/>
-      <c r="E210" s="129"/>
+      <c r="C210" s="137"/>
+      <c r="D210" s="164"/>
+      <c r="E210" s="137"/>
       <c r="F210" s="32" t="s">
         <v>433</v>
       </c>
@@ -45533,9 +45596,9 @@
         <v>207</v>
       </c>
       <c r="B211" s="72"/>
-      <c r="C211" s="130"/>
-      <c r="D211" s="171"/>
-      <c r="E211" s="130"/>
+      <c r="C211" s="138"/>
+      <c r="D211" s="164"/>
+      <c r="E211" s="138"/>
       <c r="F211" s="32" t="s">
         <v>116</v>
       </c>
@@ -45620,7 +45683,7 @@
       <c r="C214" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="D214" s="171" t="s">
+      <c r="D214" s="164" t="s">
         <v>956</v>
       </c>
       <c r="E214" s="72" t="s">
@@ -45650,7 +45713,7 @@
       <c r="C215" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="D215" s="171"/>
+      <c r="D215" s="164"/>
       <c r="E215" s="37" t="s">
         <v>443</v>
       </c>
@@ -45678,7 +45741,7 @@
       <c r="C216" s="72" t="s">
         <v>1074</v>
       </c>
-      <c r="D216" s="171" t="s">
+      <c r="D216" s="164" t="s">
         <v>956</v>
       </c>
       <c r="E216" s="37" t="s">
@@ -45708,7 +45771,7 @@
       <c r="C217" s="72" t="s">
         <v>665</v>
       </c>
-      <c r="D217" s="171"/>
+      <c r="D217" s="164"/>
       <c r="E217" s="37" t="s">
         <v>628</v>
       </c>
@@ -45736,7 +45799,7 @@
       <c r="C218" s="72" t="s">
         <v>1075</v>
       </c>
-      <c r="D218" s="157" t="s">
+      <c r="D218" s="153" t="s">
         <v>980</v>
       </c>
       <c r="E218" s="37" t="s">
@@ -45766,7 +45829,7 @@
       <c r="C219" s="72" t="s">
         <v>1076</v>
       </c>
-      <c r="D219" s="155"/>
+      <c r="D219" s="154"/>
       <c r="E219" s="37" t="s">
         <v>977</v>
       </c>
@@ -45794,7 +45857,7 @@
       <c r="C220" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="D220" s="156"/>
+      <c r="D220" s="155"/>
       <c r="E220" s="37" t="s">
         <v>159</v>
       </c>
@@ -45825,7 +45888,7 @@
       <c r="D221" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="E221" s="128" t="s">
+      <c r="E221" s="136" t="s">
         <v>875</v>
       </c>
       <c r="F221" s="91" t="s">
@@ -45851,8 +45914,8 @@
       <c r="C222" s="31" t="s">
         <v>873</v>
       </c>
-      <c r="D222" s="135"/>
-      <c r="E222" s="129"/>
+      <c r="D222" s="139"/>
+      <c r="E222" s="137"/>
       <c r="F222" s="31" t="s">
         <v>915</v>
       </c>
@@ -45876,8 +45939,8 @@
       <c r="C223" s="31" t="s">
         <v>874</v>
       </c>
-      <c r="D223" s="136"/>
-      <c r="E223" s="130"/>
+      <c r="D223" s="135"/>
+      <c r="E223" s="138"/>
       <c r="F223" s="42" t="s">
         <v>916</v>
       </c>
@@ -45907,7 +45970,7 @@
       <c r="E224" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="F224" s="131" t="s">
+      <c r="F224" s="150" t="s">
         <v>918</v>
       </c>
       <c r="G224" s="68">
@@ -45932,11 +45995,11 @@
       <c r="C225" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="D225" s="135"/>
+      <c r="D225" s="139"/>
       <c r="E225" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="F225" s="132"/>
+      <c r="F225" s="151"/>
       <c r="G225" s="60">
         <v>44512</v>
       </c>
@@ -45959,11 +46022,11 @@
       <c r="C226" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="D226" s="136"/>
+      <c r="D226" s="135"/>
       <c r="E226" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="F226" s="133"/>
+      <c r="F226" s="152"/>
       <c r="G226" s="68">
         <v>44512</v>
       </c>
@@ -46167,10 +46230,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="48"/>
-      <c r="C233" s="31" t="s">
+      <c r="C233" s="134" t="s">
         <v>1104</v>
       </c>
-      <c r="D233" s="25" t="s">
+      <c r="D233" s="134" t="s">
         <v>1105</v>
       </c>
       <c r="E233" s="37" t="s">
@@ -46191,46 +46254,58 @@
       </c>
       <c r="K233" s="11"/>
     </row>
-    <row r="234" spans="1:11" ht="60">
-      <c r="A234" s="52">
+    <row r="234" spans="1:11" ht="75">
+      <c r="A234" s="52"/>
+      <c r="B234" s="48"/>
+      <c r="C234" s="135"/>
+      <c r="D234" s="135"/>
+      <c r="E234" s="37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F234" s="31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G234" s="60">
+        <v>44513</v>
+      </c>
+      <c r="H234" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="I234" s="30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J234" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="K234" s="11"/>
+    </row>
+    <row r="235" spans="1:11" ht="60">
+      <c r="A235" s="52">
         <v>230</v>
       </c>
-      <c r="B234" s="48"/>
-      <c r="C234" s="25" t="s">
+      <c r="B235" s="48"/>
+      <c r="C235" s="25" t="s">
         <v>1108</v>
       </c>
-      <c r="D234" s="25" t="s">
+      <c r="D235" s="25" t="s">
         <v>1105</v>
       </c>
-      <c r="E234" s="25" t="s">
+      <c r="E235" s="25" t="s">
         <v>1109</v>
       </c>
-      <c r="F234" s="31" t="s">
+      <c r="F235" s="31" t="s">
         <v>1107</v>
       </c>
-      <c r="G234" s="68">
+      <c r="G235" s="68">
         <v>44512</v>
       </c>
-      <c r="H234" s="120" t="s">
+      <c r="H235" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I234" s="30"/>
-      <c r="J234" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K234" s="11"/>
-    </row>
-    <row r="235" spans="1:11" ht="15">
-      <c r="A235" s="12"/>
-      <c r="B235" s="48"/>
-      <c r="C235" s="25"/>
-      <c r="D235" s="48"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
       <c r="I235" s="30"/>
-      <c r="J235" s="39"/>
+      <c r="J235" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="K235" s="11"/>
     </row>
     <row r="236" spans="1:11" ht="15">
@@ -46315,9 +46390,9 @@
       <c r="A242" s="12"/>
       <c r="B242" s="48"/>
       <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="37"/>
-      <c r="F242" s="31"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="48"/>
+      <c r="F242" s="48"/>
       <c r="G242" s="12"/>
       <c r="H242" s="12"/>
       <c r="I242" s="30"/>
@@ -46431,7 +46506,7 @@
     <row r="251" spans="1:11" ht="15">
       <c r="A251" s="12"/>
       <c r="B251" s="48"/>
-      <c r="C251" s="31"/>
+      <c r="C251" s="25"/>
       <c r="D251" s="25"/>
       <c r="E251" s="37"/>
       <c r="F251" s="31"/>
@@ -46444,7 +46519,7 @@
     <row r="252" spans="1:11" ht="15">
       <c r="A252" s="12"/>
       <c r="B252" s="48"/>
-      <c r="C252" s="25"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="25"/>
       <c r="E252" s="37"/>
       <c r="F252" s="31"/>
@@ -46522,7 +46597,7 @@
     <row r="258" spans="1:11" ht="15">
       <c r="A258" s="12"/>
       <c r="B258" s="48"/>
-      <c r="C258" s="31"/>
+      <c r="C258" s="25"/>
       <c r="D258" s="25"/>
       <c r="E258" s="37"/>
       <c r="F258" s="31"/>
@@ -46535,7 +46610,7 @@
     <row r="259" spans="1:11" ht="15">
       <c r="A259" s="12"/>
       <c r="B259" s="48"/>
-      <c r="C259" s="25"/>
+      <c r="C259" s="31"/>
       <c r="D259" s="25"/>
       <c r="E259" s="37"/>
       <c r="F259" s="31"/>
@@ -46613,7 +46688,7 @@
     <row r="265" spans="1:11" ht="15">
       <c r="A265" s="12"/>
       <c r="B265" s="48"/>
-      <c r="C265" s="31"/>
+      <c r="C265" s="25"/>
       <c r="D265" s="25"/>
       <c r="E265" s="37"/>
       <c r="F265" s="31"/>
@@ -46626,7 +46701,7 @@
     <row r="266" spans="1:11" ht="15">
       <c r="A266" s="12"/>
       <c r="B266" s="48"/>
-      <c r="C266" s="25"/>
+      <c r="C266" s="31"/>
       <c r="D266" s="25"/>
       <c r="E266" s="37"/>
       <c r="F266" s="31"/>
@@ -46704,7 +46779,7 @@
     <row r="272" spans="1:11" ht="15">
       <c r="A272" s="12"/>
       <c r="B272" s="48"/>
-      <c r="C272" s="31"/>
+      <c r="C272" s="25"/>
       <c r="D272" s="25"/>
       <c r="E272" s="37"/>
       <c r="F272" s="31"/>
@@ -46717,7 +46792,7 @@
     <row r="273" spans="1:11" ht="15">
       <c r="A273" s="12"/>
       <c r="B273" s="48"/>
-      <c r="C273" s="25"/>
+      <c r="C273" s="31"/>
       <c r="D273" s="25"/>
       <c r="E273" s="37"/>
       <c r="F273" s="31"/>
@@ -46795,7 +46870,7 @@
     <row r="279" spans="1:11" ht="15">
       <c r="A279" s="12"/>
       <c r="B279" s="48"/>
-      <c r="C279" s="31"/>
+      <c r="C279" s="25"/>
       <c r="D279" s="25"/>
       <c r="E279" s="37"/>
       <c r="F279" s="31"/>
@@ -46808,7 +46883,7 @@
     <row r="280" spans="1:11" ht="15">
       <c r="A280" s="12"/>
       <c r="B280" s="48"/>
-      <c r="C280" s="25"/>
+      <c r="C280" s="31"/>
       <c r="D280" s="25"/>
       <c r="E280" s="37"/>
       <c r="F280" s="31"/>
@@ -46886,7 +46961,7 @@
     <row r="286" spans="1:11" ht="15">
       <c r="A286" s="12"/>
       <c r="B286" s="48"/>
-      <c r="C286" s="31"/>
+      <c r="C286" s="25"/>
       <c r="D286" s="25"/>
       <c r="E286" s="37"/>
       <c r="F286" s="31"/>
@@ -46899,7 +46974,7 @@
     <row r="287" spans="1:11" ht="15">
       <c r="A287" s="12"/>
       <c r="B287" s="48"/>
-      <c r="C287" s="25"/>
+      <c r="C287" s="31"/>
       <c r="D287" s="25"/>
       <c r="E287" s="37"/>
       <c r="F287" s="31"/>
@@ -46948,8 +47023,70 @@
       <c r="J290" s="39"/>
       <c r="K290" s="11"/>
     </row>
+    <row r="291" spans="1:11" ht="15">
+      <c r="A291" s="12"/>
+      <c r="B291" s="48"/>
+      <c r="C291" s="25"/>
+      <c r="D291" s="25"/>
+      <c r="E291" s="37"/>
+      <c r="F291" s="31"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="39"/>
+      <c r="K291" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="65">
+    <mergeCell ref="C174:C185"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="F19:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D5:D39"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D49:D60"/>
+    <mergeCell ref="D74:D85"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D133:D144"/>
+    <mergeCell ref="F5:F16"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F116:F120"/>
+    <mergeCell ref="F40:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="C49:C60"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="D109:D115"/>
+    <mergeCell ref="F109:F115"/>
+    <mergeCell ref="E74:E85"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="C86:C97"/>
+    <mergeCell ref="D86:D97"/>
+    <mergeCell ref="E86:E97"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="D116:D120"/>
+    <mergeCell ref="D121:D127"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="F121:F127"/>
+    <mergeCell ref="D161:D172"/>
+    <mergeCell ref="E161:E172"/>
+    <mergeCell ref="E133:E144"/>
+    <mergeCell ref="C133:C144"/>
+    <mergeCell ref="D130:D132"/>
     <mergeCell ref="I121:I127"/>
     <mergeCell ref="D218:D220"/>
     <mergeCell ref="C161:C172"/>
@@ -46966,53 +47103,6 @@
     <mergeCell ref="D152:D154"/>
     <mergeCell ref="D156:D157"/>
     <mergeCell ref="D158:D160"/>
-    <mergeCell ref="D161:D172"/>
-    <mergeCell ref="E161:E172"/>
-    <mergeCell ref="E133:E144"/>
-    <mergeCell ref="C133:C144"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="D116:D120"/>
-    <mergeCell ref="D121:D127"/>
-    <mergeCell ref="C121:C127"/>
-    <mergeCell ref="F121:F127"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="D109:D115"/>
-    <mergeCell ref="F109:F115"/>
-    <mergeCell ref="E74:E85"/>
-    <mergeCell ref="C74:C85"/>
-    <mergeCell ref="C86:C97"/>
-    <mergeCell ref="D86:D97"/>
-    <mergeCell ref="E86:E97"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="F5:F16"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F116:F120"/>
-    <mergeCell ref="F40:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="F19:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D5:D39"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="D40:D48"/>
-    <mergeCell ref="D49:D60"/>
-    <mergeCell ref="C49:C60"/>
-    <mergeCell ref="D74:D85"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D133:D144"/>
-    <mergeCell ref="C174:C185"/>
-    <mergeCell ref="D216:D217"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47034,7 +47124,7 @@
       <c r="B4" s="134" t="s">
         <v>833</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="150" t="s">
         <v>812</v>
       </c>
       <c r="D4" s="134" t="s">
@@ -47048,54 +47138,54 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="210">
-      <c r="B5" s="135"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="37" t="s">
         <v>815</v>
       </c>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="2:6" ht="210">
-      <c r="B6" s="135"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="135"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="37" t="s">
         <v>817</v>
       </c>
       <c r="F6" s="31"/>
     </row>
     <row r="7" spans="2:6" ht="210">
-      <c r="B7" s="135"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="135"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="37" t="s">
         <v>816</v>
       </c>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="210">
-      <c r="B8" s="135"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="135"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="37" t="s">
         <v>818</v>
       </c>
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="195">
-      <c r="B9" s="135"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="135"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="37" t="s">
         <v>819</v>
       </c>
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="195">
-      <c r="B10" s="136"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="37" t="s">
         <v>820</v>
       </c>
@@ -47117,54 +47207,54 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:6" ht="225">
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="37" t="s">
         <v>823</v>
       </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" ht="225">
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="37" t="s">
         <v>824</v>
       </c>
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6" ht="225">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="37" t="s">
         <v>825</v>
       </c>
       <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:6" ht="225">
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="37" t="s">
         <v>822</v>
       </c>
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="2:6" ht="240">
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="37" t="s">
         <v>827</v>
       </c>
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" ht="210">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="37" t="s">
         <v>828</v>
       </c>

--- a/testcase_account_ver5.xlsx
+++ b/testcase_account_ver5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E44AA-548A-4562-9958-09FE9E27319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A6F1FA-1040-40D6-9885-6B57B2E0C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20664,12 +20664,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -20679,7 +20673,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20712,38 +20721,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20754,25 +20745,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -20784,7 +20766,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -21163,12 +21163,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -21191,10 +21191,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -21508,7 +21508,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="140" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -21538,7 +21538,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="139"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -21566,7 +21566,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="139"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -21594,7 +21594,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="139"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -21622,7 +21622,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="139"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -21650,7 +21650,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="139"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -21678,7 +21678,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="139"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -21706,7 +21706,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="139"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -21734,7 +21734,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="139"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -21762,7 +21762,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="139"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -21790,7 +21790,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="139"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -21818,7 +21818,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="135"/>
+      <c r="G23" s="142"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -22276,7 +22276,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="136" t="s">
+      <c r="G38" s="134" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -22306,7 +22306,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="137"/>
+      <c r="G39" s="135"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -22334,7 +22334,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="137"/>
+      <c r="G40" s="135"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -22362,7 +22362,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="137"/>
+      <c r="G41" s="135"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -22390,7 +22390,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="138"/>
+      <c r="G42" s="136"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -22542,7 +22542,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="136" t="s">
+      <c r="G47" s="134" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -22572,7 +22572,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="138"/>
+      <c r="G48" s="136"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -22853,7 +22853,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="134" t="s">
+      <c r="F57" s="140" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -22885,7 +22885,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="139"/>
+      <c r="F58" s="141"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -22912,10 +22912,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="144" t="s">
+      <c r="E59" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="139"/>
+      <c r="F59" s="141"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -22940,8 +22940,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="145"/>
-      <c r="F60" s="139"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="141"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -22966,8 +22966,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="145"/>
-      <c r="F61" s="139"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="141"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -22992,8 +22992,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="145"/>
-      <c r="F62" s="139"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="141"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -23018,8 +23018,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="145"/>
-      <c r="F63" s="139"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="141"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -23044,8 +23044,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="145"/>
-      <c r="F64" s="139"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="141"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -23070,8 +23070,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="145"/>
-      <c r="F65" s="139"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="141"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -23096,8 +23096,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="145"/>
-      <c r="F66" s="139"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="141"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -23122,8 +23122,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="145"/>
-      <c r="F67" s="139"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="141"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -23148,8 +23148,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="145"/>
-      <c r="F68" s="139"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="141"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -23174,8 +23174,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="145"/>
-      <c r="F69" s="139"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="141"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -23200,8 +23200,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="145"/>
-      <c r="F70" s="139"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="141"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -23226,8 +23226,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="146"/>
-      <c r="F71" s="135"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="142"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -23288,10 +23288,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="147" t="s">
+      <c r="E73" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="136" t="s">
+      <c r="F73" s="134" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -23318,8 +23318,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="148"/>
-      <c r="F74" s="137"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="135"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -23344,8 +23344,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="148"/>
-      <c r="F75" s="137"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="135"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -23370,8 +23370,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="148"/>
-      <c r="F76" s="137"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="135"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -23396,8 +23396,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="148"/>
-      <c r="F77" s="137"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="135"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -23422,8 +23422,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="148"/>
-      <c r="F78" s="137"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="135"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -23448,8 +23448,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="148"/>
-      <c r="F79" s="137"/>
+      <c r="E79" s="151"/>
+      <c r="F79" s="135"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -23474,8 +23474,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="148"/>
-      <c r="F80" s="137"/>
+      <c r="E80" s="151"/>
+      <c r="F80" s="135"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -23500,8 +23500,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="148"/>
-      <c r="F81" s="137"/>
+      <c r="E81" s="151"/>
+      <c r="F81" s="135"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -23526,8 +23526,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="148"/>
-      <c r="F82" s="137"/>
+      <c r="E82" s="151"/>
+      <c r="F82" s="135"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -23552,8 +23552,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="148"/>
-      <c r="F83" s="137"/>
+      <c r="E83" s="151"/>
+      <c r="F83" s="135"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -23578,8 +23578,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="149"/>
-      <c r="F84" s="138"/>
+      <c r="E84" s="152"/>
+      <c r="F84" s="136"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -23672,10 +23672,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="147" t="s">
+      <c r="E87" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="136" t="s">
+      <c r="F87" s="134" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -23702,8 +23702,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="148"/>
-      <c r="F88" s="137"/>
+      <c r="E88" s="151"/>
+      <c r="F88" s="135"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -23728,8 +23728,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="148"/>
-      <c r="F89" s="137"/>
+      <c r="E89" s="151"/>
+      <c r="F89" s="135"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -23754,8 +23754,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="149"/>
-      <c r="F90" s="138"/>
+      <c r="E90" s="152"/>
+      <c r="F90" s="136"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -23784,10 +23784,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="147" t="s">
+      <c r="E91" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="134" t="s">
+      <c r="F91" s="140" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -23816,8 +23816,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="148"/>
-      <c r="F92" s="139"/>
+      <c r="E92" s="151"/>
+      <c r="F92" s="141"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -23842,8 +23842,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="149"/>
-      <c r="F93" s="139"/>
+      <c r="E93" s="152"/>
+      <c r="F93" s="141"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -23875,7 +23875,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="139"/>
+      <c r="F94" s="141"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -23903,7 +23903,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="135"/>
+      <c r="F95" s="142"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -23998,10 +23998,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="147" t="s">
+      <c r="E98" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="136" t="s">
+      <c r="F98" s="134" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -24028,8 +24028,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="148"/>
-      <c r="F99" s="137"/>
+      <c r="E99" s="151"/>
+      <c r="F99" s="135"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -24054,8 +24054,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="148"/>
-      <c r="F100" s="137"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="135"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -24080,8 +24080,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="148"/>
-      <c r="F101" s="137"/>
+      <c r="E101" s="151"/>
+      <c r="F101" s="135"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -24106,8 +24106,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="148"/>
-      <c r="F102" s="137"/>
+      <c r="E102" s="151"/>
+      <c r="F102" s="135"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -24132,8 +24132,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="148"/>
-      <c r="F103" s="137"/>
+      <c r="E103" s="151"/>
+      <c r="F103" s="135"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -24158,8 +24158,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="148"/>
-      <c r="F104" s="137"/>
+      <c r="E104" s="151"/>
+      <c r="F104" s="135"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -24184,8 +24184,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="148"/>
-      <c r="F105" s="137"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="135"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -24210,8 +24210,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="148"/>
-      <c r="F106" s="137"/>
+      <c r="E106" s="151"/>
+      <c r="F106" s="135"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -24236,8 +24236,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="148"/>
-      <c r="F107" s="137"/>
+      <c r="E107" s="151"/>
+      <c r="F107" s="135"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -24262,8 +24262,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="148"/>
-      <c r="F108" s="137"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="135"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -24288,8 +24288,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="149"/>
-      <c r="F109" s="138"/>
+      <c r="E109" s="152"/>
+      <c r="F109" s="136"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -24386,7 +24386,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="134" t="s">
+      <c r="G112" s="140" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -24416,7 +24416,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="139"/>
+      <c r="G113" s="141"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -24444,7 +24444,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="139"/>
+      <c r="G114" s="141"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -24472,7 +24472,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="139"/>
+      <c r="G115" s="141"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -24500,7 +24500,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="139"/>
+      <c r="G116" s="141"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -24528,7 +24528,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="139"/>
+      <c r="G117" s="141"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -24558,7 +24558,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="139"/>
+      <c r="G118" s="141"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -24586,7 +24586,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="139"/>
+      <c r="G119" s="141"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -24614,7 +24614,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="139"/>
+      <c r="G120" s="141"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -24642,7 +24642,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="139"/>
+      <c r="G121" s="141"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -24670,7 +24670,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="139"/>
+      <c r="G122" s="141"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -24698,7 +24698,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="135"/>
+      <c r="G123" s="142"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="136" t="s">
+      <c r="F134" s="134" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -25061,7 +25061,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="137"/>
+      <c r="F135" s="135"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -25089,7 +25089,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="137"/>
+      <c r="F136" s="135"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -25117,7 +25117,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="137"/>
+      <c r="F137" s="135"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -25145,7 +25145,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="137"/>
+      <c r="F138" s="135"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -25173,7 +25173,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="137"/>
+      <c r="F139" s="135"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -25201,7 +25201,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="137"/>
+      <c r="F140" s="135"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -25231,7 +25231,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="137"/>
+      <c r="F141" s="135"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -25259,7 +25259,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="137"/>
+      <c r="F142" s="135"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -25287,7 +25287,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="137"/>
+      <c r="F143" s="135"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -25315,7 +25315,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="137"/>
+      <c r="F144" s="135"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -25343,7 +25343,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="137"/>
+      <c r="F145" s="135"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -25371,7 +25371,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="137"/>
+      <c r="F146" s="135"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -25399,7 +25399,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="137"/>
+      <c r="F147" s="135"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -25427,7 +25427,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="138"/>
+      <c r="F148" s="136"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -25459,7 +25459,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="136" t="s">
+      <c r="F149" s="134" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -25489,7 +25489,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="137"/>
+      <c r="F150" s="135"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -25517,7 +25517,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="138"/>
+      <c r="F151" s="136"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -25546,13 +25546,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="150" t="s">
+      <c r="E152" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="136" t="s">
+      <c r="F152" s="134" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="134" t="s">
+      <c r="G152" s="140" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -25576,9 +25576,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="151"/>
-      <c r="F153" s="137"/>
-      <c r="G153" s="139"/>
+      <c r="E153" s="138"/>
+      <c r="F153" s="135"/>
+      <c r="G153" s="141"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -25600,9 +25600,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="151"/>
-      <c r="F154" s="137"/>
-      <c r="G154" s="139"/>
+      <c r="E154" s="138"/>
+      <c r="F154" s="135"/>
+      <c r="G154" s="141"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -25624,9 +25624,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="151"/>
-      <c r="F155" s="137"/>
-      <c r="G155" s="139"/>
+      <c r="E155" s="138"/>
+      <c r="F155" s="135"/>
+      <c r="G155" s="141"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -25648,9 +25648,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="151"/>
-      <c r="F156" s="137"/>
-      <c r="G156" s="139"/>
+      <c r="E156" s="138"/>
+      <c r="F156" s="135"/>
+      <c r="G156" s="141"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -25672,9 +25672,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="151"/>
-      <c r="F157" s="137"/>
-      <c r="G157" s="139"/>
+      <c r="E157" s="138"/>
+      <c r="F157" s="135"/>
+      <c r="G157" s="141"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -25698,9 +25698,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="151"/>
-      <c r="F158" s="137"/>
-      <c r="G158" s="139"/>
+      <c r="E158" s="138"/>
+      <c r="F158" s="135"/>
+      <c r="G158" s="141"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -25722,9 +25722,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="151"/>
-      <c r="F159" s="137"/>
-      <c r="G159" s="139"/>
+      <c r="E159" s="138"/>
+      <c r="F159" s="135"/>
+      <c r="G159" s="141"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -25746,9 +25746,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="151"/>
-      <c r="F160" s="137"/>
-      <c r="G160" s="139"/>
+      <c r="E160" s="138"/>
+      <c r="F160" s="135"/>
+      <c r="G160" s="141"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -25770,9 +25770,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="151"/>
-      <c r="F161" s="137"/>
-      <c r="G161" s="139"/>
+      <c r="E161" s="138"/>
+      <c r="F161" s="135"/>
+      <c r="G161" s="141"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -25794,9 +25794,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="151"/>
-      <c r="F162" s="137"/>
-      <c r="G162" s="139"/>
+      <c r="E162" s="138"/>
+      <c r="F162" s="135"/>
+      <c r="G162" s="141"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -25818,9 +25818,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="151"/>
-      <c r="F163" s="137"/>
-      <c r="G163" s="135"/>
+      <c r="E163" s="138"/>
+      <c r="F163" s="135"/>
+      <c r="G163" s="142"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -25842,8 +25842,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="151"/>
-      <c r="F164" s="137"/>
+      <c r="E164" s="138"/>
+      <c r="F164" s="135"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -25868,8 +25868,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="152"/>
-      <c r="F165" s="138"/>
+      <c r="E165" s="139"/>
+      <c r="F165" s="136"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -25970,7 +25970,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="134" t="s">
+      <c r="G168" s="140" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="68">
@@ -26000,7 +26000,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="135"/>
+      <c r="G169" s="142"/>
       <c r="H169" s="68">
         <v>44480</v>
       </c>
@@ -26130,7 +26130,7 @@
       <c r="F173" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="G173" s="136" t="s">
+      <c r="G173" s="134" t="s">
         <v>599</v>
       </c>
       <c r="H173" s="68">
@@ -26160,7 +26160,7 @@
       <c r="F174" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="G174" s="137"/>
+      <c r="G174" s="135"/>
       <c r="H174" s="68">
         <v>44480</v>
       </c>
@@ -26188,7 +26188,7 @@
       <c r="F175" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="G175" s="137"/>
+      <c r="G175" s="135"/>
       <c r="H175" s="68">
         <v>44480</v>
       </c>
@@ -26216,7 +26216,7 @@
       <c r="F176" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="G176" s="137"/>
+      <c r="G176" s="135"/>
       <c r="H176" s="68">
         <v>44480</v>
       </c>
@@ -26244,7 +26244,7 @@
       <c r="F177" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="G177" s="137"/>
+      <c r="G177" s="135"/>
       <c r="H177" s="68">
         <v>44480</v>
       </c>
@@ -26272,7 +26272,7 @@
       <c r="F178" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="G178" s="137"/>
+      <c r="G178" s="135"/>
       <c r="H178" s="68">
         <v>44480</v>
       </c>
@@ -26300,7 +26300,7 @@
       <c r="F179" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="G179" s="137"/>
+      <c r="G179" s="135"/>
       <c r="H179" s="68">
         <v>44480</v>
       </c>
@@ -26328,7 +26328,7 @@
       <c r="F180" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="137"/>
+      <c r="G180" s="135"/>
       <c r="H180" s="68">
         <v>44480</v>
       </c>
@@ -26356,7 +26356,7 @@
       <c r="F181" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="137"/>
+      <c r="G181" s="135"/>
       <c r="H181" s="68">
         <v>44480</v>
       </c>
@@ -26384,7 +26384,7 @@
       <c r="F182" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="G182" s="137"/>
+      <c r="G182" s="135"/>
       <c r="H182" s="68">
         <v>44480</v>
       </c>
@@ -26412,7 +26412,7 @@
       <c r="F183" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="G183" s="138"/>
+      <c r="G183" s="136"/>
       <c r="H183" s="68">
         <v>44480</v>
       </c>
@@ -26472,7 +26472,7 @@
       <c r="F185" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="G185" s="134" t="s">
+      <c r="G185" s="140" t="s">
         <v>601</v>
       </c>
       <c r="H185" s="68">
@@ -26502,7 +26502,7 @@
       <c r="F186" s="99" t="s">
         <v>573</v>
       </c>
-      <c r="G186" s="139"/>
+      <c r="G186" s="141"/>
       <c r="H186" s="68">
         <v>44480</v>
       </c>
@@ -26530,7 +26530,7 @@
       <c r="F187" s="99" t="s">
         <v>574</v>
       </c>
-      <c r="G187" s="139"/>
+      <c r="G187" s="141"/>
       <c r="H187" s="68">
         <v>44480</v>
       </c>
@@ -26558,7 +26558,7 @@
       <c r="F188" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="G188" s="139"/>
+      <c r="G188" s="141"/>
       <c r="H188" s="68">
         <v>44480</v>
       </c>
@@ -26586,7 +26586,7 @@
       <c r="F189" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="G189" s="139"/>
+      <c r="G189" s="141"/>
       <c r="H189" s="68">
         <v>44480</v>
       </c>
@@ -26614,7 +26614,7 @@
       <c r="F190" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="G190" s="139"/>
+      <c r="G190" s="141"/>
       <c r="H190" s="68">
         <v>44480</v>
       </c>
@@ -26642,7 +26642,7 @@
       <c r="F191" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="G191" s="139"/>
+      <c r="G191" s="141"/>
       <c r="H191" s="68">
         <v>44480</v>
       </c>
@@ -26670,7 +26670,7 @@
       <c r="F192" s="99" t="s">
         <v>579</v>
       </c>
-      <c r="G192" s="139"/>
+      <c r="G192" s="141"/>
       <c r="H192" s="68">
         <v>44480</v>
       </c>
@@ -26698,7 +26698,7 @@
       <c r="F193" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G193" s="139"/>
+      <c r="G193" s="141"/>
       <c r="H193" s="68">
         <v>44480</v>
       </c>
@@ -26726,7 +26726,7 @@
       <c r="F194" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G194" s="135"/>
+      <c r="G194" s="142"/>
       <c r="H194" s="68">
         <v>44480</v>
       </c>
@@ -27154,7 +27154,7 @@
       <c r="F208" s="99" t="s">
         <v>593</v>
       </c>
-      <c r="G208" s="134" t="s">
+      <c r="G208" s="140" t="s">
         <v>604</v>
       </c>
       <c r="H208" s="68">
@@ -27184,7 +27184,7 @@
       <c r="F209" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="G209" s="135"/>
+      <c r="G209" s="142"/>
       <c r="H209" s="68">
         <v>44480</v>
       </c>
@@ -27244,7 +27244,7 @@
       <c r="F211" s="99" t="s">
         <v>596</v>
       </c>
-      <c r="G211" s="134" t="s">
+      <c r="G211" s="140" t="s">
         <v>607</v>
       </c>
       <c r="H211" s="68">
@@ -27274,7 +27274,7 @@
       <c r="F212" s="99" t="s">
         <v>597</v>
       </c>
-      <c r="G212" s="135"/>
+      <c r="G212" s="142"/>
       <c r="H212" s="68">
         <v>44480</v>
       </c>
@@ -27330,13 +27330,13 @@
       <c r="D214" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E214" s="150" t="s">
+      <c r="E214" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="F214" s="136" t="s">
+      <c r="F214" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="G214" s="134" t="s">
+      <c r="G214" s="140" t="s">
         <v>757</v>
       </c>
       <c r="H214" s="68">
@@ -27360,9 +27360,9 @@
       <c r="D215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E215" s="151"/>
-      <c r="F215" s="137"/>
-      <c r="G215" s="139"/>
+      <c r="E215" s="138"/>
+      <c r="F215" s="135"/>
+      <c r="G215" s="141"/>
       <c r="H215" s="68">
         <v>44504</v>
       </c>
@@ -27384,9 +27384,9 @@
       <c r="D216" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="151"/>
-      <c r="F216" s="137"/>
-      <c r="G216" s="139"/>
+      <c r="E216" s="138"/>
+      <c r="F216" s="135"/>
+      <c r="G216" s="141"/>
       <c r="H216" s="68">
         <v>44504</v>
       </c>
@@ -27408,9 +27408,9 @@
       <c r="D217" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E217" s="151"/>
-      <c r="F217" s="137"/>
-      <c r="G217" s="139"/>
+      <c r="E217" s="138"/>
+      <c r="F217" s="135"/>
+      <c r="G217" s="141"/>
       <c r="H217" s="68">
         <v>44504</v>
       </c>
@@ -27432,9 +27432,9 @@
       <c r="D218" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E218" s="151"/>
-      <c r="F218" s="137"/>
-      <c r="G218" s="135"/>
+      <c r="E218" s="138"/>
+      <c r="F218" s="135"/>
+      <c r="G218" s="142"/>
       <c r="H218" s="68">
         <v>44504</v>
       </c>
@@ -27456,8 +27456,8 @@
       <c r="D219" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="151"/>
-      <c r="F219" s="137"/>
+      <c r="E219" s="138"/>
+      <c r="F219" s="135"/>
       <c r="G219" s="31" t="s">
         <v>759</v>
       </c>
@@ -27482,8 +27482,8 @@
       <c r="D220" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E220" s="151"/>
-      <c r="F220" s="137"/>
+      <c r="E220" s="138"/>
+      <c r="F220" s="135"/>
       <c r="G220" s="31" t="s">
         <v>758</v>
       </c>
@@ -27508,8 +27508,8 @@
       <c r="D221" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="E221" s="152"/>
-      <c r="F221" s="137"/>
+      <c r="E221" s="139"/>
+      <c r="F221" s="135"/>
       <c r="G221" s="31" t="s">
         <v>760</v>
       </c>
@@ -27537,7 +27537,7 @@
       <c r="E222" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="F222" s="138"/>
+      <c r="F222" s="136"/>
       <c r="G222" s="31" t="s">
         <v>769</v>
       </c>
@@ -27564,13 +27564,13 @@
       <c r="D223" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E223" s="150" t="s">
+      <c r="E223" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="F223" s="136" t="s">
+      <c r="F223" s="134" t="s">
         <v>762</v>
       </c>
-      <c r="G223" s="134" t="s">
+      <c r="G223" s="140" t="s">
         <v>766</v>
       </c>
       <c r="H223" s="68">
@@ -27594,9 +27594,9 @@
       <c r="D224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E224" s="151"/>
-      <c r="F224" s="137"/>
-      <c r="G224" s="139"/>
+      <c r="E224" s="138"/>
+      <c r="F224" s="135"/>
+      <c r="G224" s="141"/>
       <c r="H224" s="68">
         <v>44504</v>
       </c>
@@ -27618,9 +27618,9 @@
       <c r="D225" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E225" s="151"/>
-      <c r="F225" s="137"/>
-      <c r="G225" s="139"/>
+      <c r="E225" s="138"/>
+      <c r="F225" s="135"/>
+      <c r="G225" s="141"/>
       <c r="H225" s="68">
         <v>44504</v>
       </c>
@@ -27642,9 +27642,9 @@
       <c r="D226" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E226" s="151"/>
-      <c r="F226" s="137"/>
-      <c r="G226" s="139"/>
+      <c r="E226" s="138"/>
+      <c r="F226" s="135"/>
+      <c r="G226" s="141"/>
       <c r="H226" s="68">
         <v>44504</v>
       </c>
@@ -27666,9 +27666,9 @@
       <c r="D227" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E227" s="151"/>
-      <c r="F227" s="138"/>
-      <c r="G227" s="135"/>
+      <c r="E227" s="138"/>
+      <c r="F227" s="136"/>
+      <c r="G227" s="142"/>
       <c r="H227" s="68">
         <v>44504</v>
       </c>
@@ -27690,11 +27690,11 @@
       <c r="D228" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E228" s="151"/>
+      <c r="E228" s="138"/>
       <c r="F228" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="G228" s="134" t="s">
+      <c r="G228" s="140" t="s">
         <v>767</v>
       </c>
       <c r="H228" s="68">
@@ -27718,11 +27718,11 @@
       <c r="D229" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E229" s="151"/>
+      <c r="E229" s="138"/>
       <c r="F229" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="G229" s="135"/>
+      <c r="G229" s="142"/>
       <c r="H229" s="68">
         <v>44504</v>
       </c>
@@ -27746,13 +27746,13 @@
       <c r="D230" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E230" s="150" t="s">
+      <c r="E230" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="F230" s="136" t="s">
+      <c r="F230" s="134" t="s">
         <v>765</v>
       </c>
-      <c r="G230" s="134" t="s">
+      <c r="G230" s="140" t="s">
         <v>770</v>
       </c>
       <c r="H230" s="68">
@@ -27776,9 +27776,9 @@
       <c r="D231" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E231" s="151"/>
-      <c r="F231" s="137"/>
-      <c r="G231" s="139"/>
+      <c r="E231" s="138"/>
+      <c r="F231" s="135"/>
+      <c r="G231" s="141"/>
       <c r="H231" s="68">
         <v>44504</v>
       </c>
@@ -27800,9 +27800,9 @@
       <c r="D232" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="151"/>
-      <c r="F232" s="137"/>
-      <c r="G232" s="139"/>
+      <c r="E232" s="138"/>
+      <c r="F232" s="135"/>
+      <c r="G232" s="141"/>
       <c r="H232" s="68">
         <v>44504</v>
       </c>
@@ -27824,9 +27824,9 @@
       <c r="D233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E233" s="151"/>
-      <c r="F233" s="137"/>
-      <c r="G233" s="139"/>
+      <c r="E233" s="138"/>
+      <c r="F233" s="135"/>
+      <c r="G233" s="141"/>
       <c r="H233" s="68">
         <v>44504</v>
       </c>
@@ -27848,9 +27848,9 @@
       <c r="D234" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E234" s="151"/>
-      <c r="F234" s="137"/>
-      <c r="G234" s="135"/>
+      <c r="E234" s="138"/>
+      <c r="F234" s="135"/>
+      <c r="G234" s="142"/>
       <c r="H234" s="68">
         <v>44504</v>
       </c>
@@ -27872,8 +27872,8 @@
       <c r="D235" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E235" s="151"/>
-      <c r="F235" s="137"/>
+      <c r="E235" s="138"/>
+      <c r="F235" s="135"/>
       <c r="G235" s="102" t="s">
         <v>771</v>
       </c>
@@ -27898,8 +27898,8 @@
       <c r="D236" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E236" s="151"/>
-      <c r="F236" s="137"/>
+      <c r="E236" s="138"/>
+      <c r="F236" s="135"/>
       <c r="G236" s="102" t="s">
         <v>772</v>
       </c>
@@ -27924,8 +27924,8 @@
       <c r="D237" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="E237" s="152"/>
-      <c r="F237" s="138"/>
+      <c r="E237" s="139"/>
+      <c r="F237" s="136"/>
       <c r="G237" s="31" t="s">
         <v>773</v>
       </c>
@@ -28265,25 +28265,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F230:F237"/>
-    <mergeCell ref="E230:E237"/>
-    <mergeCell ref="G230:G234"/>
-    <mergeCell ref="E214:E221"/>
-    <mergeCell ref="F214:F222"/>
-    <mergeCell ref="G214:G218"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="F223:F227"/>
-    <mergeCell ref="G223:G227"/>
-    <mergeCell ref="G228:G229"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="E152:E165"/>
-    <mergeCell ref="F152:F165"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="G152:G163"/>
-    <mergeCell ref="G112:G123"/>
-    <mergeCell ref="F134:F148"/>
-    <mergeCell ref="F149:F151"/>
     <mergeCell ref="G211:G212"/>
     <mergeCell ref="G173:G183"/>
     <mergeCell ref="G185:G194"/>
@@ -28300,6 +28281,25 @@
     <mergeCell ref="F87:F90"/>
     <mergeCell ref="E91:E93"/>
     <mergeCell ref="E98:E109"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="E152:E165"/>
+    <mergeCell ref="F152:F165"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="G152:G163"/>
+    <mergeCell ref="G112:G123"/>
+    <mergeCell ref="F134:F148"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="F230:F237"/>
+    <mergeCell ref="E230:E237"/>
+    <mergeCell ref="G230:G234"/>
+    <mergeCell ref="E214:E221"/>
+    <mergeCell ref="F214:F222"/>
+    <mergeCell ref="G214:G218"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="F223:F227"/>
+    <mergeCell ref="G223:G227"/>
+    <mergeCell ref="G228:G229"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -28333,11 +28333,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="159"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="153"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -28360,9 +28360,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="160"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -28530,13 +28530,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="140" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="140" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -28556,11 +28556,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="139"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="139"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -28578,11 +28578,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="139"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -28600,11 +28600,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="139"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="139"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -28622,11 +28622,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="139"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -28644,11 +28644,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="139"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -28666,11 +28666,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="139"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="139"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -28688,11 +28688,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="139"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="139"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -28710,11 +28710,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="139"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="139"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -28732,11 +28732,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="139"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="139"/>
+      <c r="F17" s="141"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -28754,11 +28754,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="139"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="139"/>
+      <c r="F18" s="141"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -28776,11 +28776,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="135"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="135"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -28801,13 +28801,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="140" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="161" t="s">
+      <c r="E20" s="158" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="140" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -28830,9 +28830,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="139"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="139"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -28853,9 +28853,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="139"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="139"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -28876,9 +28876,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="139"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="139"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -28899,9 +28899,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="139"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="135"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="142"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -28922,8 +28922,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="139"/>
-      <c r="E25" s="162"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="159"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -28947,9 +28947,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="134" t="s">
+      <c r="D26" s="141"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="140" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -28972,9 +28972,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="139"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="139"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -28995,9 +28995,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="139"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -29018,9 +29018,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="139"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="139"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -29041,9 +29041,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="139"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="139"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -29064,9 +29064,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="135"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="135"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="142"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -29089,7 +29089,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="134" t="s">
+      <c r="D32" s="140" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -29118,7 +29118,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="139"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -29145,7 +29145,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="139"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -29172,7 +29172,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="139"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -29199,7 +29199,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -29226,7 +29226,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -29253,7 +29253,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -29280,7 +29280,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="139"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -29307,7 +29307,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="139"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -29334,7 +29334,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="135"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -29363,13 +29363,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="134" t="s">
+      <c r="D42" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="136" t="s">
+      <c r="F42" s="134" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -29392,9 +29392,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -29415,9 +29415,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -29438,9 +29438,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="151"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -29461,9 +29461,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="151"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -29484,9 +29484,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="151"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -29507,9 +29507,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="151"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -29530,9 +29530,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="151"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -29553,9 +29553,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="151"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -29576,9 +29576,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="151"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -29599,9 +29599,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -29622,9 +29622,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="152"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -29647,13 +29647,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="134" t="s">
+      <c r="D54" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="136" t="s">
+      <c r="E54" s="134" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="156" t="s">
+      <c r="F54" s="155" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -29676,9 +29676,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="151"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="158"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="156"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -29699,9 +29699,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="151"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="158"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="156"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -29722,9 +29722,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="151"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="158"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="156"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -29745,9 +29745,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="158"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="156"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -29768,8 +29768,8 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="135"/>
       <c r="F59" s="157"/>
       <c r="G59" s="60">
         <v>44369</v>
@@ -29791,8 +29791,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="151"/>
-      <c r="E60" s="137"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="135"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -29816,8 +29816,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="137"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="135"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -29841,8 +29841,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="137"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="135"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -29866,9 +29866,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="151"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="156" t="s">
+      <c r="D63" s="138"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="155" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -29891,8 +29891,8 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="151"/>
-      <c r="E64" s="137"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="135"/>
       <c r="F64" s="157"/>
       <c r="G64" s="60">
         <v>44369</v>
@@ -29914,8 +29914,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="152"/>
-      <c r="E65" s="138"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="136"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -29941,13 +29941,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="134" t="s">
+      <c r="D66" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="134" t="s">
+      <c r="E66" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="136" t="s">
+      <c r="F66" s="134" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -29970,9 +29970,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="151"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="137"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="141"/>
+      <c r="F67" s="135"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -29993,9 +29993,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="151"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="137"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="141"/>
+      <c r="F68" s="135"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -30016,9 +30016,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="151"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="137"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="135"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -30039,9 +30039,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="151"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="137"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="135"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -30062,9 +30062,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="151"/>
-      <c r="E71" s="139"/>
-      <c r="F71" s="137"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="141"/>
+      <c r="F71" s="135"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -30085,9 +30085,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="137"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="135"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -30108,9 +30108,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="151"/>
-      <c r="E73" s="139"/>
-      <c r="F73" s="137"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="135"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -30131,9 +30131,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="151"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="137"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="141"/>
+      <c r="F74" s="135"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -30154,9 +30154,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="151"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="137"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="135"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -30177,9 +30177,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="151"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="137"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="141"/>
+      <c r="F76" s="135"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -30200,9 +30200,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="152"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="138"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="136"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -30258,10 +30258,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="134" t="s">
+      <c r="D79" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="134" t="s">
+      <c r="E79" s="140" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -30287,8 +30287,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="139"/>
-      <c r="E80" s="139"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -30312,8 +30312,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="139"/>
-      <c r="E81" s="139"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="141"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -30337,8 +30337,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="139"/>
-      <c r="E82" s="139"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="141"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -30362,8 +30362,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="139"/>
-      <c r="E83" s="139"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -30387,8 +30387,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -30412,8 +30412,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="139"/>
-      <c r="E85" s="139"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -30437,8 +30437,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="139"/>
-      <c r="E86" s="139"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="141"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -30462,8 +30462,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="141"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -30487,8 +30487,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="139"/>
-      <c r="E88" s="139"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -30512,8 +30512,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="139"/>
-      <c r="E89" s="139"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -30537,8 +30537,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="139"/>
-      <c r="E90" s="139"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="141"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -30562,8 +30562,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="139"/>
-      <c r="E91" s="139"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="141"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -30587,8 +30587,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="139"/>
-      <c r="E92" s="139"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="141"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -30612,8 +30612,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="139"/>
-      <c r="E93" s="139"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="141"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -30639,8 +30639,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="135"/>
-      <c r="E94" s="135"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="142"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -30759,10 +30759,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="136" t="s">
+      <c r="D98" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="136" t="s">
+      <c r="E98" s="134" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -30788,8 +30788,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="154"/>
-      <c r="E99" s="137"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="135"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -30813,8 +30813,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="154"/>
-      <c r="E100" s="137"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="135"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -30838,8 +30838,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="154"/>
-      <c r="E101" s="137"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="135"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -30863,8 +30863,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="154"/>
-      <c r="E102" s="137"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="135"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -30888,8 +30888,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="154"/>
-      <c r="E103" s="137"/>
+      <c r="D103" s="161"/>
+      <c r="E103" s="135"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -30913,8 +30913,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="154"/>
-      <c r="E104" s="137"/>
+      <c r="D104" s="161"/>
+      <c r="E104" s="135"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -30938,8 +30938,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="154"/>
-      <c r="E105" s="137"/>
+      <c r="D105" s="161"/>
+      <c r="E105" s="135"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -30963,8 +30963,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="154"/>
-      <c r="E106" s="137"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="135"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -30988,8 +30988,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="154"/>
-      <c r="E107" s="137"/>
+      <c r="D107" s="161"/>
+      <c r="E107" s="135"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -31013,8 +31013,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="155"/>
-      <c r="E108" s="138"/>
+      <c r="D108" s="162"/>
+      <c r="E108" s="136"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -31191,10 +31191,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="136" t="s">
+      <c r="D114" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="136" t="s">
+      <c r="E114" s="134" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -31220,8 +31220,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="137"/>
-      <c r="E115" s="137"/>
+      <c r="D115" s="135"/>
+      <c r="E115" s="135"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -31245,8 +31245,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="137"/>
-      <c r="E116" s="137"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="135"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -31270,8 +31270,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="137"/>
-      <c r="E117" s="137"/>
+      <c r="D117" s="135"/>
+      <c r="E117" s="135"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -31295,8 +31295,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="137"/>
-      <c r="E118" s="137"/>
+      <c r="D118" s="135"/>
+      <c r="E118" s="135"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -31320,8 +31320,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="137"/>
-      <c r="E119" s="137"/>
+      <c r="D119" s="135"/>
+      <c r="E119" s="135"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -31345,8 +31345,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="137"/>
-      <c r="E120" s="137"/>
+      <c r="D120" s="135"/>
+      <c r="E120" s="135"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -31370,8 +31370,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="137"/>
-      <c r="E121" s="137"/>
+      <c r="D121" s="135"/>
+      <c r="E121" s="135"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -31395,8 +31395,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="137"/>
-      <c r="E122" s="137"/>
+      <c r="D122" s="135"/>
+      <c r="E122" s="135"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -31420,8 +31420,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="137"/>
-      <c r="E123" s="137"/>
+      <c r="D123" s="135"/>
+      <c r="E123" s="135"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -31445,8 +31445,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="137"/>
-      <c r="E124" s="137"/>
+      <c r="D124" s="135"/>
+      <c r="E124" s="135"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -31470,8 +31470,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="138"/>
-      <c r="E125" s="138"/>
+      <c r="D125" s="136"/>
+      <c r="E125" s="136"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -31625,13 +31625,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="136" t="s">
+      <c r="D130" s="134" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="134" t="s">
+      <c r="E130" s="140" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="136" t="s">
+      <c r="F130" s="134" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -31654,9 +31654,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="137"/>
-      <c r="E131" s="139"/>
-      <c r="F131" s="137"/>
+      <c r="D131" s="135"/>
+      <c r="E131" s="141"/>
+      <c r="F131" s="135"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -31677,9 +31677,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="137"/>
-      <c r="E132" s="139"/>
-      <c r="F132" s="137"/>
+      <c r="D132" s="135"/>
+      <c r="E132" s="141"/>
+      <c r="F132" s="135"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -31700,9 +31700,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="137"/>
-      <c r="E133" s="139"/>
-      <c r="F133" s="137"/>
+      <c r="D133" s="135"/>
+      <c r="E133" s="141"/>
+      <c r="F133" s="135"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -31723,9 +31723,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="137"/>
-      <c r="E134" s="139"/>
-      <c r="F134" s="137"/>
+      <c r="D134" s="135"/>
+      <c r="E134" s="141"/>
+      <c r="F134" s="135"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -31746,9 +31746,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="137"/>
-      <c r="E135" s="139"/>
-      <c r="F135" s="137"/>
+      <c r="D135" s="135"/>
+      <c r="E135" s="141"/>
+      <c r="F135" s="135"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -31769,9 +31769,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="137"/>
-      <c r="E136" s="139"/>
-      <c r="F136" s="137"/>
+      <c r="D136" s="135"/>
+      <c r="E136" s="141"/>
+      <c r="F136" s="135"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -31792,9 +31792,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="137"/>
-      <c r="E137" s="139"/>
-      <c r="F137" s="137"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="141"/>
+      <c r="F137" s="135"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -31815,9 +31815,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="137"/>
-      <c r="E138" s="139"/>
-      <c r="F138" s="137"/>
+      <c r="D138" s="135"/>
+      <c r="E138" s="141"/>
+      <c r="F138" s="135"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -31838,9 +31838,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="137"/>
-      <c r="E139" s="139"/>
-      <c r="F139" s="137"/>
+      <c r="D139" s="135"/>
+      <c r="E139" s="141"/>
+      <c r="F139" s="135"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -31861,9 +31861,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="137"/>
-      <c r="E140" s="139"/>
-      <c r="F140" s="137"/>
+      <c r="D140" s="135"/>
+      <c r="E140" s="141"/>
+      <c r="F140" s="135"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -31884,9 +31884,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="138"/>
-      <c r="E141" s="135"/>
-      <c r="F141" s="138"/>
+      <c r="D141" s="136"/>
+      <c r="E141" s="142"/>
+      <c r="F141" s="136"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -31971,10 +31971,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="136" t="s">
+      <c r="D144" s="134" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="136" t="s">
+      <c r="E144" s="134" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -32000,8 +32000,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="138"/>
-      <c r="E145" s="138"/>
+      <c r="D145" s="136"/>
+      <c r="E145" s="136"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -32354,10 +32354,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="136" t="s">
+      <c r="D157" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="136" t="s">
+      <c r="E157" s="134" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -32383,8 +32383,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="137"/>
-      <c r="E158" s="137"/>
+      <c r="D158" s="135"/>
+      <c r="E158" s="135"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -32408,8 +32408,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="137"/>
-      <c r="E159" s="137"/>
+      <c r="D159" s="135"/>
+      <c r="E159" s="135"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -32433,8 +32433,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="137"/>
-      <c r="E160" s="137"/>
+      <c r="D160" s="135"/>
+      <c r="E160" s="135"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -32458,8 +32458,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="137"/>
-      <c r="E161" s="137"/>
+      <c r="D161" s="135"/>
+      <c r="E161" s="135"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -32483,8 +32483,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="137"/>
-      <c r="E162" s="137"/>
+      <c r="D162" s="135"/>
+      <c r="E162" s="135"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -32508,8 +32508,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="137"/>
-      <c r="E163" s="137"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="135"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -32533,8 +32533,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="137"/>
-      <c r="E164" s="137"/>
+      <c r="D164" s="135"/>
+      <c r="E164" s="135"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -32558,8 +32558,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="137"/>
-      <c r="E165" s="137"/>
+      <c r="D165" s="135"/>
+      <c r="E165" s="135"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -32583,8 +32583,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="137"/>
-      <c r="E166" s="137"/>
+      <c r="D166" s="135"/>
+      <c r="E166" s="135"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -32608,8 +32608,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="137"/>
-      <c r="E167" s="137"/>
+      <c r="D167" s="135"/>
+      <c r="E167" s="135"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -32633,8 +32633,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="138"/>
-      <c r="E168" s="138"/>
+      <c r="D168" s="136"/>
+      <c r="E168" s="136"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -32693,13 +32693,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="136" t="s">
+      <c r="D170" s="134" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="136" t="s">
+      <c r="F170" s="134" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -32722,11 +32722,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="137"/>
+      <c r="D171" s="135"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="137"/>
+      <c r="F171" s="135"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -32747,11 +32747,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="137"/>
+      <c r="D172" s="135"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="137"/>
+      <c r="F172" s="135"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -32772,11 +32772,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="137"/>
+      <c r="D173" s="135"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="137"/>
+      <c r="F173" s="135"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -32797,11 +32797,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="137"/>
+      <c r="D174" s="135"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="137"/>
+      <c r="F174" s="135"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -32822,11 +32822,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="137"/>
+      <c r="D175" s="135"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="137"/>
+      <c r="F175" s="135"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -32849,11 +32849,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="137"/>
+      <c r="D176" s="135"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="137"/>
+      <c r="F176" s="135"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -32874,11 +32874,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="137"/>
+      <c r="D177" s="135"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="137"/>
+      <c r="F177" s="135"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -32899,11 +32899,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="137"/>
+      <c r="D178" s="135"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="137"/>
+      <c r="F178" s="135"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -32924,11 +32924,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="137"/>
+      <c r="D179" s="135"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="137"/>
+      <c r="F179" s="135"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -32949,11 +32949,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="137"/>
+      <c r="D180" s="135"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="137"/>
+      <c r="F180" s="135"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -32974,11 +32974,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="138"/>
+      <c r="D181" s="136"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="138"/>
+      <c r="F181" s="136"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -33001,7 +33001,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="136" t="s">
+      <c r="D182" s="134" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -33030,7 +33030,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="137"/>
+      <c r="D183" s="135"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -33057,7 +33057,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="137"/>
+      <c r="D184" s="135"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -33084,7 +33084,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="137"/>
+      <c r="D185" s="135"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -33111,7 +33111,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="137"/>
+      <c r="D186" s="135"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -33138,7 +33138,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="137"/>
+      <c r="D187" s="135"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -33167,7 +33167,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="137"/>
+      <c r="D188" s="135"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -33194,7 +33194,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="137"/>
+      <c r="D189" s="135"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -33221,7 +33221,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="137"/>
+      <c r="D190" s="135"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -33248,7 +33248,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="138"/>
+      <c r="D191" s="136"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -33277,10 +33277,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="136" t="s">
+      <c r="D192" s="134" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="136" t="s">
+      <c r="E192" s="134" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -33306,8 +33306,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="137"/>
-      <c r="E193" s="137"/>
+      <c r="D193" s="135"/>
+      <c r="E193" s="135"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -33331,8 +33331,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="137"/>
-      <c r="E194" s="137"/>
+      <c r="D194" s="135"/>
+      <c r="E194" s="135"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -33356,8 +33356,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="137"/>
-      <c r="E195" s="137"/>
+      <c r="D195" s="135"/>
+      <c r="E195" s="135"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -33381,8 +33381,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="137"/>
-      <c r="E196" s="137"/>
+      <c r="D196" s="135"/>
+      <c r="E196" s="135"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -33406,8 +33406,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="137"/>
-      <c r="E197" s="137"/>
+      <c r="D197" s="135"/>
+      <c r="E197" s="135"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -33433,8 +33433,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="137"/>
-      <c r="E198" s="137"/>
+      <c r="D198" s="135"/>
+      <c r="E198" s="135"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -33458,8 +33458,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="137"/>
-      <c r="E199" s="137"/>
+      <c r="D199" s="135"/>
+      <c r="E199" s="135"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -33483,8 +33483,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="137"/>
-      <c r="E200" s="137"/>
+      <c r="D200" s="135"/>
+      <c r="E200" s="135"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -33508,8 +33508,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="137"/>
-      <c r="E201" s="137"/>
+      <c r="D201" s="135"/>
+      <c r="E201" s="135"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -33533,8 +33533,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="137"/>
-      <c r="E202" s="137"/>
+      <c r="D202" s="135"/>
+      <c r="E202" s="135"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -33558,8 +33558,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="138"/>
-      <c r="E203" s="138"/>
+      <c r="D203" s="136"/>
+      <c r="E203" s="136"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -33618,13 +33618,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="136" t="s">
+      <c r="D205" s="134" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="136" t="s">
+      <c r="E205" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="156" t="s">
+      <c r="F205" s="155" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -33647,9 +33647,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="137"/>
-      <c r="E206" s="137"/>
-      <c r="F206" s="158"/>
+      <c r="D206" s="135"/>
+      <c r="E206" s="135"/>
+      <c r="F206" s="156"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -33670,9 +33670,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="137"/>
-      <c r="E207" s="137"/>
-      <c r="F207" s="158"/>
+      <c r="D207" s="135"/>
+      <c r="E207" s="135"/>
+      <c r="F207" s="156"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -33693,9 +33693,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="137"/>
-      <c r="E208" s="137"/>
-      <c r="F208" s="158"/>
+      <c r="D208" s="135"/>
+      <c r="E208" s="135"/>
+      <c r="F208" s="156"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -33716,9 +33716,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="137"/>
-      <c r="E209" s="137"/>
-      <c r="F209" s="158"/>
+      <c r="D209" s="135"/>
+      <c r="E209" s="135"/>
+      <c r="F209" s="156"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -33739,8 +33739,8 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="137"/>
-      <c r="E210" s="137"/>
+      <c r="D210" s="135"/>
+      <c r="E210" s="135"/>
       <c r="F210" s="157"/>
       <c r="G210" s="93">
         <v>44440</v>
@@ -33762,8 +33762,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="137"/>
-      <c r="E211" s="137"/>
+      <c r="D211" s="135"/>
+      <c r="E211" s="135"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -33787,8 +33787,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="137"/>
-      <c r="E212" s="137"/>
+      <c r="D212" s="135"/>
+      <c r="E212" s="135"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -33812,8 +33812,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="137"/>
-      <c r="E213" s="137"/>
+      <c r="D213" s="135"/>
+      <c r="E213" s="135"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -33837,9 +33837,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="137"/>
-      <c r="E214" s="137"/>
-      <c r="F214" s="156" t="s">
+      <c r="D214" s="135"/>
+      <c r="E214" s="135"/>
+      <c r="F214" s="155" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -33862,8 +33862,8 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="137"/>
-      <c r="E215" s="137"/>
+      <c r="D215" s="135"/>
+      <c r="E215" s="135"/>
       <c r="F215" s="157"/>
       <c r="G215" s="93">
         <v>44440</v>
@@ -33885,8 +33885,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="138"/>
-      <c r="E216" s="138"/>
+      <c r="D216" s="136"/>
+      <c r="E216" s="136"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -33972,10 +33972,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="136" t="s">
+      <c r="D219" s="134" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="136" t="s">
+      <c r="E219" s="134" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -34001,8 +34001,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="137"/>
-      <c r="E220" s="137"/>
+      <c r="D220" s="135"/>
+      <c r="E220" s="135"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -34026,8 +34026,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="137"/>
-      <c r="E221" s="137"/>
+      <c r="D221" s="135"/>
+      <c r="E221" s="135"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -34051,8 +34051,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="137"/>
-      <c r="E222" s="137"/>
+      <c r="D222" s="135"/>
+      <c r="E222" s="135"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -34076,8 +34076,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="137"/>
-      <c r="E223" s="137"/>
+      <c r="D223" s="135"/>
+      <c r="E223" s="135"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -34101,8 +34101,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="137"/>
-      <c r="E224" s="137"/>
+      <c r="D224" s="135"/>
+      <c r="E224" s="135"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -34128,8 +34128,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="137"/>
-      <c r="E225" s="137"/>
+      <c r="D225" s="135"/>
+      <c r="E225" s="135"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -34153,8 +34153,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="137"/>
-      <c r="E226" s="137"/>
+      <c r="D226" s="135"/>
+      <c r="E226" s="135"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -34178,8 +34178,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="137"/>
-      <c r="E227" s="137"/>
+      <c r="D227" s="135"/>
+      <c r="E227" s="135"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -34203,8 +34203,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="137"/>
-      <c r="E228" s="137"/>
+      <c r="D228" s="135"/>
+      <c r="E228" s="135"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -34228,8 +34228,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="137"/>
-      <c r="E229" s="137"/>
+      <c r="D229" s="135"/>
+      <c r="E229" s="135"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -34253,8 +34253,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="137"/>
-      <c r="E230" s="137"/>
+      <c r="D230" s="135"/>
+      <c r="E230" s="135"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -34278,8 +34278,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="137"/>
-      <c r="E231" s="137"/>
+      <c r="D231" s="135"/>
+      <c r="E231" s="135"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -34303,8 +34303,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="138"/>
-      <c r="E232" s="138"/>
+      <c r="D232" s="136"/>
+      <c r="E232" s="136"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -34694,7 +34694,7 @@
       <c r="E245" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="F245" s="156" t="s">
+      <c r="F245" s="155" t="s">
         <v>625</v>
       </c>
       <c r="G245" s="93">
@@ -35079,10 +35079,10 @@
       <c r="D259" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E259" s="136" t="s">
+      <c r="E259" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F259" s="136" t="s">
+      <c r="F259" s="134" t="s">
         <v>691</v>
       </c>
       <c r="G259" s="93">
@@ -35106,8 +35106,8 @@
       <c r="D260" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E260" s="137"/>
-      <c r="F260" s="137"/>
+      <c r="E260" s="135"/>
+      <c r="F260" s="135"/>
       <c r="G260" s="93">
         <v>44481</v>
       </c>
@@ -35129,8 +35129,8 @@
       <c r="D261" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="137"/>
-      <c r="F261" s="137"/>
+      <c r="E261" s="135"/>
+      <c r="F261" s="135"/>
       <c r="G261" s="93">
         <v>44481</v>
       </c>
@@ -35152,8 +35152,8 @@
       <c r="D262" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E262" s="137"/>
-      <c r="F262" s="137"/>
+      <c r="E262" s="135"/>
+      <c r="F262" s="135"/>
       <c r="G262" s="93">
         <v>44481</v>
       </c>
@@ -35175,8 +35175,8 @@
       <c r="D263" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E263" s="137"/>
-      <c r="F263" s="137"/>
+      <c r="E263" s="135"/>
+      <c r="F263" s="135"/>
       <c r="G263" s="93">
         <v>44481</v>
       </c>
@@ -35198,8 +35198,8 @@
       <c r="D264" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E264" s="137"/>
-      <c r="F264" s="137"/>
+      <c r="E264" s="135"/>
+      <c r="F264" s="135"/>
       <c r="G264" s="93">
         <v>44481</v>
       </c>
@@ -35221,8 +35221,8 @@
       <c r="D265" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E265" s="137"/>
-      <c r="F265" s="137"/>
+      <c r="E265" s="135"/>
+      <c r="F265" s="135"/>
       <c r="G265" s="93">
         <v>44481</v>
       </c>
@@ -35244,8 +35244,8 @@
       <c r="D266" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E266" s="137"/>
-      <c r="F266" s="137"/>
+      <c r="E266" s="135"/>
+      <c r="F266" s="135"/>
       <c r="G266" s="93">
         <v>44481</v>
       </c>
@@ -35267,8 +35267,8 @@
       <c r="D267" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E267" s="137"/>
-      <c r="F267" s="137"/>
+      <c r="E267" s="135"/>
+      <c r="F267" s="135"/>
       <c r="G267" s="93">
         <v>44481</v>
       </c>
@@ -35290,8 +35290,8 @@
       <c r="D268" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E268" s="137"/>
-      <c r="F268" s="137"/>
+      <c r="E268" s="135"/>
+      <c r="F268" s="135"/>
       <c r="G268" s="93">
         <v>44481</v>
       </c>
@@ -35313,8 +35313,8 @@
       <c r="D269" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E269" s="138"/>
-      <c r="F269" s="138"/>
+      <c r="E269" s="136"/>
+      <c r="F269" s="136"/>
       <c r="G269" s="93">
         <v>44481</v>
       </c>
@@ -35343,7 +35343,7 @@
       <c r="E270" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="F270" s="136" t="s">
+      <c r="F270" s="134" t="s">
         <v>693</v>
       </c>
       <c r="G270" s="93">
@@ -35370,7 +35370,7 @@
       <c r="E271" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="F271" s="137"/>
+      <c r="F271" s="135"/>
       <c r="G271" s="93">
         <v>44481</v>
       </c>
@@ -35395,7 +35395,7 @@
       <c r="E272" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="F272" s="137"/>
+      <c r="F272" s="135"/>
       <c r="G272" s="93">
         <v>44481</v>
       </c>
@@ -35420,7 +35420,7 @@
       <c r="E273" s="99" t="s">
         <v>670</v>
       </c>
-      <c r="F273" s="137"/>
+      <c r="F273" s="135"/>
       <c r="G273" s="93">
         <v>44481</v>
       </c>
@@ -35445,7 +35445,7 @@
       <c r="E274" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="F274" s="137"/>
+      <c r="F274" s="135"/>
       <c r="G274" s="93">
         <v>44481</v>
       </c>
@@ -35470,7 +35470,7 @@
       <c r="E275" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="F275" s="137"/>
+      <c r="F275" s="135"/>
       <c r="G275" s="93">
         <v>44481</v>
       </c>
@@ -35495,7 +35495,7 @@
       <c r="E276" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="F276" s="137"/>
+      <c r="F276" s="135"/>
       <c r="G276" s="93">
         <v>44481</v>
       </c>
@@ -35520,7 +35520,7 @@
       <c r="E277" s="99" t="s">
         <v>674</v>
       </c>
-      <c r="F277" s="137"/>
+      <c r="F277" s="135"/>
       <c r="G277" s="93">
         <v>44481</v>
       </c>
@@ -35545,7 +35545,7 @@
       <c r="E278" s="99" t="s">
         <v>675</v>
       </c>
-      <c r="F278" s="137"/>
+      <c r="F278" s="135"/>
       <c r="G278" s="93">
         <v>44481</v>
       </c>
@@ -35570,7 +35570,7 @@
       <c r="E279" s="99" t="s">
         <v>676</v>
       </c>
-      <c r="F279" s="137"/>
+      <c r="F279" s="135"/>
       <c r="G279" s="93">
         <v>44481</v>
       </c>
@@ -35595,7 +35595,7 @@
       <c r="E280" s="99" t="s">
         <v>677</v>
       </c>
-      <c r="F280" s="138"/>
+      <c r="F280" s="136"/>
       <c r="G280" s="93">
         <v>44481</v>
       </c>
@@ -35617,10 +35617,10 @@
       <c r="D281" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E281" s="136" t="s">
+      <c r="E281" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F281" s="136" t="s">
+      <c r="F281" s="134" t="s">
         <v>535</v>
       </c>
       <c r="G281" s="93">
@@ -35644,8 +35644,8 @@
       <c r="D282" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E282" s="137"/>
-      <c r="F282" s="137"/>
+      <c r="E282" s="135"/>
+      <c r="F282" s="135"/>
       <c r="G282" s="93">
         <v>44481</v>
       </c>
@@ -35667,8 +35667,8 @@
       <c r="D283" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E283" s="137"/>
-      <c r="F283" s="137"/>
+      <c r="E283" s="135"/>
+      <c r="F283" s="135"/>
       <c r="G283" s="93">
         <v>44481</v>
       </c>
@@ -35690,8 +35690,8 @@
       <c r="D284" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E284" s="137"/>
-      <c r="F284" s="137"/>
+      <c r="E284" s="135"/>
+      <c r="F284" s="135"/>
       <c r="G284" s="93">
         <v>44481</v>
       </c>
@@ -35713,8 +35713,8 @@
       <c r="D285" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E285" s="137"/>
-      <c r="F285" s="137"/>
+      <c r="E285" s="135"/>
+      <c r="F285" s="135"/>
       <c r="G285" s="93">
         <v>44481</v>
       </c>
@@ -35736,8 +35736,8 @@
       <c r="D286" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E286" s="137"/>
-      <c r="F286" s="137"/>
+      <c r="E286" s="135"/>
+      <c r="F286" s="135"/>
       <c r="G286" s="93">
         <v>44481</v>
       </c>
@@ -35759,8 +35759,8 @@
       <c r="D287" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E287" s="137"/>
-      <c r="F287" s="137"/>
+      <c r="E287" s="135"/>
+      <c r="F287" s="135"/>
       <c r="G287" s="93">
         <v>44481</v>
       </c>
@@ -35782,8 +35782,8 @@
       <c r="D288" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E288" s="137"/>
-      <c r="F288" s="137"/>
+      <c r="E288" s="135"/>
+      <c r="F288" s="135"/>
       <c r="G288" s="93">
         <v>44481</v>
       </c>
@@ -35805,8 +35805,8 @@
       <c r="D289" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E289" s="137"/>
-      <c r="F289" s="137"/>
+      <c r="E289" s="135"/>
+      <c r="F289" s="135"/>
       <c r="G289" s="93">
         <v>44481</v>
       </c>
@@ -35828,8 +35828,8 @@
       <c r="D290" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E290" s="137"/>
-      <c r="F290" s="137"/>
+      <c r="E290" s="135"/>
+      <c r="F290" s="135"/>
       <c r="G290" s="93">
         <v>44481</v>
       </c>
@@ -35851,8 +35851,8 @@
       <c r="D291" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E291" s="138"/>
-      <c r="F291" s="138"/>
+      <c r="E291" s="136"/>
+      <c r="F291" s="136"/>
       <c r="G291" s="93">
         <v>44481</v>
       </c>
@@ -36175,10 +36175,10 @@
       <c r="D303" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E303" s="136" t="s">
+      <c r="E303" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F303" s="136" t="s">
+      <c r="F303" s="134" t="s">
         <v>691</v>
       </c>
       <c r="G303" s="93">
@@ -36202,8 +36202,8 @@
       <c r="D304" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E304" s="137"/>
-      <c r="F304" s="137"/>
+      <c r="E304" s="135"/>
+      <c r="F304" s="135"/>
       <c r="G304" s="93">
         <v>44481</v>
       </c>
@@ -36225,8 +36225,8 @@
       <c r="D305" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E305" s="137"/>
-      <c r="F305" s="137"/>
+      <c r="E305" s="135"/>
+      <c r="F305" s="135"/>
       <c r="G305" s="93">
         <v>44481</v>
       </c>
@@ -36248,8 +36248,8 @@
       <c r="D306" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E306" s="137"/>
-      <c r="F306" s="137"/>
+      <c r="E306" s="135"/>
+      <c r="F306" s="135"/>
       <c r="G306" s="93">
         <v>44481</v>
       </c>
@@ -36271,8 +36271,8 @@
       <c r="D307" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E307" s="137"/>
-      <c r="F307" s="137"/>
+      <c r="E307" s="135"/>
+      <c r="F307" s="135"/>
       <c r="G307" s="93">
         <v>44481</v>
       </c>
@@ -36294,8 +36294,8 @@
       <c r="D308" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E308" s="137"/>
-      <c r="F308" s="137"/>
+      <c r="E308" s="135"/>
+      <c r="F308" s="135"/>
       <c r="G308" s="93">
         <v>44481</v>
       </c>
@@ -36317,8 +36317,8 @@
       <c r="D309" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E309" s="137"/>
-      <c r="F309" s="137"/>
+      <c r="E309" s="135"/>
+      <c r="F309" s="135"/>
       <c r="G309" s="93">
         <v>44481</v>
       </c>
@@ -36340,8 +36340,8 @@
       <c r="D310" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E310" s="137"/>
-      <c r="F310" s="137"/>
+      <c r="E310" s="135"/>
+      <c r="F310" s="135"/>
       <c r="G310" s="93">
         <v>44481</v>
       </c>
@@ -36363,8 +36363,8 @@
       <c r="D311" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E311" s="137"/>
-      <c r="F311" s="137"/>
+      <c r="E311" s="135"/>
+      <c r="F311" s="135"/>
       <c r="G311" s="93">
         <v>44481</v>
       </c>
@@ -36386,8 +36386,8 @@
       <c r="D312" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E312" s="137"/>
-      <c r="F312" s="137"/>
+      <c r="E312" s="135"/>
+      <c r="F312" s="135"/>
       <c r="G312" s="93">
         <v>44481</v>
       </c>
@@ -36409,8 +36409,8 @@
       <c r="D313" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E313" s="138"/>
-      <c r="F313" s="138"/>
+      <c r="E313" s="136"/>
+      <c r="F313" s="136"/>
       <c r="G313" s="93">
         <v>44481</v>
       </c>
@@ -36439,7 +36439,7 @@
       <c r="E314" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="F314" s="136" t="s">
+      <c r="F314" s="134" t="s">
         <v>705</v>
       </c>
       <c r="G314" s="93">
@@ -36466,7 +36466,7 @@
       <c r="E315" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F315" s="137"/>
+      <c r="F315" s="135"/>
       <c r="G315" s="93">
         <v>44481</v>
       </c>
@@ -36491,7 +36491,7 @@
       <c r="E316" s="99" t="s">
         <v>696</v>
       </c>
-      <c r="F316" s="137"/>
+      <c r="F316" s="135"/>
       <c r="G316" s="93">
         <v>44481</v>
       </c>
@@ -36516,7 +36516,7 @@
       <c r="E317" s="99" t="s">
         <v>697</v>
       </c>
-      <c r="F317" s="137"/>
+      <c r="F317" s="135"/>
       <c r="G317" s="93">
         <v>44481</v>
       </c>
@@ -36541,7 +36541,7 @@
       <c r="E318" s="99" t="s">
         <v>698</v>
       </c>
-      <c r="F318" s="137"/>
+      <c r="F318" s="135"/>
       <c r="G318" s="93">
         <v>44481</v>
       </c>
@@ -36566,7 +36566,7 @@
       <c r="E319" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F319" s="137"/>
+      <c r="F319" s="135"/>
       <c r="G319" s="93">
         <v>44481</v>
       </c>
@@ -36591,7 +36591,7 @@
       <c r="E320" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F320" s="137"/>
+      <c r="F320" s="135"/>
       <c r="G320" s="93">
         <v>44481</v>
       </c>
@@ -36616,7 +36616,7 @@
       <c r="E321" s="99" t="s">
         <v>701</v>
       </c>
-      <c r="F321" s="137"/>
+      <c r="F321" s="135"/>
       <c r="G321" s="93">
         <v>44481</v>
       </c>
@@ -36641,7 +36641,7 @@
       <c r="E322" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F322" s="137"/>
+      <c r="F322" s="135"/>
       <c r="G322" s="93">
         <v>44481</v>
       </c>
@@ -36666,7 +36666,7 @@
       <c r="E323" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F323" s="137"/>
+      <c r="F323" s="135"/>
       <c r="G323" s="93">
         <v>44481</v>
       </c>
@@ -36691,7 +36691,7 @@
       <c r="E324" s="99" t="s">
         <v>704</v>
       </c>
-      <c r="F324" s="138"/>
+      <c r="F324" s="136"/>
       <c r="G324" s="93">
         <v>44481</v>
       </c>
@@ -36713,10 +36713,10 @@
       <c r="D325" s="72" t="s">
         <v>627</v>
       </c>
-      <c r="E325" s="136" t="s">
+      <c r="E325" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F325" s="136" t="s">
+      <c r="F325" s="134" t="s">
         <v>535</v>
       </c>
       <c r="G325" s="93">
@@ -36740,8 +36740,8 @@
       <c r="D326" s="72" t="s">
         <v>641</v>
       </c>
-      <c r="E326" s="137"/>
-      <c r="F326" s="137"/>
+      <c r="E326" s="135"/>
+      <c r="F326" s="135"/>
       <c r="G326" s="93">
         <v>44481</v>
       </c>
@@ -36763,8 +36763,8 @@
       <c r="D327" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E327" s="137"/>
-      <c r="F327" s="137"/>
+      <c r="E327" s="135"/>
+      <c r="F327" s="135"/>
       <c r="G327" s="93">
         <v>44481</v>
       </c>
@@ -36786,8 +36786,8 @@
       <c r="D328" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E328" s="137"/>
-      <c r="F328" s="137"/>
+      <c r="E328" s="135"/>
+      <c r="F328" s="135"/>
       <c r="G328" s="93">
         <v>44481</v>
       </c>
@@ -36809,8 +36809,8 @@
       <c r="D329" s="72" t="s">
         <v>644</v>
       </c>
-      <c r="E329" s="137"/>
-      <c r="F329" s="137"/>
+      <c r="E329" s="135"/>
+      <c r="F329" s="135"/>
       <c r="G329" s="93">
         <v>44481</v>
       </c>
@@ -36832,8 +36832,8 @@
       <c r="D330" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E330" s="137"/>
-      <c r="F330" s="137"/>
+      <c r="E330" s="135"/>
+      <c r="F330" s="135"/>
       <c r="G330" s="93">
         <v>44481</v>
       </c>
@@ -36855,8 +36855,8 @@
       <c r="D331" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E331" s="137"/>
-      <c r="F331" s="137"/>
+      <c r="E331" s="135"/>
+      <c r="F331" s="135"/>
       <c r="G331" s="93">
         <v>44481</v>
       </c>
@@ -36878,8 +36878,8 @@
       <c r="D332" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E332" s="137"/>
-      <c r="F332" s="137"/>
+      <c r="E332" s="135"/>
+      <c r="F332" s="135"/>
       <c r="G332" s="93">
         <v>44481</v>
       </c>
@@ -36901,8 +36901,8 @@
       <c r="D333" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E333" s="137"/>
-      <c r="F333" s="137"/>
+      <c r="E333" s="135"/>
+      <c r="F333" s="135"/>
       <c r="G333" s="93">
         <v>44481</v>
       </c>
@@ -36924,8 +36924,8 @@
       <c r="D334" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E334" s="137"/>
-      <c r="F334" s="137"/>
+      <c r="E334" s="135"/>
+      <c r="F334" s="135"/>
       <c r="G334" s="93">
         <v>44481</v>
       </c>
@@ -36947,8 +36947,8 @@
       <c r="D335" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E335" s="138"/>
-      <c r="F335" s="138"/>
+      <c r="E335" s="136"/>
+      <c r="F335" s="136"/>
       <c r="G335" s="93">
         <v>44481</v>
       </c>
@@ -37004,7 +37004,7 @@
       <c r="E337" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F337" s="136" t="s">
+      <c r="F337" s="134" t="s">
         <v>680</v>
       </c>
       <c r="G337" s="93">
@@ -37031,7 +37031,7 @@
       <c r="E338" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F338" s="138"/>
+      <c r="F338" s="136"/>
       <c r="G338" s="93">
         <v>44483</v>
       </c>
@@ -37191,7 +37191,7 @@
       <c r="E344" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F344" s="136" t="s">
+      <c r="F344" s="134" t="s">
         <v>684</v>
       </c>
       <c r="G344" s="93">
@@ -37218,7 +37218,7 @@
       <c r="E345" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F345" s="138"/>
+      <c r="F345" s="136"/>
       <c r="G345" s="93">
         <v>44483</v>
       </c>
@@ -37598,7 +37598,7 @@
       <c r="E359" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F359" s="136" t="s">
+      <c r="F359" s="134" t="s">
         <v>718</v>
       </c>
       <c r="G359" s="93">
@@ -37625,7 +37625,7 @@
       <c r="E360" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="F360" s="138"/>
+      <c r="F360" s="136"/>
       <c r="G360" s="93">
         <v>44483</v>
       </c>
@@ -37785,7 +37785,7 @@
       <c r="E366" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F366" s="136" t="s">
+      <c r="F366" s="134" t="s">
         <v>611</v>
       </c>
       <c r="G366" s="93">
@@ -37812,7 +37812,7 @@
       <c r="E367" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="F367" s="138"/>
+      <c r="F367" s="136"/>
       <c r="G367" s="93">
         <v>44483</v>
       </c>
@@ -38378,10 +38378,10 @@
       <c r="D388" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E388" s="136" t="s">
+      <c r="E388" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F388" s="136" t="s">
+      <c r="F388" s="134" t="s">
         <v>691</v>
       </c>
       <c r="G388" s="93">
@@ -38405,8 +38405,8 @@
       <c r="D389" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E389" s="137"/>
-      <c r="F389" s="137"/>
+      <c r="E389" s="135"/>
+      <c r="F389" s="135"/>
       <c r="G389" s="93">
         <v>44483</v>
       </c>
@@ -38428,8 +38428,8 @@
       <c r="D390" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E390" s="137"/>
-      <c r="F390" s="137"/>
+      <c r="E390" s="135"/>
+      <c r="F390" s="135"/>
       <c r="G390" s="93">
         <v>44483</v>
       </c>
@@ -38451,8 +38451,8 @@
       <c r="D391" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E391" s="137"/>
-      <c r="F391" s="137"/>
+      <c r="E391" s="135"/>
+      <c r="F391" s="135"/>
       <c r="G391" s="93">
         <v>44483</v>
       </c>
@@ -38474,8 +38474,8 @@
       <c r="D392" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E392" s="137"/>
-      <c r="F392" s="137"/>
+      <c r="E392" s="135"/>
+      <c r="F392" s="135"/>
       <c r="G392" s="93">
         <v>44483</v>
       </c>
@@ -38497,8 +38497,8 @@
       <c r="D393" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E393" s="137"/>
-      <c r="F393" s="137"/>
+      <c r="E393" s="135"/>
+      <c r="F393" s="135"/>
       <c r="G393" s="93">
         <v>44483</v>
       </c>
@@ -38520,8 +38520,8 @@
       <c r="D394" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E394" s="137"/>
-      <c r="F394" s="137"/>
+      <c r="E394" s="135"/>
+      <c r="F394" s="135"/>
       <c r="G394" s="93">
         <v>44483</v>
       </c>
@@ -38543,8 +38543,8 @@
       <c r="D395" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E395" s="138"/>
-      <c r="F395" s="138"/>
+      <c r="E395" s="136"/>
+      <c r="F395" s="136"/>
       <c r="G395" s="93">
         <v>44483</v>
       </c>
@@ -38593,10 +38593,10 @@
       <c r="D397" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="E397" s="153" t="s">
+      <c r="E397" s="163" t="s">
         <v>747</v>
       </c>
-      <c r="F397" s="136" t="s">
+      <c r="F397" s="134" t="s">
         <v>748</v>
       </c>
       <c r="G397" s="93">
@@ -38620,8 +38620,8 @@
       <c r="D398" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E398" s="154"/>
-      <c r="F398" s="137"/>
+      <c r="E398" s="161"/>
+      <c r="F398" s="135"/>
       <c r="G398" s="93">
         <v>44483</v>
       </c>
@@ -38643,8 +38643,8 @@
       <c r="D399" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E399" s="154"/>
-      <c r="F399" s="137"/>
+      <c r="E399" s="161"/>
+      <c r="F399" s="135"/>
       <c r="G399" s="93">
         <v>44483</v>
       </c>
@@ -38666,8 +38666,8 @@
       <c r="D400" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E400" s="154"/>
-      <c r="F400" s="137"/>
+      <c r="E400" s="161"/>
+      <c r="F400" s="135"/>
       <c r="G400" s="93">
         <v>44483</v>
       </c>
@@ -38689,8 +38689,8 @@
       <c r="D401" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E401" s="154"/>
-      <c r="F401" s="137"/>
+      <c r="E401" s="161"/>
+      <c r="F401" s="135"/>
       <c r="G401" s="93">
         <v>44483</v>
       </c>
@@ -38712,8 +38712,8 @@
       <c r="D402" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E402" s="155"/>
-      <c r="F402" s="138"/>
+      <c r="E402" s="162"/>
+      <c r="F402" s="136"/>
       <c r="G402" s="93">
         <v>44483</v>
       </c>
@@ -38796,7 +38796,7 @@
       <c r="E405" s="99" t="s">
         <v>699</v>
       </c>
-      <c r="F405" s="136" t="s">
+      <c r="F405" s="134" t="s">
         <v>742</v>
       </c>
       <c r="G405" s="93">
@@ -38823,7 +38823,7 @@
       <c r="E406" s="99" t="s">
         <v>700</v>
       </c>
-      <c r="F406" s="138"/>
+      <c r="F406" s="136"/>
       <c r="G406" s="93">
         <v>44483</v>
       </c>
@@ -38875,7 +38875,7 @@
       <c r="E408" s="99" t="s">
         <v>702</v>
       </c>
-      <c r="F408" s="136" t="s">
+      <c r="F408" s="134" t="s">
         <v>744</v>
       </c>
       <c r="G408" s="93">
@@ -38902,7 +38902,7 @@
       <c r="E409" s="99" t="s">
         <v>703</v>
       </c>
-      <c r="F409" s="138"/>
+      <c r="F409" s="136"/>
       <c r="G409" s="93">
         <v>44483</v>
       </c>
@@ -38951,10 +38951,10 @@
       <c r="D411" s="72" t="s">
         <v>642</v>
       </c>
-      <c r="E411" s="136" t="s">
+      <c r="E411" s="134" t="s">
         <v>628</v>
       </c>
-      <c r="F411" s="136" t="s">
+      <c r="F411" s="134" t="s">
         <v>535</v>
       </c>
       <c r="G411" s="93">
@@ -38978,8 +38978,8 @@
       <c r="D412" s="72" t="s">
         <v>643</v>
       </c>
-      <c r="E412" s="137"/>
-      <c r="F412" s="137"/>
+      <c r="E412" s="135"/>
+      <c r="F412" s="135"/>
       <c r="G412" s="93">
         <v>44483</v>
       </c>
@@ -39001,8 +39001,8 @@
       <c r="D413" s="72" t="s">
         <v>645</v>
       </c>
-      <c r="E413" s="137"/>
-      <c r="F413" s="137"/>
+      <c r="E413" s="135"/>
+      <c r="F413" s="135"/>
       <c r="G413" s="93">
         <v>44483</v>
       </c>
@@ -39024,8 +39024,8 @@
       <c r="D414" s="72" t="s">
         <v>646</v>
       </c>
-      <c r="E414" s="137"/>
-      <c r="F414" s="137"/>
+      <c r="E414" s="135"/>
+      <c r="F414" s="135"/>
       <c r="G414" s="93">
         <v>44483</v>
       </c>
@@ -39047,8 +39047,8 @@
       <c r="D415" s="72" t="s">
         <v>647</v>
       </c>
-      <c r="E415" s="137"/>
-      <c r="F415" s="137"/>
+      <c r="E415" s="135"/>
+      <c r="F415" s="135"/>
       <c r="G415" s="93">
         <v>44483</v>
       </c>
@@ -39070,8 +39070,8 @@
       <c r="D416" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E416" s="137"/>
-      <c r="F416" s="137"/>
+      <c r="E416" s="135"/>
+      <c r="F416" s="135"/>
       <c r="G416" s="93">
         <v>44483</v>
       </c>
@@ -39093,8 +39093,8 @@
       <c r="D417" s="72" t="s">
         <v>649</v>
       </c>
-      <c r="E417" s="137"/>
-      <c r="F417" s="137"/>
+      <c r="E417" s="135"/>
+      <c r="F417" s="135"/>
       <c r="G417" s="93">
         <v>44483</v>
       </c>
@@ -39116,8 +39116,8 @@
       <c r="D418" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="E418" s="138"/>
-      <c r="F418" s="138"/>
+      <c r="E418" s="136"/>
+      <c r="F418" s="136"/>
       <c r="G418" s="93">
         <v>44483</v>
       </c>
@@ -39166,10 +39166,10 @@
       <c r="D420" s="72" t="s">
         <v>733</v>
       </c>
-      <c r="E420" s="153" t="s">
+      <c r="E420" s="163" t="s">
         <v>747</v>
       </c>
-      <c r="F420" s="136" t="s">
+      <c r="F420" s="134" t="s">
         <v>611</v>
       </c>
       <c r="G420" s="93">
@@ -39193,8 +39193,8 @@
       <c r="D421" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="E421" s="154"/>
-      <c r="F421" s="137"/>
+      <c r="E421" s="161"/>
+      <c r="F421" s="135"/>
       <c r="G421" s="93">
         <v>44483</v>
       </c>
@@ -39216,8 +39216,8 @@
       <c r="D422" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="E422" s="154"/>
-      <c r="F422" s="137"/>
+      <c r="E422" s="161"/>
+      <c r="F422" s="135"/>
       <c r="G422" s="93">
         <v>44483</v>
       </c>
@@ -39239,8 +39239,8 @@
       <c r="D423" s="72" t="s">
         <v>736</v>
       </c>
-      <c r="E423" s="154"/>
-      <c r="F423" s="137"/>
+      <c r="E423" s="161"/>
+      <c r="F423" s="135"/>
       <c r="G423" s="93">
         <v>44483</v>
       </c>
@@ -39262,8 +39262,8 @@
       <c r="D424" s="72" t="s">
         <v>737</v>
       </c>
-      <c r="E424" s="154"/>
-      <c r="F424" s="137"/>
+      <c r="E424" s="161"/>
+      <c r="F424" s="135"/>
       <c r="G424" s="93">
         <v>44483</v>
       </c>
@@ -39285,8 +39285,8 @@
       <c r="D425" s="72" t="s">
         <v>738</v>
       </c>
-      <c r="E425" s="155"/>
-      <c r="F425" s="138"/>
+      <c r="E425" s="162"/>
+      <c r="F425" s="136"/>
       <c r="G425" s="93">
         <v>44483</v>
       </c>
@@ -39335,13 +39335,13 @@
         <v>423</v>
       </c>
       <c r="B427" s="72"/>
-      <c r="C427" s="136" t="s">
+      <c r="C427" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="D427" s="136" t="s">
+      <c r="D427" s="134" t="s">
         <v>657</v>
       </c>
-      <c r="E427" s="136" t="s">
+      <c r="E427" s="134" t="s">
         <v>774</v>
       </c>
       <c r="F427" s="91" t="s">
@@ -39364,9 +39364,9 @@
         <v>424</v>
       </c>
       <c r="B428" s="72"/>
-      <c r="C428" s="137"/>
-      <c r="D428" s="137"/>
-      <c r="E428" s="137"/>
+      <c r="C428" s="135"/>
+      <c r="D428" s="135"/>
+      <c r="E428" s="135"/>
       <c r="F428" s="91" t="s">
         <v>779</v>
       </c>
@@ -39387,9 +39387,9 @@
         <v>425</v>
       </c>
       <c r="B429" s="72"/>
-      <c r="C429" s="137"/>
-      <c r="D429" s="137"/>
-      <c r="E429" s="137"/>
+      <c r="C429" s="135"/>
+      <c r="D429" s="135"/>
+      <c r="E429" s="135"/>
       <c r="F429" s="91" t="s">
         <v>780</v>
       </c>
@@ -39410,9 +39410,9 @@
         <v>426</v>
       </c>
       <c r="B430" s="72"/>
-      <c r="C430" s="137"/>
-      <c r="D430" s="137"/>
-      <c r="E430" s="137"/>
+      <c r="C430" s="135"/>
+      <c r="D430" s="135"/>
+      <c r="E430" s="135"/>
       <c r="F430" s="91" t="s">
         <v>781</v>
       </c>
@@ -39433,9 +39433,9 @@
         <v>427</v>
       </c>
       <c r="B431" s="72"/>
-      <c r="C431" s="137"/>
-      <c r="D431" s="137"/>
-      <c r="E431" s="137"/>
+      <c r="C431" s="135"/>
+      <c r="D431" s="135"/>
+      <c r="E431" s="135"/>
       <c r="F431" s="91" t="s">
         <v>782</v>
       </c>
@@ -39456,9 +39456,9 @@
         <v>428</v>
       </c>
       <c r="B432" s="72"/>
-      <c r="C432" s="137"/>
-      <c r="D432" s="137"/>
-      <c r="E432" s="137"/>
+      <c r="C432" s="135"/>
+      <c r="D432" s="135"/>
+      <c r="E432" s="135"/>
       <c r="F432" s="31" t="s">
         <v>776</v>
       </c>
@@ -39479,9 +39479,9 @@
         <v>429</v>
       </c>
       <c r="B433" s="72"/>
-      <c r="C433" s="137"/>
-      <c r="D433" s="137"/>
-      <c r="E433" s="137"/>
+      <c r="C433" s="135"/>
+      <c r="D433" s="135"/>
+      <c r="E433" s="135"/>
       <c r="F433" s="31" t="s">
         <v>777</v>
       </c>
@@ -39502,9 +39502,9 @@
         <v>430</v>
       </c>
       <c r="B434" s="72"/>
-      <c r="C434" s="138"/>
-      <c r="D434" s="138"/>
-      <c r="E434" s="138"/>
+      <c r="C434" s="136"/>
+      <c r="D434" s="136"/>
+      <c r="E434" s="136"/>
       <c r="F434" s="31" t="s">
         <v>760</v>
       </c>
@@ -39527,16 +39527,16 @@
       <c r="B435" s="72" t="s">
         <v>783</v>
       </c>
-      <c r="C435" s="136" t="s">
+      <c r="C435" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="D435" s="153" t="s">
+      <c r="D435" s="163" t="s">
         <v>552</v>
       </c>
       <c r="E435" s="91" t="s">
         <v>784</v>
       </c>
-      <c r="F435" s="134" t="s">
+      <c r="F435" s="140" t="s">
         <v>766</v>
       </c>
       <c r="G435" s="93">
@@ -39556,12 +39556,12 @@
         <v>432</v>
       </c>
       <c r="B436" s="72"/>
-      <c r="C436" s="137"/>
-      <c r="D436" s="154"/>
+      <c r="C436" s="135"/>
+      <c r="D436" s="161"/>
       <c r="E436" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="F436" s="139"/>
+      <c r="F436" s="141"/>
       <c r="G436" s="93">
         <v>44504</v>
       </c>
@@ -39579,12 +39579,12 @@
         <v>433</v>
       </c>
       <c r="B437" s="72"/>
-      <c r="C437" s="137"/>
-      <c r="D437" s="154"/>
+      <c r="C437" s="135"/>
+      <c r="D437" s="161"/>
       <c r="E437" s="91" t="s">
         <v>786</v>
       </c>
-      <c r="F437" s="139"/>
+      <c r="F437" s="141"/>
       <c r="G437" s="93">
         <v>44504</v>
       </c>
@@ -39602,12 +39602,12 @@
         <v>434</v>
       </c>
       <c r="B438" s="72"/>
-      <c r="C438" s="137"/>
-      <c r="D438" s="154"/>
+      <c r="C438" s="135"/>
+      <c r="D438" s="161"/>
       <c r="E438" s="91" t="s">
         <v>787</v>
       </c>
-      <c r="F438" s="139"/>
+      <c r="F438" s="141"/>
       <c r="G438" s="93">
         <v>44504</v>
       </c>
@@ -39625,12 +39625,12 @@
         <v>435</v>
       </c>
       <c r="B439" s="72"/>
-      <c r="C439" s="137"/>
-      <c r="D439" s="154"/>
+      <c r="C439" s="135"/>
+      <c r="D439" s="161"/>
       <c r="E439" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="F439" s="135"/>
+      <c r="F439" s="142"/>
       <c r="G439" s="93">
         <v>44504</v>
       </c>
@@ -39648,12 +39648,12 @@
         <v>436</v>
       </c>
       <c r="B440" s="72"/>
-      <c r="C440" s="137"/>
-      <c r="D440" s="154"/>
+      <c r="C440" s="135"/>
+      <c r="D440" s="161"/>
       <c r="E440" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="F440" s="134" t="s">
+      <c r="F440" s="140" t="s">
         <v>767</v>
       </c>
       <c r="G440" s="93">
@@ -39673,12 +39673,12 @@
         <v>437</v>
       </c>
       <c r="B441" s="72"/>
-      <c r="C441" s="138"/>
-      <c r="D441" s="155"/>
+      <c r="C441" s="136"/>
+      <c r="D441" s="162"/>
       <c r="E441" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="F441" s="135"/>
+      <c r="F441" s="142"/>
       <c r="G441" s="93">
         <v>44504</v>
       </c>
@@ -39698,13 +39698,13 @@
       <c r="B442" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="C442" s="136" t="s">
+      <c r="C442" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="D442" s="153" t="s">
+      <c r="D442" s="163" t="s">
         <v>552</v>
       </c>
-      <c r="E442" s="136" t="s">
+      <c r="E442" s="134" t="s">
         <v>765</v>
       </c>
       <c r="F442" s="91" t="s">
@@ -39727,9 +39727,9 @@
         <v>439</v>
       </c>
       <c r="B443" s="72"/>
-      <c r="C443" s="137"/>
-      <c r="D443" s="154"/>
-      <c r="E443" s="137"/>
+      <c r="C443" s="135"/>
+      <c r="D443" s="161"/>
+      <c r="E443" s="135"/>
       <c r="F443" s="31" t="s">
         <v>795</v>
       </c>
@@ -39750,9 +39750,9 @@
         <v>440</v>
       </c>
       <c r="B444" s="72"/>
-      <c r="C444" s="137"/>
-      <c r="D444" s="154"/>
-      <c r="E444" s="137"/>
+      <c r="C444" s="135"/>
+      <c r="D444" s="161"/>
+      <c r="E444" s="135"/>
       <c r="F444" s="31" t="s">
         <v>796</v>
       </c>
@@ -39773,9 +39773,9 @@
         <v>441</v>
       </c>
       <c r="B445" s="72"/>
-      <c r="C445" s="137"/>
-      <c r="D445" s="154"/>
-      <c r="E445" s="137"/>
+      <c r="C445" s="135"/>
+      <c r="D445" s="161"/>
+      <c r="E445" s="135"/>
       <c r="F445" s="31" t="s">
         <v>797</v>
       </c>
@@ -39796,9 +39796,9 @@
         <v>442</v>
       </c>
       <c r="B446" s="72"/>
-      <c r="C446" s="137"/>
-      <c r="D446" s="154"/>
-      <c r="E446" s="137"/>
+      <c r="C446" s="135"/>
+      <c r="D446" s="161"/>
+      <c r="E446" s="135"/>
       <c r="F446" s="31" t="s">
         <v>798</v>
       </c>
@@ -39819,9 +39819,9 @@
         <v>443</v>
       </c>
       <c r="B447" s="72"/>
-      <c r="C447" s="137"/>
-      <c r="D447" s="154"/>
-      <c r="E447" s="137"/>
+      <c r="C447" s="135"/>
+      <c r="D447" s="161"/>
+      <c r="E447" s="135"/>
       <c r="F447" s="48" t="s">
         <v>792</v>
       </c>
@@ -39842,9 +39842,9 @@
         <v>444</v>
       </c>
       <c r="B448" s="72"/>
-      <c r="C448" s="138"/>
-      <c r="D448" s="155"/>
-      <c r="E448" s="137"/>
+      <c r="C448" s="136"/>
+      <c r="D448" s="162"/>
+      <c r="E448" s="135"/>
       <c r="F448" s="103" t="s">
         <v>793</v>
       </c>
@@ -40109,6 +40109,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="F440:F441"/>
+    <mergeCell ref="C435:C441"/>
+    <mergeCell ref="D435:D441"/>
+    <mergeCell ref="C442:C448"/>
+    <mergeCell ref="D442:D448"/>
+    <mergeCell ref="E442:E448"/>
+    <mergeCell ref="E427:E434"/>
+    <mergeCell ref="D427:D434"/>
+    <mergeCell ref="C427:C434"/>
+    <mergeCell ref="F435:F439"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="F344:F345"/>
+    <mergeCell ref="F359:F360"/>
+    <mergeCell ref="F366:F367"/>
+    <mergeCell ref="E388:E395"/>
+    <mergeCell ref="F388:F395"/>
+    <mergeCell ref="E411:E418"/>
+    <mergeCell ref="F411:F418"/>
+    <mergeCell ref="E397:E402"/>
+    <mergeCell ref="E420:E425"/>
+    <mergeCell ref="F420:F425"/>
+    <mergeCell ref="F405:F406"/>
+    <mergeCell ref="F325:F335"/>
+    <mergeCell ref="E325:E335"/>
+    <mergeCell ref="F303:F313"/>
+    <mergeCell ref="E303:E313"/>
+    <mergeCell ref="F314:F324"/>
+    <mergeCell ref="E259:E269"/>
+    <mergeCell ref="F259:F269"/>
+    <mergeCell ref="E281:E291"/>
+    <mergeCell ref="F270:F280"/>
+    <mergeCell ref="F281:F291"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F66:F77"/>
+    <mergeCell ref="D54:D65"/>
+    <mergeCell ref="E54:E65"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
     <mergeCell ref="F408:F409"/>
     <mergeCell ref="F397:F402"/>
     <mergeCell ref="D130:D141"/>
@@ -40125,67 +40186,6 @@
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
     <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F66:F77"/>
-    <mergeCell ref="D54:D65"/>
-    <mergeCell ref="E54:E65"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E259:E269"/>
-    <mergeCell ref="F259:F269"/>
-    <mergeCell ref="E281:E291"/>
-    <mergeCell ref="F270:F280"/>
-    <mergeCell ref="F281:F291"/>
-    <mergeCell ref="F325:F335"/>
-    <mergeCell ref="E325:E335"/>
-    <mergeCell ref="F303:F313"/>
-    <mergeCell ref="E303:E313"/>
-    <mergeCell ref="F314:F324"/>
-    <mergeCell ref="E427:E434"/>
-    <mergeCell ref="D427:D434"/>
-    <mergeCell ref="C427:C434"/>
-    <mergeCell ref="F435:F439"/>
-    <mergeCell ref="F337:F338"/>
-    <mergeCell ref="F344:F345"/>
-    <mergeCell ref="F359:F360"/>
-    <mergeCell ref="F366:F367"/>
-    <mergeCell ref="E388:E395"/>
-    <mergeCell ref="F388:F395"/>
-    <mergeCell ref="E411:E418"/>
-    <mergeCell ref="F411:F418"/>
-    <mergeCell ref="E397:E402"/>
-    <mergeCell ref="E420:E425"/>
-    <mergeCell ref="F420:F425"/>
-    <mergeCell ref="F405:F406"/>
-    <mergeCell ref="F440:F441"/>
-    <mergeCell ref="C435:C441"/>
-    <mergeCell ref="D435:D441"/>
-    <mergeCell ref="C442:C448"/>
-    <mergeCell ref="D442:D448"/>
-    <mergeCell ref="E442:E448"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -40199,7 +40199,7 @@
   <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235"/>
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -40216,11 +40216,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="172" t="s">
         <v>799</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -40242,9 +40242,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -40306,13 +40306,13 @@
       <c r="C5" s="72" t="s">
         <v>800</v>
       </c>
-      <c r="D5" s="171" t="s">
+      <c r="D5" s="165" t="s">
         <v>832</v>
       </c>
       <c r="E5" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="169" t="s">
+      <c r="F5" s="171" t="s">
         <v>830</v>
       </c>
       <c r="G5" s="60">
@@ -40335,11 +40335,11 @@
       <c r="C6" s="72" t="s">
         <v>801</v>
       </c>
-      <c r="D6" s="172"/>
+      <c r="D6" s="166"/>
       <c r="E6" s="99" t="s">
         <v>829</v>
       </c>
-      <c r="F6" s="139"/>
+      <c r="F6" s="141"/>
       <c r="G6" s="68">
         <v>44512</v>
       </c>
@@ -40362,11 +40362,11 @@
       <c r="C7" s="72" t="s">
         <v>802</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="99" t="s">
         <v>561</v>
       </c>
-      <c r="F7" s="139"/>
+      <c r="F7" s="141"/>
       <c r="G7" s="60">
         <v>44512</v>
       </c>
@@ -40387,11 +40387,11 @@
       <c r="C8" s="72" t="s">
         <v>803</v>
       </c>
-      <c r="D8" s="172"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="99" t="s">
         <v>562</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="68">
         <v>44512</v>
       </c>
@@ -40412,11 +40412,11 @@
       <c r="C9" s="72" t="s">
         <v>804</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="F9" s="139"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="60">
         <v>44512</v>
       </c>
@@ -40437,11 +40437,11 @@
       <c r="C10" s="72" t="s">
         <v>805</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="166"/>
       <c r="E10" s="99" t="s">
         <v>564</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="68">
         <v>44512</v>
       </c>
@@ -40462,11 +40462,11 @@
       <c r="C11" s="72" t="s">
         <v>806</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="166"/>
       <c r="E11" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="F11" s="139"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="60">
         <v>44512</v>
       </c>
@@ -40487,11 +40487,11 @@
       <c r="C12" s="72" t="s">
         <v>807</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="166"/>
       <c r="E12" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="68">
         <v>44512</v>
       </c>
@@ -40512,11 +40512,11 @@
       <c r="C13" s="72" t="s">
         <v>808</v>
       </c>
-      <c r="D13" s="172"/>
+      <c r="D13" s="166"/>
       <c r="E13" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="F13" s="139"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="60">
         <v>44512</v>
       </c>
@@ -40537,11 +40537,11 @@
       <c r="C14" s="72" t="s">
         <v>809</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="F14" s="139"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="68">
         <v>44512</v>
       </c>
@@ -40562,11 +40562,11 @@
       <c r="C15" s="72" t="s">
         <v>810</v>
       </c>
-      <c r="D15" s="172"/>
+      <c r="D15" s="166"/>
       <c r="E15" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="F15" s="139"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="60">
         <v>44512</v>
       </c>
@@ -40587,11 +40587,11 @@
       <c r="C16" s="72" t="s">
         <v>811</v>
       </c>
-      <c r="D16" s="172"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="F16" s="135"/>
+      <c r="F16" s="142"/>
       <c r="G16" s="68">
         <v>44512</v>
       </c>
@@ -40612,7 +40612,7 @@
       <c r="C17" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D17" s="172"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="99" t="s">
         <v>847</v>
       </c>
@@ -40641,7 +40641,7 @@
       <c r="C18" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D18" s="172"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="37" t="s">
         <v>848</v>
       </c>
@@ -40668,11 +40668,11 @@
       <c r="C19" s="72" t="s">
         <v>835</v>
       </c>
-      <c r="D19" s="172"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="99" t="s">
         <v>849</v>
       </c>
-      <c r="F19" s="134" t="s">
+      <c r="F19" s="140" t="s">
         <v>890</v>
       </c>
       <c r="G19" s="60">
@@ -40695,11 +40695,11 @@
       <c r="C20" s="72" t="s">
         <v>838</v>
       </c>
-      <c r="D20" s="172"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="99" t="s">
         <v>850</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="141"/>
       <c r="G20" s="68">
         <v>44512</v>
       </c>
@@ -40720,11 +40720,11 @@
       <c r="C21" s="72" t="s">
         <v>839</v>
       </c>
-      <c r="D21" s="172"/>
+      <c r="D21" s="166"/>
       <c r="E21" s="99" t="s">
         <v>851</v>
       </c>
-      <c r="F21" s="139"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="60">
         <v>44512</v>
       </c>
@@ -40745,11 +40745,11 @@
       <c r="C22" s="72" t="s">
         <v>837</v>
       </c>
-      <c r="D22" s="172"/>
+      <c r="D22" s="166"/>
       <c r="E22" s="99" t="s">
         <v>852</v>
       </c>
-      <c r="F22" s="139"/>
+      <c r="F22" s="141"/>
       <c r="G22" s="68">
         <v>44512</v>
       </c>
@@ -40772,11 +40772,11 @@
       <c r="C23" s="72" t="s">
         <v>840</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="166"/>
       <c r="E23" s="99" t="s">
         <v>853</v>
       </c>
-      <c r="F23" s="139"/>
+      <c r="F23" s="141"/>
       <c r="G23" s="60">
         <v>44512</v>
       </c>
@@ -40797,11 +40797,11 @@
       <c r="C24" s="72" t="s">
         <v>841</v>
       </c>
-      <c r="D24" s="172"/>
+      <c r="D24" s="166"/>
       <c r="E24" s="99" t="s">
         <v>854</v>
       </c>
-      <c r="F24" s="139"/>
+      <c r="F24" s="141"/>
       <c r="G24" s="68">
         <v>44512</v>
       </c>
@@ -40822,11 +40822,11 @@
       <c r="C25" s="72" t="s">
         <v>842</v>
       </c>
-      <c r="D25" s="172"/>
+      <c r="D25" s="166"/>
       <c r="E25" s="99" t="s">
         <v>855</v>
       </c>
-      <c r="F25" s="139"/>
+      <c r="F25" s="141"/>
       <c r="G25" s="60">
         <v>44512</v>
       </c>
@@ -40847,11 +40847,11 @@
       <c r="C26" s="72" t="s">
         <v>843</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="166"/>
       <c r="E26" s="99" t="s">
         <v>856</v>
       </c>
-      <c r="F26" s="139"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="68">
         <v>44512</v>
       </c>
@@ -40872,11 +40872,11 @@
       <c r="C27" s="72" t="s">
         <v>844</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="166"/>
       <c r="E27" s="99" t="s">
         <v>857</v>
       </c>
-      <c r="F27" s="139"/>
+      <c r="F27" s="141"/>
       <c r="G27" s="60">
         <v>44512</v>
       </c>
@@ -40897,11 +40897,11 @@
       <c r="C28" s="72" t="s">
         <v>845</v>
       </c>
-      <c r="D28" s="172"/>
+      <c r="D28" s="166"/>
       <c r="E28" s="99" t="s">
         <v>858</v>
       </c>
-      <c r="F28" s="139"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="68">
         <v>44512</v>
       </c>
@@ -40922,11 +40922,11 @@
       <c r="C29" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="D29" s="172"/>
+      <c r="D29" s="166"/>
       <c r="E29" s="99" t="s">
         <v>859</v>
       </c>
-      <c r="F29" s="135"/>
+      <c r="F29" s="142"/>
       <c r="G29" s="60">
         <v>44512</v>
       </c>
@@ -40949,7 +40949,7 @@
       <c r="C30" s="31" t="s">
         <v>862</v>
       </c>
-      <c r="D30" s="172"/>
+      <c r="D30" s="166"/>
       <c r="E30" s="37" t="s">
         <v>861</v>
       </c>
@@ -40976,7 +40976,7 @@
       <c r="C31" s="72" t="s">
         <v>837</v>
       </c>
-      <c r="D31" s="172"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="99" t="s">
         <v>863</v>
       </c>
@@ -41003,7 +41003,7 @@
       <c r="C32" s="72" t="s">
         <v>838</v>
       </c>
-      <c r="D32" s="172"/>
+      <c r="D32" s="166"/>
       <c r="E32" s="99" t="s">
         <v>864</v>
       </c>
@@ -41030,7 +41030,7 @@
       <c r="C33" s="72" t="s">
         <v>839</v>
       </c>
-      <c r="D33" s="172"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="99" t="s">
         <v>865</v>
       </c>
@@ -41057,11 +41057,11 @@
       <c r="C34" s="72" t="s">
         <v>841</v>
       </c>
-      <c r="D34" s="172"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="99" t="s">
         <v>866</v>
       </c>
-      <c r="F34" s="134" t="s">
+      <c r="F34" s="140" t="s">
         <v>893</v>
       </c>
       <c r="G34" s="68">
@@ -41084,11 +41084,11 @@
       <c r="C35" s="72" t="s">
         <v>842</v>
       </c>
-      <c r="D35" s="172"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="99" t="s">
         <v>867</v>
       </c>
-      <c r="F35" s="135"/>
+      <c r="F35" s="142"/>
       <c r="G35" s="60">
         <v>44512</v>
       </c>
@@ -41109,7 +41109,7 @@
       <c r="C36" s="72" t="s">
         <v>843</v>
       </c>
-      <c r="D36" s="172"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="99" t="s">
         <v>868</v>
       </c>
@@ -41136,11 +41136,11 @@
       <c r="C37" s="72" t="s">
         <v>844</v>
       </c>
-      <c r="D37" s="172"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="99" t="s">
         <v>869</v>
       </c>
-      <c r="F37" s="134" t="s">
+      <c r="F37" s="140" t="s">
         <v>896</v>
       </c>
       <c r="G37" s="60">
@@ -41163,11 +41163,11 @@
       <c r="C38" s="72" t="s">
         <v>845</v>
       </c>
-      <c r="D38" s="172"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="99" t="s">
         <v>870</v>
       </c>
-      <c r="F38" s="135"/>
+      <c r="F38" s="142"/>
       <c r="G38" s="68">
         <v>44512</v>
       </c>
@@ -41188,7 +41188,7 @@
       <c r="C39" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="D39" s="173"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="99" t="s">
         <v>871</v>
       </c>
@@ -41212,16 +41212,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="48"/>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="140" t="s">
         <v>917</v>
       </c>
-      <c r="D40" s="134" t="s">
+      <c r="D40" s="140" t="s">
         <v>832</v>
       </c>
       <c r="E40" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="F40" s="134" t="s">
+      <c r="F40" s="140" t="s">
         <v>906</v>
       </c>
       <c r="G40" s="68">
@@ -41241,12 +41241,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="48"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="F41" s="139"/>
+      <c r="F41" s="141"/>
       <c r="G41" s="60">
         <v>44512</v>
       </c>
@@ -41264,12 +41264,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="48"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="F42" s="139"/>
+      <c r="F42" s="141"/>
       <c r="G42" s="68">
         <v>44512</v>
       </c>
@@ -41287,12 +41287,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="48"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="F43" s="139"/>
+      <c r="F43" s="141"/>
       <c r="G43" s="60">
         <v>44512</v>
       </c>
@@ -41310,12 +41310,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="48"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="F44" s="139"/>
+      <c r="F44" s="141"/>
       <c r="G44" s="68">
         <v>44512</v>
       </c>
@@ -41333,12 +41333,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="48"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="141"/>
       <c r="E45" s="37" t="s">
         <v>881</v>
       </c>
-      <c r="F45" s="139"/>
+      <c r="F45" s="141"/>
       <c r="G45" s="60">
         <v>44512</v>
       </c>
@@ -41356,12 +41356,12 @@
         <v>42</v>
       </c>
       <c r="B46" s="48"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="141"/>
       <c r="E46" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="F46" s="135"/>
+      <c r="F46" s="142"/>
       <c r="G46" s="68">
         <v>44512</v>
       </c>
@@ -41379,12 +41379,12 @@
         <v>43</v>
       </c>
       <c r="B47" s="48"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="141"/>
       <c r="E47" s="37" t="s">
         <v>883</v>
       </c>
-      <c r="F47" s="134" t="s">
+      <c r="F47" s="140" t="s">
         <v>907</v>
       </c>
       <c r="G47" s="60">
@@ -41406,12 +41406,12 @@
         <v>44</v>
       </c>
       <c r="B48" s="48"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
       <c r="E48" s="37" t="s">
         <v>884</v>
       </c>
-      <c r="F48" s="135"/>
+      <c r="F48" s="142"/>
       <c r="G48" s="68">
         <v>44512</v>
       </c>
@@ -41431,16 +41431,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="48"/>
-      <c r="C49" s="165" t="s">
+      <c r="C49" s="173" t="s">
         <v>954</v>
       </c>
-      <c r="D49" s="167" t="s">
+      <c r="D49" s="168" t="s">
         <v>938</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>928</v>
       </c>
-      <c r="F49" s="134" t="s">
+      <c r="F49" s="140" t="s">
         <v>952</v>
       </c>
       <c r="G49" s="60">
@@ -41460,12 +41460,12 @@
         <v>46</v>
       </c>
       <c r="B50" s="48"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="168"/>
+      <c r="C50" s="174"/>
+      <c r="D50" s="169"/>
       <c r="E50" s="31" t="s">
         <v>933</v>
       </c>
-      <c r="F50" s="139"/>
+      <c r="F50" s="141"/>
       <c r="G50" s="68">
         <v>44512</v>
       </c>
@@ -41483,12 +41483,12 @@
         <v>47</v>
       </c>
       <c r="B51" s="48"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="168"/>
+      <c r="C51" s="174"/>
+      <c r="D51" s="169"/>
       <c r="E51" s="31" t="s">
         <v>934</v>
       </c>
-      <c r="F51" s="139"/>
+      <c r="F51" s="141"/>
       <c r="G51" s="60">
         <v>44512</v>
       </c>
@@ -41506,12 +41506,12 @@
         <v>48</v>
       </c>
       <c r="B52" s="48"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="168"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="169"/>
       <c r="E52" s="31" t="s">
         <v>935</v>
       </c>
-      <c r="F52" s="139"/>
+      <c r="F52" s="141"/>
       <c r="G52" s="68">
         <v>44512</v>
       </c>
@@ -41529,12 +41529,12 @@
         <v>49</v>
       </c>
       <c r="B53" s="48"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="168"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="169"/>
       <c r="E53" s="31" t="s">
         <v>936</v>
       </c>
-      <c r="F53" s="139"/>
+      <c r="F53" s="141"/>
       <c r="G53" s="60">
         <v>44512</v>
       </c>
@@ -41552,8 +41552,8 @@
         <v>50</v>
       </c>
       <c r="B54" s="48"/>
-      <c r="C54" s="166"/>
-      <c r="D54" s="168"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="169"/>
       <c r="E54" s="31" t="s">
         <v>937</v>
       </c>
@@ -41577,12 +41577,12 @@
         <v>51</v>
       </c>
       <c r="B55" s="48"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="168"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="169"/>
       <c r="E55" s="31" t="s">
         <v>929</v>
       </c>
-      <c r="F55" s="134" t="s">
+      <c r="F55" s="140" t="s">
         <v>952</v>
       </c>
       <c r="G55" s="60">
@@ -41602,12 +41602,12 @@
         <v>52</v>
       </c>
       <c r="B56" s="48"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="168"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="169"/>
       <c r="E56" s="31" t="s">
         <v>930</v>
       </c>
-      <c r="F56" s="139"/>
+      <c r="F56" s="141"/>
       <c r="G56" s="68">
         <v>44512</v>
       </c>
@@ -41625,12 +41625,12 @@
         <v>53</v>
       </c>
       <c r="B57" s="48"/>
-      <c r="C57" s="166"/>
-      <c r="D57" s="168"/>
+      <c r="C57" s="174"/>
+      <c r="D57" s="169"/>
       <c r="E57" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="F57" s="139"/>
+      <c r="F57" s="141"/>
       <c r="G57" s="60">
         <v>44512</v>
       </c>
@@ -41648,12 +41648,12 @@
         <v>54</v>
       </c>
       <c r="B58" s="48"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="168"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="169"/>
       <c r="E58" s="31" t="s">
         <v>931</v>
       </c>
-      <c r="F58" s="139"/>
+      <c r="F58" s="141"/>
       <c r="G58" s="68">
         <v>44512</v>
       </c>
@@ -41671,12 +41671,12 @@
         <v>55</v>
       </c>
       <c r="B59" s="48"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="168"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="169"/>
       <c r="E59" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="F59" s="139"/>
+      <c r="F59" s="141"/>
       <c r="G59" s="60">
         <v>44512</v>
       </c>
@@ -41695,11 +41695,11 @@
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="175"/>
-      <c r="D60" s="174"/>
+      <c r="D60" s="170"/>
       <c r="E60" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="135"/>
+      <c r="F60" s="142"/>
       <c r="G60" s="68">
         <v>44512</v>
       </c>
@@ -41720,7 +41720,7 @@
       <c r="C61" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="134" t="s">
+      <c r="D61" s="140" t="s">
         <v>980</v>
       </c>
       <c r="E61" s="37" t="s">
@@ -41749,7 +41749,7 @@
       <c r="C62" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="D62" s="139"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="37" t="s">
         <v>977</v>
       </c>
@@ -41776,7 +41776,7 @@
       <c r="C63" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="D63" s="135"/>
+      <c r="D63" s="142"/>
       <c r="E63" s="37" t="s">
         <v>159</v>
       </c>
@@ -41800,10 +41800,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="48"/>
-      <c r="C64" s="165" t="s">
+      <c r="C64" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="167" t="s">
+      <c r="D64" s="168" t="s">
         <v>939</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -41829,8 +41829,8 @@
         <v>61</v>
       </c>
       <c r="B65" s="48"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="168"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="169"/>
       <c r="E65" s="31" t="s">
         <v>941</v>
       </c>
@@ -41854,8 +41854,8 @@
         <v>62</v>
       </c>
       <c r="B66" s="48"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="168"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="169"/>
       <c r="E66" s="31" t="s">
         <v>942</v>
       </c>
@@ -41879,8 +41879,8 @@
         <v>63</v>
       </c>
       <c r="B67" s="48"/>
-      <c r="C67" s="166"/>
-      <c r="D67" s="168"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="169"/>
       <c r="E67" s="31" t="s">
         <v>943</v>
       </c>
@@ -41904,8 +41904,8 @@
         <v>64</v>
       </c>
       <c r="B68" s="48"/>
-      <c r="C68" s="166"/>
-      <c r="D68" s="168"/>
+      <c r="C68" s="174"/>
+      <c r="D68" s="169"/>
       <c r="E68" s="31" t="s">
         <v>944</v>
       </c>
@@ -41929,8 +41929,8 @@
         <v>65</v>
       </c>
       <c r="B69" s="48"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="168"/>
+      <c r="C69" s="174"/>
+      <c r="D69" s="169"/>
       <c r="E69" s="31" t="s">
         <v>945</v>
       </c>
@@ -41954,8 +41954,8 @@
         <v>66</v>
       </c>
       <c r="B70" s="48"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="168"/>
+      <c r="C70" s="174"/>
+      <c r="D70" s="169"/>
       <c r="E70" s="31" t="s">
         <v>946</v>
       </c>
@@ -41979,8 +41979,8 @@
         <v>67</v>
       </c>
       <c r="B71" s="48"/>
-      <c r="C71" s="166"/>
-      <c r="D71" s="168"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="169"/>
       <c r="E71" s="31" t="s">
         <v>947</v>
       </c>
@@ -42004,8 +42004,8 @@
         <v>68</v>
       </c>
       <c r="B72" s="48"/>
-      <c r="C72" s="166"/>
-      <c r="D72" s="168"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="169"/>
       <c r="E72" s="31" t="s">
         <v>950</v>
       </c>
@@ -42029,8 +42029,8 @@
         <v>69</v>
       </c>
       <c r="B73" s="48"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="168"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="169"/>
       <c r="E73" s="31" t="s">
         <v>949</v>
       </c>
@@ -42054,13 +42054,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="48"/>
-      <c r="C74" s="134" t="s">
+      <c r="C74" s="140" t="s">
         <v>955</v>
       </c>
-      <c r="D74" s="134" t="s">
+      <c r="D74" s="140" t="s">
         <v>956</v>
       </c>
-      <c r="E74" s="136" t="s">
+      <c r="E74" s="134" t="s">
         <v>223</v>
       </c>
       <c r="F74" s="127" t="s">
@@ -42084,9 +42084,9 @@
         <v>71</v>
       </c>
       <c r="B75" s="48"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="137"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="135"/>
       <c r="F75" s="127" t="s">
         <v>960</v>
       </c>
@@ -42108,9 +42108,9 @@
         <v>72</v>
       </c>
       <c r="B76" s="48"/>
-      <c r="C76" s="151"/>
-      <c r="D76" s="151"/>
-      <c r="E76" s="137"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="135"/>
       <c r="F76" s="127" t="s">
         <v>961</v>
       </c>
@@ -42132,9 +42132,9 @@
         <v>73</v>
       </c>
       <c r="B77" s="48"/>
-      <c r="C77" s="151"/>
-      <c r="D77" s="151"/>
-      <c r="E77" s="137"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="135"/>
       <c r="F77" s="127" t="s">
         <v>962</v>
       </c>
@@ -42156,9 +42156,9 @@
         <v>74</v>
       </c>
       <c r="B78" s="48"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="151"/>
-      <c r="E78" s="137"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="135"/>
       <c r="F78" s="127" t="s">
         <v>963</v>
       </c>
@@ -42180,9 +42180,9 @@
         <v>75</v>
       </c>
       <c r="B79" s="48"/>
-      <c r="C79" s="151"/>
-      <c r="D79" s="151"/>
-      <c r="E79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="135"/>
       <c r="F79" s="127" t="s">
         <v>964</v>
       </c>
@@ -42204,9 +42204,9 @@
         <v>76</v>
       </c>
       <c r="B80" s="48"/>
-      <c r="C80" s="151"/>
-      <c r="D80" s="151"/>
-      <c r="E80" s="137"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="138"/>
+      <c r="E80" s="135"/>
       <c r="F80" s="32" t="s">
         <v>965</v>
       </c>
@@ -42228,9 +42228,9 @@
         <v>77</v>
       </c>
       <c r="B81" s="48"/>
-      <c r="C81" s="151"/>
-      <c r="D81" s="151"/>
-      <c r="E81" s="137"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="135"/>
       <c r="F81" s="32" t="s">
         <v>966</v>
       </c>
@@ -42252,9 +42252,9 @@
         <v>78</v>
       </c>
       <c r="B82" s="48"/>
-      <c r="C82" s="151"/>
-      <c r="D82" s="151"/>
-      <c r="E82" s="137"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="138"/>
+      <c r="E82" s="135"/>
       <c r="F82" s="32" t="s">
         <v>967</v>
       </c>
@@ -42276,9 +42276,9 @@
         <v>79</v>
       </c>
       <c r="B83" s="48"/>
-      <c r="C83" s="151"/>
-      <c r="D83" s="151"/>
-      <c r="E83" s="137"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="138"/>
+      <c r="E83" s="135"/>
       <c r="F83" s="127" t="s">
         <v>968</v>
       </c>
@@ -42300,9 +42300,9 @@
         <v>80</v>
       </c>
       <c r="B84" s="115"/>
-      <c r="C84" s="151"/>
-      <c r="D84" s="151"/>
-      <c r="E84" s="137"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="138"/>
+      <c r="E84" s="135"/>
       <c r="F84" s="127" t="s">
         <v>969</v>
       </c>
@@ -42324,9 +42324,9 @@
         <v>81</v>
       </c>
       <c r="B85" s="48"/>
-      <c r="C85" s="152"/>
-      <c r="D85" s="152"/>
-      <c r="E85" s="138"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="136"/>
       <c r="F85" s="32" t="s">
         <v>970</v>
       </c>
@@ -42348,13 +42348,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="48"/>
-      <c r="C86" s="134" t="s">
+      <c r="C86" s="140" t="s">
         <v>955</v>
       </c>
-      <c r="D86" s="134" t="s">
+      <c r="D86" s="140" t="s">
         <v>957</v>
       </c>
-      <c r="E86" s="136" t="s">
+      <c r="E86" s="134" t="s">
         <v>958</v>
       </c>
       <c r="F86" s="127" t="s">
@@ -42378,9 +42378,9 @@
         <v>83</v>
       </c>
       <c r="B87" s="48"/>
-      <c r="C87" s="151"/>
-      <c r="D87" s="151"/>
-      <c r="E87" s="137"/>
+      <c r="C87" s="138"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="135"/>
       <c r="F87" s="127" t="s">
         <v>960</v>
       </c>
@@ -42402,9 +42402,9 @@
         <v>84</v>
       </c>
       <c r="B88" s="48"/>
-      <c r="C88" s="151"/>
-      <c r="D88" s="151"/>
-      <c r="E88" s="137"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="135"/>
       <c r="F88" s="127" t="s">
         <v>961</v>
       </c>
@@ -42426,9 +42426,9 @@
         <v>85</v>
       </c>
       <c r="B89" s="48"/>
-      <c r="C89" s="151"/>
-      <c r="D89" s="151"/>
-      <c r="E89" s="137"/>
+      <c r="C89" s="138"/>
+      <c r="D89" s="138"/>
+      <c r="E89" s="135"/>
       <c r="F89" s="127" t="s">
         <v>962</v>
       </c>
@@ -42450,9 +42450,9 @@
         <v>86</v>
       </c>
       <c r="B90" s="48"/>
-      <c r="C90" s="151"/>
-      <c r="D90" s="151"/>
-      <c r="E90" s="137"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="135"/>
       <c r="F90" s="127" t="s">
         <v>963</v>
       </c>
@@ -42474,9 +42474,9 @@
         <v>87</v>
       </c>
       <c r="B91" s="48"/>
-      <c r="C91" s="151"/>
-      <c r="D91" s="151"/>
-      <c r="E91" s="137"/>
+      <c r="C91" s="138"/>
+      <c r="D91" s="138"/>
+      <c r="E91" s="135"/>
       <c r="F91" s="127" t="s">
         <v>964</v>
       </c>
@@ -42498,9 +42498,9 @@
         <v>88</v>
       </c>
       <c r="B92" s="48"/>
-      <c r="C92" s="151"/>
-      <c r="D92" s="151"/>
-      <c r="E92" s="137"/>
+      <c r="C92" s="138"/>
+      <c r="D92" s="138"/>
+      <c r="E92" s="135"/>
       <c r="F92" s="32" t="s">
         <v>965</v>
       </c>
@@ -42522,9 +42522,9 @@
         <v>89</v>
       </c>
       <c r="B93" s="48"/>
-      <c r="C93" s="151"/>
-      <c r="D93" s="151"/>
-      <c r="E93" s="137"/>
+      <c r="C93" s="138"/>
+      <c r="D93" s="138"/>
+      <c r="E93" s="135"/>
       <c r="F93" s="32" t="s">
         <v>966</v>
       </c>
@@ -42546,9 +42546,9 @@
         <v>90</v>
       </c>
       <c r="B94" s="48"/>
-      <c r="C94" s="151"/>
-      <c r="D94" s="151"/>
-      <c r="E94" s="137"/>
+      <c r="C94" s="138"/>
+      <c r="D94" s="138"/>
+      <c r="E94" s="135"/>
       <c r="F94" s="32" t="s">
         <v>967</v>
       </c>
@@ -42570,9 +42570,9 @@
         <v>91</v>
       </c>
       <c r="B95" s="48"/>
-      <c r="C95" s="151"/>
-      <c r="D95" s="151"/>
-      <c r="E95" s="137"/>
+      <c r="C95" s="138"/>
+      <c r="D95" s="138"/>
+      <c r="E95" s="135"/>
       <c r="F95" s="127" t="s">
         <v>968</v>
       </c>
@@ -42594,9 +42594,9 @@
         <v>92</v>
       </c>
       <c r="B96" s="115"/>
-      <c r="C96" s="151"/>
-      <c r="D96" s="151"/>
-      <c r="E96" s="137"/>
+      <c r="C96" s="138"/>
+      <c r="D96" s="138"/>
+      <c r="E96" s="135"/>
       <c r="F96" s="127" t="s">
         <v>969</v>
       </c>
@@ -42618,9 +42618,9 @@
         <v>93</v>
       </c>
       <c r="B97" s="48"/>
-      <c r="C97" s="152"/>
-      <c r="D97" s="152"/>
-      <c r="E97" s="138"/>
+      <c r="C97" s="139"/>
+      <c r="D97" s="139"/>
+      <c r="E97" s="136"/>
       <c r="F97" s="32" t="s">
         <v>970</v>
       </c>
@@ -42705,7 +42705,7 @@
       <c r="C100" s="72" t="s">
         <v>987</v>
       </c>
-      <c r="D100" s="153" t="s">
+      <c r="D100" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E100" s="37" t="s">
@@ -42735,7 +42735,7 @@
       <c r="C101" s="72" t="s">
         <v>988</v>
       </c>
-      <c r="D101" s="154"/>
+      <c r="D101" s="161"/>
       <c r="E101" s="37" t="s">
         <v>977</v>
       </c>
@@ -42763,7 +42763,7 @@
       <c r="C102" s="72" t="s">
         <v>989</v>
       </c>
-      <c r="D102" s="155"/>
+      <c r="D102" s="162"/>
       <c r="E102" s="37" t="s">
         <v>159</v>
       </c>
@@ -42791,7 +42791,7 @@
       <c r="C103" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="D103" s="153" t="s">
+      <c r="D103" s="163" t="s">
         <v>956</v>
       </c>
       <c r="E103" s="37" t="s">
@@ -42821,7 +42821,7 @@
       <c r="C104" s="72" t="s">
         <v>655</v>
       </c>
-      <c r="D104" s="155"/>
+      <c r="D104" s="162"/>
       <c r="E104" s="37" t="s">
         <v>628</v>
       </c>
@@ -42849,7 +42849,7 @@
       <c r="C105" s="72" t="s">
         <v>975</v>
       </c>
-      <c r="D105" s="153" t="s">
+      <c r="D105" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E105" s="37" t="s">
@@ -42879,7 +42879,7 @@
       <c r="C106" s="72" t="s">
         <v>976</v>
       </c>
-      <c r="D106" s="154"/>
+      <c r="D106" s="161"/>
       <c r="E106" s="37" t="s">
         <v>977</v>
       </c>
@@ -42907,7 +42907,7 @@
       <c r="C107" s="72" t="s">
         <v>654</v>
       </c>
-      <c r="D107" s="155"/>
+      <c r="D107" s="162"/>
       <c r="E107" s="37" t="s">
         <v>159</v>
       </c>
@@ -42962,16 +42962,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="48"/>
-      <c r="C109" s="134" t="s">
+      <c r="C109" s="140" t="s">
         <v>995</v>
       </c>
-      <c r="D109" s="134" t="s">
+      <c r="D109" s="140" t="s">
         <v>832</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>1009</v>
       </c>
-      <c r="F109" s="134" t="s">
+      <c r="F109" s="140" t="s">
         <v>1016</v>
       </c>
       <c r="G109" s="60">
@@ -42991,12 +42991,12 @@
         <v>106</v>
       </c>
       <c r="B110" s="48"/>
-      <c r="C110" s="139"/>
-      <c r="D110" s="139"/>
+      <c r="C110" s="141"/>
+      <c r="D110" s="141"/>
       <c r="E110" s="37" t="s">
         <v>1010</v>
       </c>
-      <c r="F110" s="139"/>
+      <c r="F110" s="141"/>
       <c r="G110" s="68">
         <v>44512</v>
       </c>
@@ -43014,12 +43014,12 @@
         <v>107</v>
       </c>
       <c r="B111" s="48"/>
-      <c r="C111" s="139"/>
-      <c r="D111" s="139"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="141"/>
       <c r="E111" s="37" t="s">
         <v>1011</v>
       </c>
-      <c r="F111" s="139"/>
+      <c r="F111" s="141"/>
       <c r="G111" s="60">
         <v>44512</v>
       </c>
@@ -43037,12 +43037,12 @@
         <v>108</v>
       </c>
       <c r="B112" s="48"/>
-      <c r="C112" s="139"/>
-      <c r="D112" s="139"/>
+      <c r="C112" s="141"/>
+      <c r="D112" s="141"/>
       <c r="E112" s="37" t="s">
         <v>1012</v>
       </c>
-      <c r="F112" s="139"/>
+      <c r="F112" s="141"/>
       <c r="G112" s="68">
         <v>44512</v>
       </c>
@@ -43060,12 +43060,12 @@
         <v>109</v>
       </c>
       <c r="B113" s="48"/>
-      <c r="C113" s="139"/>
-      <c r="D113" s="139"/>
+      <c r="C113" s="141"/>
+      <c r="D113" s="141"/>
       <c r="E113" s="37" t="s">
         <v>1013</v>
       </c>
-      <c r="F113" s="139"/>
+      <c r="F113" s="141"/>
       <c r="G113" s="60">
         <v>44512</v>
       </c>
@@ -43083,12 +43083,12 @@
         <v>110</v>
       </c>
       <c r="B114" s="48"/>
-      <c r="C114" s="139"/>
-      <c r="D114" s="139"/>
+      <c r="C114" s="141"/>
+      <c r="D114" s="141"/>
       <c r="E114" s="37" t="s">
         <v>1014</v>
       </c>
-      <c r="F114" s="139"/>
+      <c r="F114" s="141"/>
       <c r="G114" s="68">
         <v>44512</v>
       </c>
@@ -43106,12 +43106,12 @@
         <v>111</v>
       </c>
       <c r="B115" s="48"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135"/>
+      <c r="C115" s="142"/>
+      <c r="D115" s="142"/>
       <c r="E115" s="37" t="s">
         <v>1015</v>
       </c>
-      <c r="F115" s="135"/>
+      <c r="F115" s="142"/>
       <c r="G115" s="60">
         <v>44512</v>
       </c>
@@ -43129,16 +43129,16 @@
         <v>112</v>
       </c>
       <c r="B116" s="48"/>
-      <c r="C116" s="134" t="s">
+      <c r="C116" s="140" t="s">
         <v>995</v>
       </c>
-      <c r="D116" s="134" t="s">
+      <c r="D116" s="140" t="s">
         <v>832</v>
       </c>
       <c r="E116" s="37" t="s">
         <v>997</v>
       </c>
-      <c r="F116" s="134" t="s">
+      <c r="F116" s="140" t="s">
         <v>1006</v>
       </c>
       <c r="G116" s="68">
@@ -43158,12 +43158,12 @@
         <v>113</v>
       </c>
       <c r="B117" s="48"/>
-      <c r="C117" s="139"/>
-      <c r="D117" s="139"/>
+      <c r="C117" s="141"/>
+      <c r="D117" s="141"/>
       <c r="E117" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="F117" s="139"/>
+      <c r="F117" s="141"/>
       <c r="G117" s="60">
         <v>44512</v>
       </c>
@@ -43181,12 +43181,12 @@
         <v>114</v>
       </c>
       <c r="B118" s="48"/>
-      <c r="C118" s="139"/>
-      <c r="D118" s="139"/>
+      <c r="C118" s="141"/>
+      <c r="D118" s="141"/>
       <c r="E118" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="F118" s="139"/>
+      <c r="F118" s="141"/>
       <c r="G118" s="68">
         <v>44512</v>
       </c>
@@ -43204,12 +43204,12 @@
         <v>115</v>
       </c>
       <c r="B119" s="48"/>
-      <c r="C119" s="139"/>
-      <c r="D119" s="139"/>
+      <c r="C119" s="141"/>
+      <c r="D119" s="141"/>
       <c r="E119" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="F119" s="139"/>
+      <c r="F119" s="141"/>
       <c r="G119" s="60">
         <v>44512</v>
       </c>
@@ -43227,12 +43227,12 @@
         <v>116</v>
       </c>
       <c r="B120" s="48"/>
-      <c r="C120" s="139"/>
-      <c r="D120" s="139"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="141"/>
       <c r="E120" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="F120" s="139"/>
+      <c r="F120" s="141"/>
       <c r="G120" s="68">
         <v>44512</v>
       </c>
@@ -43250,16 +43250,16 @@
         <v>117</v>
       </c>
       <c r="B121" s="48"/>
-      <c r="C121" s="134" t="s">
+      <c r="C121" s="140" t="s">
         <v>995</v>
       </c>
-      <c r="D121" s="134" t="s">
+      <c r="D121" s="140" t="s">
         <v>832</v>
       </c>
       <c r="E121" s="37" t="s">
         <v>1002</v>
       </c>
-      <c r="F121" s="134" t="s">
+      <c r="F121" s="140" t="s">
         <v>1017</v>
       </c>
       <c r="G121" s="60">
@@ -43268,7 +43268,7 @@
       <c r="H121" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I121" s="134" t="s">
+      <c r="I121" s="140" t="s">
         <v>1084</v>
       </c>
       <c r="J121" s="11" t="s">
@@ -43281,19 +43281,19 @@
         <v>118</v>
       </c>
       <c r="B122" s="48"/>
-      <c r="C122" s="139"/>
-      <c r="D122" s="139"/>
+      <c r="C122" s="141"/>
+      <c r="D122" s="141"/>
       <c r="E122" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="F122" s="139"/>
+      <c r="F122" s="141"/>
       <c r="G122" s="68">
         <v>44512</v>
       </c>
       <c r="H122" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I122" s="139"/>
+      <c r="I122" s="141"/>
       <c r="J122" s="11" t="s">
         <v>510</v>
       </c>
@@ -43304,19 +43304,19 @@
         <v>119</v>
       </c>
       <c r="B123" s="48"/>
-      <c r="C123" s="139"/>
-      <c r="D123" s="139"/>
+      <c r="C123" s="141"/>
+      <c r="D123" s="141"/>
       <c r="E123" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="F123" s="139"/>
+      <c r="F123" s="141"/>
       <c r="G123" s="60">
         <v>44512</v>
       </c>
       <c r="H123" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="139"/>
+      <c r="I123" s="141"/>
       <c r="J123" s="11" t="s">
         <v>510</v>
       </c>
@@ -43327,19 +43327,19 @@
         <v>120</v>
       </c>
       <c r="B124" s="48"/>
-      <c r="C124" s="139"/>
-      <c r="D124" s="139"/>
+      <c r="C124" s="141"/>
+      <c r="D124" s="141"/>
       <c r="E124" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="F124" s="139"/>
+      <c r="F124" s="141"/>
       <c r="G124" s="68">
         <v>44512</v>
       </c>
       <c r="H124" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I124" s="139"/>
+      <c r="I124" s="141"/>
       <c r="J124" s="11" t="s">
         <v>510</v>
       </c>
@@ -43350,19 +43350,19 @@
         <v>121</v>
       </c>
       <c r="B125" s="48"/>
-      <c r="C125" s="139"/>
-      <c r="D125" s="139"/>
+      <c r="C125" s="141"/>
+      <c r="D125" s="141"/>
       <c r="E125" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="F125" s="139"/>
+      <c r="F125" s="141"/>
       <c r="G125" s="60">
         <v>44512</v>
       </c>
       <c r="H125" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I125" s="139"/>
+      <c r="I125" s="141"/>
       <c r="J125" s="11" t="s">
         <v>510</v>
       </c>
@@ -43373,19 +43373,19 @@
         <v>122</v>
       </c>
       <c r="B126" s="48"/>
-      <c r="C126" s="139"/>
-      <c r="D126" s="139"/>
+      <c r="C126" s="141"/>
+      <c r="D126" s="141"/>
       <c r="E126" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="F126" s="139"/>
+      <c r="F126" s="141"/>
       <c r="G126" s="68">
         <v>44512</v>
       </c>
       <c r="H126" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I126" s="139"/>
+      <c r="I126" s="141"/>
       <c r="J126" s="11" t="s">
         <v>510</v>
       </c>
@@ -43396,19 +43396,19 @@
         <v>123</v>
       </c>
       <c r="B127" s="48"/>
-      <c r="C127" s="135"/>
-      <c r="D127" s="135"/>
+      <c r="C127" s="142"/>
+      <c r="D127" s="142"/>
       <c r="E127" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="F127" s="135"/>
+      <c r="F127" s="142"/>
       <c r="G127" s="60">
         <v>44512</v>
       </c>
       <c r="H127" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="I127" s="135"/>
+      <c r="I127" s="142"/>
       <c r="J127" s="11" t="s">
         <v>510</v>
       </c>
@@ -43483,7 +43483,7 @@
       <c r="C130" s="72" t="s">
         <v>1020</v>
       </c>
-      <c r="D130" s="153" t="s">
+      <c r="D130" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E130" s="37" t="s">
@@ -43513,7 +43513,7 @@
       <c r="C131" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="154"/>
+      <c r="D131" s="161"/>
       <c r="E131" s="37" t="s">
         <v>977</v>
       </c>
@@ -43541,7 +43541,7 @@
       <c r="C132" s="72" t="s">
         <v>1021</v>
       </c>
-      <c r="D132" s="155"/>
+      <c r="D132" s="162"/>
       <c r="E132" s="37" t="s">
         <v>159</v>
       </c>
@@ -43566,13 +43566,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="72"/>
-      <c r="C133" s="136" t="s">
+      <c r="C133" s="134" t="s">
         <v>372</v>
       </c>
-      <c r="D133" s="136" t="s">
+      <c r="D133" s="134" t="s">
         <v>956</v>
       </c>
-      <c r="E133" s="136" t="s">
+      <c r="E133" s="134" t="s">
         <v>373</v>
       </c>
       <c r="F133" s="37" t="s">
@@ -43596,9 +43596,9 @@
         <v>130</v>
       </c>
       <c r="B134" s="72"/>
-      <c r="C134" s="137"/>
-      <c r="D134" s="137"/>
-      <c r="E134" s="137"/>
+      <c r="C134" s="135"/>
+      <c r="D134" s="135"/>
+      <c r="E134" s="135"/>
       <c r="F134" s="37" t="s">
         <v>412</v>
       </c>
@@ -43620,9 +43620,9 @@
         <v>131</v>
       </c>
       <c r="B135" s="72"/>
-      <c r="C135" s="137"/>
-      <c r="D135" s="137"/>
-      <c r="E135" s="137"/>
+      <c r="C135" s="135"/>
+      <c r="D135" s="135"/>
+      <c r="E135" s="135"/>
       <c r="F135" s="37" t="s">
         <v>413</v>
       </c>
@@ -43644,9 +43644,9 @@
         <v>132</v>
       </c>
       <c r="B136" s="72"/>
-      <c r="C136" s="137"/>
-      <c r="D136" s="137"/>
-      <c r="E136" s="137"/>
+      <c r="C136" s="135"/>
+      <c r="D136" s="135"/>
+      <c r="E136" s="135"/>
       <c r="F136" s="37" t="s">
         <v>414</v>
       </c>
@@ -43668,9 +43668,9 @@
         <v>133</v>
       </c>
       <c r="B137" s="72"/>
-      <c r="C137" s="137"/>
-      <c r="D137" s="137"/>
-      <c r="E137" s="137"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="135"/>
       <c r="F137" s="37" t="s">
         <v>415</v>
       </c>
@@ -43692,9 +43692,9 @@
         <v>134</v>
       </c>
       <c r="B138" s="72"/>
-      <c r="C138" s="137"/>
-      <c r="D138" s="137"/>
-      <c r="E138" s="137"/>
+      <c r="C138" s="135"/>
+      <c r="D138" s="135"/>
+      <c r="E138" s="135"/>
       <c r="F138" s="37" t="s">
         <v>416</v>
       </c>
@@ -43716,9 +43716,9 @@
         <v>135</v>
       </c>
       <c r="B139" s="72"/>
-      <c r="C139" s="137"/>
-      <c r="D139" s="137"/>
-      <c r="E139" s="137"/>
+      <c r="C139" s="135"/>
+      <c r="D139" s="135"/>
+      <c r="E139" s="135"/>
       <c r="F139" s="37" t="s">
         <v>417</v>
       </c>
@@ -43740,9 +43740,9 @@
         <v>136</v>
       </c>
       <c r="B140" s="72"/>
-      <c r="C140" s="137"/>
-      <c r="D140" s="137"/>
-      <c r="E140" s="137"/>
+      <c r="C140" s="135"/>
+      <c r="D140" s="135"/>
+      <c r="E140" s="135"/>
       <c r="F140" s="37" t="s">
         <v>418</v>
       </c>
@@ -43764,9 +43764,9 @@
         <v>137</v>
       </c>
       <c r="B141" s="72"/>
-      <c r="C141" s="137"/>
-      <c r="D141" s="137"/>
-      <c r="E141" s="137"/>
+      <c r="C141" s="135"/>
+      <c r="D141" s="135"/>
+      <c r="E141" s="135"/>
       <c r="F141" s="37" t="s">
         <v>419</v>
       </c>
@@ -43788,9 +43788,9 @@
         <v>138</v>
       </c>
       <c r="B142" s="72"/>
-      <c r="C142" s="137"/>
-      <c r="D142" s="137"/>
-      <c r="E142" s="137"/>
+      <c r="C142" s="135"/>
+      <c r="D142" s="135"/>
+      <c r="E142" s="135"/>
       <c r="F142" s="37" t="s">
         <v>420</v>
       </c>
@@ -43812,9 +43812,9 @@
         <v>139</v>
       </c>
       <c r="B143" s="72"/>
-      <c r="C143" s="137"/>
-      <c r="D143" s="137"/>
-      <c r="E143" s="137"/>
+      <c r="C143" s="135"/>
+      <c r="D143" s="135"/>
+      <c r="E143" s="135"/>
       <c r="F143" s="37" t="s">
         <v>421</v>
       </c>
@@ -43836,9 +43836,9 @@
         <v>140</v>
       </c>
       <c r="B144" s="72"/>
-      <c r="C144" s="138"/>
-      <c r="D144" s="138"/>
-      <c r="E144" s="138"/>
+      <c r="C144" s="136"/>
+      <c r="D144" s="136"/>
+      <c r="E144" s="136"/>
       <c r="F144" s="37" t="s">
         <v>422</v>
       </c>
@@ -43892,7 +43892,7 @@
       <c r="C146" s="72" t="s">
         <v>1029</v>
       </c>
-      <c r="D146" s="153" t="s">
+      <c r="D146" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E146" s="37" t="s">
@@ -43922,7 +43922,7 @@
       <c r="C147" s="72" t="s">
         <v>1032</v>
       </c>
-      <c r="D147" s="154"/>
+      <c r="D147" s="161"/>
       <c r="E147" s="37" t="s">
         <v>977</v>
       </c>
@@ -43950,7 +43950,7 @@
       <c r="C148" s="72" t="s">
         <v>1033</v>
       </c>
-      <c r="D148" s="155"/>
+      <c r="D148" s="162"/>
       <c r="E148" s="37" t="s">
         <v>159</v>
       </c>
@@ -44068,7 +44068,7 @@
       <c r="C152" s="72" t="s">
         <v>1037</v>
       </c>
-      <c r="D152" s="153" t="s">
+      <c r="D152" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E152" s="37" t="s">
@@ -44098,7 +44098,7 @@
       <c r="C153" s="72" t="s">
         <v>1038</v>
       </c>
-      <c r="D153" s="154"/>
+      <c r="D153" s="161"/>
       <c r="E153" s="37" t="s">
         <v>977</v>
       </c>
@@ -44126,7 +44126,7 @@
       <c r="C154" s="72" t="s">
         <v>1039</v>
       </c>
-      <c r="D154" s="155"/>
+      <c r="D154" s="162"/>
       <c r="E154" s="37" t="s">
         <v>159</v>
       </c>
@@ -44184,7 +44184,7 @@
       <c r="C156" s="72" t="s">
         <v>1044</v>
       </c>
-      <c r="D156" s="153" t="s">
+      <c r="D156" s="163" t="s">
         <v>956</v>
       </c>
       <c r="E156" s="37" t="s">
@@ -44214,7 +44214,7 @@
       <c r="C157" s="72" t="s">
         <v>662</v>
       </c>
-      <c r="D157" s="155"/>
+      <c r="D157" s="162"/>
       <c r="E157" s="37" t="s">
         <v>628</v>
       </c>
@@ -44242,7 +44242,7 @@
       <c r="C158" s="72" t="s">
         <v>1043</v>
       </c>
-      <c r="D158" s="153" t="s">
+      <c r="D158" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E158" s="37" t="s">
@@ -44272,7 +44272,7 @@
       <c r="C159" s="72" t="s">
         <v>401</v>
       </c>
-      <c r="D159" s="154"/>
+      <c r="D159" s="161"/>
       <c r="E159" s="37" t="s">
         <v>977</v>
       </c>
@@ -44300,7 +44300,7 @@
       <c r="C160" s="72" t="s">
         <v>387</v>
       </c>
-      <c r="D160" s="155"/>
+      <c r="D160" s="162"/>
       <c r="E160" s="37" t="s">
         <v>159</v>
       </c>
@@ -44325,13 +44325,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="72"/>
-      <c r="C161" s="136" t="s">
+      <c r="C161" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="D161" s="136" t="s">
+      <c r="D161" s="134" t="s">
         <v>832</v>
       </c>
-      <c r="E161" s="136" t="s">
+      <c r="E161" s="134" t="s">
         <v>424</v>
       </c>
       <c r="F161" s="31" t="s">
@@ -44355,9 +44355,9 @@
         <v>158</v>
       </c>
       <c r="B162" s="72"/>
-      <c r="C162" s="137"/>
-      <c r="D162" s="137"/>
-      <c r="E162" s="137"/>
+      <c r="C162" s="135"/>
+      <c r="D162" s="135"/>
+      <c r="E162" s="135"/>
       <c r="F162" s="31" t="s">
         <v>310</v>
       </c>
@@ -44379,9 +44379,9 @@
         <v>159</v>
       </c>
       <c r="B163" s="72"/>
-      <c r="C163" s="137"/>
-      <c r="D163" s="137"/>
-      <c r="E163" s="137"/>
+      <c r="C163" s="135"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="135"/>
       <c r="F163" s="31" t="s">
         <v>309</v>
       </c>
@@ -44403,9 +44403,9 @@
         <v>160</v>
       </c>
       <c r="B164" s="72"/>
-      <c r="C164" s="137"/>
-      <c r="D164" s="137"/>
-      <c r="E164" s="137"/>
+      <c r="C164" s="135"/>
+      <c r="D164" s="135"/>
+      <c r="E164" s="135"/>
       <c r="F164" s="31" t="s">
         <v>308</v>
       </c>
@@ -44427,9 +44427,9 @@
         <v>161</v>
       </c>
       <c r="B165" s="72"/>
-      <c r="C165" s="137"/>
-      <c r="D165" s="137"/>
-      <c r="E165" s="137"/>
+      <c r="C165" s="135"/>
+      <c r="D165" s="135"/>
+      <c r="E165" s="135"/>
       <c r="F165" s="31" t="s">
         <v>311</v>
       </c>
@@ -44451,9 +44451,9 @@
         <v>162</v>
       </c>
       <c r="B166" s="72"/>
-      <c r="C166" s="137"/>
-      <c r="D166" s="137"/>
-      <c r="E166" s="137"/>
+      <c r="C166" s="135"/>
+      <c r="D166" s="135"/>
+      <c r="E166" s="135"/>
       <c r="F166" s="31" t="s">
         <v>312</v>
       </c>
@@ -44475,9 +44475,9 @@
         <v>163</v>
       </c>
       <c r="B167" s="72"/>
-      <c r="C167" s="137"/>
-      <c r="D167" s="137"/>
-      <c r="E167" s="137"/>
+      <c r="C167" s="135"/>
+      <c r="D167" s="135"/>
+      <c r="E167" s="135"/>
       <c r="F167" s="31" t="s">
         <v>319</v>
       </c>
@@ -44499,9 +44499,9 @@
         <v>164</v>
       </c>
       <c r="B168" s="72"/>
-      <c r="C168" s="137"/>
-      <c r="D168" s="137"/>
-      <c r="E168" s="137"/>
+      <c r="C168" s="135"/>
+      <c r="D168" s="135"/>
+      <c r="E168" s="135"/>
       <c r="F168" s="31" t="s">
         <v>314</v>
       </c>
@@ -44523,9 +44523,9 @@
         <v>165</v>
       </c>
       <c r="B169" s="72"/>
-      <c r="C169" s="137"/>
-      <c r="D169" s="137"/>
-      <c r="E169" s="137"/>
+      <c r="C169" s="135"/>
+      <c r="D169" s="135"/>
+      <c r="E169" s="135"/>
       <c r="F169" s="31" t="s">
         <v>315</v>
       </c>
@@ -44547,9 +44547,9 @@
         <v>166</v>
       </c>
       <c r="B170" s="72"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="137"/>
-      <c r="E170" s="137"/>
+      <c r="C170" s="135"/>
+      <c r="D170" s="135"/>
+      <c r="E170" s="135"/>
       <c r="F170" s="31" t="s">
         <v>316</v>
       </c>
@@ -44571,9 +44571,9 @@
         <v>167</v>
       </c>
       <c r="B171" s="72"/>
-      <c r="C171" s="137"/>
-      <c r="D171" s="137"/>
-      <c r="E171" s="137"/>
+      <c r="C171" s="135"/>
+      <c r="D171" s="135"/>
+      <c r="E171" s="135"/>
       <c r="F171" s="31" t="s">
         <v>317</v>
       </c>
@@ -44595,9 +44595,9 @@
         <v>168</v>
       </c>
       <c r="B172" s="72"/>
-      <c r="C172" s="138"/>
-      <c r="D172" s="138"/>
-      <c r="E172" s="138"/>
+      <c r="C172" s="136"/>
+      <c r="D172" s="136"/>
+      <c r="E172" s="136"/>
       <c r="F172" s="31" t="s">
         <v>318</v>
       </c>
@@ -44649,16 +44649,16 @@
         <v>170</v>
       </c>
       <c r="B174" s="72"/>
-      <c r="C174" s="136" t="s">
+      <c r="C174" s="134" t="s">
         <v>426</v>
       </c>
-      <c r="D174" s="154" t="s">
+      <c r="D174" s="161" t="s">
         <v>832</v>
       </c>
       <c r="E174" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="F174" s="136" t="s">
+      <c r="F174" s="134" t="s">
         <v>1050</v>
       </c>
       <c r="G174" s="68">
@@ -44679,12 +44679,12 @@
         <v>171</v>
       </c>
       <c r="B175" s="72"/>
-      <c r="C175" s="137"/>
-      <c r="D175" s="154"/>
+      <c r="C175" s="135"/>
+      <c r="D175" s="161"/>
       <c r="E175" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="F175" s="137"/>
+      <c r="F175" s="135"/>
       <c r="G175" s="60">
         <v>44512</v>
       </c>
@@ -44703,12 +44703,12 @@
         <v>172</v>
       </c>
       <c r="B176" s="72"/>
-      <c r="C176" s="137"/>
-      <c r="D176" s="154"/>
+      <c r="C176" s="135"/>
+      <c r="D176" s="161"/>
       <c r="E176" s="31" t="s">
         <v>1053</v>
       </c>
-      <c r="F176" s="137"/>
+      <c r="F176" s="135"/>
       <c r="G176" s="68">
         <v>44512</v>
       </c>
@@ -44727,12 +44727,12 @@
         <v>173</v>
       </c>
       <c r="B177" s="72"/>
-      <c r="C177" s="137"/>
-      <c r="D177" s="154"/>
+      <c r="C177" s="135"/>
+      <c r="D177" s="161"/>
       <c r="E177" s="31" t="s">
         <v>1054</v>
       </c>
-      <c r="F177" s="137"/>
+      <c r="F177" s="135"/>
       <c r="G177" s="60">
         <v>44512</v>
       </c>
@@ -44751,12 +44751,12 @@
         <v>174</v>
       </c>
       <c r="B178" s="72"/>
-      <c r="C178" s="137"/>
-      <c r="D178" s="154"/>
+      <c r="C178" s="135"/>
+      <c r="D178" s="161"/>
       <c r="E178" s="31" t="s">
         <v>1055</v>
       </c>
-      <c r="F178" s="137"/>
+      <c r="F178" s="135"/>
       <c r="G178" s="68">
         <v>44512</v>
       </c>
@@ -44775,12 +44775,12 @@
         <v>175</v>
       </c>
       <c r="B179" s="72"/>
-      <c r="C179" s="137"/>
-      <c r="D179" s="154"/>
+      <c r="C179" s="135"/>
+      <c r="D179" s="161"/>
       <c r="E179" s="31" t="s">
         <v>1056</v>
       </c>
-      <c r="F179" s="137"/>
+      <c r="F179" s="135"/>
       <c r="G179" s="60">
         <v>44512</v>
       </c>
@@ -44799,12 +44799,12 @@
         <v>176</v>
       </c>
       <c r="B180" s="72"/>
-      <c r="C180" s="137"/>
-      <c r="D180" s="154"/>
+      <c r="C180" s="135"/>
+      <c r="D180" s="161"/>
       <c r="E180" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="F180" s="137"/>
+      <c r="F180" s="135"/>
       <c r="G180" s="68">
         <v>44512</v>
       </c>
@@ -44823,12 +44823,12 @@
         <v>177</v>
       </c>
       <c r="B181" s="72"/>
-      <c r="C181" s="137"/>
-      <c r="D181" s="154"/>
+      <c r="C181" s="135"/>
+      <c r="D181" s="161"/>
       <c r="E181" s="31" t="s">
         <v>1058</v>
       </c>
-      <c r="F181" s="137"/>
+      <c r="F181" s="135"/>
       <c r="G181" s="60">
         <v>44512</v>
       </c>
@@ -44847,12 +44847,12 @@
         <v>178</v>
       </c>
       <c r="B182" s="72"/>
-      <c r="C182" s="137"/>
-      <c r="D182" s="154"/>
+      <c r="C182" s="135"/>
+      <c r="D182" s="161"/>
       <c r="E182" s="31" t="s">
         <v>1059</v>
       </c>
-      <c r="F182" s="137"/>
+      <c r="F182" s="135"/>
       <c r="G182" s="68">
         <v>44512</v>
       </c>
@@ -44871,12 +44871,12 @@
         <v>179</v>
       </c>
       <c r="B183" s="72"/>
-      <c r="C183" s="137"/>
-      <c r="D183" s="154"/>
+      <c r="C183" s="135"/>
+      <c r="D183" s="161"/>
       <c r="E183" s="31" t="s">
         <v>1060</v>
       </c>
-      <c r="F183" s="137"/>
+      <c r="F183" s="135"/>
       <c r="G183" s="60">
         <v>44512</v>
       </c>
@@ -44895,12 +44895,12 @@
         <v>180</v>
       </c>
       <c r="B184" s="72"/>
-      <c r="C184" s="137"/>
-      <c r="D184" s="154"/>
+      <c r="C184" s="135"/>
+      <c r="D184" s="161"/>
       <c r="E184" s="31" t="s">
         <v>1061</v>
       </c>
-      <c r="F184" s="137"/>
+      <c r="F184" s="135"/>
       <c r="G184" s="68">
         <v>44512</v>
       </c>
@@ -44919,12 +44919,12 @@
         <v>181</v>
       </c>
       <c r="B185" s="72"/>
-      <c r="C185" s="138"/>
-      <c r="D185" s="155"/>
+      <c r="C185" s="136"/>
+      <c r="D185" s="162"/>
       <c r="E185" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F185" s="138"/>
+      <c r="F185" s="136"/>
       <c r="G185" s="60">
         <v>44512</v>
       </c>
@@ -44943,10 +44943,10 @@
         <v>182</v>
       </c>
       <c r="B186" s="72"/>
-      <c r="C186" s="136" t="s">
+      <c r="C186" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="D186" s="153" t="s">
+      <c r="D186" s="163" t="s">
         <v>832</v>
       </c>
       <c r="E186" s="31" t="s">
@@ -44973,8 +44973,8 @@
         <v>183</v>
       </c>
       <c r="B187" s="72"/>
-      <c r="C187" s="137"/>
-      <c r="D187" s="154"/>
+      <c r="C187" s="135"/>
+      <c r="D187" s="161"/>
       <c r="E187" s="31" t="s">
         <v>1086</v>
       </c>
@@ -44999,8 +44999,8 @@
         <v>184</v>
       </c>
       <c r="B188" s="72"/>
-      <c r="C188" s="137"/>
-      <c r="D188" s="154"/>
+      <c r="C188" s="135"/>
+      <c r="D188" s="161"/>
       <c r="E188" s="31" t="s">
         <v>1087</v>
       </c>
@@ -45025,8 +45025,8 @@
         <v>185</v>
       </c>
       <c r="B189" s="72"/>
-      <c r="C189" s="137"/>
-      <c r="D189" s="154"/>
+      <c r="C189" s="135"/>
+      <c r="D189" s="161"/>
       <c r="E189" s="31" t="s">
         <v>1094</v>
       </c>
@@ -45051,8 +45051,8 @@
         <v>186</v>
       </c>
       <c r="B190" s="72"/>
-      <c r="C190" s="137"/>
-      <c r="D190" s="154"/>
+      <c r="C190" s="135"/>
+      <c r="D190" s="161"/>
       <c r="E190" s="31" t="s">
         <v>1095</v>
       </c>
@@ -45077,8 +45077,8 @@
         <v>187</v>
       </c>
       <c r="B191" s="72"/>
-      <c r="C191" s="137"/>
-      <c r="D191" s="154"/>
+      <c r="C191" s="135"/>
+      <c r="D191" s="161"/>
       <c r="E191" s="31" t="s">
         <v>1096</v>
       </c>
@@ -45103,8 +45103,8 @@
         <v>188</v>
       </c>
       <c r="B192" s="72"/>
-      <c r="C192" s="137"/>
-      <c r="D192" s="154"/>
+      <c r="C192" s="135"/>
+      <c r="D192" s="161"/>
       <c r="E192" s="31" t="s">
         <v>1097</v>
       </c>
@@ -45129,8 +45129,8 @@
         <v>189</v>
       </c>
       <c r="B193" s="72"/>
-      <c r="C193" s="137"/>
-      <c r="D193" s="154"/>
+      <c r="C193" s="135"/>
+      <c r="D193" s="161"/>
       <c r="E193" s="31" t="s">
         <v>1098</v>
       </c>
@@ -45155,8 +45155,8 @@
         <v>190</v>
       </c>
       <c r="B194" s="72"/>
-      <c r="C194" s="137"/>
-      <c r="D194" s="154"/>
+      <c r="C194" s="135"/>
+      <c r="D194" s="161"/>
       <c r="E194" s="31" t="s">
         <v>1062</v>
       </c>
@@ -45183,8 +45183,8 @@
         <v>191</v>
       </c>
       <c r="B195" s="72"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="155"/>
+      <c r="C195" s="136"/>
+      <c r="D195" s="162"/>
       <c r="E195" s="31" t="s">
         <v>1063</v>
       </c>
@@ -45243,7 +45243,7 @@
       <c r="C197" s="72" t="s">
         <v>1066</v>
       </c>
-      <c r="D197" s="153" t="s">
+      <c r="D197" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E197" s="37" t="s">
@@ -45273,7 +45273,7 @@
       <c r="C198" s="72" t="s">
         <v>1067</v>
       </c>
-      <c r="D198" s="154"/>
+      <c r="D198" s="161"/>
       <c r="E198" s="37" t="s">
         <v>977</v>
       </c>
@@ -45301,7 +45301,7 @@
       <c r="C199" s="72" t="s">
         <v>1068</v>
       </c>
-      <c r="D199" s="155"/>
+      <c r="D199" s="162"/>
       <c r="E199" s="37" t="s">
         <v>159</v>
       </c>
@@ -45326,13 +45326,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="72"/>
-      <c r="C200" s="136" t="s">
+      <c r="C200" s="134" t="s">
         <v>429</v>
       </c>
       <c r="D200" s="164" t="s">
         <v>956</v>
       </c>
-      <c r="E200" s="136" t="s">
+      <c r="E200" s="134" t="s">
         <v>428</v>
       </c>
       <c r="F200" s="32" t="s">
@@ -45356,9 +45356,9 @@
         <v>197</v>
       </c>
       <c r="B201" s="72"/>
-      <c r="C201" s="137"/>
+      <c r="C201" s="135"/>
       <c r="D201" s="164"/>
-      <c r="E201" s="137"/>
+      <c r="E201" s="135"/>
       <c r="F201" s="32" t="s">
         <v>109</v>
       </c>
@@ -45380,9 +45380,9 @@
         <v>198</v>
       </c>
       <c r="B202" s="72"/>
-      <c r="C202" s="137"/>
+      <c r="C202" s="135"/>
       <c r="D202" s="164"/>
-      <c r="E202" s="137"/>
+      <c r="E202" s="135"/>
       <c r="F202" s="32" t="s">
         <v>112</v>
       </c>
@@ -45404,9 +45404,9 @@
         <v>199</v>
       </c>
       <c r="B203" s="72"/>
-      <c r="C203" s="137"/>
+      <c r="C203" s="135"/>
       <c r="D203" s="164"/>
-      <c r="E203" s="137"/>
+      <c r="E203" s="135"/>
       <c r="F203" s="32" t="s">
         <v>113</v>
       </c>
@@ -45428,9 +45428,9 @@
         <v>200</v>
       </c>
       <c r="B204" s="72"/>
-      <c r="C204" s="137"/>
+      <c r="C204" s="135"/>
       <c r="D204" s="164"/>
-      <c r="E204" s="137"/>
+      <c r="E204" s="135"/>
       <c r="F204" s="32" t="s">
         <v>114</v>
       </c>
@@ -45452,9 +45452,9 @@
         <v>201</v>
       </c>
       <c r="B205" s="72"/>
-      <c r="C205" s="137"/>
+      <c r="C205" s="135"/>
       <c r="D205" s="164"/>
-      <c r="E205" s="137"/>
+      <c r="E205" s="135"/>
       <c r="F205" s="32" t="s">
         <v>111</v>
       </c>
@@ -45476,9 +45476,9 @@
         <v>202</v>
       </c>
       <c r="B206" s="72"/>
-      <c r="C206" s="137"/>
+      <c r="C206" s="135"/>
       <c r="D206" s="164"/>
-      <c r="E206" s="137"/>
+      <c r="E206" s="135"/>
       <c r="F206" s="32" t="s">
         <v>115</v>
       </c>
@@ -45500,9 +45500,9 @@
         <v>203</v>
       </c>
       <c r="B207" s="72"/>
-      <c r="C207" s="137"/>
+      <c r="C207" s="135"/>
       <c r="D207" s="164"/>
-      <c r="E207" s="137"/>
+      <c r="E207" s="135"/>
       <c r="F207" s="32" t="s">
         <v>430</v>
       </c>
@@ -45524,9 +45524,9 @@
         <v>204</v>
       </c>
       <c r="B208" s="72"/>
-      <c r="C208" s="137"/>
+      <c r="C208" s="135"/>
       <c r="D208" s="164"/>
-      <c r="E208" s="137"/>
+      <c r="E208" s="135"/>
       <c r="F208" s="32" t="s">
         <v>431</v>
       </c>
@@ -45548,9 +45548,9 @@
         <v>205</v>
       </c>
       <c r="B209" s="72"/>
-      <c r="C209" s="137"/>
+      <c r="C209" s="135"/>
       <c r="D209" s="164"/>
-      <c r="E209" s="137"/>
+      <c r="E209" s="135"/>
       <c r="F209" s="32" t="s">
         <v>432</v>
       </c>
@@ -45572,9 +45572,9 @@
         <v>206</v>
       </c>
       <c r="B210" s="72"/>
-      <c r="C210" s="137"/>
+      <c r="C210" s="135"/>
       <c r="D210" s="164"/>
-      <c r="E210" s="137"/>
+      <c r="E210" s="135"/>
       <c r="F210" s="32" t="s">
         <v>433</v>
       </c>
@@ -45596,9 +45596,9 @@
         <v>207</v>
       </c>
       <c r="B211" s="72"/>
-      <c r="C211" s="138"/>
+      <c r="C211" s="136"/>
       <c r="D211" s="164"/>
-      <c r="E211" s="138"/>
+      <c r="E211" s="136"/>
       <c r="F211" s="32" t="s">
         <v>116</v>
       </c>
@@ -45799,7 +45799,7 @@
       <c r="C218" s="72" t="s">
         <v>1075</v>
       </c>
-      <c r="D218" s="153" t="s">
+      <c r="D218" s="163" t="s">
         <v>980</v>
       </c>
       <c r="E218" s="37" t="s">
@@ -45829,7 +45829,7 @@
       <c r="C219" s="72" t="s">
         <v>1076</v>
       </c>
-      <c r="D219" s="154"/>
+      <c r="D219" s="161"/>
       <c r="E219" s="37" t="s">
         <v>977</v>
       </c>
@@ -45857,7 +45857,7 @@
       <c r="C220" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="D220" s="155"/>
+      <c r="D220" s="162"/>
       <c r="E220" s="37" t="s">
         <v>159</v>
       </c>
@@ -45885,10 +45885,10 @@
       <c r="C221" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="D221" s="134" t="s">
+      <c r="D221" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="E221" s="136" t="s">
+      <c r="E221" s="134" t="s">
         <v>875</v>
       </c>
       <c r="F221" s="91" t="s">
@@ -45914,8 +45914,8 @@
       <c r="C222" s="31" t="s">
         <v>873</v>
       </c>
-      <c r="D222" s="139"/>
-      <c r="E222" s="137"/>
+      <c r="D222" s="141"/>
+      <c r="E222" s="135"/>
       <c r="F222" s="31" t="s">
         <v>915</v>
       </c>
@@ -45939,8 +45939,8 @@
       <c r="C223" s="31" t="s">
         <v>874</v>
       </c>
-      <c r="D223" s="135"/>
-      <c r="E223" s="138"/>
+      <c r="D223" s="142"/>
+      <c r="E223" s="136"/>
       <c r="F223" s="42" t="s">
         <v>916</v>
       </c>
@@ -45964,13 +45964,13 @@
       <c r="C224" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="D224" s="134" t="s">
+      <c r="D224" s="140" t="s">
         <v>885</v>
       </c>
       <c r="E224" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="F224" s="150" t="s">
+      <c r="F224" s="137" t="s">
         <v>918</v>
       </c>
       <c r="G224" s="68">
@@ -45995,11 +45995,11 @@
       <c r="C225" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="D225" s="139"/>
+      <c r="D225" s="141"/>
       <c r="E225" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="F225" s="151"/>
+      <c r="F225" s="138"/>
       <c r="G225" s="60">
         <v>44512</v>
       </c>
@@ -46022,11 +46022,11 @@
       <c r="C226" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="D226" s="135"/>
+      <c r="D226" s="142"/>
       <c r="E226" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="F226" s="152"/>
+      <c r="F226" s="139"/>
       <c r="G226" s="68">
         <v>44512</v>
       </c>
@@ -46230,10 +46230,10 @@
         <v>229</v>
       </c>
       <c r="B233" s="48"/>
-      <c r="C233" s="134" t="s">
+      <c r="C233" s="140" t="s">
         <v>1104</v>
       </c>
-      <c r="D233" s="134" t="s">
+      <c r="D233" s="140" t="s">
         <v>1105</v>
       </c>
       <c r="E233" s="37" t="s">
@@ -46255,10 +46255,12 @@
       <c r="K233" s="11"/>
     </row>
     <row r="234" spans="1:11" ht="75">
-      <c r="A234" s="52"/>
+      <c r="A234" s="52">
+        <v>230</v>
+      </c>
       <c r="B234" s="48"/>
-      <c r="C234" s="135"/>
-      <c r="D234" s="135"/>
+      <c r="C234" s="142"/>
+      <c r="D234" s="142"/>
       <c r="E234" s="37" t="s">
         <v>1114</v>
       </c>
@@ -46280,8 +46282,8 @@
       <c r="K234" s="11"/>
     </row>
     <row r="235" spans="1:11" ht="60">
-      <c r="A235" s="52">
-        <v>230</v>
+      <c r="A235" s="12">
+        <v>231</v>
       </c>
       <c r="B235" s="48"/>
       <c r="C235" s="25" t="s">
@@ -47038,26 +47040,34 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C174:C185"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="D233:D234"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="F19:F29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="D5:D39"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="D40:D48"/>
-    <mergeCell ref="D49:D60"/>
-    <mergeCell ref="D74:D85"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D133:D144"/>
-    <mergeCell ref="F5:F16"/>
+    <mergeCell ref="I121:I127"/>
+    <mergeCell ref="D218:D220"/>
+    <mergeCell ref="C161:C172"/>
+    <mergeCell ref="D174:D185"/>
+    <mergeCell ref="D186:D195"/>
+    <mergeCell ref="D200:D211"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="F174:F185"/>
+    <mergeCell ref="C186:C195"/>
+    <mergeCell ref="C200:C211"/>
+    <mergeCell ref="E200:E211"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="F121:F127"/>
+    <mergeCell ref="D161:D172"/>
+    <mergeCell ref="E161:E172"/>
+    <mergeCell ref="E133:E144"/>
+    <mergeCell ref="C133:C144"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C86:C97"/>
+    <mergeCell ref="D86:D97"/>
+    <mergeCell ref="E86:E97"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="D116:D120"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="F116:F120"/>
     <mergeCell ref="F40:F46"/>
@@ -47074,35 +47084,27 @@
     <mergeCell ref="F109:F115"/>
     <mergeCell ref="E74:E85"/>
     <mergeCell ref="C74:C85"/>
-    <mergeCell ref="C86:C97"/>
-    <mergeCell ref="D86:D97"/>
-    <mergeCell ref="E86:E97"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="D116:D120"/>
+    <mergeCell ref="F19:F29"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D5:D39"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="D49:D60"/>
+    <mergeCell ref="D74:D85"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D133:D144"/>
+    <mergeCell ref="F5:F16"/>
     <mergeCell ref="D121:D127"/>
-    <mergeCell ref="C121:C127"/>
-    <mergeCell ref="F121:F127"/>
-    <mergeCell ref="D161:D172"/>
-    <mergeCell ref="E161:E172"/>
-    <mergeCell ref="E133:E144"/>
-    <mergeCell ref="C133:C144"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="I121:I127"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="C161:C172"/>
-    <mergeCell ref="D174:D185"/>
-    <mergeCell ref="D186:D195"/>
-    <mergeCell ref="D200:D211"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="F174:F185"/>
-    <mergeCell ref="C186:C195"/>
-    <mergeCell ref="C200:C211"/>
-    <mergeCell ref="E200:E211"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="C174:C185"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="D233:D234"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47121,13 +47123,13 @@
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="4" spans="2:6" ht="135">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="140" t="s">
         <v>833</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="137" t="s">
         <v>812</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="140" t="s">
         <v>813</v>
       </c>
       <c r="E4" s="37" t="s">
@@ -47138,67 +47140,67 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="210">
-      <c r="B5" s="139"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="139"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="37" t="s">
         <v>815</v>
       </c>
       <c r="F5" s="31"/>
     </row>
     <row r="6" spans="2:6" ht="210">
-      <c r="B6" s="139"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="139"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="37" t="s">
         <v>817</v>
       </c>
       <c r="F6" s="31"/>
     </row>
     <row r="7" spans="2:6" ht="210">
-      <c r="B7" s="139"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="139"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="37" t="s">
         <v>816</v>
       </c>
       <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" ht="210">
-      <c r="B8" s="139"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="139"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="37" t="s">
         <v>818</v>
       </c>
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6" ht="195">
-      <c r="B9" s="139"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="139"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="37" t="s">
         <v>819</v>
       </c>
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="2:6" ht="195">
-      <c r="B10" s="135"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="135"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="37" t="s">
         <v>820</v>
       </c>
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="2:6" ht="135">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="140" t="s">
         <v>833</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="140" t="s">
         <v>826</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="140" t="s">
         <v>813</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -47207,54 +47209,54 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:6" ht="225">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="37" t="s">
         <v>823</v>
       </c>
       <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" ht="225">
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="37" t="s">
         <v>824</v>
       </c>
       <c r="F13" s="31"/>
     </row>
     <row r="14" spans="2:6" ht="225">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="37" t="s">
         <v>825</v>
       </c>
       <c r="F14" s="31"/>
     </row>
     <row r="15" spans="2:6" ht="225">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="37" t="s">
         <v>822</v>
       </c>
       <c r="F15" s="31"/>
     </row>
     <row r="16" spans="2:6" ht="240">
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="37" t="s">
         <v>827</v>
       </c>
       <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" ht="210">
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="37" t="s">
         <v>828</v>
       </c>
